--- a/gantt-chart_L version 2.xlsx
+++ b/gantt-chart_L version 2.xlsx
@@ -5,10 +5,10 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\HTCS5607\HTCS 5607 IS Application Project\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\HTCS5607\HTCS5607\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8BA74191-CD64-41DA-A262-7F2B7677CA1B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FD96CD1-4333-4E5B-BD5E-54AB44CDB2BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4074,7 +4074,7 @@
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="7" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F68" sqref="F68"/>
+      <selection pane="bottomLeft" activeCell="L20" sqref="L20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -5039,7 +5039,7 @@
         <v>2</v>
       </c>
       <c r="H10" s="62">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="I10" s="63">
         <f t="shared" si="4"/>
@@ -5126,7 +5126,7 @@
         <v>5</v>
       </c>
       <c r="H11" s="62">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I11" s="63">
         <f t="shared" si="4"/>
@@ -5211,7 +5211,9 @@
       <c r="G12" s="61">
         <v>1</v>
       </c>
-      <c r="H12" s="62"/>
+      <c r="H12" s="62">
+        <v>1</v>
+      </c>
       <c r="I12" s="63">
         <f t="shared" si="4"/>
         <v>1</v>
@@ -5295,7 +5297,9 @@
       <c r="G13" s="61">
         <v>1</v>
       </c>
-      <c r="H13" s="62"/>
+      <c r="H13" s="62">
+        <v>1</v>
+      </c>
       <c r="I13" s="63">
         <f t="shared" si="4"/>
         <v>1</v>
@@ -5379,7 +5383,9 @@
       <c r="G14" s="61">
         <v>1</v>
       </c>
-      <c r="H14" s="62"/>
+      <c r="H14" s="62">
+        <v>1</v>
+      </c>
       <c r="I14" s="63">
         <f t="shared" si="4"/>
         <v>1</v>
@@ -5463,7 +5469,9 @@
       <c r="G15" s="61">
         <v>1</v>
       </c>
-      <c r="H15" s="62"/>
+      <c r="H15" s="62">
+        <v>1</v>
+      </c>
       <c r="I15" s="63">
         <f t="shared" si="4"/>
         <v>1</v>
@@ -5547,7 +5555,9 @@
       <c r="G16" s="61">
         <v>1</v>
       </c>
-      <c r="H16" s="62"/>
+      <c r="H16" s="62">
+        <v>1</v>
+      </c>
       <c r="I16" s="63">
         <f t="shared" si="4"/>
         <v>1</v>
@@ -5631,7 +5641,9 @@
       <c r="G17" s="61">
         <v>1</v>
       </c>
-      <c r="H17" s="62"/>
+      <c r="H17" s="62">
+        <v>1</v>
+      </c>
       <c r="I17" s="63">
         <f t="shared" si="4"/>
         <v>1</v>
@@ -5715,7 +5727,9 @@
       <c r="G18" s="61">
         <v>1</v>
       </c>
-      <c r="H18" s="62"/>
+      <c r="H18" s="62">
+        <v>1</v>
+      </c>
       <c r="I18" s="63">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -5799,7 +5813,9 @@
       <c r="G19" s="61">
         <v>1</v>
       </c>
-      <c r="H19" s="62"/>
+      <c r="H19" s="62">
+        <v>1</v>
+      </c>
       <c r="I19" s="63">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -5885,7 +5901,7 @@
         <v>2</v>
       </c>
       <c r="H20" s="62">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="I20" s="63">
         <f t="shared" si="4"/>
@@ -5970,7 +5986,9 @@
       <c r="G21" s="61">
         <v>1</v>
       </c>
-      <c r="H21" s="62"/>
+      <c r="H21" s="62">
+        <v>1</v>
+      </c>
       <c r="I21" s="63">
         <f t="shared" si="4"/>
         <v>1</v>
@@ -6056,7 +6074,7 @@
         <v>1</v>
       </c>
       <c r="H22" s="62">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I22" s="63">
         <f t="shared" si="4"/>

--- a/gantt-chart_L version 2.xlsx
+++ b/gantt-chart_L version 2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\HTCS5607\HTCS5607\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FD96CD1-4333-4E5B-BD5E-54AB44CDB2BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D22522D7-0422-4A40-8C77-F7456DC76B5B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3198,6 +3198,13 @@
     <xf numFmtId="0" fontId="42" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="60" fillId="0" borderId="0" xfId="34" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="45" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="52" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3207,6 +3214,10 @@
     <xf numFmtId="0" fontId="52" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="45" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="166" fontId="45" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3215,17 +3226,6 @@
     </xf>
     <xf numFmtId="166" fontId="45" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="60" fillId="0" borderId="0" xfId="34" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="45" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="14" fontId="45" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="62" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -4073,8 +4073,8 @@
   <dimension ref="A1:BN101"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="7" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L20" sqref="L20"/>
+      <pane ySplit="7" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H23" sqref="H23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -4102,29 +4102,29 @@
       <c r="E1" s="152"/>
       <c r="F1" s="152"/>
       <c r="I1" s="121"/>
-      <c r="K1" s="183" t="s">
+      <c r="K1" s="177" t="s">
         <v>77</v>
       </c>
-      <c r="L1" s="183"/>
-      <c r="M1" s="183"/>
-      <c r="N1" s="183"/>
-      <c r="O1" s="183"/>
-      <c r="P1" s="183"/>
-      <c r="Q1" s="183"/>
-      <c r="R1" s="183"/>
-      <c r="S1" s="183"/>
-      <c r="T1" s="183"/>
-      <c r="U1" s="183"/>
-      <c r="V1" s="183"/>
-      <c r="W1" s="183"/>
-      <c r="X1" s="183"/>
-      <c r="Y1" s="183"/>
-      <c r="Z1" s="183"/>
-      <c r="AA1" s="183"/>
-      <c r="AB1" s="183"/>
-      <c r="AC1" s="183"/>
-      <c r="AD1" s="183"/>
-      <c r="AE1" s="183"/>
+      <c r="L1" s="177"/>
+      <c r="M1" s="177"/>
+      <c r="N1" s="177"/>
+      <c r="O1" s="177"/>
+      <c r="P1" s="177"/>
+      <c r="Q1" s="177"/>
+      <c r="R1" s="177"/>
+      <c r="S1" s="177"/>
+      <c r="T1" s="177"/>
+      <c r="U1" s="177"/>
+      <c r="V1" s="177"/>
+      <c r="W1" s="177"/>
+      <c r="X1" s="177"/>
+      <c r="Y1" s="177"/>
+      <c r="Z1" s="177"/>
+      <c r="AA1" s="177"/>
+      <c r="AB1" s="177"/>
+      <c r="AC1" s="177"/>
+      <c r="AD1" s="177"/>
+      <c r="AE1" s="177"/>
     </row>
     <row r="2" spans="1:66" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="51" t="s">
@@ -4169,11 +4169,11 @@
       <c r="B4" s="105" t="s">
         <v>74</v>
       </c>
-      <c r="C4" s="185">
+      <c r="C4" s="182">
         <v>44459</v>
       </c>
-      <c r="D4" s="185"/>
-      <c r="E4" s="185"/>
+      <c r="D4" s="182"/>
+      <c r="E4" s="182"/>
       <c r="F4" s="155"/>
       <c r="G4" s="105" t="s">
         <v>73</v>
@@ -4183,182 +4183,182 @@
       </c>
       <c r="I4" s="103"/>
       <c r="J4" s="49"/>
-      <c r="K4" s="177" t="str">
+      <c r="K4" s="179" t="str">
         <f>"Week "&amp;(K6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 1</v>
       </c>
-      <c r="L4" s="178"/>
-      <c r="M4" s="178"/>
-      <c r="N4" s="178"/>
-      <c r="O4" s="178"/>
-      <c r="P4" s="178"/>
-      <c r="Q4" s="179"/>
-      <c r="R4" s="177" t="str">
+      <c r="L4" s="180"/>
+      <c r="M4" s="180"/>
+      <c r="N4" s="180"/>
+      <c r="O4" s="180"/>
+      <c r="P4" s="180"/>
+      <c r="Q4" s="181"/>
+      <c r="R4" s="179" t="str">
         <f>"Week "&amp;(R6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 2</v>
       </c>
-      <c r="S4" s="178"/>
-      <c r="T4" s="178"/>
-      <c r="U4" s="178"/>
-      <c r="V4" s="178"/>
-      <c r="W4" s="178"/>
-      <c r="X4" s="179"/>
-      <c r="Y4" s="177" t="str">
+      <c r="S4" s="180"/>
+      <c r="T4" s="180"/>
+      <c r="U4" s="180"/>
+      <c r="V4" s="180"/>
+      <c r="W4" s="180"/>
+      <c r="X4" s="181"/>
+      <c r="Y4" s="179" t="str">
         <f>"Week "&amp;(Y6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 3</v>
       </c>
-      <c r="Z4" s="178"/>
-      <c r="AA4" s="178"/>
-      <c r="AB4" s="178"/>
-      <c r="AC4" s="178"/>
-      <c r="AD4" s="178"/>
-      <c r="AE4" s="179"/>
-      <c r="AF4" s="177" t="str">
+      <c r="Z4" s="180"/>
+      <c r="AA4" s="180"/>
+      <c r="AB4" s="180"/>
+      <c r="AC4" s="180"/>
+      <c r="AD4" s="180"/>
+      <c r="AE4" s="181"/>
+      <c r="AF4" s="179" t="str">
         <f>"Week "&amp;(AF6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 4</v>
       </c>
-      <c r="AG4" s="178"/>
-      <c r="AH4" s="178"/>
-      <c r="AI4" s="178"/>
-      <c r="AJ4" s="178"/>
-      <c r="AK4" s="178"/>
-      <c r="AL4" s="179"/>
-      <c r="AM4" s="177" t="str">
+      <c r="AG4" s="180"/>
+      <c r="AH4" s="180"/>
+      <c r="AI4" s="180"/>
+      <c r="AJ4" s="180"/>
+      <c r="AK4" s="180"/>
+      <c r="AL4" s="181"/>
+      <c r="AM4" s="179" t="str">
         <f>"Week "&amp;(AM6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 5</v>
       </c>
-      <c r="AN4" s="178"/>
-      <c r="AO4" s="178"/>
-      <c r="AP4" s="178"/>
-      <c r="AQ4" s="178"/>
-      <c r="AR4" s="178"/>
-      <c r="AS4" s="179"/>
-      <c r="AT4" s="177" t="str">
+      <c r="AN4" s="180"/>
+      <c r="AO4" s="180"/>
+      <c r="AP4" s="180"/>
+      <c r="AQ4" s="180"/>
+      <c r="AR4" s="180"/>
+      <c r="AS4" s="181"/>
+      <c r="AT4" s="179" t="str">
         <f>"Week "&amp;(AT6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 6</v>
       </c>
-      <c r="AU4" s="178"/>
-      <c r="AV4" s="178"/>
-      <c r="AW4" s="178"/>
-      <c r="AX4" s="178"/>
-      <c r="AY4" s="178"/>
-      <c r="AZ4" s="179"/>
-      <c r="BA4" s="177" t="str">
+      <c r="AU4" s="180"/>
+      <c r="AV4" s="180"/>
+      <c r="AW4" s="180"/>
+      <c r="AX4" s="180"/>
+      <c r="AY4" s="180"/>
+      <c r="AZ4" s="181"/>
+      <c r="BA4" s="179" t="str">
         <f>"Week "&amp;(BA6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 7</v>
       </c>
-      <c r="BB4" s="178"/>
-      <c r="BC4" s="178"/>
-      <c r="BD4" s="178"/>
-      <c r="BE4" s="178"/>
-      <c r="BF4" s="178"/>
-      <c r="BG4" s="179"/>
-      <c r="BH4" s="177" t="str">
+      <c r="BB4" s="180"/>
+      <c r="BC4" s="180"/>
+      <c r="BD4" s="180"/>
+      <c r="BE4" s="180"/>
+      <c r="BF4" s="180"/>
+      <c r="BG4" s="181"/>
+      <c r="BH4" s="179" t="str">
         <f>"Week "&amp;(BH6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 8</v>
       </c>
-      <c r="BI4" s="178"/>
-      <c r="BJ4" s="178"/>
-      <c r="BK4" s="178"/>
-      <c r="BL4" s="178"/>
-      <c r="BM4" s="178"/>
-      <c r="BN4" s="179"/>
+      <c r="BI4" s="180"/>
+      <c r="BJ4" s="180"/>
+      <c r="BK4" s="180"/>
+      <c r="BL4" s="180"/>
+      <c r="BM4" s="180"/>
+      <c r="BN4" s="181"/>
     </row>
     <row r="5" spans="1:66" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="102"/>
       <c r="B5" s="105" t="s">
         <v>75</v>
       </c>
-      <c r="C5" s="184" t="s">
+      <c r="C5" s="178" t="s">
         <v>136</v>
       </c>
-      <c r="D5" s="184"/>
-      <c r="E5" s="184"/>
+      <c r="D5" s="178"/>
+      <c r="E5" s="178"/>
       <c r="F5" s="156"/>
       <c r="G5" s="104"/>
       <c r="H5" s="104"/>
       <c r="I5" s="104"/>
       <c r="J5" s="49"/>
-      <c r="K5" s="180">
+      <c r="K5" s="183">
         <f>K6</f>
         <v>44459</v>
       </c>
-      <c r="L5" s="181"/>
-      <c r="M5" s="181"/>
-      <c r="N5" s="181"/>
-      <c r="O5" s="181"/>
-      <c r="P5" s="181"/>
-      <c r="Q5" s="182"/>
-      <c r="R5" s="180">
+      <c r="L5" s="184"/>
+      <c r="M5" s="184"/>
+      <c r="N5" s="184"/>
+      <c r="O5" s="184"/>
+      <c r="P5" s="184"/>
+      <c r="Q5" s="185"/>
+      <c r="R5" s="183">
         <f>R6</f>
         <v>44466</v>
       </c>
-      <c r="S5" s="181"/>
-      <c r="T5" s="181"/>
-      <c r="U5" s="181"/>
-      <c r="V5" s="181"/>
-      <c r="W5" s="181"/>
-      <c r="X5" s="182"/>
-      <c r="Y5" s="180">
+      <c r="S5" s="184"/>
+      <c r="T5" s="184"/>
+      <c r="U5" s="184"/>
+      <c r="V5" s="184"/>
+      <c r="W5" s="184"/>
+      <c r="X5" s="185"/>
+      <c r="Y5" s="183">
         <f>Y6</f>
         <v>44473</v>
       </c>
-      <c r="Z5" s="181"/>
-      <c r="AA5" s="181"/>
-      <c r="AB5" s="181"/>
-      <c r="AC5" s="181"/>
-      <c r="AD5" s="181"/>
-      <c r="AE5" s="182"/>
-      <c r="AF5" s="180">
+      <c r="Z5" s="184"/>
+      <c r="AA5" s="184"/>
+      <c r="AB5" s="184"/>
+      <c r="AC5" s="184"/>
+      <c r="AD5" s="184"/>
+      <c r="AE5" s="185"/>
+      <c r="AF5" s="183">
         <f>AF6</f>
         <v>44480</v>
       </c>
-      <c r="AG5" s="181"/>
-      <c r="AH5" s="181"/>
-      <c r="AI5" s="181"/>
-      <c r="AJ5" s="181"/>
-      <c r="AK5" s="181"/>
-      <c r="AL5" s="182"/>
-      <c r="AM5" s="180">
+      <c r="AG5" s="184"/>
+      <c r="AH5" s="184"/>
+      <c r="AI5" s="184"/>
+      <c r="AJ5" s="184"/>
+      <c r="AK5" s="184"/>
+      <c r="AL5" s="185"/>
+      <c r="AM5" s="183">
         <f>AM6</f>
         <v>44487</v>
       </c>
-      <c r="AN5" s="181"/>
-      <c r="AO5" s="181"/>
-      <c r="AP5" s="181"/>
-      <c r="AQ5" s="181"/>
-      <c r="AR5" s="181"/>
-      <c r="AS5" s="182"/>
-      <c r="AT5" s="180">
+      <c r="AN5" s="184"/>
+      <c r="AO5" s="184"/>
+      <c r="AP5" s="184"/>
+      <c r="AQ5" s="184"/>
+      <c r="AR5" s="184"/>
+      <c r="AS5" s="185"/>
+      <c r="AT5" s="183">
         <f>AT6</f>
         <v>44494</v>
       </c>
-      <c r="AU5" s="181"/>
-      <c r="AV5" s="181"/>
-      <c r="AW5" s="181"/>
-      <c r="AX5" s="181"/>
-      <c r="AY5" s="181"/>
-      <c r="AZ5" s="182"/>
-      <c r="BA5" s="180">
+      <c r="AU5" s="184"/>
+      <c r="AV5" s="184"/>
+      <c r="AW5" s="184"/>
+      <c r="AX5" s="184"/>
+      <c r="AY5" s="184"/>
+      <c r="AZ5" s="185"/>
+      <c r="BA5" s="183">
         <f>BA6</f>
         <v>44501</v>
       </c>
-      <c r="BB5" s="181"/>
-      <c r="BC5" s="181"/>
-      <c r="BD5" s="181"/>
-      <c r="BE5" s="181"/>
-      <c r="BF5" s="181"/>
-      <c r="BG5" s="182"/>
-      <c r="BH5" s="180">
+      <c r="BB5" s="184"/>
+      <c r="BC5" s="184"/>
+      <c r="BD5" s="184"/>
+      <c r="BE5" s="184"/>
+      <c r="BF5" s="184"/>
+      <c r="BG5" s="185"/>
+      <c r="BH5" s="183">
         <f>BH6</f>
         <v>44508</v>
       </c>
-      <c r="BI5" s="181"/>
-      <c r="BJ5" s="181"/>
-      <c r="BK5" s="181"/>
-      <c r="BL5" s="181"/>
-      <c r="BM5" s="181"/>
-      <c r="BN5" s="182"/>
+      <c r="BI5" s="184"/>
+      <c r="BJ5" s="184"/>
+      <c r="BK5" s="184"/>
+      <c r="BL5" s="184"/>
+      <c r="BM5" s="184"/>
+      <c r="BN5" s="185"/>
     </row>
     <row r="6" spans="1:66" x14ac:dyDescent="0.2">
       <c r="A6" s="48"/>
@@ -6161,7 +6161,7 @@
         <v>2</v>
       </c>
       <c r="H23" s="62">
-        <v>0</v>
+        <v>0.375</v>
       </c>
       <c r="I23" s="63">
         <f t="shared" si="4"/>
@@ -12635,15 +12635,6 @@
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertRows="0" deleteRows="0"/>
   <mergeCells count="19">
-    <mergeCell ref="K1:AE1"/>
-    <mergeCell ref="C5:E5"/>
-    <mergeCell ref="R4:X4"/>
-    <mergeCell ref="K4:Q4"/>
-    <mergeCell ref="C4:E4"/>
-    <mergeCell ref="R5:X5"/>
-    <mergeCell ref="K5:Q5"/>
-    <mergeCell ref="Y4:AE4"/>
-    <mergeCell ref="Y5:AE5"/>
     <mergeCell ref="AF4:AL4"/>
     <mergeCell ref="AF5:AL5"/>
     <mergeCell ref="BH4:BN4"/>
@@ -12654,6 +12645,15 @@
     <mergeCell ref="AM4:AS4"/>
     <mergeCell ref="BA4:BG4"/>
     <mergeCell ref="BA5:BG5"/>
+    <mergeCell ref="K1:AE1"/>
+    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="R4:X4"/>
+    <mergeCell ref="K4:Q4"/>
+    <mergeCell ref="C4:E4"/>
+    <mergeCell ref="R5:X5"/>
+    <mergeCell ref="K5:Q5"/>
+    <mergeCell ref="Y4:AE4"/>
+    <mergeCell ref="Y5:AE5"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="H91:H100 H84:H85 H8:H79 H81">

--- a/gantt-chart_L version 2.xlsx
+++ b/gantt-chart_L version 2.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24430"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\HTCS5607\HTCS5607\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D22522D7-0422-4A40-8C77-F7456DC76B5B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CBD35E7-77F3-4CD2-B594-8ABC18232E5C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3198,13 +3198,6 @@
     <xf numFmtId="0" fontId="42" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="60" fillId="0" borderId="0" xfId="34" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="45" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="52" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3214,10 +3207,6 @@
     <xf numFmtId="0" fontId="52" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="45" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="166" fontId="45" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3226,6 +3215,17 @@
     </xf>
     <xf numFmtId="166" fontId="45" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="60" fillId="0" borderId="0" xfId="34" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="45" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="14" fontId="45" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="62" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -4073,8 +4073,8 @@
   <dimension ref="A1:BN101"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="7" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H23" sqref="H23"/>
+      <pane ySplit="7" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J29" sqref="J29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -4102,29 +4102,29 @@
       <c r="E1" s="152"/>
       <c r="F1" s="152"/>
       <c r="I1" s="121"/>
-      <c r="K1" s="177" t="s">
+      <c r="K1" s="183" t="s">
         <v>77</v>
       </c>
-      <c r="L1" s="177"/>
-      <c r="M1" s="177"/>
-      <c r="N1" s="177"/>
-      <c r="O1" s="177"/>
-      <c r="P1" s="177"/>
-      <c r="Q1" s="177"/>
-      <c r="R1" s="177"/>
-      <c r="S1" s="177"/>
-      <c r="T1" s="177"/>
-      <c r="U1" s="177"/>
-      <c r="V1" s="177"/>
-      <c r="W1" s="177"/>
-      <c r="X1" s="177"/>
-      <c r="Y1" s="177"/>
-      <c r="Z1" s="177"/>
-      <c r="AA1" s="177"/>
-      <c r="AB1" s="177"/>
-      <c r="AC1" s="177"/>
-      <c r="AD1" s="177"/>
-      <c r="AE1" s="177"/>
+      <c r="L1" s="183"/>
+      <c r="M1" s="183"/>
+      <c r="N1" s="183"/>
+      <c r="O1" s="183"/>
+      <c r="P1" s="183"/>
+      <c r="Q1" s="183"/>
+      <c r="R1" s="183"/>
+      <c r="S1" s="183"/>
+      <c r="T1" s="183"/>
+      <c r="U1" s="183"/>
+      <c r="V1" s="183"/>
+      <c r="W1" s="183"/>
+      <c r="X1" s="183"/>
+      <c r="Y1" s="183"/>
+      <c r="Z1" s="183"/>
+      <c r="AA1" s="183"/>
+      <c r="AB1" s="183"/>
+      <c r="AC1" s="183"/>
+      <c r="AD1" s="183"/>
+      <c r="AE1" s="183"/>
     </row>
     <row r="2" spans="1:66" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="51" t="s">
@@ -4169,11 +4169,11 @@
       <c r="B4" s="105" t="s">
         <v>74</v>
       </c>
-      <c r="C4" s="182">
+      <c r="C4" s="185">
         <v>44459</v>
       </c>
-      <c r="D4" s="182"/>
-      <c r="E4" s="182"/>
+      <c r="D4" s="185"/>
+      <c r="E4" s="185"/>
       <c r="F4" s="155"/>
       <c r="G4" s="105" t="s">
         <v>73</v>
@@ -4183,182 +4183,182 @@
       </c>
       <c r="I4" s="103"/>
       <c r="J4" s="49"/>
-      <c r="K4" s="179" t="str">
+      <c r="K4" s="177" t="str">
         <f>"Week "&amp;(K6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 1</v>
       </c>
-      <c r="L4" s="180"/>
-      <c r="M4" s="180"/>
-      <c r="N4" s="180"/>
-      <c r="O4" s="180"/>
-      <c r="P4" s="180"/>
-      <c r="Q4" s="181"/>
-      <c r="R4" s="179" t="str">
+      <c r="L4" s="178"/>
+      <c r="M4" s="178"/>
+      <c r="N4" s="178"/>
+      <c r="O4" s="178"/>
+      <c r="P4" s="178"/>
+      <c r="Q4" s="179"/>
+      <c r="R4" s="177" t="str">
         <f>"Week "&amp;(R6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 2</v>
       </c>
-      <c r="S4" s="180"/>
-      <c r="T4" s="180"/>
-      <c r="U4" s="180"/>
-      <c r="V4" s="180"/>
-      <c r="W4" s="180"/>
-      <c r="X4" s="181"/>
-      <c r="Y4" s="179" t="str">
+      <c r="S4" s="178"/>
+      <c r="T4" s="178"/>
+      <c r="U4" s="178"/>
+      <c r="V4" s="178"/>
+      <c r="W4" s="178"/>
+      <c r="X4" s="179"/>
+      <c r="Y4" s="177" t="str">
         <f>"Week "&amp;(Y6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 3</v>
       </c>
-      <c r="Z4" s="180"/>
-      <c r="AA4" s="180"/>
-      <c r="AB4" s="180"/>
-      <c r="AC4" s="180"/>
-      <c r="AD4" s="180"/>
-      <c r="AE4" s="181"/>
-      <c r="AF4" s="179" t="str">
+      <c r="Z4" s="178"/>
+      <c r="AA4" s="178"/>
+      <c r="AB4" s="178"/>
+      <c r="AC4" s="178"/>
+      <c r="AD4" s="178"/>
+      <c r="AE4" s="179"/>
+      <c r="AF4" s="177" t="str">
         <f>"Week "&amp;(AF6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 4</v>
       </c>
-      <c r="AG4" s="180"/>
-      <c r="AH4" s="180"/>
-      <c r="AI4" s="180"/>
-      <c r="AJ4" s="180"/>
-      <c r="AK4" s="180"/>
-      <c r="AL4" s="181"/>
-      <c r="AM4" s="179" t="str">
+      <c r="AG4" s="178"/>
+      <c r="AH4" s="178"/>
+      <c r="AI4" s="178"/>
+      <c r="AJ4" s="178"/>
+      <c r="AK4" s="178"/>
+      <c r="AL4" s="179"/>
+      <c r="AM4" s="177" t="str">
         <f>"Week "&amp;(AM6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 5</v>
       </c>
-      <c r="AN4" s="180"/>
-      <c r="AO4" s="180"/>
-      <c r="AP4" s="180"/>
-      <c r="AQ4" s="180"/>
-      <c r="AR4" s="180"/>
-      <c r="AS4" s="181"/>
-      <c r="AT4" s="179" t="str">
+      <c r="AN4" s="178"/>
+      <c r="AO4" s="178"/>
+      <c r="AP4" s="178"/>
+      <c r="AQ4" s="178"/>
+      <c r="AR4" s="178"/>
+      <c r="AS4" s="179"/>
+      <c r="AT4" s="177" t="str">
         <f>"Week "&amp;(AT6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 6</v>
       </c>
-      <c r="AU4" s="180"/>
-      <c r="AV4" s="180"/>
-      <c r="AW4" s="180"/>
-      <c r="AX4" s="180"/>
-      <c r="AY4" s="180"/>
-      <c r="AZ4" s="181"/>
-      <c r="BA4" s="179" t="str">
+      <c r="AU4" s="178"/>
+      <c r="AV4" s="178"/>
+      <c r="AW4" s="178"/>
+      <c r="AX4" s="178"/>
+      <c r="AY4" s="178"/>
+      <c r="AZ4" s="179"/>
+      <c r="BA4" s="177" t="str">
         <f>"Week "&amp;(BA6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 7</v>
       </c>
-      <c r="BB4" s="180"/>
-      <c r="BC4" s="180"/>
-      <c r="BD4" s="180"/>
-      <c r="BE4" s="180"/>
-      <c r="BF4" s="180"/>
-      <c r="BG4" s="181"/>
-      <c r="BH4" s="179" t="str">
+      <c r="BB4" s="178"/>
+      <c r="BC4" s="178"/>
+      <c r="BD4" s="178"/>
+      <c r="BE4" s="178"/>
+      <c r="BF4" s="178"/>
+      <c r="BG4" s="179"/>
+      <c r="BH4" s="177" t="str">
         <f>"Week "&amp;(BH6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 8</v>
       </c>
-      <c r="BI4" s="180"/>
-      <c r="BJ4" s="180"/>
-      <c r="BK4" s="180"/>
-      <c r="BL4" s="180"/>
-      <c r="BM4" s="180"/>
-      <c r="BN4" s="181"/>
+      <c r="BI4" s="178"/>
+      <c r="BJ4" s="178"/>
+      <c r="BK4" s="178"/>
+      <c r="BL4" s="178"/>
+      <c r="BM4" s="178"/>
+      <c r="BN4" s="179"/>
     </row>
     <row r="5" spans="1:66" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="102"/>
       <c r="B5" s="105" t="s">
         <v>75</v>
       </c>
-      <c r="C5" s="178" t="s">
+      <c r="C5" s="184" t="s">
         <v>136</v>
       </c>
-      <c r="D5" s="178"/>
-      <c r="E5" s="178"/>
+      <c r="D5" s="184"/>
+      <c r="E5" s="184"/>
       <c r="F5" s="156"/>
       <c r="G5" s="104"/>
       <c r="H5" s="104"/>
       <c r="I5" s="104"/>
       <c r="J5" s="49"/>
-      <c r="K5" s="183">
+      <c r="K5" s="180">
         <f>K6</f>
         <v>44459</v>
       </c>
-      <c r="L5" s="184"/>
-      <c r="M5" s="184"/>
-      <c r="N5" s="184"/>
-      <c r="O5" s="184"/>
-      <c r="P5" s="184"/>
-      <c r="Q5" s="185"/>
-      <c r="R5" s="183">
+      <c r="L5" s="181"/>
+      <c r="M5" s="181"/>
+      <c r="N5" s="181"/>
+      <c r="O5" s="181"/>
+      <c r="P5" s="181"/>
+      <c r="Q5" s="182"/>
+      <c r="R5" s="180">
         <f>R6</f>
         <v>44466</v>
       </c>
-      <c r="S5" s="184"/>
-      <c r="T5" s="184"/>
-      <c r="U5" s="184"/>
-      <c r="V5" s="184"/>
-      <c r="W5" s="184"/>
-      <c r="X5" s="185"/>
-      <c r="Y5" s="183">
+      <c r="S5" s="181"/>
+      <c r="T5" s="181"/>
+      <c r="U5" s="181"/>
+      <c r="V5" s="181"/>
+      <c r="W5" s="181"/>
+      <c r="X5" s="182"/>
+      <c r="Y5" s="180">
         <f>Y6</f>
         <v>44473</v>
       </c>
-      <c r="Z5" s="184"/>
-      <c r="AA5" s="184"/>
-      <c r="AB5" s="184"/>
-      <c r="AC5" s="184"/>
-      <c r="AD5" s="184"/>
-      <c r="AE5" s="185"/>
-      <c r="AF5" s="183">
+      <c r="Z5" s="181"/>
+      <c r="AA5" s="181"/>
+      <c r="AB5" s="181"/>
+      <c r="AC5" s="181"/>
+      <c r="AD5" s="181"/>
+      <c r="AE5" s="182"/>
+      <c r="AF5" s="180">
         <f>AF6</f>
         <v>44480</v>
       </c>
-      <c r="AG5" s="184"/>
-      <c r="AH5" s="184"/>
-      <c r="AI5" s="184"/>
-      <c r="AJ5" s="184"/>
-      <c r="AK5" s="184"/>
-      <c r="AL5" s="185"/>
-      <c r="AM5" s="183">
+      <c r="AG5" s="181"/>
+      <c r="AH5" s="181"/>
+      <c r="AI5" s="181"/>
+      <c r="AJ5" s="181"/>
+      <c r="AK5" s="181"/>
+      <c r="AL5" s="182"/>
+      <c r="AM5" s="180">
         <f>AM6</f>
         <v>44487</v>
       </c>
-      <c r="AN5" s="184"/>
-      <c r="AO5" s="184"/>
-      <c r="AP5" s="184"/>
-      <c r="AQ5" s="184"/>
-      <c r="AR5" s="184"/>
-      <c r="AS5" s="185"/>
-      <c r="AT5" s="183">
+      <c r="AN5" s="181"/>
+      <c r="AO5" s="181"/>
+      <c r="AP5" s="181"/>
+      <c r="AQ5" s="181"/>
+      <c r="AR5" s="181"/>
+      <c r="AS5" s="182"/>
+      <c r="AT5" s="180">
         <f>AT6</f>
         <v>44494</v>
       </c>
-      <c r="AU5" s="184"/>
-      <c r="AV5" s="184"/>
-      <c r="AW5" s="184"/>
-      <c r="AX5" s="184"/>
-      <c r="AY5" s="184"/>
-      <c r="AZ5" s="185"/>
-      <c r="BA5" s="183">
+      <c r="AU5" s="181"/>
+      <c r="AV5" s="181"/>
+      <c r="AW5" s="181"/>
+      <c r="AX5" s="181"/>
+      <c r="AY5" s="181"/>
+      <c r="AZ5" s="182"/>
+      <c r="BA5" s="180">
         <f>BA6</f>
         <v>44501</v>
       </c>
-      <c r="BB5" s="184"/>
-      <c r="BC5" s="184"/>
-      <c r="BD5" s="184"/>
-      <c r="BE5" s="184"/>
-      <c r="BF5" s="184"/>
-      <c r="BG5" s="185"/>
-      <c r="BH5" s="183">
+      <c r="BB5" s="181"/>
+      <c r="BC5" s="181"/>
+      <c r="BD5" s="181"/>
+      <c r="BE5" s="181"/>
+      <c r="BF5" s="181"/>
+      <c r="BG5" s="182"/>
+      <c r="BH5" s="180">
         <f>BH6</f>
         <v>44508</v>
       </c>
-      <c r="BI5" s="184"/>
-      <c r="BJ5" s="184"/>
-      <c r="BK5" s="184"/>
-      <c r="BL5" s="184"/>
-      <c r="BM5" s="184"/>
-      <c r="BN5" s="185"/>
+      <c r="BI5" s="181"/>
+      <c r="BJ5" s="181"/>
+      <c r="BK5" s="181"/>
+      <c r="BL5" s="181"/>
+      <c r="BM5" s="181"/>
+      <c r="BN5" s="182"/>
     </row>
     <row r="6" spans="1:66" x14ac:dyDescent="0.2">
       <c r="A6" s="48"/>
@@ -6161,7 +6161,7 @@
         <v>2</v>
       </c>
       <c r="H23" s="62">
-        <v>0.375</v>
+        <v>1</v>
       </c>
       <c r="I23" s="63">
         <f t="shared" si="4"/>
@@ -6248,7 +6248,7 @@
         <v>2</v>
       </c>
       <c r="H24" s="62">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I24" s="63">
         <f t="shared" si="4"/>
@@ -6333,7 +6333,9 @@
       <c r="G25" s="172">
         <v>4</v>
       </c>
-      <c r="H25" s="173"/>
+      <c r="H25" s="173">
+        <v>1</v>
+      </c>
       <c r="I25" s="174">
         <f t="shared" si="4"/>
         <v>2</v>
@@ -12635,6 +12637,15 @@
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertRows="0" deleteRows="0"/>
   <mergeCells count="19">
+    <mergeCell ref="K1:AE1"/>
+    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="R4:X4"/>
+    <mergeCell ref="K4:Q4"/>
+    <mergeCell ref="C4:E4"/>
+    <mergeCell ref="R5:X5"/>
+    <mergeCell ref="K5:Q5"/>
+    <mergeCell ref="Y4:AE4"/>
+    <mergeCell ref="Y5:AE5"/>
     <mergeCell ref="AF4:AL4"/>
     <mergeCell ref="AF5:AL5"/>
     <mergeCell ref="BH4:BN4"/>
@@ -12645,15 +12656,6 @@
     <mergeCell ref="AM4:AS4"/>
     <mergeCell ref="BA4:BG4"/>
     <mergeCell ref="BA5:BG5"/>
-    <mergeCell ref="K1:AE1"/>
-    <mergeCell ref="C5:E5"/>
-    <mergeCell ref="R4:X4"/>
-    <mergeCell ref="K4:Q4"/>
-    <mergeCell ref="C4:E4"/>
-    <mergeCell ref="R5:X5"/>
-    <mergeCell ref="K5:Q5"/>
-    <mergeCell ref="Y4:AE4"/>
-    <mergeCell ref="Y5:AE5"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="H91:H100 H84:H85 H8:H79 H81">

--- a/gantt-chart_L version 2.xlsx
+++ b/gantt-chart_L version 2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\HTCS5607\HTCS5607\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CBD35E7-77F3-4CD2-B594-8ABC18232E5C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A980609C-8359-45D9-8061-33D3391E1F24}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
   </sheets>
   <definedNames>
     <definedName name="prevWBS" localSheetId="0">GanttChart!$A1048576</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">GanttChart!$A$1:$BN$94</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">GanttChart!$A$1:$BN$85</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">GanttChartPro!$A$1:$C$47</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">GanttChart!$4:$7</definedName>
     <definedName name="valuevx">42.314159</definedName>
@@ -453,7 +453,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="362" uniqueCount="234">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="336" uniqueCount="225">
   <si>
     <t>WBS</t>
   </si>
@@ -1753,33 +1753,6 @@
   </si>
   <si>
     <t>Product Finalisation</t>
-  </si>
-  <si>
-    <t>Communication Diagrams</t>
-  </si>
-  <si>
-    <t>2.5.1</t>
-  </si>
-  <si>
-    <t>2.5.2</t>
-  </si>
-  <si>
-    <t>2.5.3</t>
-  </si>
-  <si>
-    <t>2.5.4</t>
-  </si>
-  <si>
-    <t>2.5.5</t>
-  </si>
-  <si>
-    <t>2.5.6</t>
-  </si>
-  <si>
-    <t>2.5.7</t>
-  </si>
-  <si>
-    <t>2.5.8</t>
   </si>
   <si>
     <t>2.4.1</t>
@@ -3198,24 +3171,6 @@
     <xf numFmtId="0" fontId="42" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="52" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="52" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="52" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="45" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="45" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="45" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="60" fillId="0" borderId="0" xfId="34" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -3223,9 +3178,27 @@
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="14" fontId="45" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
       <protection locked="0"/>
+    </xf>
+    <xf numFmtId="166" fontId="45" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="45" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="45" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="62" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -4070,11 +4043,11 @@
   <sheetPr codeName="Sheet8">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:BN101"/>
+  <dimension ref="A1:BN92"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="7" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J29" sqref="J29"/>
+      <selection pane="bottomLeft" activeCell="H29" sqref="H29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -4102,29 +4075,29 @@
       <c r="E1" s="152"/>
       <c r="F1" s="152"/>
       <c r="I1" s="121"/>
-      <c r="K1" s="183" t="s">
+      <c r="K1" s="177" t="s">
         <v>77</v>
       </c>
-      <c r="L1" s="183"/>
-      <c r="M1" s="183"/>
-      <c r="N1" s="183"/>
-      <c r="O1" s="183"/>
-      <c r="P1" s="183"/>
-      <c r="Q1" s="183"/>
-      <c r="R1" s="183"/>
-      <c r="S1" s="183"/>
-      <c r="T1" s="183"/>
-      <c r="U1" s="183"/>
-      <c r="V1" s="183"/>
-      <c r="W1" s="183"/>
-      <c r="X1" s="183"/>
-      <c r="Y1" s="183"/>
-      <c r="Z1" s="183"/>
-      <c r="AA1" s="183"/>
-      <c r="AB1" s="183"/>
-      <c r="AC1" s="183"/>
-      <c r="AD1" s="183"/>
-      <c r="AE1" s="183"/>
+      <c r="L1" s="177"/>
+      <c r="M1" s="177"/>
+      <c r="N1" s="177"/>
+      <c r="O1" s="177"/>
+      <c r="P1" s="177"/>
+      <c r="Q1" s="177"/>
+      <c r="R1" s="177"/>
+      <c r="S1" s="177"/>
+      <c r="T1" s="177"/>
+      <c r="U1" s="177"/>
+      <c r="V1" s="177"/>
+      <c r="W1" s="177"/>
+      <c r="X1" s="177"/>
+      <c r="Y1" s="177"/>
+      <c r="Z1" s="177"/>
+      <c r="AA1" s="177"/>
+      <c r="AB1" s="177"/>
+      <c r="AC1" s="177"/>
+      <c r="AD1" s="177"/>
+      <c r="AE1" s="177"/>
     </row>
     <row r="2" spans="1:66" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="51" t="s">
@@ -4169,11 +4142,11 @@
       <c r="B4" s="105" t="s">
         <v>74</v>
       </c>
-      <c r="C4" s="185">
+      <c r="C4" s="182">
         <v>44459</v>
       </c>
-      <c r="D4" s="185"/>
-      <c r="E4" s="185"/>
+      <c r="D4" s="182"/>
+      <c r="E4" s="182"/>
       <c r="F4" s="155"/>
       <c r="G4" s="105" t="s">
         <v>73</v>
@@ -4183,182 +4156,182 @@
       </c>
       <c r="I4" s="103"/>
       <c r="J4" s="49"/>
-      <c r="K4" s="177" t="str">
+      <c r="K4" s="179" t="str">
         <f>"Week "&amp;(K6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 1</v>
       </c>
-      <c r="L4" s="178"/>
-      <c r="M4" s="178"/>
-      <c r="N4" s="178"/>
-      <c r="O4" s="178"/>
-      <c r="P4" s="178"/>
-      <c r="Q4" s="179"/>
-      <c r="R4" s="177" t="str">
+      <c r="L4" s="180"/>
+      <c r="M4" s="180"/>
+      <c r="N4" s="180"/>
+      <c r="O4" s="180"/>
+      <c r="P4" s="180"/>
+      <c r="Q4" s="181"/>
+      <c r="R4" s="179" t="str">
         <f>"Week "&amp;(R6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 2</v>
       </c>
-      <c r="S4" s="178"/>
-      <c r="T4" s="178"/>
-      <c r="U4" s="178"/>
-      <c r="V4" s="178"/>
-      <c r="W4" s="178"/>
-      <c r="X4" s="179"/>
-      <c r="Y4" s="177" t="str">
+      <c r="S4" s="180"/>
+      <c r="T4" s="180"/>
+      <c r="U4" s="180"/>
+      <c r="V4" s="180"/>
+      <c r="W4" s="180"/>
+      <c r="X4" s="181"/>
+      <c r="Y4" s="179" t="str">
         <f>"Week "&amp;(Y6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 3</v>
       </c>
-      <c r="Z4" s="178"/>
-      <c r="AA4" s="178"/>
-      <c r="AB4" s="178"/>
-      <c r="AC4" s="178"/>
-      <c r="AD4" s="178"/>
-      <c r="AE4" s="179"/>
-      <c r="AF4" s="177" t="str">
+      <c r="Z4" s="180"/>
+      <c r="AA4" s="180"/>
+      <c r="AB4" s="180"/>
+      <c r="AC4" s="180"/>
+      <c r="AD4" s="180"/>
+      <c r="AE4" s="181"/>
+      <c r="AF4" s="179" t="str">
         <f>"Week "&amp;(AF6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 4</v>
       </c>
-      <c r="AG4" s="178"/>
-      <c r="AH4" s="178"/>
-      <c r="AI4" s="178"/>
-      <c r="AJ4" s="178"/>
-      <c r="AK4" s="178"/>
-      <c r="AL4" s="179"/>
-      <c r="AM4" s="177" t="str">
+      <c r="AG4" s="180"/>
+      <c r="AH4" s="180"/>
+      <c r="AI4" s="180"/>
+      <c r="AJ4" s="180"/>
+      <c r="AK4" s="180"/>
+      <c r="AL4" s="181"/>
+      <c r="AM4" s="179" t="str">
         <f>"Week "&amp;(AM6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 5</v>
       </c>
-      <c r="AN4" s="178"/>
-      <c r="AO4" s="178"/>
-      <c r="AP4" s="178"/>
-      <c r="AQ4" s="178"/>
-      <c r="AR4" s="178"/>
-      <c r="AS4" s="179"/>
-      <c r="AT4" s="177" t="str">
+      <c r="AN4" s="180"/>
+      <c r="AO4" s="180"/>
+      <c r="AP4" s="180"/>
+      <c r="AQ4" s="180"/>
+      <c r="AR4" s="180"/>
+      <c r="AS4" s="181"/>
+      <c r="AT4" s="179" t="str">
         <f>"Week "&amp;(AT6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 6</v>
       </c>
-      <c r="AU4" s="178"/>
-      <c r="AV4" s="178"/>
-      <c r="AW4" s="178"/>
-      <c r="AX4" s="178"/>
-      <c r="AY4" s="178"/>
-      <c r="AZ4" s="179"/>
-      <c r="BA4" s="177" t="str">
+      <c r="AU4" s="180"/>
+      <c r="AV4" s="180"/>
+      <c r="AW4" s="180"/>
+      <c r="AX4" s="180"/>
+      <c r="AY4" s="180"/>
+      <c r="AZ4" s="181"/>
+      <c r="BA4" s="179" t="str">
         <f>"Week "&amp;(BA6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 7</v>
       </c>
-      <c r="BB4" s="178"/>
-      <c r="BC4" s="178"/>
-      <c r="BD4" s="178"/>
-      <c r="BE4" s="178"/>
-      <c r="BF4" s="178"/>
-      <c r="BG4" s="179"/>
-      <c r="BH4" s="177" t="str">
+      <c r="BB4" s="180"/>
+      <c r="BC4" s="180"/>
+      <c r="BD4" s="180"/>
+      <c r="BE4" s="180"/>
+      <c r="BF4" s="180"/>
+      <c r="BG4" s="181"/>
+      <c r="BH4" s="179" t="str">
         <f>"Week "&amp;(BH6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 8</v>
       </c>
-      <c r="BI4" s="178"/>
-      <c r="BJ4" s="178"/>
-      <c r="BK4" s="178"/>
-      <c r="BL4" s="178"/>
-      <c r="BM4" s="178"/>
-      <c r="BN4" s="179"/>
+      <c r="BI4" s="180"/>
+      <c r="BJ4" s="180"/>
+      <c r="BK4" s="180"/>
+      <c r="BL4" s="180"/>
+      <c r="BM4" s="180"/>
+      <c r="BN4" s="181"/>
     </row>
     <row r="5" spans="1:66" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="102"/>
       <c r="B5" s="105" t="s">
         <v>75</v>
       </c>
-      <c r="C5" s="184" t="s">
+      <c r="C5" s="178" t="s">
         <v>136</v>
       </c>
-      <c r="D5" s="184"/>
-      <c r="E5" s="184"/>
+      <c r="D5" s="178"/>
+      <c r="E5" s="178"/>
       <c r="F5" s="156"/>
       <c r="G5" s="104"/>
       <c r="H5" s="104"/>
       <c r="I5" s="104"/>
       <c r="J5" s="49"/>
-      <c r="K5" s="180">
+      <c r="K5" s="183">
         <f>K6</f>
         <v>44459</v>
       </c>
-      <c r="L5" s="181"/>
-      <c r="M5" s="181"/>
-      <c r="N5" s="181"/>
-      <c r="O5" s="181"/>
-      <c r="P5" s="181"/>
-      <c r="Q5" s="182"/>
-      <c r="R5" s="180">
+      <c r="L5" s="184"/>
+      <c r="M5" s="184"/>
+      <c r="N5" s="184"/>
+      <c r="O5" s="184"/>
+      <c r="P5" s="184"/>
+      <c r="Q5" s="185"/>
+      <c r="R5" s="183">
         <f>R6</f>
         <v>44466</v>
       </c>
-      <c r="S5" s="181"/>
-      <c r="T5" s="181"/>
-      <c r="U5" s="181"/>
-      <c r="V5" s="181"/>
-      <c r="W5" s="181"/>
-      <c r="X5" s="182"/>
-      <c r="Y5" s="180">
+      <c r="S5" s="184"/>
+      <c r="T5" s="184"/>
+      <c r="U5" s="184"/>
+      <c r="V5" s="184"/>
+      <c r="W5" s="184"/>
+      <c r="X5" s="185"/>
+      <c r="Y5" s="183">
         <f>Y6</f>
         <v>44473</v>
       </c>
-      <c r="Z5" s="181"/>
-      <c r="AA5" s="181"/>
-      <c r="AB5" s="181"/>
-      <c r="AC5" s="181"/>
-      <c r="AD5" s="181"/>
-      <c r="AE5" s="182"/>
-      <c r="AF5" s="180">
+      <c r="Z5" s="184"/>
+      <c r="AA5" s="184"/>
+      <c r="AB5" s="184"/>
+      <c r="AC5" s="184"/>
+      <c r="AD5" s="184"/>
+      <c r="AE5" s="185"/>
+      <c r="AF5" s="183">
         <f>AF6</f>
         <v>44480</v>
       </c>
-      <c r="AG5" s="181"/>
-      <c r="AH5" s="181"/>
-      <c r="AI5" s="181"/>
-      <c r="AJ5" s="181"/>
-      <c r="AK5" s="181"/>
-      <c r="AL5" s="182"/>
-      <c r="AM5" s="180">
+      <c r="AG5" s="184"/>
+      <c r="AH5" s="184"/>
+      <c r="AI5" s="184"/>
+      <c r="AJ5" s="184"/>
+      <c r="AK5" s="184"/>
+      <c r="AL5" s="185"/>
+      <c r="AM5" s="183">
         <f>AM6</f>
         <v>44487</v>
       </c>
-      <c r="AN5" s="181"/>
-      <c r="AO5" s="181"/>
-      <c r="AP5" s="181"/>
-      <c r="AQ5" s="181"/>
-      <c r="AR5" s="181"/>
-      <c r="AS5" s="182"/>
-      <c r="AT5" s="180">
+      <c r="AN5" s="184"/>
+      <c r="AO5" s="184"/>
+      <c r="AP5" s="184"/>
+      <c r="AQ5" s="184"/>
+      <c r="AR5" s="184"/>
+      <c r="AS5" s="185"/>
+      <c r="AT5" s="183">
         <f>AT6</f>
         <v>44494</v>
       </c>
-      <c r="AU5" s="181"/>
-      <c r="AV5" s="181"/>
-      <c r="AW5" s="181"/>
-      <c r="AX5" s="181"/>
-      <c r="AY5" s="181"/>
-      <c r="AZ5" s="182"/>
-      <c r="BA5" s="180">
+      <c r="AU5" s="184"/>
+      <c r="AV5" s="184"/>
+      <c r="AW5" s="184"/>
+      <c r="AX5" s="184"/>
+      <c r="AY5" s="184"/>
+      <c r="AZ5" s="185"/>
+      <c r="BA5" s="183">
         <f>BA6</f>
         <v>44501</v>
       </c>
-      <c r="BB5" s="181"/>
-      <c r="BC5" s="181"/>
-      <c r="BD5" s="181"/>
-      <c r="BE5" s="181"/>
-      <c r="BF5" s="181"/>
-      <c r="BG5" s="182"/>
-      <c r="BH5" s="180">
+      <c r="BB5" s="184"/>
+      <c r="BC5" s="184"/>
+      <c r="BD5" s="184"/>
+      <c r="BE5" s="184"/>
+      <c r="BF5" s="184"/>
+      <c r="BG5" s="185"/>
+      <c r="BH5" s="183">
         <f>BH6</f>
         <v>44508</v>
       </c>
-      <c r="BI5" s="181"/>
-      <c r="BJ5" s="181"/>
-      <c r="BK5" s="181"/>
-      <c r="BL5" s="181"/>
-      <c r="BM5" s="181"/>
-      <c r="BN5" s="182"/>
+      <c r="BI5" s="184"/>
+      <c r="BJ5" s="184"/>
+      <c r="BK5" s="184"/>
+      <c r="BL5" s="184"/>
+      <c r="BM5" s="184"/>
+      <c r="BN5" s="185"/>
     </row>
     <row r="6" spans="1:66" x14ac:dyDescent="0.2">
       <c r="A6" s="48"/>
@@ -4868,7 +4841,7 @@
       <c r="G8" s="87"/>
       <c r="H8" s="88"/>
       <c r="I8" s="89" t="str">
-        <f t="shared" ref="I8:I94" si="4">IF(OR(F8=0,E8=0)," - ",NETWORKDAYS(E8,F8))</f>
+        <f t="shared" ref="I8:I85" si="4">IF(OR(F8=0,E8=0)," - ",NETWORKDAYS(E8,F8))</f>
         <v xml:space="preserve"> - </v>
       </c>
       <c r="J8" s="92"/>
@@ -5032,7 +5005,7 @@
         <v>44460</v>
       </c>
       <c r="F10" s="162">
-        <f t="shared" ref="F10:F85" si="6">IF(ISBLANK(E10)," - ",IF(G10=0,E10,E10+G10-1))</f>
+        <f t="shared" ref="F10:F76" si="6">IF(ISBLANK(E10)," - ",IF(G10=0,E10,E10+G10-1))</f>
         <v>44461</v>
       </c>
       <c r="G10" s="61">
@@ -5970,7 +5943,7 @@
         <v>1.5</v>
       </c>
       <c r="B21" s="115" t="s">
-        <v>229</v>
+        <v>220</v>
       </c>
       <c r="C21" s="60" t="s">
         <v>136</v>
@@ -6314,7 +6287,7 @@
     </row>
     <row r="25" spans="1:66" s="60" customFormat="1" ht="24" x14ac:dyDescent="0.2">
       <c r="A25" s="59" t="s">
-        <v>230</v>
+        <v>221</v>
       </c>
       <c r="B25" s="117" t="s">
         <v>146</v>
@@ -6499,7 +6472,7 @@
         <v>1</v>
       </c>
       <c r="H27" s="62">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="I27" s="63">
         <f t="shared" si="4"/>
@@ -6586,7 +6559,7 @@
         <v>4</v>
       </c>
       <c r="H28" s="62">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I28" s="63">
         <f t="shared" si="4"/>
@@ -6671,7 +6644,9 @@
       <c r="G29" s="61">
         <v>1</v>
       </c>
-      <c r="H29" s="62"/>
+      <c r="H29" s="62">
+        <v>1</v>
+      </c>
       <c r="I29" s="63">
         <f t="shared" si="4"/>
         <v>1</v>
@@ -6755,7 +6730,9 @@
       <c r="G30" s="61">
         <v>1</v>
       </c>
-      <c r="H30" s="62"/>
+      <c r="H30" s="62">
+        <v>1</v>
+      </c>
       <c r="I30" s="63">
         <f t="shared" si="4"/>
         <v>1</v>
@@ -6839,7 +6816,9 @@
       <c r="G31" s="61">
         <v>1</v>
       </c>
-      <c r="H31" s="62"/>
+      <c r="H31" s="62">
+        <v>1</v>
+      </c>
       <c r="I31" s="63">
         <f t="shared" si="4"/>
         <v>1</v>
@@ -6923,7 +6902,9 @@
       <c r="G32" s="61">
         <v>1</v>
       </c>
-      <c r="H32" s="62"/>
+      <c r="H32" s="62">
+        <v>1</v>
+      </c>
       <c r="I32" s="63">
         <f t="shared" si="4"/>
         <v>1</v>
@@ -7007,7 +6988,9 @@
       <c r="G33" s="61">
         <v>1</v>
       </c>
-      <c r="H33" s="62"/>
+      <c r="H33" s="62">
+        <v>1</v>
+      </c>
       <c r="I33" s="63">
         <f t="shared" si="4"/>
         <v>1</v>
@@ -7091,7 +7074,9 @@
       <c r="G34" s="61">
         <v>1</v>
       </c>
-      <c r="H34" s="62"/>
+      <c r="H34" s="62">
+        <v>1</v>
+      </c>
       <c r="I34" s="63">
         <f t="shared" si="4"/>
         <v>1</v>
@@ -7175,7 +7160,9 @@
       <c r="G35" s="61">
         <v>1</v>
       </c>
-      <c r="H35" s="62"/>
+      <c r="H35" s="62">
+        <v>1</v>
+      </c>
       <c r="I35" s="63">
         <f t="shared" si="4"/>
         <v>1</v>
@@ -7259,7 +7246,9 @@
       <c r="G36" s="61">
         <v>1</v>
       </c>
-      <c r="H36" s="62"/>
+      <c r="H36" s="62">
+        <v>1</v>
+      </c>
       <c r="I36" s="63">
         <f t="shared" si="4"/>
         <v>1</v>
@@ -7338,18 +7327,18 @@
         <v>44478</v>
       </c>
       <c r="F37" s="162">
-        <f t="shared" si="6"/>
-        <v>44479</v>
+        <f>IF(ISBLANK(E37)," - ",IF(G37=0,E37,E37+G37-1))</f>
+        <v>44483</v>
       </c>
       <c r="G37" s="61">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="H37" s="62">
         <v>0</v>
       </c>
       <c r="I37" s="63">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J37" s="93"/>
       <c r="K37" s="99"/>
@@ -7424,13 +7413,15 @@
         <v>44478</v>
       </c>
       <c r="F38" s="162">
-        <f t="shared" si="6"/>
-        <v>44478</v>
+        <f>IF(ISBLANK(E38)," - ",IF(G38=0,E38,E38+G38-1))</f>
+        <v>44479</v>
       </c>
       <c r="G38" s="61">
+        <v>2</v>
+      </c>
+      <c r="H38" s="62">
         <v>1</v>
       </c>
-      <c r="H38" s="62"/>
       <c r="I38" s="63">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -7505,19 +7496,21 @@
       </c>
       <c r="D39" s="116"/>
       <c r="E39" s="161">
-        <v>44478</v>
+        <v>44479</v>
       </c>
       <c r="F39" s="162">
-        <f t="shared" si="6"/>
-        <v>44478</v>
+        <f>IF(ISBLANK(E39)," - ",IF(G39=0,E39,E39+G39-1))</f>
+        <v>44480</v>
       </c>
       <c r="G39" s="61">
+        <v>2</v>
+      </c>
+      <c r="H39" s="62">
         <v>1</v>
       </c>
-      <c r="H39" s="62"/>
       <c r="I39" s="63">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J39" s="93"/>
       <c r="K39" s="99"/>
@@ -7589,19 +7582,21 @@
       </c>
       <c r="D40" s="116"/>
       <c r="E40" s="161">
-        <v>44478</v>
+        <v>44481</v>
       </c>
       <c r="F40" s="162">
         <f t="shared" si="6"/>
-        <v>44478</v>
+        <v>44481</v>
       </c>
       <c r="G40" s="61">
         <v>1</v>
       </c>
-      <c r="H40" s="62"/>
+      <c r="H40" s="62">
+        <v>1</v>
+      </c>
       <c r="I40" s="63">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J40" s="93"/>
       <c r="K40" s="99"/>
@@ -7673,19 +7668,21 @@
       </c>
       <c r="D41" s="116"/>
       <c r="E41" s="161">
-        <v>44478</v>
+        <v>44481</v>
       </c>
       <c r="F41" s="162">
         <f t="shared" si="6"/>
-        <v>44478</v>
+        <v>44481</v>
       </c>
       <c r="G41" s="61">
         <v>1</v>
       </c>
-      <c r="H41" s="62"/>
+      <c r="H41" s="62">
+        <v>1</v>
+      </c>
       <c r="I41" s="63">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J41" s="93"/>
       <c r="K41" s="99"/>
@@ -7757,11 +7754,11 @@
       </c>
       <c r="D42" s="116"/>
       <c r="E42" s="161">
-        <v>44479</v>
+        <v>44482</v>
       </c>
       <c r="F42" s="162">
         <f t="shared" si="6"/>
-        <v>44479</v>
+        <v>44482</v>
       </c>
       <c r="G42" s="61">
         <v>1</v>
@@ -7769,7 +7766,7 @@
       <c r="H42" s="62"/>
       <c r="I42" s="63">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J42" s="93"/>
       <c r="K42" s="99"/>
@@ -7841,11 +7838,11 @@
       </c>
       <c r="D43" s="116"/>
       <c r="E43" s="161">
-        <v>44479</v>
+        <v>44482</v>
       </c>
       <c r="F43" s="162">
         <f t="shared" si="6"/>
-        <v>44479</v>
+        <v>44482</v>
       </c>
       <c r="G43" s="61">
         <v>1</v>
@@ -7853,7 +7850,7 @@
       <c r="H43" s="62"/>
       <c r="I43" s="63">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J43" s="93"/>
       <c r="K43" s="99"/>
@@ -7925,11 +7922,11 @@
       </c>
       <c r="D44" s="116"/>
       <c r="E44" s="161">
-        <v>44479</v>
+        <v>44483</v>
       </c>
       <c r="F44" s="162">
         <f t="shared" si="6"/>
-        <v>44479</v>
+        <v>44483</v>
       </c>
       <c r="G44" s="61">
         <v>1</v>
@@ -7937,7 +7934,7 @@
       <c r="H44" s="62"/>
       <c r="I44" s="63">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J44" s="93"/>
       <c r="K44" s="99"/>
@@ -8009,11 +8006,11 @@
       </c>
       <c r="D45" s="116"/>
       <c r="E45" s="161">
-        <v>44479</v>
+        <v>44483</v>
       </c>
       <c r="F45" s="162">
         <f t="shared" si="6"/>
-        <v>44479</v>
+        <v>44483</v>
       </c>
       <c r="G45" s="61">
         <v>1</v>
@@ -8021,7 +8018,7 @@
       <c r="H45" s="62"/>
       <c r="I45" s="63">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J45" s="93"/>
       <c r="K45" s="99"/>
@@ -8094,11 +8091,11 @@
       </c>
       <c r="D46" s="116"/>
       <c r="E46" s="161">
-        <v>44480</v>
+        <v>44484</v>
       </c>
       <c r="F46" s="162">
         <f t="shared" si="6"/>
-        <v>44482</v>
+        <v>44486</v>
       </c>
       <c r="G46" s="61">
         <v>3</v>
@@ -8108,7 +8105,7 @@
       </c>
       <c r="I46" s="63">
         <f t="shared" si="4"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J46" s="93"/>
       <c r="K46" s="99"/>
@@ -8170,21 +8167,21 @@
     </row>
     <row r="47" spans="1:66" s="60" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A47" s="59" t="s">
-        <v>223</v>
+        <v>214</v>
       </c>
       <c r="B47" s="117" t="s">
-        <v>224</v>
+        <v>215</v>
       </c>
       <c r="C47" s="60" t="s">
         <v>136</v>
       </c>
       <c r="D47" s="116"/>
       <c r="E47" s="161">
-        <v>44480</v>
+        <v>44484</v>
       </c>
       <c r="F47" s="162">
         <f t="shared" si="6"/>
-        <v>44480</v>
+        <v>44484</v>
       </c>
       <c r="G47" s="61">
         <v>1</v>
@@ -8254,21 +8251,21 @@
     </row>
     <row r="48" spans="1:66" s="60" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A48" s="59" t="s">
-        <v>225</v>
+        <v>216</v>
       </c>
       <c r="B48" s="117" t="s">
-        <v>226</v>
+        <v>217</v>
       </c>
       <c r="C48" s="60" t="s">
         <v>136</v>
       </c>
       <c r="D48" s="116"/>
       <c r="E48" s="161">
-        <v>44481</v>
+        <v>44485</v>
       </c>
       <c r="F48" s="162">
         <f t="shared" si="6"/>
-        <v>44481</v>
+        <v>44485</v>
       </c>
       <c r="G48" s="61">
         <v>1</v>
@@ -8276,7 +8273,7 @@
       <c r="H48" s="62"/>
       <c r="I48" s="63">
         <f t="shared" si="4"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J48" s="93"/>
       <c r="K48" s="99"/>
@@ -8338,21 +8335,21 @@
     </row>
     <row r="49" spans="1:66" s="60" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A49" s="59" t="s">
-        <v>227</v>
+        <v>218</v>
       </c>
       <c r="B49" s="117" t="s">
-        <v>228</v>
+        <v>219</v>
       </c>
       <c r="C49" s="60" t="s">
         <v>136</v>
       </c>
       <c r="D49" s="116"/>
       <c r="E49" s="161">
-        <v>44482</v>
+        <v>44486</v>
       </c>
       <c r="F49" s="162">
         <f t="shared" si="6"/>
-        <v>44482</v>
+        <v>44486</v>
       </c>
       <c r="G49" s="61">
         <v>1</v>
@@ -8360,7 +8357,7 @@
       <c r="H49" s="62"/>
       <c r="I49" s="63">
         <f t="shared" si="4"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J49" s="93"/>
       <c r="K49" s="99"/>
@@ -8421,27 +8418,30 @@
       <c r="BN49" s="99"/>
     </row>
     <row r="50" spans="1:66" s="60" customFormat="1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A50" s="59">
+      <c r="A50" s="59" t="str">
+        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
         <v>2.5</v>
       </c>
       <c r="B50" s="115" t="s">
-        <v>214</v>
+        <v>186</v>
       </c>
       <c r="C50" s="60" t="s">
         <v>136</v>
       </c>
       <c r="D50" s="116"/>
       <c r="E50" s="161">
-        <v>44482</v>
+        <v>44486</v>
       </c>
       <c r="F50" s="162">
         <f t="shared" si="6"/>
-        <v>44485</v>
+        <v>44489</v>
       </c>
       <c r="G50" s="61">
         <v>4</v>
       </c>
-      <c r="H50" s="62"/>
+      <c r="H50" s="62">
+        <v>0</v>
+      </c>
       <c r="I50" s="63">
         <f t="shared" si="4"/>
         <v>3</v>
@@ -8506,7 +8506,7 @@
     </row>
     <row r="51" spans="1:66" s="60" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A51" s="59" t="s">
-        <v>215</v>
+        <v>187</v>
       </c>
       <c r="B51" s="117" t="s">
         <v>155</v>
@@ -8514,20 +8514,23 @@
       <c r="C51" s="60" t="s">
         <v>136</v>
       </c>
-      <c r="D51" s="116"/>
-      <c r="E51" s="161">
-        <v>44482</v>
-      </c>
-      <c r="F51" s="162">
+      <c r="D51" s="169"/>
+      <c r="E51" s="170">
+        <v>44486</v>
+      </c>
+      <c r="F51" s="171">
         <f t="shared" si="6"/>
-        <v>44482</v>
-      </c>
-      <c r="G51" s="61">
+        <v>44486</v>
+      </c>
+      <c r="G51" s="172">
         <v>1</v>
       </c>
-      <c r="H51" s="62"/>
-      <c r="I51" s="63"/>
-      <c r="J51" s="93"/>
+      <c r="H51" s="173"/>
+      <c r="I51" s="174">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="J51" s="175"/>
       <c r="K51" s="99"/>
       <c r="L51" s="99"/>
       <c r="M51" s="99"/>
@@ -8587,7 +8590,7 @@
     </row>
     <row r="52" spans="1:66" s="60" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A52" s="59" t="s">
-        <v>216</v>
+        <v>188</v>
       </c>
       <c r="B52" s="117" t="s">
         <v>154</v>
@@ -8595,20 +8598,23 @@
       <c r="C52" s="60" t="s">
         <v>136</v>
       </c>
-      <c r="D52" s="116"/>
-      <c r="E52" s="161">
-        <v>44482</v>
-      </c>
-      <c r="F52" s="162">
+      <c r="D52" s="169"/>
+      <c r="E52" s="170">
+        <v>44486</v>
+      </c>
+      <c r="F52" s="171">
         <f t="shared" si="6"/>
-        <v>44482</v>
-      </c>
-      <c r="G52" s="61">
+        <v>44486</v>
+      </c>
+      <c r="G52" s="172">
         <v>1</v>
       </c>
-      <c r="H52" s="62"/>
-      <c r="I52" s="63"/>
-      <c r="J52" s="93"/>
+      <c r="H52" s="173"/>
+      <c r="I52" s="174">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="J52" s="175"/>
       <c r="K52" s="99"/>
       <c r="L52" s="99"/>
       <c r="M52" s="99"/>
@@ -8668,7 +8674,7 @@
     </row>
     <row r="53" spans="1:66" s="60" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A53" s="59" t="s">
-        <v>217</v>
+        <v>189</v>
       </c>
       <c r="B53" s="117" t="s">
         <v>156</v>
@@ -8676,20 +8682,23 @@
       <c r="C53" s="60" t="s">
         <v>136</v>
       </c>
-      <c r="D53" s="116"/>
-      <c r="E53" s="161">
-        <v>44483</v>
-      </c>
-      <c r="F53" s="162">
+      <c r="D53" s="169"/>
+      <c r="E53" s="170">
+        <v>44487</v>
+      </c>
+      <c r="F53" s="171">
         <f t="shared" si="6"/>
-        <v>44483</v>
-      </c>
-      <c r="G53" s="61">
+        <v>44487</v>
+      </c>
+      <c r="G53" s="172">
         <v>1</v>
       </c>
-      <c r="H53" s="62"/>
-      <c r="I53" s="63"/>
-      <c r="J53" s="93"/>
+      <c r="H53" s="173"/>
+      <c r="I53" s="174">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="J53" s="175"/>
       <c r="K53" s="99"/>
       <c r="L53" s="99"/>
       <c r="M53" s="99"/>
@@ -8749,7 +8758,7 @@
     </row>
     <row r="54" spans="1:66" s="60" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A54" s="59" t="s">
-        <v>218</v>
+        <v>191</v>
       </c>
       <c r="B54" s="117" t="s">
         <v>158</v>
@@ -8757,20 +8766,23 @@
       <c r="C54" s="60" t="s">
         <v>136</v>
       </c>
-      <c r="D54" s="116"/>
-      <c r="E54" s="161">
-        <v>44483</v>
-      </c>
-      <c r="F54" s="162">
+      <c r="D54" s="169"/>
+      <c r="E54" s="170">
+        <v>44487</v>
+      </c>
+      <c r="F54" s="171">
         <f t="shared" si="6"/>
-        <v>44483</v>
-      </c>
-      <c r="G54" s="61">
+        <v>44487</v>
+      </c>
+      <c r="G54" s="172">
         <v>1</v>
       </c>
-      <c r="H54" s="62"/>
-      <c r="I54" s="63"/>
-      <c r="J54" s="93"/>
+      <c r="H54" s="173"/>
+      <c r="I54" s="174">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="J54" s="175"/>
       <c r="K54" s="99"/>
       <c r="L54" s="99"/>
       <c r="M54" s="99"/>
@@ -8830,7 +8842,7 @@
     </row>
     <row r="55" spans="1:66" s="60" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A55" s="59" t="s">
-        <v>219</v>
+        <v>190</v>
       </c>
       <c r="B55" s="117" t="s">
         <v>160</v>
@@ -8838,20 +8850,23 @@
       <c r="C55" s="60" t="s">
         <v>136</v>
       </c>
-      <c r="D55" s="116"/>
-      <c r="E55" s="161">
-        <v>44484</v>
-      </c>
-      <c r="F55" s="162">
+      <c r="D55" s="169"/>
+      <c r="E55" s="170">
+        <v>44488</v>
+      </c>
+      <c r="F55" s="171">
         <f t="shared" si="6"/>
-        <v>44484</v>
-      </c>
-      <c r="G55" s="61">
+        <v>44488</v>
+      </c>
+      <c r="G55" s="172">
         <v>1</v>
       </c>
-      <c r="H55" s="62"/>
-      <c r="I55" s="63"/>
-      <c r="J55" s="93"/>
+      <c r="H55" s="173"/>
+      <c r="I55" s="174">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="J55" s="175"/>
       <c r="K55" s="99"/>
       <c r="L55" s="99"/>
       <c r="M55" s="99"/>
@@ -8911,7 +8926,7 @@
     </row>
     <row r="56" spans="1:66" s="60" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A56" s="59" t="s">
-        <v>220</v>
+        <v>191</v>
       </c>
       <c r="B56" s="117" t="s">
         <v>163</v>
@@ -8919,20 +8934,23 @@
       <c r="C56" s="60" t="s">
         <v>136</v>
       </c>
-      <c r="D56" s="116"/>
-      <c r="E56" s="161">
-        <v>44484</v>
-      </c>
-      <c r="F56" s="162">
+      <c r="D56" s="169"/>
+      <c r="E56" s="170">
+        <v>44488</v>
+      </c>
+      <c r="F56" s="171">
         <f t="shared" si="6"/>
-        <v>44484</v>
-      </c>
-      <c r="G56" s="61">
+        <v>44488</v>
+      </c>
+      <c r="G56" s="172">
         <v>1</v>
       </c>
-      <c r="H56" s="62"/>
-      <c r="I56" s="63"/>
-      <c r="J56" s="93"/>
+      <c r="H56" s="173"/>
+      <c r="I56" s="174">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="J56" s="175"/>
       <c r="K56" s="99"/>
       <c r="L56" s="99"/>
       <c r="M56" s="99"/>
@@ -8992,7 +9010,7 @@
     </row>
     <row r="57" spans="1:66" s="60" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A57" s="59" t="s">
-        <v>221</v>
+        <v>192</v>
       </c>
       <c r="B57" s="117" t="s">
         <v>164</v>
@@ -9000,20 +9018,23 @@
       <c r="C57" s="60" t="s">
         <v>136</v>
       </c>
-      <c r="D57" s="116"/>
-      <c r="E57" s="161">
-        <v>44485</v>
-      </c>
-      <c r="F57" s="162">
+      <c r="D57" s="169"/>
+      <c r="E57" s="170">
+        <v>44489</v>
+      </c>
+      <c r="F57" s="171">
         <f t="shared" si="6"/>
-        <v>44485</v>
-      </c>
-      <c r="G57" s="61">
+        <v>44489</v>
+      </c>
+      <c r="G57" s="172">
         <v>1</v>
       </c>
-      <c r="H57" s="62"/>
-      <c r="I57" s="63"/>
-      <c r="J57" s="93"/>
+      <c r="H57" s="173"/>
+      <c r="I57" s="174">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="J57" s="175"/>
       <c r="K57" s="99"/>
       <c r="L57" s="99"/>
       <c r="M57" s="99"/>
@@ -9073,7 +9094,7 @@
     </row>
     <row r="58" spans="1:66" s="60" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A58" s="59" t="s">
-        <v>222</v>
+        <v>193</v>
       </c>
       <c r="B58" s="117" t="s">
         <v>166</v>
@@ -9081,20 +9102,23 @@
       <c r="C58" s="60" t="s">
         <v>136</v>
       </c>
-      <c r="D58" s="116"/>
-      <c r="E58" s="161">
-        <v>44485</v>
-      </c>
-      <c r="F58" s="162">
+      <c r="D58" s="169"/>
+      <c r="E58" s="170">
+        <v>44489</v>
+      </c>
+      <c r="F58" s="171">
         <f t="shared" si="6"/>
-        <v>44485</v>
-      </c>
-      <c r="G58" s="61">
+        <v>44489</v>
+      </c>
+      <c r="G58" s="172">
         <v>1</v>
       </c>
-      <c r="H58" s="62"/>
-      <c r="I58" s="63"/>
-      <c r="J58" s="93"/>
+      <c r="H58" s="173"/>
+      <c r="I58" s="174">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="J58" s="175"/>
       <c r="K58" s="99"/>
       <c r="L58" s="99"/>
       <c r="M58" s="99"/>
@@ -9153,35 +9177,32 @@
       <c r="BN58" s="99"/>
     </row>
     <row r="59" spans="1:66" s="60" customFormat="1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A59" s="59" t="str">
-        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
-        <v>2.6</v>
-      </c>
-      <c r="B59" s="115" t="s">
-        <v>186</v>
+      <c r="A59" s="59">
+        <v>2.7</v>
+      </c>
+      <c r="B59" s="176" t="s">
+        <v>194</v>
       </c>
       <c r="C59" s="60" t="s">
         <v>136</v>
       </c>
-      <c r="D59" s="116"/>
-      <c r="E59" s="161">
-        <v>44486</v>
-      </c>
-      <c r="F59" s="162">
-        <f t="shared" si="6"/>
-        <v>44489</v>
-      </c>
-      <c r="G59" s="61">
-        <v>4</v>
-      </c>
-      <c r="H59" s="62">
-        <v>0</v>
-      </c>
-      <c r="I59" s="63">
+      <c r="D59" s="169"/>
+      <c r="E59" s="170">
+        <v>44490</v>
+      </c>
+      <c r="F59" s="171">
+        <f>IF(ISBLANK(E59)," - ",IF(G59=0,E59,E59+G59-1))</f>
+        <v>44491</v>
+      </c>
+      <c r="G59" s="172">
+        <v>2</v>
+      </c>
+      <c r="H59" s="173"/>
+      <c r="I59" s="174">
         <f t="shared" si="4"/>
-        <v>3</v>
-      </c>
-      <c r="J59" s="93"/>
+        <v>2</v>
+      </c>
+      <c r="J59" s="175"/>
       <c r="K59" s="99"/>
       <c r="L59" s="99"/>
       <c r="M59" s="99"/>
@@ -9239,117 +9260,114 @@
       <c r="BM59" s="99"/>
       <c r="BN59" s="99"/>
     </row>
-    <row r="60" spans="1:66" s="60" customFormat="1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A60" s="59" t="s">
-        <v>187</v>
-      </c>
-      <c r="B60" s="117" t="s">
-        <v>155</v>
-      </c>
-      <c r="C60" s="60" t="s">
-        <v>136</v>
-      </c>
-      <c r="D60" s="169"/>
-      <c r="E60" s="170">
-        <v>44486</v>
-      </c>
-      <c r="F60" s="171">
+    <row r="60" spans="1:66" s="54" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A60" s="52" t="str">
+        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),TEXT(VALUE(prevWBS)+1,"#"),TEXT(VALUE(LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1))+1,"#")))</f>
+        <v>3</v>
+      </c>
+      <c r="B60" s="53" t="s">
+        <v>195</v>
+      </c>
+      <c r="D60" s="55"/>
+      <c r="E60" s="163"/>
+      <c r="F60" s="163" t="str">
         <f t="shared" si="6"/>
-        <v>44486</v>
-      </c>
-      <c r="G60" s="172">
-        <v>1</v>
-      </c>
-      <c r="H60" s="173"/>
-      <c r="I60" s="174">
+        <v xml:space="preserve"> - </v>
+      </c>
+      <c r="G60" s="56"/>
+      <c r="H60" s="57"/>
+      <c r="I60" s="58" t="str">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="J60" s="175"/>
-      <c r="K60" s="99"/>
-      <c r="L60" s="99"/>
-      <c r="M60" s="99"/>
-      <c r="N60" s="99"/>
-      <c r="O60" s="99"/>
-      <c r="P60" s="99"/>
-      <c r="Q60" s="99"/>
-      <c r="R60" s="99"/>
-      <c r="S60" s="99"/>
-      <c r="T60" s="99"/>
-      <c r="U60" s="99"/>
-      <c r="V60" s="99"/>
-      <c r="W60" s="99"/>
-      <c r="X60" s="99"/>
-      <c r="Y60" s="99"/>
-      <c r="Z60" s="99"/>
-      <c r="AA60" s="99"/>
-      <c r="AB60" s="99"/>
-      <c r="AC60" s="99"/>
-      <c r="AD60" s="99"/>
-      <c r="AE60" s="99"/>
-      <c r="AF60" s="99"/>
-      <c r="AG60" s="99"/>
-      <c r="AH60" s="99"/>
-      <c r="AI60" s="99"/>
-      <c r="AJ60" s="99"/>
-      <c r="AK60" s="99"/>
-      <c r="AL60" s="99"/>
-      <c r="AM60" s="99"/>
-      <c r="AN60" s="99"/>
-      <c r="AO60" s="99"/>
-      <c r="AP60" s="99"/>
-      <c r="AQ60" s="99"/>
-      <c r="AR60" s="99"/>
-      <c r="AS60" s="99"/>
-      <c r="AT60" s="99"/>
-      <c r="AU60" s="99"/>
-      <c r="AV60" s="99"/>
-      <c r="AW60" s="99"/>
-      <c r="AX60" s="99"/>
-      <c r="AY60" s="99"/>
-      <c r="AZ60" s="99"/>
-      <c r="BA60" s="99"/>
-      <c r="BB60" s="99"/>
-      <c r="BC60" s="99"/>
-      <c r="BD60" s="99"/>
-      <c r="BE60" s="99"/>
-      <c r="BF60" s="99"/>
-      <c r="BG60" s="99"/>
-      <c r="BH60" s="99"/>
-      <c r="BI60" s="99"/>
-      <c r="BJ60" s="99"/>
-      <c r="BK60" s="99"/>
-      <c r="BL60" s="99"/>
-      <c r="BM60" s="99"/>
-      <c r="BN60" s="99"/>
+        <v xml:space="preserve"> - </v>
+      </c>
+      <c r="J60" s="94"/>
+      <c r="K60" s="101"/>
+      <c r="L60" s="101"/>
+      <c r="M60" s="101"/>
+      <c r="N60" s="101"/>
+      <c r="O60" s="101"/>
+      <c r="P60" s="101"/>
+      <c r="Q60" s="101"/>
+      <c r="R60" s="101"/>
+      <c r="S60" s="101"/>
+      <c r="T60" s="101"/>
+      <c r="U60" s="101"/>
+      <c r="V60" s="101"/>
+      <c r="W60" s="101"/>
+      <c r="X60" s="101"/>
+      <c r="Y60" s="101"/>
+      <c r="Z60" s="101"/>
+      <c r="AA60" s="101"/>
+      <c r="AB60" s="101"/>
+      <c r="AC60" s="101"/>
+      <c r="AD60" s="101"/>
+      <c r="AE60" s="101"/>
+      <c r="AF60" s="101"/>
+      <c r="AG60" s="101"/>
+      <c r="AH60" s="101"/>
+      <c r="AI60" s="101"/>
+      <c r="AJ60" s="101"/>
+      <c r="AK60" s="101"/>
+      <c r="AL60" s="101"/>
+      <c r="AM60" s="101"/>
+      <c r="AN60" s="101"/>
+      <c r="AO60" s="101"/>
+      <c r="AP60" s="101"/>
+      <c r="AQ60" s="101"/>
+      <c r="AR60" s="101"/>
+      <c r="AS60" s="101"/>
+      <c r="AT60" s="101"/>
+      <c r="AU60" s="101"/>
+      <c r="AV60" s="101"/>
+      <c r="AW60" s="101"/>
+      <c r="AX60" s="101"/>
+      <c r="AY60" s="101"/>
+      <c r="AZ60" s="101"/>
+      <c r="BA60" s="101"/>
+      <c r="BB60" s="101"/>
+      <c r="BC60" s="101"/>
+      <c r="BD60" s="101"/>
+      <c r="BE60" s="101"/>
+      <c r="BF60" s="101"/>
+      <c r="BG60" s="101"/>
+      <c r="BH60" s="101"/>
+      <c r="BI60" s="101"/>
+      <c r="BJ60" s="101"/>
+      <c r="BK60" s="101"/>
+      <c r="BL60" s="101"/>
+      <c r="BM60" s="101"/>
+      <c r="BN60" s="101"/>
     </row>
     <row r="61" spans="1:66" s="60" customFormat="1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A61" s="59" t="s">
-        <v>188</v>
-      </c>
-      <c r="B61" s="117" t="s">
-        <v>154</v>
+      <c r="A61" s="59" t="str">
+        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
+        <v>3.1</v>
+      </c>
+      <c r="B61" s="115" t="s">
+        <v>224</v>
       </c>
       <c r="C61" s="60" t="s">
         <v>136</v>
       </c>
-      <c r="D61" s="169"/>
-      <c r="E61" s="170">
-        <v>44486</v>
-      </c>
-      <c r="F61" s="171">
-        <f t="shared" si="6"/>
-        <v>44486</v>
-      </c>
-      <c r="G61" s="172">
-        <v>1</v>
-      </c>
-      <c r="H61" s="173"/>
-      <c r="I61" s="174">
+      <c r="D61" s="116"/>
+      <c r="E61" s="161">
+        <v>44491</v>
+      </c>
+      <c r="F61" s="162">
+        <f>IF(ISBLANK(E61)," - ",IF(G61=0,E61,E61+G61-1))</f>
+        <v>44503</v>
+      </c>
+      <c r="G61" s="61">
+        <v>13</v>
+      </c>
+      <c r="H61" s="62">
+        <v>0</v>
+      </c>
+      <c r="I61" s="63">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="J61" s="175"/>
+        <v>9</v>
+      </c>
+      <c r="J61" s="93"/>
       <c r="K61" s="99"/>
       <c r="L61" s="99"/>
       <c r="M61" s="99"/>
@@ -9407,33 +9425,33 @@
       <c r="BM61" s="99"/>
       <c r="BN61" s="99"/>
     </row>
-    <row r="62" spans="1:66" s="60" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:66" s="60" customFormat="1" ht="24" x14ac:dyDescent="0.2">
       <c r="A62" s="59" t="s">
-        <v>189</v>
+        <v>196</v>
       </c>
       <c r="B62" s="117" t="s">
-        <v>156</v>
+        <v>197</v>
       </c>
       <c r="C62" s="60" t="s">
         <v>136</v>
       </c>
-      <c r="D62" s="169"/>
-      <c r="E62" s="170">
-        <v>44487</v>
-      </c>
-      <c r="F62" s="171">
+      <c r="D62" s="116"/>
+      <c r="E62" s="161">
+        <v>44491</v>
+      </c>
+      <c r="F62" s="162">
         <f t="shared" si="6"/>
-        <v>44487</v>
-      </c>
-      <c r="G62" s="172">
+        <v>44491</v>
+      </c>
+      <c r="G62" s="61">
         <v>1</v>
       </c>
-      <c r="H62" s="173"/>
-      <c r="I62" s="174">
+      <c r="H62" s="62"/>
+      <c r="I62" s="63">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="J62" s="175"/>
+      <c r="J62" s="93"/>
       <c r="K62" s="99"/>
       <c r="L62" s="99"/>
       <c r="M62" s="99"/>
@@ -9493,7 +9511,7 @@
     </row>
     <row r="63" spans="1:66" s="60" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A63" s="59" t="s">
-        <v>191</v>
+        <v>198</v>
       </c>
       <c r="B63" s="117" t="s">
         <v>158</v>
@@ -9501,23 +9519,25 @@
       <c r="C63" s="60" t="s">
         <v>136</v>
       </c>
-      <c r="D63" s="169"/>
-      <c r="E63" s="170">
-        <v>44487</v>
-      </c>
-      <c r="F63" s="171">
-        <f t="shared" si="6"/>
-        <v>44487</v>
-      </c>
-      <c r="G63" s="172">
-        <v>1</v>
-      </c>
-      <c r="H63" s="173"/>
-      <c r="I63" s="174">
+      <c r="D63" s="116"/>
+      <c r="E63" s="161">
+        <v>44491</v>
+      </c>
+      <c r="F63" s="162">
+        <f t="shared" ref="F63:F71" si="8">IF(ISBLANK(E63)," - ",IF(G63=0,E63,E63+G63-1))</f>
+        <v>44492</v>
+      </c>
+      <c r="G63" s="61">
+        <v>2</v>
+      </c>
+      <c r="H63" s="62">
+        <v>0</v>
+      </c>
+      <c r="I63" s="63">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="J63" s="175"/>
+      <c r="J63" s="93"/>
       <c r="K63" s="99"/>
       <c r="L63" s="99"/>
       <c r="M63" s="99"/>
@@ -9577,7 +9597,7 @@
     </row>
     <row r="64" spans="1:66" s="60" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A64" s="59" t="s">
-        <v>190</v>
+        <v>199</v>
       </c>
       <c r="B64" s="117" t="s">
         <v>160</v>
@@ -9585,23 +9605,23 @@
       <c r="C64" s="60" t="s">
         <v>136</v>
       </c>
-      <c r="D64" s="169"/>
-      <c r="E64" s="170">
-        <v>44488</v>
-      </c>
-      <c r="F64" s="171">
-        <f t="shared" si="6"/>
-        <v>44488</v>
-      </c>
-      <c r="G64" s="172">
-        <v>1</v>
-      </c>
-      <c r="H64" s="173"/>
-      <c r="I64" s="174">
+      <c r="D64" s="116"/>
+      <c r="E64" s="161">
+        <v>44492</v>
+      </c>
+      <c r="F64" s="162">
+        <f t="shared" si="8"/>
+        <v>44493</v>
+      </c>
+      <c r="G64" s="61">
+        <v>2</v>
+      </c>
+      <c r="H64" s="62"/>
+      <c r="I64" s="63">
         <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="J64" s="175"/>
+        <v>0</v>
+      </c>
+      <c r="J64" s="93"/>
       <c r="K64" s="99"/>
       <c r="L64" s="99"/>
       <c r="M64" s="99"/>
@@ -9661,7 +9681,7 @@
     </row>
     <row r="65" spans="1:66" s="60" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A65" s="59" t="s">
-        <v>191</v>
+        <v>200</v>
       </c>
       <c r="B65" s="117" t="s">
         <v>163</v>
@@ -9669,23 +9689,23 @@
       <c r="C65" s="60" t="s">
         <v>136</v>
       </c>
-      <c r="D65" s="169"/>
-      <c r="E65" s="170">
-        <v>44488</v>
-      </c>
-      <c r="F65" s="171">
-        <f t="shared" si="6"/>
-        <v>44488</v>
-      </c>
-      <c r="G65" s="172">
-        <v>1</v>
-      </c>
-      <c r="H65" s="173"/>
-      <c r="I65" s="174">
+      <c r="D65" s="116"/>
+      <c r="E65" s="161">
+        <v>44493</v>
+      </c>
+      <c r="F65" s="162">
+        <f t="shared" si="8"/>
+        <v>44495</v>
+      </c>
+      <c r="G65" s="61">
+        <v>3</v>
+      </c>
+      <c r="H65" s="62"/>
+      <c r="I65" s="63">
         <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="J65" s="175"/>
+        <v>2</v>
+      </c>
+      <c r="J65" s="93"/>
       <c r="K65" s="99"/>
       <c r="L65" s="99"/>
       <c r="M65" s="99"/>
@@ -9745,7 +9765,7 @@
     </row>
     <row r="66" spans="1:66" s="60" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A66" s="59" t="s">
-        <v>192</v>
+        <v>201</v>
       </c>
       <c r="B66" s="117" t="s">
         <v>164</v>
@@ -9753,23 +9773,23 @@
       <c r="C66" s="60" t="s">
         <v>136</v>
       </c>
-      <c r="D66" s="169"/>
-      <c r="E66" s="170">
-        <v>44489</v>
-      </c>
-      <c r="F66" s="171">
-        <f t="shared" si="6"/>
-        <v>44489</v>
-      </c>
-      <c r="G66" s="172">
-        <v>1</v>
-      </c>
-      <c r="H66" s="173"/>
-      <c r="I66" s="174">
+      <c r="D66" s="116"/>
+      <c r="E66" s="161">
+        <v>44495</v>
+      </c>
+      <c r="F66" s="162">
+        <f t="shared" si="8"/>
+        <v>44497</v>
+      </c>
+      <c r="G66" s="61">
+        <v>3</v>
+      </c>
+      <c r="H66" s="62"/>
+      <c r="I66" s="63">
         <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="J66" s="175"/>
+        <v>3</v>
+      </c>
+      <c r="J66" s="93"/>
       <c r="K66" s="99"/>
       <c r="L66" s="99"/>
       <c r="M66" s="99"/>
@@ -9829,7 +9849,7 @@
     </row>
     <row r="67" spans="1:66" s="60" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A67" s="59" t="s">
-        <v>193</v>
+        <v>202</v>
       </c>
       <c r="B67" s="117" t="s">
         <v>166</v>
@@ -9837,23 +9857,23 @@
       <c r="C67" s="60" t="s">
         <v>136</v>
       </c>
-      <c r="D67" s="169"/>
-      <c r="E67" s="170">
-        <v>44489</v>
-      </c>
-      <c r="F67" s="171">
-        <f t="shared" si="6"/>
-        <v>44489</v>
-      </c>
-      <c r="G67" s="172">
-        <v>1</v>
-      </c>
-      <c r="H67" s="173"/>
-      <c r="I67" s="174">
+      <c r="D67" s="116"/>
+      <c r="E67" s="161">
+        <v>44497</v>
+      </c>
+      <c r="F67" s="162">
+        <f t="shared" si="8"/>
+        <v>44499</v>
+      </c>
+      <c r="G67" s="61">
+        <v>3</v>
+      </c>
+      <c r="H67" s="62"/>
+      <c r="I67" s="63">
         <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="J67" s="175"/>
+        <v>2</v>
+      </c>
+      <c r="J67" s="93"/>
       <c r="K67" s="99"/>
       <c r="L67" s="99"/>
       <c r="M67" s="99"/>
@@ -9912,32 +9932,32 @@
       <c r="BN67" s="99"/>
     </row>
     <row r="68" spans="1:66" s="60" customFormat="1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A68" s="59">
-        <v>2.7</v>
-      </c>
-      <c r="B68" s="176" t="s">
-        <v>194</v>
+      <c r="A68" s="59" t="s">
+        <v>203</v>
+      </c>
+      <c r="B68" s="117" t="s">
+        <v>155</v>
       </c>
       <c r="C68" s="60" t="s">
         <v>136</v>
       </c>
-      <c r="D68" s="169"/>
-      <c r="E68" s="170">
-        <v>44490</v>
-      </c>
-      <c r="F68" s="171">
-        <f>IF(ISBLANK(E68)," - ",IF(G68=0,E68,E68+G68-1))</f>
-        <v>44491</v>
-      </c>
-      <c r="G68" s="172">
+      <c r="D68" s="116"/>
+      <c r="E68" s="161">
+        <v>44499</v>
+      </c>
+      <c r="F68" s="162">
+        <f t="shared" si="8"/>
+        <v>44500</v>
+      </c>
+      <c r="G68" s="61">
         <v>2</v>
       </c>
-      <c r="H68" s="173"/>
-      <c r="I68" s="174">
+      <c r="H68" s="62"/>
+      <c r="I68" s="63">
         <f t="shared" si="4"/>
-        <v>2</v>
-      </c>
-      <c r="J68" s="175"/>
+        <v>0</v>
+      </c>
+      <c r="J68" s="93"/>
       <c r="K68" s="99"/>
       <c r="L68" s="99"/>
       <c r="M68" s="99"/>
@@ -9995,112 +10015,115 @@
       <c r="BM68" s="99"/>
       <c r="BN68" s="99"/>
     </row>
-    <row r="69" spans="1:66" s="54" customFormat="1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A69" s="52" t="str">
-        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),TEXT(VALUE(prevWBS)+1,"#"),TEXT(VALUE(LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1))+1,"#")))</f>
-        <v>3</v>
-      </c>
-      <c r="B69" s="53" t="s">
-        <v>195</v>
-      </c>
-      <c r="D69" s="55"/>
-      <c r="E69" s="163"/>
-      <c r="F69" s="163" t="str">
-        <f t="shared" si="6"/>
-        <v xml:space="preserve"> - </v>
-      </c>
-      <c r="G69" s="56"/>
-      <c r="H69" s="57"/>
-      <c r="I69" s="58" t="str">
+    <row r="69" spans="1:66" s="60" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A69" s="59" t="s">
+        <v>204</v>
+      </c>
+      <c r="B69" s="117" t="s">
+        <v>154</v>
+      </c>
+      <c r="C69" s="60" t="s">
+        <v>136</v>
+      </c>
+      <c r="D69" s="116"/>
+      <c r="E69" s="161">
+        <v>44501</v>
+      </c>
+      <c r="F69" s="162">
+        <f t="shared" si="8"/>
+        <v>44502</v>
+      </c>
+      <c r="G69" s="61">
+        <v>2</v>
+      </c>
+      <c r="H69" s="62"/>
+      <c r="I69" s="63">
         <f t="shared" si="4"/>
-        <v xml:space="preserve"> - </v>
-      </c>
-      <c r="J69" s="94"/>
-      <c r="K69" s="101"/>
-      <c r="L69" s="101"/>
-      <c r="M69" s="101"/>
-      <c r="N69" s="101"/>
-      <c r="O69" s="101"/>
-      <c r="P69" s="101"/>
-      <c r="Q69" s="101"/>
-      <c r="R69" s="101"/>
-      <c r="S69" s="101"/>
-      <c r="T69" s="101"/>
-      <c r="U69" s="101"/>
-      <c r="V69" s="101"/>
-      <c r="W69" s="101"/>
-      <c r="X69" s="101"/>
-      <c r="Y69" s="101"/>
-      <c r="Z69" s="101"/>
-      <c r="AA69" s="101"/>
-      <c r="AB69" s="101"/>
-      <c r="AC69" s="101"/>
-      <c r="AD69" s="101"/>
-      <c r="AE69" s="101"/>
-      <c r="AF69" s="101"/>
-      <c r="AG69" s="101"/>
-      <c r="AH69" s="101"/>
-      <c r="AI69" s="101"/>
-      <c r="AJ69" s="101"/>
-      <c r="AK69" s="101"/>
-      <c r="AL69" s="101"/>
-      <c r="AM69" s="101"/>
-      <c r="AN69" s="101"/>
-      <c r="AO69" s="101"/>
-      <c r="AP69" s="101"/>
-      <c r="AQ69" s="101"/>
-      <c r="AR69" s="101"/>
-      <c r="AS69" s="101"/>
-      <c r="AT69" s="101"/>
-      <c r="AU69" s="101"/>
-      <c r="AV69" s="101"/>
-      <c r="AW69" s="101"/>
-      <c r="AX69" s="101"/>
-      <c r="AY69" s="101"/>
-      <c r="AZ69" s="101"/>
-      <c r="BA69" s="101"/>
-      <c r="BB69" s="101"/>
-      <c r="BC69" s="101"/>
-      <c r="BD69" s="101"/>
-      <c r="BE69" s="101"/>
-      <c r="BF69" s="101"/>
-      <c r="BG69" s="101"/>
-      <c r="BH69" s="101"/>
-      <c r="BI69" s="101"/>
-      <c r="BJ69" s="101"/>
-      <c r="BK69" s="101"/>
-      <c r="BL69" s="101"/>
-      <c r="BM69" s="101"/>
-      <c r="BN69" s="101"/>
+        <v>2</v>
+      </c>
+      <c r="J69" s="93"/>
+      <c r="K69" s="99"/>
+      <c r="L69" s="99"/>
+      <c r="M69" s="99"/>
+      <c r="N69" s="99"/>
+      <c r="O69" s="99"/>
+      <c r="P69" s="99"/>
+      <c r="Q69" s="99"/>
+      <c r="R69" s="99"/>
+      <c r="S69" s="99"/>
+      <c r="T69" s="99"/>
+      <c r="U69" s="99"/>
+      <c r="V69" s="99"/>
+      <c r="W69" s="99"/>
+      <c r="X69" s="99"/>
+      <c r="Y69" s="99"/>
+      <c r="Z69" s="99"/>
+      <c r="AA69" s="99"/>
+      <c r="AB69" s="99"/>
+      <c r="AC69" s="99"/>
+      <c r="AD69" s="99"/>
+      <c r="AE69" s="99"/>
+      <c r="AF69" s="99"/>
+      <c r="AG69" s="99"/>
+      <c r="AH69" s="99"/>
+      <c r="AI69" s="99"/>
+      <c r="AJ69" s="99"/>
+      <c r="AK69" s="99"/>
+      <c r="AL69" s="99"/>
+      <c r="AM69" s="99"/>
+      <c r="AN69" s="99"/>
+      <c r="AO69" s="99"/>
+      <c r="AP69" s="99"/>
+      <c r="AQ69" s="99"/>
+      <c r="AR69" s="99"/>
+      <c r="AS69" s="99"/>
+      <c r="AT69" s="99"/>
+      <c r="AU69" s="99"/>
+      <c r="AV69" s="99"/>
+      <c r="AW69" s="99"/>
+      <c r="AX69" s="99"/>
+      <c r="AY69" s="99"/>
+      <c r="AZ69" s="99"/>
+      <c r="BA69" s="99"/>
+      <c r="BB69" s="99"/>
+      <c r="BC69" s="99"/>
+      <c r="BD69" s="99"/>
+      <c r="BE69" s="99"/>
+      <c r="BF69" s="99"/>
+      <c r="BG69" s="99"/>
+      <c r="BH69" s="99"/>
+      <c r="BI69" s="99"/>
+      <c r="BJ69" s="99"/>
+      <c r="BK69" s="99"/>
+      <c r="BL69" s="99"/>
+      <c r="BM69" s="99"/>
+      <c r="BN69" s="99"/>
     </row>
     <row r="70" spans="1:66" s="60" customFormat="1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A70" s="59" t="str">
-        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
-        <v>3.1</v>
-      </c>
-      <c r="B70" s="115" t="s">
-        <v>233</v>
+      <c r="A70" s="59" t="s">
+        <v>205</v>
+      </c>
+      <c r="B70" s="117" t="s">
+        <v>156</v>
       </c>
       <c r="C70" s="60" t="s">
         <v>136</v>
       </c>
       <c r="D70" s="116"/>
       <c r="E70" s="161">
-        <v>44491</v>
+        <v>44502</v>
       </c>
       <c r="F70" s="162">
-        <f>IF(ISBLANK(E70)," - ",IF(G70=0,E70,E70+G70-1))</f>
+        <f t="shared" si="8"/>
         <v>44503</v>
       </c>
       <c r="G70" s="61">
-        <v>13</v>
-      </c>
-      <c r="H70" s="62">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H70" s="62"/>
       <c r="I70" s="63">
         <f t="shared" si="4"/>
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="J70" s="93"/>
       <c r="K70" s="99"/>
@@ -10160,33 +10183,30 @@
       <c r="BM70" s="99"/>
       <c r="BN70" s="99"/>
     </row>
-    <row r="71" spans="1:66" s="60" customFormat="1" ht="24" x14ac:dyDescent="0.2">
-      <c r="A71" s="59" t="s">
-        <v>196</v>
-      </c>
-      <c r="B71" s="117" t="s">
-        <v>197</v>
+    <row r="71" spans="1:66" s="60" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A71" s="59">
+        <v>3.2</v>
+      </c>
+      <c r="B71" s="176" t="s">
+        <v>222</v>
       </c>
       <c r="C71" s="60" t="s">
         <v>136</v>
       </c>
       <c r="D71" s="116"/>
       <c r="E71" s="161">
-        <v>44491</v>
+        <v>44504</v>
       </c>
       <c r="F71" s="162">
-        <f t="shared" si="6"/>
-        <v>44491</v>
+        <f t="shared" si="8"/>
+        <v>44505</v>
       </c>
       <c r="G71" s="61">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H71" s="62"/>
-      <c r="I71" s="63">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="J71" s="93"/>
+      <c r="I71" s="174"/>
+      <c r="J71" s="175"/>
       <c r="K71" s="99"/>
       <c r="L71" s="99"/>
       <c r="M71" s="99"/>
@@ -10244,112 +10264,104 @@
       <c r="BM71" s="99"/>
       <c r="BN71" s="99"/>
     </row>
-    <row r="72" spans="1:66" s="60" customFormat="1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A72" s="59" t="s">
-        <v>198</v>
-      </c>
-      <c r="B72" s="117" t="s">
-        <v>158</v>
-      </c>
-      <c r="C72" s="60" t="s">
-        <v>136</v>
-      </c>
-      <c r="D72" s="116"/>
-      <c r="E72" s="161">
-        <v>44491</v>
-      </c>
-      <c r="F72" s="162">
-        <f t="shared" ref="F72:F80" si="8">IF(ISBLANK(E72)," - ",IF(G72=0,E72,E72+G72-1))</f>
-        <v>44492</v>
-      </c>
-      <c r="G72" s="61">
-        <v>2</v>
-      </c>
-      <c r="H72" s="62">
-        <v>0</v>
-      </c>
-      <c r="I72" s="63">
+    <row r="72" spans="1:66" s="54" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A72" s="52" t="str">
+        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),TEXT(VALUE(prevWBS)+1,"#"),TEXT(VALUE(LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1))+1,"#")))</f>
+        <v>4</v>
+      </c>
+      <c r="B72" s="53" t="s">
+        <v>206</v>
+      </c>
+      <c r="D72" s="55"/>
+      <c r="E72" s="163"/>
+      <c r="F72" s="163" t="str">
+        <f t="shared" si="6"/>
+        <v xml:space="preserve"> - </v>
+      </c>
+      <c r="G72" s="56"/>
+      <c r="H72" s="57"/>
+      <c r="I72" s="58" t="str">
         <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="J72" s="93"/>
-      <c r="K72" s="99"/>
-      <c r="L72" s="99"/>
-      <c r="M72" s="99"/>
-      <c r="N72" s="99"/>
-      <c r="O72" s="99"/>
-      <c r="P72" s="99"/>
-      <c r="Q72" s="99"/>
-      <c r="R72" s="99"/>
-      <c r="S72" s="99"/>
-      <c r="T72" s="99"/>
-      <c r="U72" s="99"/>
-      <c r="V72" s="99"/>
-      <c r="W72" s="99"/>
-      <c r="X72" s="99"/>
-      <c r="Y72" s="99"/>
-      <c r="Z72" s="99"/>
-      <c r="AA72" s="99"/>
-      <c r="AB72" s="99"/>
-      <c r="AC72" s="99"/>
-      <c r="AD72" s="99"/>
-      <c r="AE72" s="99"/>
-      <c r="AF72" s="99"/>
-      <c r="AG72" s="99"/>
-      <c r="AH72" s="99"/>
-      <c r="AI72" s="99"/>
-      <c r="AJ72" s="99"/>
-      <c r="AK72" s="99"/>
-      <c r="AL72" s="99"/>
-      <c r="AM72" s="99"/>
-      <c r="AN72" s="99"/>
-      <c r="AO72" s="99"/>
-      <c r="AP72" s="99"/>
-      <c r="AQ72" s="99"/>
-      <c r="AR72" s="99"/>
-      <c r="AS72" s="99"/>
-      <c r="AT72" s="99"/>
-      <c r="AU72" s="99"/>
-      <c r="AV72" s="99"/>
-      <c r="AW72" s="99"/>
-      <c r="AX72" s="99"/>
-      <c r="AY72" s="99"/>
-      <c r="AZ72" s="99"/>
-      <c r="BA72" s="99"/>
-      <c r="BB72" s="99"/>
-      <c r="BC72" s="99"/>
-      <c r="BD72" s="99"/>
-      <c r="BE72" s="99"/>
-      <c r="BF72" s="99"/>
-      <c r="BG72" s="99"/>
-      <c r="BH72" s="99"/>
-      <c r="BI72" s="99"/>
-      <c r="BJ72" s="99"/>
-      <c r="BK72" s="99"/>
-      <c r="BL72" s="99"/>
-      <c r="BM72" s="99"/>
-      <c r="BN72" s="99"/>
-    </row>
-    <row r="73" spans="1:66" s="60" customFormat="1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A73" s="59" t="s">
-        <v>199</v>
-      </c>
-      <c r="B73" s="117" t="s">
-        <v>160</v>
+        <v xml:space="preserve"> - </v>
+      </c>
+      <c r="J72" s="94"/>
+      <c r="K72" s="101"/>
+      <c r="L72" s="101"/>
+      <c r="M72" s="101"/>
+      <c r="N72" s="101"/>
+      <c r="O72" s="101"/>
+      <c r="P72" s="101"/>
+      <c r="Q72" s="101"/>
+      <c r="R72" s="101"/>
+      <c r="S72" s="101"/>
+      <c r="T72" s="101"/>
+      <c r="U72" s="101"/>
+      <c r="V72" s="101"/>
+      <c r="W72" s="101"/>
+      <c r="X72" s="101"/>
+      <c r="Y72" s="101"/>
+      <c r="Z72" s="101"/>
+      <c r="AA72" s="101"/>
+      <c r="AB72" s="101"/>
+      <c r="AC72" s="101"/>
+      <c r="AD72" s="101"/>
+      <c r="AE72" s="101"/>
+      <c r="AF72" s="101"/>
+      <c r="AG72" s="101"/>
+      <c r="AH72" s="101"/>
+      <c r="AI72" s="101"/>
+      <c r="AJ72" s="101"/>
+      <c r="AK72" s="101"/>
+      <c r="AL72" s="101"/>
+      <c r="AM72" s="101"/>
+      <c r="AN72" s="101"/>
+      <c r="AO72" s="101"/>
+      <c r="AP72" s="101"/>
+      <c r="AQ72" s="101"/>
+      <c r="AR72" s="101"/>
+      <c r="AS72" s="101"/>
+      <c r="AT72" s="101"/>
+      <c r="AU72" s="101"/>
+      <c r="AV72" s="101"/>
+      <c r="AW72" s="101"/>
+      <c r="AX72" s="101"/>
+      <c r="AY72" s="101"/>
+      <c r="AZ72" s="101"/>
+      <c r="BA72" s="101"/>
+      <c r="BB72" s="101"/>
+      <c r="BC72" s="101"/>
+      <c r="BD72" s="101"/>
+      <c r="BE72" s="101"/>
+      <c r="BF72" s="101"/>
+      <c r="BG72" s="101"/>
+      <c r="BH72" s="101"/>
+      <c r="BI72" s="101"/>
+      <c r="BJ72" s="101"/>
+      <c r="BK72" s="101"/>
+      <c r="BL72" s="101"/>
+      <c r="BM72" s="101"/>
+      <c r="BN72" s="101"/>
+    </row>
+    <row r="73" spans="1:66" s="60" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A73" s="59">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="B73" s="176" t="s">
+        <v>184</v>
       </c>
       <c r="C73" s="60" t="s">
         <v>136</v>
       </c>
       <c r="D73" s="116"/>
       <c r="E73" s="161">
-        <v>44492</v>
+        <v>44506</v>
       </c>
       <c r="F73" s="162">
-        <f t="shared" si="8"/>
-        <v>44493</v>
+        <f t="shared" ref="F73" si="9">IF(ISBLANK(E73)," - ",IF(G73=0,E73,E73+G73-1))</f>
+        <v>44506</v>
       </c>
       <c r="G73" s="61">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H73" s="62"/>
       <c r="I73" s="63">
@@ -10414,32 +10426,32 @@
       <c r="BM73" s="99"/>
       <c r="BN73" s="99"/>
     </row>
-    <row r="74" spans="1:66" s="60" customFormat="1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A74" s="59" t="s">
-        <v>200</v>
-      </c>
-      <c r="B74" s="117" t="s">
-        <v>163</v>
+    <row r="74" spans="1:66" s="60" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A74" s="59" t="str">
+        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
+        <v>4.2</v>
+      </c>
+      <c r="B74" s="115" t="s">
+        <v>207</v>
       </c>
       <c r="C74" s="60" t="s">
         <v>136</v>
       </c>
       <c r="D74" s="116"/>
       <c r="E74" s="161">
-        <v>44493</v>
+        <v>44507</v>
       </c>
       <c r="F74" s="162">
-        <f t="shared" si="8"/>
-        <v>44495</v>
+        <f t="shared" ref="F74" si="10">IF(ISBLANK(E74)," - ",IF(G74=0,E74,E74+G74-1))</f>
+        <v>44509</v>
       </c>
       <c r="G74" s="61">
         <v>3</v>
       </c>
-      <c r="H74" s="62"/>
-      <c r="I74" s="63">
-        <f t="shared" si="4"/>
-        <v>2</v>
-      </c>
+      <c r="H74" s="62">
+        <v>0</v>
+      </c>
+      <c r="I74" s="63"/>
       <c r="J74" s="93"/>
       <c r="K74" s="99"/>
       <c r="L74" s="99"/>
@@ -10499,27 +10511,30 @@
       <c r="BN74" s="99"/>
     </row>
     <row r="75" spans="1:66" s="60" customFormat="1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A75" s="59" t="s">
-        <v>201</v>
-      </c>
-      <c r="B75" s="117" t="s">
-        <v>164</v>
+      <c r="A75" s="59" t="str">
+        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
+        <v>4.3</v>
+      </c>
+      <c r="B75" s="115" t="s">
+        <v>208</v>
       </c>
       <c r="C75" s="60" t="s">
         <v>136</v>
       </c>
       <c r="D75" s="116"/>
       <c r="E75" s="161">
-        <v>44495</v>
+        <v>44510</v>
       </c>
       <c r="F75" s="162">
-        <f t="shared" si="8"/>
-        <v>44497</v>
+        <f t="shared" si="6"/>
+        <v>44512</v>
       </c>
       <c r="G75" s="61">
         <v>3</v>
       </c>
-      <c r="H75" s="62"/>
+      <c r="H75" s="62">
+        <v>0</v>
+      </c>
       <c r="I75" s="63">
         <f t="shared" si="4"/>
         <v>3</v>
@@ -10583,30 +10598,33 @@
       <c r="BN75" s="99"/>
     </row>
     <row r="76" spans="1:66" s="60" customFormat="1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A76" s="59" t="s">
-        <v>202</v>
-      </c>
-      <c r="B76" s="117" t="s">
-        <v>166</v>
+      <c r="A76" s="59" t="str">
+        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
+        <v>4.4</v>
+      </c>
+      <c r="B76" s="115" t="s">
+        <v>209</v>
       </c>
       <c r="C76" s="60" t="s">
         <v>136</v>
       </c>
       <c r="D76" s="116"/>
       <c r="E76" s="161">
-        <v>44497</v>
+        <v>44513</v>
       </c>
       <c r="F76" s="162">
-        <f t="shared" si="8"/>
-        <v>44499</v>
+        <f t="shared" si="6"/>
+        <v>44515</v>
       </c>
       <c r="G76" s="61">
         <v>3</v>
       </c>
-      <c r="H76" s="62"/>
+      <c r="H76" s="62">
+        <v>0</v>
+      </c>
       <c r="I76" s="63">
         <f t="shared" si="4"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J76" s="93"/>
       <c r="K76" s="99"/>
@@ -10666,114 +10684,110 @@
       <c r="BM76" s="99"/>
       <c r="BN76" s="99"/>
     </row>
-    <row r="77" spans="1:66" s="60" customFormat="1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A77" s="59" t="s">
-        <v>203</v>
-      </c>
-      <c r="B77" s="117" t="s">
-        <v>155</v>
-      </c>
-      <c r="C77" s="60" t="s">
-        <v>136</v>
-      </c>
-      <c r="D77" s="116"/>
-      <c r="E77" s="161">
-        <v>44499</v>
-      </c>
-      <c r="F77" s="162">
-        <f t="shared" si="8"/>
-        <v>44500</v>
-      </c>
-      <c r="G77" s="61">
-        <v>2</v>
-      </c>
-      <c r="H77" s="62"/>
-      <c r="I77" s="63">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="J77" s="93"/>
-      <c r="K77" s="99"/>
-      <c r="L77" s="99"/>
-      <c r="M77" s="99"/>
-      <c r="N77" s="99"/>
-      <c r="O77" s="99"/>
-      <c r="P77" s="99"/>
-      <c r="Q77" s="99"/>
-      <c r="R77" s="99"/>
-      <c r="S77" s="99"/>
-      <c r="T77" s="99"/>
-      <c r="U77" s="99"/>
-      <c r="V77" s="99"/>
-      <c r="W77" s="99"/>
-      <c r="X77" s="99"/>
-      <c r="Y77" s="99"/>
-      <c r="Z77" s="99"/>
-      <c r="AA77" s="99"/>
-      <c r="AB77" s="99"/>
-      <c r="AC77" s="99"/>
-      <c r="AD77" s="99"/>
-      <c r="AE77" s="99"/>
-      <c r="AF77" s="99"/>
-      <c r="AG77" s="99"/>
-      <c r="AH77" s="99"/>
-      <c r="AI77" s="99"/>
-      <c r="AJ77" s="99"/>
-      <c r="AK77" s="99"/>
-      <c r="AL77" s="99"/>
-      <c r="AM77" s="99"/>
-      <c r="AN77" s="99"/>
-      <c r="AO77" s="99"/>
-      <c r="AP77" s="99"/>
-      <c r="AQ77" s="99"/>
-      <c r="AR77" s="99"/>
-      <c r="AS77" s="99"/>
-      <c r="AT77" s="99"/>
-      <c r="AU77" s="99"/>
-      <c r="AV77" s="99"/>
-      <c r="AW77" s="99"/>
-      <c r="AX77" s="99"/>
-      <c r="AY77" s="99"/>
-      <c r="AZ77" s="99"/>
-      <c r="BA77" s="99"/>
-      <c r="BB77" s="99"/>
-      <c r="BC77" s="99"/>
-      <c r="BD77" s="99"/>
-      <c r="BE77" s="99"/>
-      <c r="BF77" s="99"/>
-      <c r="BG77" s="99"/>
-      <c r="BH77" s="99"/>
-      <c r="BI77" s="99"/>
-      <c r="BJ77" s="99"/>
-      <c r="BK77" s="99"/>
-      <c r="BL77" s="99"/>
-      <c r="BM77" s="99"/>
-      <c r="BN77" s="99"/>
+    <row r="77" spans="1:66" s="54" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A77" s="52">
+        <v>5</v>
+      </c>
+      <c r="B77" s="53" t="s">
+        <v>223</v>
+      </c>
+      <c r="D77" s="55"/>
+      <c r="E77" s="163"/>
+      <c r="F77" s="163" t="str">
+        <f t="shared" ref="F77:F81" si="11">IF(ISBLANK(E77)," - ",IF(G77=0,E77,E77+G77-1))</f>
+        <v xml:space="preserve"> - </v>
+      </c>
+      <c r="G77" s="56"/>
+      <c r="H77" s="57"/>
+      <c r="I77" s="58" t="str">
+        <f t="shared" ref="I77:I79" si="12">IF(OR(F77=0,E77=0)," - ",NETWORKDAYS(E77,F77))</f>
+        <v xml:space="preserve"> - </v>
+      </c>
+      <c r="J77" s="94"/>
+      <c r="K77" s="101"/>
+      <c r="L77" s="101"/>
+      <c r="M77" s="101"/>
+      <c r="N77" s="101"/>
+      <c r="O77" s="101"/>
+      <c r="P77" s="101"/>
+      <c r="Q77" s="101"/>
+      <c r="R77" s="101"/>
+      <c r="S77" s="101"/>
+      <c r="T77" s="101"/>
+      <c r="U77" s="101"/>
+      <c r="V77" s="101"/>
+      <c r="W77" s="101"/>
+      <c r="X77" s="101"/>
+      <c r="Y77" s="101"/>
+      <c r="Z77" s="101"/>
+      <c r="AA77" s="101"/>
+      <c r="AB77" s="101"/>
+      <c r="AC77" s="101"/>
+      <c r="AD77" s="101"/>
+      <c r="AE77" s="101"/>
+      <c r="AF77" s="101"/>
+      <c r="AG77" s="101"/>
+      <c r="AH77" s="101"/>
+      <c r="AI77" s="101"/>
+      <c r="AJ77" s="101"/>
+      <c r="AK77" s="101"/>
+      <c r="AL77" s="101"/>
+      <c r="AM77" s="101"/>
+      <c r="AN77" s="101"/>
+      <c r="AO77" s="101"/>
+      <c r="AP77" s="101"/>
+      <c r="AQ77" s="101"/>
+      <c r="AR77" s="101"/>
+      <c r="AS77" s="101"/>
+      <c r="AT77" s="101"/>
+      <c r="AU77" s="101"/>
+      <c r="AV77" s="101"/>
+      <c r="AW77" s="101"/>
+      <c r="AX77" s="101"/>
+      <c r="AY77" s="101"/>
+      <c r="AZ77" s="101"/>
+      <c r="BA77" s="101"/>
+      <c r="BB77" s="101"/>
+      <c r="BC77" s="101"/>
+      <c r="BD77" s="101"/>
+      <c r="BE77" s="101"/>
+      <c r="BF77" s="101"/>
+      <c r="BG77" s="101"/>
+      <c r="BH77" s="101"/>
+      <c r="BI77" s="101"/>
+      <c r="BJ77" s="101"/>
+      <c r="BK77" s="101"/>
+      <c r="BL77" s="101"/>
+      <c r="BM77" s="101"/>
+      <c r="BN77" s="101"/>
     </row>
     <row r="78" spans="1:66" s="60" customFormat="1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A78" s="59" t="s">
-        <v>204</v>
-      </c>
-      <c r="B78" s="117" t="s">
-        <v>154</v>
+      <c r="A78" s="59" t="str">
+        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
+        <v>5.1</v>
+      </c>
+      <c r="B78" s="115" t="s">
+        <v>210</v>
       </c>
       <c r="C78" s="60" t="s">
         <v>136</v>
       </c>
       <c r="D78" s="116"/>
       <c r="E78" s="161">
-        <v>44501</v>
+        <v>44515</v>
       </c>
       <c r="F78" s="162">
-        <f t="shared" si="8"/>
-        <v>44502</v>
+        <f t="shared" si="11"/>
+        <v>44516</v>
       </c>
       <c r="G78" s="61">
         <v>2</v>
       </c>
-      <c r="H78" s="62"/>
+      <c r="H78" s="62">
+        <v>0</v>
+      </c>
       <c r="I78" s="63">
-        <f t="shared" si="4"/>
+        <f t="shared" si="12"/>
         <v>2</v>
       </c>
       <c r="J78" s="93"/>
@@ -10835,29 +10849,32 @@
       <c r="BN78" s="99"/>
     </row>
     <row r="79" spans="1:66" s="60" customFormat="1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A79" s="59" t="s">
-        <v>205</v>
-      </c>
-      <c r="B79" s="117" t="s">
-        <v>156</v>
+      <c r="A79" s="59" t="str">
+        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
+        <v>5.2</v>
+      </c>
+      <c r="B79" s="115" t="s">
+        <v>211</v>
       </c>
       <c r="C79" s="60" t="s">
         <v>136</v>
       </c>
       <c r="D79" s="116"/>
       <c r="E79" s="161">
-        <v>44502</v>
+        <v>44517</v>
       </c>
       <c r="F79" s="162">
-        <f t="shared" si="8"/>
-        <v>44503</v>
+        <f t="shared" si="11"/>
+        <v>44518</v>
       </c>
       <c r="G79" s="61">
         <v>2</v>
       </c>
-      <c r="H79" s="62"/>
+      <c r="H79" s="62">
+        <v>0</v>
+      </c>
       <c r="I79" s="63">
-        <f t="shared" si="4"/>
+        <f t="shared" si="12"/>
         <v>2</v>
       </c>
       <c r="J79" s="93"/>
@@ -10918,28 +10935,28 @@
       <c r="BM79" s="99"/>
       <c r="BN79" s="99"/>
     </row>
-    <row r="80" spans="1:66" s="60" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:66" s="69" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A80" s="59">
-        <v>3.2</v>
-      </c>
-      <c r="B80" s="176" t="s">
-        <v>231</v>
+        <v>5.3</v>
+      </c>
+      <c r="B80" s="115" t="s">
+        <v>213</v>
       </c>
       <c r="C80" s="60" t="s">
         <v>136</v>
       </c>
-      <c r="D80" s="116"/>
-      <c r="E80" s="161">
-        <v>44504</v>
+      <c r="D80" s="169"/>
+      <c r="E80" s="170">
+        <v>44519</v>
       </c>
       <c r="F80" s="162">
-        <f t="shared" si="8"/>
-        <v>44505</v>
-      </c>
-      <c r="G80" s="61">
-        <v>2</v>
-      </c>
-      <c r="H80" s="62"/>
+        <f t="shared" si="11"/>
+        <v>44519</v>
+      </c>
+      <c r="G80" s="172">
+        <v>1</v>
+      </c>
+      <c r="H80" s="173"/>
       <c r="I80" s="174"/>
       <c r="J80" s="175"/>
       <c r="K80" s="99"/>
@@ -10999,111 +11016,98 @@
       <c r="BM80" s="99"/>
       <c r="BN80" s="99"/>
     </row>
-    <row r="81" spans="1:66" s="54" customFormat="1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A81" s="52" t="str">
-        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),TEXT(VALUE(prevWBS)+1,"#"),TEXT(VALUE(LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1))+1,"#")))</f>
-        <v>4</v>
-      </c>
-      <c r="B81" s="53" t="s">
-        <v>206</v>
-      </c>
-      <c r="D81" s="55"/>
-      <c r="E81" s="163"/>
-      <c r="F81" s="163" t="str">
-        <f t="shared" si="6"/>
-        <v xml:space="preserve"> - </v>
-      </c>
-      <c r="G81" s="56"/>
-      <c r="H81" s="57"/>
-      <c r="I81" s="58" t="str">
-        <f t="shared" si="4"/>
-        <v xml:space="preserve"> - </v>
-      </c>
-      <c r="J81" s="94"/>
-      <c r="K81" s="101"/>
-      <c r="L81" s="101"/>
-      <c r="M81" s="101"/>
-      <c r="N81" s="101"/>
-      <c r="O81" s="101"/>
-      <c r="P81" s="101"/>
-      <c r="Q81" s="101"/>
-      <c r="R81" s="101"/>
-      <c r="S81" s="101"/>
-      <c r="T81" s="101"/>
-      <c r="U81" s="101"/>
-      <c r="V81" s="101"/>
-      <c r="W81" s="101"/>
-      <c r="X81" s="101"/>
-      <c r="Y81" s="101"/>
-      <c r="Z81" s="101"/>
-      <c r="AA81" s="101"/>
-      <c r="AB81" s="101"/>
-      <c r="AC81" s="101"/>
-      <c r="AD81" s="101"/>
-      <c r="AE81" s="101"/>
-      <c r="AF81" s="101"/>
-      <c r="AG81" s="101"/>
-      <c r="AH81" s="101"/>
-      <c r="AI81" s="101"/>
-      <c r="AJ81" s="101"/>
-      <c r="AK81" s="101"/>
-      <c r="AL81" s="101"/>
-      <c r="AM81" s="101"/>
-      <c r="AN81" s="101"/>
-      <c r="AO81" s="101"/>
-      <c r="AP81" s="101"/>
-      <c r="AQ81" s="101"/>
-      <c r="AR81" s="101"/>
-      <c r="AS81" s="101"/>
-      <c r="AT81" s="101"/>
-      <c r="AU81" s="101"/>
-      <c r="AV81" s="101"/>
-      <c r="AW81" s="101"/>
-      <c r="AX81" s="101"/>
-      <c r="AY81" s="101"/>
-      <c r="AZ81" s="101"/>
-      <c r="BA81" s="101"/>
-      <c r="BB81" s="101"/>
-      <c r="BC81" s="101"/>
-      <c r="BD81" s="101"/>
-      <c r="BE81" s="101"/>
-      <c r="BF81" s="101"/>
-      <c r="BG81" s="101"/>
-      <c r="BH81" s="101"/>
-      <c r="BI81" s="101"/>
-      <c r="BJ81" s="101"/>
-      <c r="BK81" s="101"/>
-      <c r="BL81" s="101"/>
-      <c r="BM81" s="101"/>
-      <c r="BN81" s="101"/>
-    </row>
-    <row r="82" spans="1:66" s="60" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A82" s="59">
-        <v>4.0999999999999996</v>
-      </c>
-      <c r="B82" s="176" t="s">
-        <v>184</v>
-      </c>
-      <c r="C82" s="60" t="s">
+    <row r="81" spans="1:66" s="69" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A81" s="59">
+        <v>5.4</v>
+      </c>
+      <c r="B81" s="115" t="s">
+        <v>212</v>
+      </c>
+      <c r="C81" s="60" t="s">
         <v>136</v>
       </c>
-      <c r="D82" s="116"/>
-      <c r="E82" s="161">
-        <v>44506</v>
-      </c>
-      <c r="F82" s="162">
-        <f t="shared" ref="F82" si="9">IF(ISBLANK(E82)," - ",IF(G82=0,E82,E82+G82-1))</f>
-        <v>44506</v>
-      </c>
-      <c r="G82" s="61">
+      <c r="D81" s="169"/>
+      <c r="E81" s="170">
+        <v>44520</v>
+      </c>
+      <c r="F81" s="162">
+        <f t="shared" si="11"/>
+        <v>44520</v>
+      </c>
+      <c r="G81" s="172">
         <v>1</v>
       </c>
-      <c r="H82" s="62"/>
-      <c r="I82" s="63">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="J82" s="93"/>
+      <c r="H81" s="173"/>
+      <c r="I81" s="174"/>
+      <c r="J81" s="175"/>
+      <c r="K81" s="99"/>
+      <c r="L81" s="99"/>
+      <c r="M81" s="99"/>
+      <c r="N81" s="99"/>
+      <c r="O81" s="99"/>
+      <c r="P81" s="99"/>
+      <c r="Q81" s="99"/>
+      <c r="R81" s="99"/>
+      <c r="S81" s="99"/>
+      <c r="T81" s="99"/>
+      <c r="U81" s="99"/>
+      <c r="V81" s="99"/>
+      <c r="W81" s="99"/>
+      <c r="X81" s="99"/>
+      <c r="Y81" s="99"/>
+      <c r="Z81" s="99"/>
+      <c r="AA81" s="99"/>
+      <c r="AB81" s="99"/>
+      <c r="AC81" s="99"/>
+      <c r="AD81" s="99"/>
+      <c r="AE81" s="99"/>
+      <c r="AF81" s="99"/>
+      <c r="AG81" s="99"/>
+      <c r="AH81" s="99"/>
+      <c r="AI81" s="99"/>
+      <c r="AJ81" s="99"/>
+      <c r="AK81" s="99"/>
+      <c r="AL81" s="99"/>
+      <c r="AM81" s="99"/>
+      <c r="AN81" s="99"/>
+      <c r="AO81" s="99"/>
+      <c r="AP81" s="99"/>
+      <c r="AQ81" s="99"/>
+      <c r="AR81" s="99"/>
+      <c r="AS81" s="99"/>
+      <c r="AT81" s="99"/>
+      <c r="AU81" s="99"/>
+      <c r="AV81" s="99"/>
+      <c r="AW81" s="99"/>
+      <c r="AX81" s="99"/>
+      <c r="AY81" s="99"/>
+      <c r="AZ81" s="99"/>
+      <c r="BA81" s="99"/>
+      <c r="BB81" s="99"/>
+      <c r="BC81" s="99"/>
+      <c r="BD81" s="99"/>
+      <c r="BE81" s="99"/>
+      <c r="BF81" s="99"/>
+      <c r="BG81" s="99"/>
+      <c r="BH81" s="99"/>
+      <c r="BI81" s="99"/>
+      <c r="BJ81" s="99"/>
+      <c r="BK81" s="99"/>
+      <c r="BL81" s="99"/>
+      <c r="BM81" s="99"/>
+      <c r="BN81" s="99"/>
+    </row>
+    <row r="82" spans="1:66" s="69" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A82" s="59"/>
+      <c r="B82" s="64"/>
+      <c r="C82" s="64"/>
+      <c r="D82" s="65"/>
+      <c r="E82" s="164"/>
+      <c r="F82" s="164"/>
+      <c r="G82" s="66"/>
+      <c r="H82" s="67"/>
+      <c r="I82" s="68"/>
+      <c r="J82" s="95"/>
       <c r="K82" s="99"/>
       <c r="L82" s="99"/>
       <c r="M82" s="99"/>
@@ -11161,33 +11165,17 @@
       <c r="BM82" s="99"/>
       <c r="BN82" s="99"/>
     </row>
-    <row r="83" spans="1:66" s="60" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A83" s="59" t="str">
-        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
-        <v>4.2</v>
-      </c>
-      <c r="B83" s="115" t="s">
-        <v>207</v>
-      </c>
-      <c r="C83" s="60" t="s">
-        <v>136</v>
-      </c>
-      <c r="D83" s="116"/>
-      <c r="E83" s="161">
-        <v>44507</v>
-      </c>
-      <c r="F83" s="162">
-        <f t="shared" ref="F83" si="10">IF(ISBLANK(E83)," - ",IF(G83=0,E83,E83+G83-1))</f>
-        <v>44509</v>
-      </c>
-      <c r="G83" s="61">
-        <v>3</v>
-      </c>
-      <c r="H83" s="62">
-        <v>0</v>
-      </c>
-      <c r="I83" s="63"/>
-      <c r="J83" s="93"/>
+    <row r="83" spans="1:66" s="69" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A83" s="59"/>
+      <c r="B83" s="64"/>
+      <c r="C83" s="64"/>
+      <c r="D83" s="65"/>
+      <c r="E83" s="164"/>
+      <c r="F83" s="164"/>
+      <c r="G83" s="66"/>
+      <c r="H83" s="67"/>
+      <c r="I83" s="68"/>
+      <c r="J83" s="95"/>
       <c r="K83" s="99"/>
       <c r="L83" s="99"/>
       <c r="M83" s="99"/>
@@ -11245,36 +11233,17 @@
       <c r="BM83" s="99"/>
       <c r="BN83" s="99"/>
     </row>
-    <row r="84" spans="1:66" s="60" customFormat="1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A84" s="59" t="str">
-        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
-        <v>4.3</v>
-      </c>
-      <c r="B84" s="115" t="s">
-        <v>208</v>
-      </c>
-      <c r="C84" s="60" t="s">
-        <v>136</v>
-      </c>
-      <c r="D84" s="116"/>
-      <c r="E84" s="161">
-        <v>44510</v>
-      </c>
-      <c r="F84" s="162">
-        <f t="shared" si="6"/>
-        <v>44512</v>
-      </c>
-      <c r="G84" s="61">
-        <v>3</v>
-      </c>
-      <c r="H84" s="62">
-        <v>0</v>
-      </c>
-      <c r="I84" s="63">
-        <f t="shared" si="4"/>
-        <v>3</v>
-      </c>
-      <c r="J84" s="93"/>
+    <row r="84" spans="1:66" s="69" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A84" s="59"/>
+      <c r="B84" s="64"/>
+      <c r="C84" s="64"/>
+      <c r="D84" s="65"/>
+      <c r="E84" s="164"/>
+      <c r="F84" s="164"/>
+      <c r="G84" s="66"/>
+      <c r="H84" s="67"/>
+      <c r="I84" s="68"/>
+      <c r="J84" s="95"/>
       <c r="K84" s="99"/>
       <c r="L84" s="99"/>
       <c r="M84" s="99"/>
@@ -11332,36 +11301,20 @@
       <c r="BM84" s="99"/>
       <c r="BN84" s="99"/>
     </row>
-    <row r="85" spans="1:66" s="60" customFormat="1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A85" s="59" t="str">
-        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
-        <v>4.4</v>
-      </c>
-      <c r="B85" s="115" t="s">
-        <v>209</v>
-      </c>
-      <c r="C85" s="60" t="s">
-        <v>136</v>
-      </c>
-      <c r="D85" s="116"/>
-      <c r="E85" s="161">
-        <v>44513</v>
-      </c>
-      <c r="F85" s="162">
-        <f t="shared" si="6"/>
-        <v>44515</v>
-      </c>
-      <c r="G85" s="61">
-        <v>3</v>
-      </c>
-      <c r="H85" s="62">
-        <v>0</v>
-      </c>
-      <c r="I85" s="63">
+    <row r="85" spans="1:66" s="69" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A85" s="59"/>
+      <c r="B85" s="64"/>
+      <c r="C85" s="64"/>
+      <c r="D85" s="65"/>
+      <c r="E85" s="164"/>
+      <c r="F85" s="164"/>
+      <c r="G85" s="66"/>
+      <c r="H85" s="67"/>
+      <c r="I85" s="68" t="str">
         <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="J85" s="93"/>
+        <v xml:space="preserve"> - </v>
+      </c>
+      <c r="J85" s="95"/>
       <c r="K85" s="99"/>
       <c r="L85" s="99"/>
       <c r="M85" s="99"/>
@@ -11419,113 +11372,89 @@
       <c r="BM85" s="99"/>
       <c r="BN85" s="99"/>
     </row>
-    <row r="86" spans="1:66" s="54" customFormat="1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A86" s="52">
-        <v>5</v>
-      </c>
-      <c r="B86" s="53" t="s">
-        <v>232</v>
-      </c>
-      <c r="D86" s="55"/>
-      <c r="E86" s="163"/>
-      <c r="F86" s="163" t="str">
-        <f t="shared" ref="F86:F90" si="11">IF(ISBLANK(E86)," - ",IF(G86=0,E86,E86+G86-1))</f>
-        <v xml:space="preserve"> - </v>
-      </c>
-      <c r="G86" s="56"/>
-      <c r="H86" s="57"/>
-      <c r="I86" s="58" t="str">
-        <f t="shared" ref="I86:I88" si="12">IF(OR(F86=0,E86=0)," - ",NETWORKDAYS(E86,F86))</f>
-        <v xml:space="preserve"> - </v>
-      </c>
-      <c r="J86" s="94"/>
-      <c r="K86" s="101"/>
-      <c r="L86" s="101"/>
-      <c r="M86" s="101"/>
-      <c r="N86" s="101"/>
-      <c r="O86" s="101"/>
-      <c r="P86" s="101"/>
-      <c r="Q86" s="101"/>
-      <c r="R86" s="101"/>
-      <c r="S86" s="101"/>
-      <c r="T86" s="101"/>
-      <c r="U86" s="101"/>
-      <c r="V86" s="101"/>
-      <c r="W86" s="101"/>
-      <c r="X86" s="101"/>
-      <c r="Y86" s="101"/>
-      <c r="Z86" s="101"/>
-      <c r="AA86" s="101"/>
-      <c r="AB86" s="101"/>
-      <c r="AC86" s="101"/>
-      <c r="AD86" s="101"/>
-      <c r="AE86" s="101"/>
-      <c r="AF86" s="101"/>
-      <c r="AG86" s="101"/>
-      <c r="AH86" s="101"/>
-      <c r="AI86" s="101"/>
-      <c r="AJ86" s="101"/>
-      <c r="AK86" s="101"/>
-      <c r="AL86" s="101"/>
-      <c r="AM86" s="101"/>
-      <c r="AN86" s="101"/>
-      <c r="AO86" s="101"/>
-      <c r="AP86" s="101"/>
-      <c r="AQ86" s="101"/>
-      <c r="AR86" s="101"/>
-      <c r="AS86" s="101"/>
-      <c r="AT86" s="101"/>
-      <c r="AU86" s="101"/>
-      <c r="AV86" s="101"/>
-      <c r="AW86" s="101"/>
-      <c r="AX86" s="101"/>
-      <c r="AY86" s="101"/>
-      <c r="AZ86" s="101"/>
-      <c r="BA86" s="101"/>
-      <c r="BB86" s="101"/>
-      <c r="BC86" s="101"/>
-      <c r="BD86" s="101"/>
-      <c r="BE86" s="101"/>
-      <c r="BF86" s="101"/>
-      <c r="BG86" s="101"/>
-      <c r="BH86" s="101"/>
-      <c r="BI86" s="101"/>
-      <c r="BJ86" s="101"/>
-      <c r="BK86" s="101"/>
-      <c r="BL86" s="101"/>
-      <c r="BM86" s="101"/>
-      <c r="BN86" s="101"/>
-    </row>
-    <row r="87" spans="1:66" s="60" customFormat="1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A87" s="59" t="str">
-        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
-        <v>5.1</v>
-      </c>
-      <c r="B87" s="115" t="s">
-        <v>210</v>
-      </c>
-      <c r="C87" s="60" t="s">
-        <v>136</v>
-      </c>
-      <c r="D87" s="116"/>
-      <c r="E87" s="161">
-        <v>44515</v>
-      </c>
-      <c r="F87" s="162">
-        <f t="shared" si="11"/>
-        <v>44516</v>
-      </c>
-      <c r="G87" s="61">
-        <v>2</v>
-      </c>
-      <c r="H87" s="62">
-        <v>0</v>
-      </c>
-      <c r="I87" s="63">
-        <f t="shared" si="12"/>
-        <v>2</v>
-      </c>
-      <c r="J87" s="93"/>
+    <row r="86" spans="1:66" s="74" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A86" s="70" t="s">
+        <v>1</v>
+      </c>
+      <c r="B86" s="71"/>
+      <c r="C86" s="72"/>
+      <c r="D86" s="72"/>
+      <c r="E86" s="165"/>
+      <c r="F86" s="165"/>
+      <c r="G86" s="73"/>
+      <c r="H86" s="73"/>
+      <c r="I86" s="73"/>
+      <c r="J86" s="96"/>
+      <c r="K86" s="99"/>
+      <c r="L86" s="99"/>
+      <c r="M86" s="99"/>
+      <c r="N86" s="99"/>
+      <c r="O86" s="99"/>
+      <c r="P86" s="99"/>
+      <c r="Q86" s="99"/>
+      <c r="R86" s="99"/>
+      <c r="S86" s="99"/>
+      <c r="T86" s="99"/>
+      <c r="U86" s="99"/>
+      <c r="V86" s="99"/>
+      <c r="W86" s="99"/>
+      <c r="X86" s="99"/>
+      <c r="Y86" s="99"/>
+      <c r="Z86" s="99"/>
+      <c r="AA86" s="99"/>
+      <c r="AB86" s="99"/>
+      <c r="AC86" s="99"/>
+      <c r="AD86" s="99"/>
+      <c r="AE86" s="99"/>
+      <c r="AF86" s="99"/>
+      <c r="AG86" s="99"/>
+      <c r="AH86" s="99"/>
+      <c r="AI86" s="99"/>
+      <c r="AJ86" s="99"/>
+      <c r="AK86" s="99"/>
+      <c r="AL86" s="99"/>
+      <c r="AM86" s="99"/>
+      <c r="AN86" s="99"/>
+      <c r="AO86" s="99"/>
+      <c r="AP86" s="99"/>
+      <c r="AQ86" s="99"/>
+      <c r="AR86" s="99"/>
+      <c r="AS86" s="99"/>
+      <c r="AT86" s="99"/>
+      <c r="AU86" s="99"/>
+      <c r="AV86" s="99"/>
+      <c r="AW86" s="99"/>
+      <c r="AX86" s="99"/>
+      <c r="AY86" s="99"/>
+      <c r="AZ86" s="99"/>
+      <c r="BA86" s="99"/>
+      <c r="BB86" s="99"/>
+      <c r="BC86" s="99"/>
+      <c r="BD86" s="99"/>
+      <c r="BE86" s="99"/>
+      <c r="BF86" s="99"/>
+      <c r="BG86" s="99"/>
+      <c r="BH86" s="99"/>
+      <c r="BI86" s="99"/>
+      <c r="BJ86" s="99"/>
+      <c r="BK86" s="99"/>
+      <c r="BL86" s="99"/>
+      <c r="BM86" s="99"/>
+      <c r="BN86" s="99"/>
+    </row>
+    <row r="87" spans="1:66" s="69" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A87" s="75" t="s">
+        <v>37</v>
+      </c>
+      <c r="B87" s="76"/>
+      <c r="C87" s="76"/>
+      <c r="D87" s="76"/>
+      <c r="E87" s="166"/>
+      <c r="F87" s="166"/>
+      <c r="G87" s="76"/>
+      <c r="H87" s="76"/>
+      <c r="I87" s="76"/>
+      <c r="J87" s="96"/>
       <c r="K87" s="99"/>
       <c r="L87" s="99"/>
       <c r="M87" s="99"/>
@@ -11583,36 +11512,28 @@
       <c r="BM87" s="99"/>
       <c r="BN87" s="99"/>
     </row>
-    <row r="88" spans="1:66" s="60" customFormat="1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A88" s="59" t="str">
-        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
-        <v>5.2</v>
-      </c>
-      <c r="B88" s="115" t="s">
-        <v>211</v>
-      </c>
-      <c r="C88" s="60" t="s">
-        <v>136</v>
-      </c>
-      <c r="D88" s="116"/>
-      <c r="E88" s="161">
-        <v>44517</v>
-      </c>
-      <c r="F88" s="162">
-        <f t="shared" si="11"/>
-        <v>44518</v>
-      </c>
-      <c r="G88" s="61">
-        <v>2</v>
-      </c>
-      <c r="H88" s="62">
-        <v>0</v>
-      </c>
-      <c r="I88" s="63">
-        <f t="shared" si="12"/>
-        <v>2</v>
-      </c>
-      <c r="J88" s="93"/>
+    <row r="88" spans="1:66" s="69" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A88" s="119" t="str">
+        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),TEXT(VALUE(prevWBS)+1,"#"),TEXT(VALUE(LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1))+1,"#")))</f>
+        <v>1</v>
+      </c>
+      <c r="B88" s="120" t="s">
+        <v>76</v>
+      </c>
+      <c r="C88" s="77"/>
+      <c r="D88" s="78"/>
+      <c r="E88" s="161"/>
+      <c r="F88" s="162" t="str">
+        <f t="shared" ref="F88:F91" si="13">IF(ISBLANK(E88)," - ",IF(G88=0,E88,E88+G88-1))</f>
+        <v xml:space="preserve"> - </v>
+      </c>
+      <c r="G88" s="61"/>
+      <c r="H88" s="62"/>
+      <c r="I88" s="79" t="str">
+        <f>IF(OR(F88=0,E88=0)," - ",NETWORKDAYS(E88,F88))</f>
+        <v xml:space="preserve"> - </v>
+      </c>
+      <c r="J88" s="97"/>
       <c r="K88" s="99"/>
       <c r="L88" s="99"/>
       <c r="M88" s="99"/>
@@ -11671,29 +11592,27 @@
       <c r="BN88" s="99"/>
     </row>
     <row r="89" spans="1:66" s="69" customFormat="1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A89" s="59">
-        <v>5.3</v>
-      </c>
-      <c r="B89" s="115" t="s">
-        <v>213</v>
-      </c>
-      <c r="C89" s="60" t="s">
-        <v>136</v>
-      </c>
-      <c r="D89" s="169"/>
-      <c r="E89" s="170">
-        <v>44519</v>
-      </c>
-      <c r="F89" s="162">
-        <f t="shared" si="11"/>
-        <v>44519</v>
-      </c>
-      <c r="G89" s="172">
-        <v>1</v>
-      </c>
-      <c r="H89" s="173"/>
-      <c r="I89" s="174"/>
-      <c r="J89" s="175"/>
+      <c r="A89" s="59" t="str">
+        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
+        <v>1.1</v>
+      </c>
+      <c r="B89" s="80" t="s">
+        <v>62</v>
+      </c>
+      <c r="C89" s="80"/>
+      <c r="D89" s="78"/>
+      <c r="E89" s="161"/>
+      <c r="F89" s="162" t="str">
+        <f t="shared" si="13"/>
+        <v xml:space="preserve"> - </v>
+      </c>
+      <c r="G89" s="61"/>
+      <c r="H89" s="62"/>
+      <c r="I89" s="79" t="str">
+        <f t="shared" ref="I89:I91" si="14">IF(OR(F89=0,E89=0)," - ",NETWORKDAYS(E89,F89))</f>
+        <v xml:space="preserve"> - </v>
+      </c>
+      <c r="J89" s="97"/>
       <c r="K89" s="99"/>
       <c r="L89" s="99"/>
       <c r="M89" s="99"/>
@@ -11752,29 +11671,27 @@
       <c r="BN89" s="99"/>
     </row>
     <row r="90" spans="1:66" s="69" customFormat="1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A90" s="59">
-        <v>5.4</v>
-      </c>
-      <c r="B90" s="115" t="s">
-        <v>212</v>
-      </c>
-      <c r="C90" s="60" t="s">
-        <v>136</v>
-      </c>
-      <c r="D90" s="169"/>
-      <c r="E90" s="170">
-        <v>44520</v>
-      </c>
-      <c r="F90" s="162">
-        <f t="shared" si="11"/>
-        <v>44520</v>
-      </c>
-      <c r="G90" s="172">
-        <v>1</v>
-      </c>
-      <c r="H90" s="173"/>
-      <c r="I90" s="174"/>
-      <c r="J90" s="175"/>
+      <c r="A90" s="59" t="str">
+        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",2))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",3))-FIND("`",SUBSTITUTE(prevWBS,".","`",2))-1)))+1)))</f>
+        <v>1.1.1</v>
+      </c>
+      <c r="B90" s="81" t="s">
+        <v>63</v>
+      </c>
+      <c r="C90" s="80"/>
+      <c r="D90" s="78"/>
+      <c r="E90" s="161"/>
+      <c r="F90" s="162" t="str">
+        <f t="shared" si="13"/>
+        <v xml:space="preserve"> - </v>
+      </c>
+      <c r="G90" s="61"/>
+      <c r="H90" s="62"/>
+      <c r="I90" s="79" t="str">
+        <f t="shared" si="14"/>
+        <v xml:space="preserve"> - </v>
+      </c>
+      <c r="J90" s="97"/>
       <c r="K90" s="99"/>
       <c r="L90" s="99"/>
       <c r="M90" s="99"/>
@@ -11833,16 +11750,27 @@
       <c r="BN90" s="99"/>
     </row>
     <row r="91" spans="1:66" s="69" customFormat="1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A91" s="59"/>
-      <c r="B91" s="64"/>
-      <c r="C91" s="64"/>
-      <c r="D91" s="65"/>
-      <c r="E91" s="164"/>
-      <c r="F91" s="164"/>
-      <c r="G91" s="66"/>
-      <c r="H91" s="67"/>
-      <c r="I91" s="68"/>
-      <c r="J91" s="95"/>
+      <c r="A91" s="59" t="str">
+        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",3)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",4))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",3))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",3))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",4))-FIND("`",SUBSTITUTE(prevWBS,".","`",3))-1)))+1)))</f>
+        <v>1.1.1.1</v>
+      </c>
+      <c r="B91" s="81" t="s">
+        <v>64</v>
+      </c>
+      <c r="C91" s="80"/>
+      <c r="D91" s="78"/>
+      <c r="E91" s="161"/>
+      <c r="F91" s="162" t="str">
+        <f t="shared" si="13"/>
+        <v xml:space="preserve"> - </v>
+      </c>
+      <c r="G91" s="61"/>
+      <c r="H91" s="62"/>
+      <c r="I91" s="79" t="str">
+        <f t="shared" si="14"/>
+        <v xml:space="preserve"> - </v>
+      </c>
+      <c r="J91" s="97"/>
       <c r="K91" s="99"/>
       <c r="L91" s="99"/>
       <c r="M91" s="99"/>
@@ -11900,752 +11828,80 @@
       <c r="BM91" s="99"/>
       <c r="BN91" s="99"/>
     </row>
-    <row r="92" spans="1:66" s="69" customFormat="1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A92" s="59"/>
-      <c r="B92" s="64"/>
-      <c r="C92" s="64"/>
-      <c r="D92" s="65"/>
-      <c r="E92" s="164"/>
-      <c r="F92" s="164"/>
-      <c r="G92" s="66"/>
-      <c r="H92" s="67"/>
-      <c r="I92" s="68"/>
-      <c r="J92" s="95"/>
-      <c r="K92" s="99"/>
-      <c r="L92" s="99"/>
-      <c r="M92" s="99"/>
-      <c r="N92" s="99"/>
-      <c r="O92" s="99"/>
-      <c r="P92" s="99"/>
-      <c r="Q92" s="99"/>
-      <c r="R92" s="99"/>
-      <c r="S92" s="99"/>
-      <c r="T92" s="99"/>
-      <c r="U92" s="99"/>
-      <c r="V92" s="99"/>
-      <c r="W92" s="99"/>
-      <c r="X92" s="99"/>
-      <c r="Y92" s="99"/>
-      <c r="Z92" s="99"/>
-      <c r="AA92" s="99"/>
-      <c r="AB92" s="99"/>
-      <c r="AC92" s="99"/>
-      <c r="AD92" s="99"/>
-      <c r="AE92" s="99"/>
-      <c r="AF92" s="99"/>
-      <c r="AG92" s="99"/>
-      <c r="AH92" s="99"/>
-      <c r="AI92" s="99"/>
-      <c r="AJ92" s="99"/>
-      <c r="AK92" s="99"/>
-      <c r="AL92" s="99"/>
-      <c r="AM92" s="99"/>
-      <c r="AN92" s="99"/>
-      <c r="AO92" s="99"/>
-      <c r="AP92" s="99"/>
-      <c r="AQ92" s="99"/>
-      <c r="AR92" s="99"/>
-      <c r="AS92" s="99"/>
-      <c r="AT92" s="99"/>
-      <c r="AU92" s="99"/>
-      <c r="AV92" s="99"/>
-      <c r="AW92" s="99"/>
-      <c r="AX92" s="99"/>
-      <c r="AY92" s="99"/>
-      <c r="AZ92" s="99"/>
-      <c r="BA92" s="99"/>
-      <c r="BB92" s="99"/>
-      <c r="BC92" s="99"/>
-      <c r="BD92" s="99"/>
-      <c r="BE92" s="99"/>
-      <c r="BF92" s="99"/>
-      <c r="BG92" s="99"/>
-      <c r="BH92" s="99"/>
-      <c r="BI92" s="99"/>
-      <c r="BJ92" s="99"/>
-      <c r="BK92" s="99"/>
-      <c r="BL92" s="99"/>
-      <c r="BM92" s="99"/>
-      <c r="BN92" s="99"/>
-    </row>
-    <row r="93" spans="1:66" s="69" customFormat="1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A93" s="59"/>
-      <c r="B93" s="64"/>
-      <c r="C93" s="64"/>
-      <c r="D93" s="65"/>
-      <c r="E93" s="164"/>
-      <c r="F93" s="164"/>
-      <c r="G93" s="66"/>
-      <c r="H93" s="67"/>
-      <c r="I93" s="68"/>
-      <c r="J93" s="95"/>
-      <c r="K93" s="99"/>
-      <c r="L93" s="99"/>
-      <c r="M93" s="99"/>
-      <c r="N93" s="99"/>
-      <c r="O93" s="99"/>
-      <c r="P93" s="99"/>
-      <c r="Q93" s="99"/>
-      <c r="R93" s="99"/>
-      <c r="S93" s="99"/>
-      <c r="T93" s="99"/>
-      <c r="U93" s="99"/>
-      <c r="V93" s="99"/>
-      <c r="W93" s="99"/>
-      <c r="X93" s="99"/>
-      <c r="Y93" s="99"/>
-      <c r="Z93" s="99"/>
-      <c r="AA93" s="99"/>
-      <c r="AB93" s="99"/>
-      <c r="AC93" s="99"/>
-      <c r="AD93" s="99"/>
-      <c r="AE93" s="99"/>
-      <c r="AF93" s="99"/>
-      <c r="AG93" s="99"/>
-      <c r="AH93" s="99"/>
-      <c r="AI93" s="99"/>
-      <c r="AJ93" s="99"/>
-      <c r="AK93" s="99"/>
-      <c r="AL93" s="99"/>
-      <c r="AM93" s="99"/>
-      <c r="AN93" s="99"/>
-      <c r="AO93" s="99"/>
-      <c r="AP93" s="99"/>
-      <c r="AQ93" s="99"/>
-      <c r="AR93" s="99"/>
-      <c r="AS93" s="99"/>
-      <c r="AT93" s="99"/>
-      <c r="AU93" s="99"/>
-      <c r="AV93" s="99"/>
-      <c r="AW93" s="99"/>
-      <c r="AX93" s="99"/>
-      <c r="AY93" s="99"/>
-      <c r="AZ93" s="99"/>
-      <c r="BA93" s="99"/>
-      <c r="BB93" s="99"/>
-      <c r="BC93" s="99"/>
-      <c r="BD93" s="99"/>
-      <c r="BE93" s="99"/>
-      <c r="BF93" s="99"/>
-      <c r="BG93" s="99"/>
-      <c r="BH93" s="99"/>
-      <c r="BI93" s="99"/>
-      <c r="BJ93" s="99"/>
-      <c r="BK93" s="99"/>
-      <c r="BL93" s="99"/>
-      <c r="BM93" s="99"/>
-      <c r="BN93" s="99"/>
-    </row>
-    <row r="94" spans="1:66" s="69" customFormat="1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A94" s="59"/>
-      <c r="B94" s="64"/>
-      <c r="C94" s="64"/>
-      <c r="D94" s="65"/>
-      <c r="E94" s="164"/>
-      <c r="F94" s="164"/>
-      <c r="G94" s="66"/>
-      <c r="H94" s="67"/>
-      <c r="I94" s="68" t="str">
-        <f t="shared" si="4"/>
-        <v xml:space="preserve"> - </v>
-      </c>
-      <c r="J94" s="95"/>
-      <c r="K94" s="99"/>
-      <c r="L94" s="99"/>
-      <c r="M94" s="99"/>
-      <c r="N94" s="99"/>
-      <c r="O94" s="99"/>
-      <c r="P94" s="99"/>
-      <c r="Q94" s="99"/>
-      <c r="R94" s="99"/>
-      <c r="S94" s="99"/>
-      <c r="T94" s="99"/>
-      <c r="U94" s="99"/>
-      <c r="V94" s="99"/>
-      <c r="W94" s="99"/>
-      <c r="X94" s="99"/>
-      <c r="Y94" s="99"/>
-      <c r="Z94" s="99"/>
-      <c r="AA94" s="99"/>
-      <c r="AB94" s="99"/>
-      <c r="AC94" s="99"/>
-      <c r="AD94" s="99"/>
-      <c r="AE94" s="99"/>
-      <c r="AF94" s="99"/>
-      <c r="AG94" s="99"/>
-      <c r="AH94" s="99"/>
-      <c r="AI94" s="99"/>
-      <c r="AJ94" s="99"/>
-      <c r="AK94" s="99"/>
-      <c r="AL94" s="99"/>
-      <c r="AM94" s="99"/>
-      <c r="AN94" s="99"/>
-      <c r="AO94" s="99"/>
-      <c r="AP94" s="99"/>
-      <c r="AQ94" s="99"/>
-      <c r="AR94" s="99"/>
-      <c r="AS94" s="99"/>
-      <c r="AT94" s="99"/>
-      <c r="AU94" s="99"/>
-      <c r="AV94" s="99"/>
-      <c r="AW94" s="99"/>
-      <c r="AX94" s="99"/>
-      <c r="AY94" s="99"/>
-      <c r="AZ94" s="99"/>
-      <c r="BA94" s="99"/>
-      <c r="BB94" s="99"/>
-      <c r="BC94" s="99"/>
-      <c r="BD94" s="99"/>
-      <c r="BE94" s="99"/>
-      <c r="BF94" s="99"/>
-      <c r="BG94" s="99"/>
-      <c r="BH94" s="99"/>
-      <c r="BI94" s="99"/>
-      <c r="BJ94" s="99"/>
-      <c r="BK94" s="99"/>
-      <c r="BL94" s="99"/>
-      <c r="BM94" s="99"/>
-      <c r="BN94" s="99"/>
-    </row>
-    <row r="95" spans="1:66" s="74" customFormat="1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A95" s="70" t="s">
-        <v>1</v>
-      </c>
-      <c r="B95" s="71"/>
-      <c r="C95" s="72"/>
-      <c r="D95" s="72"/>
-      <c r="E95" s="165"/>
-      <c r="F95" s="165"/>
-      <c r="G95" s="73"/>
-      <c r="H95" s="73"/>
-      <c r="I95" s="73"/>
-      <c r="J95" s="96"/>
-      <c r="K95" s="99"/>
-      <c r="L95" s="99"/>
-      <c r="M95" s="99"/>
-      <c r="N95" s="99"/>
-      <c r="O95" s="99"/>
-      <c r="P95" s="99"/>
-      <c r="Q95" s="99"/>
-      <c r="R95" s="99"/>
-      <c r="S95" s="99"/>
-      <c r="T95" s="99"/>
-      <c r="U95" s="99"/>
-      <c r="V95" s="99"/>
-      <c r="W95" s="99"/>
-      <c r="X95" s="99"/>
-      <c r="Y95" s="99"/>
-      <c r="Z95" s="99"/>
-      <c r="AA95" s="99"/>
-      <c r="AB95" s="99"/>
-      <c r="AC95" s="99"/>
-      <c r="AD95" s="99"/>
-      <c r="AE95" s="99"/>
-      <c r="AF95" s="99"/>
-      <c r="AG95" s="99"/>
-      <c r="AH95" s="99"/>
-      <c r="AI95" s="99"/>
-      <c r="AJ95" s="99"/>
-      <c r="AK95" s="99"/>
-      <c r="AL95" s="99"/>
-      <c r="AM95" s="99"/>
-      <c r="AN95" s="99"/>
-      <c r="AO95" s="99"/>
-      <c r="AP95" s="99"/>
-      <c r="AQ95" s="99"/>
-      <c r="AR95" s="99"/>
-      <c r="AS95" s="99"/>
-      <c r="AT95" s="99"/>
-      <c r="AU95" s="99"/>
-      <c r="AV95" s="99"/>
-      <c r="AW95" s="99"/>
-      <c r="AX95" s="99"/>
-      <c r="AY95" s="99"/>
-      <c r="AZ95" s="99"/>
-      <c r="BA95" s="99"/>
-      <c r="BB95" s="99"/>
-      <c r="BC95" s="99"/>
-      <c r="BD95" s="99"/>
-      <c r="BE95" s="99"/>
-      <c r="BF95" s="99"/>
-      <c r="BG95" s="99"/>
-      <c r="BH95" s="99"/>
-      <c r="BI95" s="99"/>
-      <c r="BJ95" s="99"/>
-      <c r="BK95" s="99"/>
-      <c r="BL95" s="99"/>
-      <c r="BM95" s="99"/>
-      <c r="BN95" s="99"/>
-    </row>
-    <row r="96" spans="1:66" s="69" customFormat="1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A96" s="75" t="s">
-        <v>37</v>
-      </c>
-      <c r="B96" s="76"/>
-      <c r="C96" s="76"/>
-      <c r="D96" s="76"/>
-      <c r="E96" s="166"/>
-      <c r="F96" s="166"/>
-      <c r="G96" s="76"/>
-      <c r="H96" s="76"/>
-      <c r="I96" s="76"/>
-      <c r="J96" s="96"/>
-      <c r="K96" s="99"/>
-      <c r="L96" s="99"/>
-      <c r="M96" s="99"/>
-      <c r="N96" s="99"/>
-      <c r="O96" s="99"/>
-      <c r="P96" s="99"/>
-      <c r="Q96" s="99"/>
-      <c r="R96" s="99"/>
-      <c r="S96" s="99"/>
-      <c r="T96" s="99"/>
-      <c r="U96" s="99"/>
-      <c r="V96" s="99"/>
-      <c r="W96" s="99"/>
-      <c r="X96" s="99"/>
-      <c r="Y96" s="99"/>
-      <c r="Z96" s="99"/>
-      <c r="AA96" s="99"/>
-      <c r="AB96" s="99"/>
-      <c r="AC96" s="99"/>
-      <c r="AD96" s="99"/>
-      <c r="AE96" s="99"/>
-      <c r="AF96" s="99"/>
-      <c r="AG96" s="99"/>
-      <c r="AH96" s="99"/>
-      <c r="AI96" s="99"/>
-      <c r="AJ96" s="99"/>
-      <c r="AK96" s="99"/>
-      <c r="AL96" s="99"/>
-      <c r="AM96" s="99"/>
-      <c r="AN96" s="99"/>
-      <c r="AO96" s="99"/>
-      <c r="AP96" s="99"/>
-      <c r="AQ96" s="99"/>
-      <c r="AR96" s="99"/>
-      <c r="AS96" s="99"/>
-      <c r="AT96" s="99"/>
-      <c r="AU96" s="99"/>
-      <c r="AV96" s="99"/>
-      <c r="AW96" s="99"/>
-      <c r="AX96" s="99"/>
-      <c r="AY96" s="99"/>
-      <c r="AZ96" s="99"/>
-      <c r="BA96" s="99"/>
-      <c r="BB96" s="99"/>
-      <c r="BC96" s="99"/>
-      <c r="BD96" s="99"/>
-      <c r="BE96" s="99"/>
-      <c r="BF96" s="99"/>
-      <c r="BG96" s="99"/>
-      <c r="BH96" s="99"/>
-      <c r="BI96" s="99"/>
-      <c r="BJ96" s="99"/>
-      <c r="BK96" s="99"/>
-      <c r="BL96" s="99"/>
-      <c r="BM96" s="99"/>
-      <c r="BN96" s="99"/>
-    </row>
-    <row r="97" spans="1:66" s="69" customFormat="1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A97" s="119" t="str">
-        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),TEXT(VALUE(prevWBS)+1,"#"),TEXT(VALUE(LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1))+1,"#")))</f>
-        <v>1</v>
-      </c>
-      <c r="B97" s="120" t="s">
-        <v>76</v>
-      </c>
-      <c r="C97" s="77"/>
-      <c r="D97" s="78"/>
-      <c r="E97" s="161"/>
-      <c r="F97" s="162" t="str">
-        <f t="shared" ref="F97:F100" si="13">IF(ISBLANK(E97)," - ",IF(G97=0,E97,E97+G97-1))</f>
-        <v xml:space="preserve"> - </v>
-      </c>
-      <c r="G97" s="61"/>
-      <c r="H97" s="62"/>
-      <c r="I97" s="79" t="str">
-        <f>IF(OR(F97=0,E97=0)," - ",NETWORKDAYS(E97,F97))</f>
-        <v xml:space="preserve"> - </v>
-      </c>
-      <c r="J97" s="97"/>
-      <c r="K97" s="99"/>
-      <c r="L97" s="99"/>
-      <c r="M97" s="99"/>
-      <c r="N97" s="99"/>
-      <c r="O97" s="99"/>
-      <c r="P97" s="99"/>
-      <c r="Q97" s="99"/>
-      <c r="R97" s="99"/>
-      <c r="S97" s="99"/>
-      <c r="T97" s="99"/>
-      <c r="U97" s="99"/>
-      <c r="V97" s="99"/>
-      <c r="W97" s="99"/>
-      <c r="X97" s="99"/>
-      <c r="Y97" s="99"/>
-      <c r="Z97" s="99"/>
-      <c r="AA97" s="99"/>
-      <c r="AB97" s="99"/>
-      <c r="AC97" s="99"/>
-      <c r="AD97" s="99"/>
-      <c r="AE97" s="99"/>
-      <c r="AF97" s="99"/>
-      <c r="AG97" s="99"/>
-      <c r="AH97" s="99"/>
-      <c r="AI97" s="99"/>
-      <c r="AJ97" s="99"/>
-      <c r="AK97" s="99"/>
-      <c r="AL97" s="99"/>
-      <c r="AM97" s="99"/>
-      <c r="AN97" s="99"/>
-      <c r="AO97" s="99"/>
-      <c r="AP97" s="99"/>
-      <c r="AQ97" s="99"/>
-      <c r="AR97" s="99"/>
-      <c r="AS97" s="99"/>
-      <c r="AT97" s="99"/>
-      <c r="AU97" s="99"/>
-      <c r="AV97" s="99"/>
-      <c r="AW97" s="99"/>
-      <c r="AX97" s="99"/>
-      <c r="AY97" s="99"/>
-      <c r="AZ97" s="99"/>
-      <c r="BA97" s="99"/>
-      <c r="BB97" s="99"/>
-      <c r="BC97" s="99"/>
-      <c r="BD97" s="99"/>
-      <c r="BE97" s="99"/>
-      <c r="BF97" s="99"/>
-      <c r="BG97" s="99"/>
-      <c r="BH97" s="99"/>
-      <c r="BI97" s="99"/>
-      <c r="BJ97" s="99"/>
-      <c r="BK97" s="99"/>
-      <c r="BL97" s="99"/>
-      <c r="BM97" s="99"/>
-      <c r="BN97" s="99"/>
-    </row>
-    <row r="98" spans="1:66" s="69" customFormat="1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A98" s="59" t="str">
-        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
-        <v>1.1</v>
-      </c>
-      <c r="B98" s="80" t="s">
-        <v>62</v>
-      </c>
-      <c r="C98" s="80"/>
-      <c r="D98" s="78"/>
-      <c r="E98" s="161"/>
-      <c r="F98" s="162" t="str">
-        <f t="shared" si="13"/>
-        <v xml:space="preserve"> - </v>
-      </c>
-      <c r="G98" s="61"/>
-      <c r="H98" s="62"/>
-      <c r="I98" s="79" t="str">
-        <f t="shared" ref="I98:I100" si="14">IF(OR(F98=0,E98=0)," - ",NETWORKDAYS(E98,F98))</f>
-        <v xml:space="preserve"> - </v>
-      </c>
-      <c r="J98" s="97"/>
-      <c r="K98" s="99"/>
-      <c r="L98" s="99"/>
-      <c r="M98" s="99"/>
-      <c r="N98" s="99"/>
-      <c r="O98" s="99"/>
-      <c r="P98" s="99"/>
-      <c r="Q98" s="99"/>
-      <c r="R98" s="99"/>
-      <c r="S98" s="99"/>
-      <c r="T98" s="99"/>
-      <c r="U98" s="99"/>
-      <c r="V98" s="99"/>
-      <c r="W98" s="99"/>
-      <c r="X98" s="99"/>
-      <c r="Y98" s="99"/>
-      <c r="Z98" s="99"/>
-      <c r="AA98" s="99"/>
-      <c r="AB98" s="99"/>
-      <c r="AC98" s="99"/>
-      <c r="AD98" s="99"/>
-      <c r="AE98" s="99"/>
-      <c r="AF98" s="99"/>
-      <c r="AG98" s="99"/>
-      <c r="AH98" s="99"/>
-      <c r="AI98" s="99"/>
-      <c r="AJ98" s="99"/>
-      <c r="AK98" s="99"/>
-      <c r="AL98" s="99"/>
-      <c r="AM98" s="99"/>
-      <c r="AN98" s="99"/>
-      <c r="AO98" s="99"/>
-      <c r="AP98" s="99"/>
-      <c r="AQ98" s="99"/>
-      <c r="AR98" s="99"/>
-      <c r="AS98" s="99"/>
-      <c r="AT98" s="99"/>
-      <c r="AU98" s="99"/>
-      <c r="AV98" s="99"/>
-      <c r="AW98" s="99"/>
-      <c r="AX98" s="99"/>
-      <c r="AY98" s="99"/>
-      <c r="AZ98" s="99"/>
-      <c r="BA98" s="99"/>
-      <c r="BB98" s="99"/>
-      <c r="BC98" s="99"/>
-      <c r="BD98" s="99"/>
-      <c r="BE98" s="99"/>
-      <c r="BF98" s="99"/>
-      <c r="BG98" s="99"/>
-      <c r="BH98" s="99"/>
-      <c r="BI98" s="99"/>
-      <c r="BJ98" s="99"/>
-      <c r="BK98" s="99"/>
-      <c r="BL98" s="99"/>
-      <c r="BM98" s="99"/>
-      <c r="BN98" s="99"/>
-    </row>
-    <row r="99" spans="1:66" s="69" customFormat="1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A99" s="59" t="str">
-        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",2))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",3))-FIND("`",SUBSTITUTE(prevWBS,".","`",2))-1)))+1)))</f>
-        <v>1.1.1</v>
-      </c>
-      <c r="B99" s="81" t="s">
-        <v>63</v>
-      </c>
-      <c r="C99" s="80"/>
-      <c r="D99" s="78"/>
-      <c r="E99" s="161"/>
-      <c r="F99" s="162" t="str">
-        <f t="shared" si="13"/>
-        <v xml:space="preserve"> - </v>
-      </c>
-      <c r="G99" s="61"/>
-      <c r="H99" s="62"/>
-      <c r="I99" s="79" t="str">
-        <f t="shared" si="14"/>
-        <v xml:space="preserve"> - </v>
-      </c>
-      <c r="J99" s="97"/>
-      <c r="K99" s="99"/>
-      <c r="L99" s="99"/>
-      <c r="M99" s="99"/>
-      <c r="N99" s="99"/>
-      <c r="O99" s="99"/>
-      <c r="P99" s="99"/>
-      <c r="Q99" s="99"/>
-      <c r="R99" s="99"/>
-      <c r="S99" s="99"/>
-      <c r="T99" s="99"/>
-      <c r="U99" s="99"/>
-      <c r="V99" s="99"/>
-      <c r="W99" s="99"/>
-      <c r="X99" s="99"/>
-      <c r="Y99" s="99"/>
-      <c r="Z99" s="99"/>
-      <c r="AA99" s="99"/>
-      <c r="AB99" s="99"/>
-      <c r="AC99" s="99"/>
-      <c r="AD99" s="99"/>
-      <c r="AE99" s="99"/>
-      <c r="AF99" s="99"/>
-      <c r="AG99" s="99"/>
-      <c r="AH99" s="99"/>
-      <c r="AI99" s="99"/>
-      <c r="AJ99" s="99"/>
-      <c r="AK99" s="99"/>
-      <c r="AL99" s="99"/>
-      <c r="AM99" s="99"/>
-      <c r="AN99" s="99"/>
-      <c r="AO99" s="99"/>
-      <c r="AP99" s="99"/>
-      <c r="AQ99" s="99"/>
-      <c r="AR99" s="99"/>
-      <c r="AS99" s="99"/>
-      <c r="AT99" s="99"/>
-      <c r="AU99" s="99"/>
-      <c r="AV99" s="99"/>
-      <c r="AW99" s="99"/>
-      <c r="AX99" s="99"/>
-      <c r="AY99" s="99"/>
-      <c r="AZ99" s="99"/>
-      <c r="BA99" s="99"/>
-      <c r="BB99" s="99"/>
-      <c r="BC99" s="99"/>
-      <c r="BD99" s="99"/>
-      <c r="BE99" s="99"/>
-      <c r="BF99" s="99"/>
-      <c r="BG99" s="99"/>
-      <c r="BH99" s="99"/>
-      <c r="BI99" s="99"/>
-      <c r="BJ99" s="99"/>
-      <c r="BK99" s="99"/>
-      <c r="BL99" s="99"/>
-      <c r="BM99" s="99"/>
-      <c r="BN99" s="99"/>
-    </row>
-    <row r="100" spans="1:66" s="69" customFormat="1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A100" s="59" t="str">
-        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",3)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",4))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",3))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",3))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",4))-FIND("`",SUBSTITUTE(prevWBS,".","`",3))-1)))+1)))</f>
-        <v>1.1.1.1</v>
-      </c>
-      <c r="B100" s="81" t="s">
-        <v>64</v>
-      </c>
-      <c r="C100" s="80"/>
-      <c r="D100" s="78"/>
-      <c r="E100" s="161"/>
-      <c r="F100" s="162" t="str">
-        <f t="shared" si="13"/>
-        <v xml:space="preserve"> - </v>
-      </c>
-      <c r="G100" s="61"/>
-      <c r="H100" s="62"/>
-      <c r="I100" s="79" t="str">
-        <f t="shared" si="14"/>
-        <v xml:space="preserve"> - </v>
-      </c>
-      <c r="J100" s="97"/>
-      <c r="K100" s="99"/>
-      <c r="L100" s="99"/>
-      <c r="M100" s="99"/>
-      <c r="N100" s="99"/>
-      <c r="O100" s="99"/>
-      <c r="P100" s="99"/>
-      <c r="Q100" s="99"/>
-      <c r="R100" s="99"/>
-      <c r="S100" s="99"/>
-      <c r="T100" s="99"/>
-      <c r="U100" s="99"/>
-      <c r="V100" s="99"/>
-      <c r="W100" s="99"/>
-      <c r="X100" s="99"/>
-      <c r="Y100" s="99"/>
-      <c r="Z100" s="99"/>
-      <c r="AA100" s="99"/>
-      <c r="AB100" s="99"/>
-      <c r="AC100" s="99"/>
-      <c r="AD100" s="99"/>
-      <c r="AE100" s="99"/>
-      <c r="AF100" s="99"/>
-      <c r="AG100" s="99"/>
-      <c r="AH100" s="99"/>
-      <c r="AI100" s="99"/>
-      <c r="AJ100" s="99"/>
-      <c r="AK100" s="99"/>
-      <c r="AL100" s="99"/>
-      <c r="AM100" s="99"/>
-      <c r="AN100" s="99"/>
-      <c r="AO100" s="99"/>
-      <c r="AP100" s="99"/>
-      <c r="AQ100" s="99"/>
-      <c r="AR100" s="99"/>
-      <c r="AS100" s="99"/>
-      <c r="AT100" s="99"/>
-      <c r="AU100" s="99"/>
-      <c r="AV100" s="99"/>
-      <c r="AW100" s="99"/>
-      <c r="AX100" s="99"/>
-      <c r="AY100" s="99"/>
-      <c r="AZ100" s="99"/>
-      <c r="BA100" s="99"/>
-      <c r="BB100" s="99"/>
-      <c r="BC100" s="99"/>
-      <c r="BD100" s="99"/>
-      <c r="BE100" s="99"/>
-      <c r="BF100" s="99"/>
-      <c r="BG100" s="99"/>
-      <c r="BH100" s="99"/>
-      <c r="BI100" s="99"/>
-      <c r="BJ100" s="99"/>
-      <c r="BK100" s="99"/>
-      <c r="BL100" s="99"/>
-      <c r="BM100" s="99"/>
-      <c r="BN100" s="99"/>
-    </row>
-    <row r="101" spans="1:66" s="32" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A101" s="151" t="str">
+    <row r="92" spans="1:66" s="32" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A92" s="151" t="str">
         <f>HYPERLINK("https://vertex42.link/HowToCreateAGanttChart","► Watch How to Create a Gantt Chart in Excel")</f>
         <v>► Watch How to Create a Gantt Chart in Excel</v>
       </c>
-      <c r="B101" s="30"/>
-      <c r="C101" s="30"/>
-      <c r="D101" s="31"/>
-      <c r="E101" s="167"/>
-      <c r="F101" s="167"/>
-      <c r="G101" s="30"/>
-      <c r="H101" s="30"/>
-      <c r="I101" s="30"/>
-      <c r="J101" s="30"/>
-      <c r="K101" s="30"/>
-      <c r="L101" s="30"/>
-      <c r="M101" s="30"/>
-      <c r="N101" s="30"/>
-      <c r="O101" s="30"/>
-      <c r="P101" s="30"/>
-      <c r="Q101" s="30"/>
-      <c r="R101" s="30"/>
-      <c r="S101" s="30"/>
-      <c r="T101" s="30"/>
-      <c r="U101" s="30"/>
-      <c r="V101" s="30"/>
-      <c r="W101" s="30"/>
-      <c r="X101" s="30"/>
-      <c r="Y101" s="30"/>
-      <c r="Z101" s="30"/>
-      <c r="AA101" s="30"/>
-      <c r="AB101" s="30"/>
-      <c r="AC101" s="30"/>
-      <c r="AD101" s="30"/>
-      <c r="AE101" s="30"/>
-      <c r="AF101" s="30"/>
-      <c r="AG101" s="30"/>
-      <c r="AH101" s="30"/>
-      <c r="AI101" s="30"/>
-      <c r="AJ101" s="30"/>
-      <c r="AK101" s="30"/>
-      <c r="AL101" s="30"/>
-      <c r="AM101" s="30"/>
-      <c r="AN101" s="30"/>
-      <c r="AO101" s="30"/>
-      <c r="AP101" s="30"/>
-      <c r="AQ101" s="30"/>
-      <c r="AR101" s="30"/>
-      <c r="AS101" s="30"/>
-      <c r="AT101" s="30"/>
-      <c r="AU101" s="30"/>
-      <c r="AV101" s="30"/>
-      <c r="AW101" s="30"/>
-      <c r="AX101" s="30"/>
-      <c r="AY101" s="30"/>
-      <c r="AZ101" s="30"/>
-      <c r="BA101" s="30"/>
-      <c r="BB101" s="30"/>
-      <c r="BC101" s="30"/>
-      <c r="BD101" s="30"/>
-      <c r="BE101" s="30"/>
-      <c r="BF101" s="30"/>
-      <c r="BG101" s="30"/>
-      <c r="BH101" s="30"/>
-      <c r="BI101" s="30"/>
-      <c r="BJ101" s="30"/>
-      <c r="BK101" s="30"/>
-      <c r="BL101" s="30"/>
-      <c r="BM101" s="30"/>
-      <c r="BN101" s="30"/>
+      <c r="B92" s="30"/>
+      <c r="C92" s="30"/>
+      <c r="D92" s="31"/>
+      <c r="E92" s="167"/>
+      <c r="F92" s="167"/>
+      <c r="G92" s="30"/>
+      <c r="H92" s="30"/>
+      <c r="I92" s="30"/>
+      <c r="J92" s="30"/>
+      <c r="K92" s="30"/>
+      <c r="L92" s="30"/>
+      <c r="M92" s="30"/>
+      <c r="N92" s="30"/>
+      <c r="O92" s="30"/>
+      <c r="P92" s="30"/>
+      <c r="Q92" s="30"/>
+      <c r="R92" s="30"/>
+      <c r="S92" s="30"/>
+      <c r="T92" s="30"/>
+      <c r="U92" s="30"/>
+      <c r="V92" s="30"/>
+      <c r="W92" s="30"/>
+      <c r="X92" s="30"/>
+      <c r="Y92" s="30"/>
+      <c r="Z92" s="30"/>
+      <c r="AA92" s="30"/>
+      <c r="AB92" s="30"/>
+      <c r="AC92" s="30"/>
+      <c r="AD92" s="30"/>
+      <c r="AE92" s="30"/>
+      <c r="AF92" s="30"/>
+      <c r="AG92" s="30"/>
+      <c r="AH92" s="30"/>
+      <c r="AI92" s="30"/>
+      <c r="AJ92" s="30"/>
+      <c r="AK92" s="30"/>
+      <c r="AL92" s="30"/>
+      <c r="AM92" s="30"/>
+      <c r="AN92" s="30"/>
+      <c r="AO92" s="30"/>
+      <c r="AP92" s="30"/>
+      <c r="AQ92" s="30"/>
+      <c r="AR92" s="30"/>
+      <c r="AS92" s="30"/>
+      <c r="AT92" s="30"/>
+      <c r="AU92" s="30"/>
+      <c r="AV92" s="30"/>
+      <c r="AW92" s="30"/>
+      <c r="AX92" s="30"/>
+      <c r="AY92" s="30"/>
+      <c r="AZ92" s="30"/>
+      <c r="BA92" s="30"/>
+      <c r="BB92" s="30"/>
+      <c r="BC92" s="30"/>
+      <c r="BD92" s="30"/>
+      <c r="BE92" s="30"/>
+      <c r="BF92" s="30"/>
+      <c r="BG92" s="30"/>
+      <c r="BH92" s="30"/>
+      <c r="BI92" s="30"/>
+      <c r="BJ92" s="30"/>
+      <c r="BK92" s="30"/>
+      <c r="BL92" s="30"/>
+      <c r="BM92" s="30"/>
+      <c r="BN92" s="30"/>
     </row>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertRows="0" deleteRows="0"/>
   <mergeCells count="19">
-    <mergeCell ref="K1:AE1"/>
-    <mergeCell ref="C5:E5"/>
-    <mergeCell ref="R4:X4"/>
-    <mergeCell ref="K4:Q4"/>
-    <mergeCell ref="C4:E4"/>
-    <mergeCell ref="R5:X5"/>
-    <mergeCell ref="K5:Q5"/>
-    <mergeCell ref="Y4:AE4"/>
-    <mergeCell ref="Y5:AE5"/>
     <mergeCell ref="AF4:AL4"/>
     <mergeCell ref="AF5:AL5"/>
     <mergeCell ref="BH4:BN4"/>
@@ -12656,9 +11912,18 @@
     <mergeCell ref="AM4:AS4"/>
     <mergeCell ref="BA4:BG4"/>
     <mergeCell ref="BA5:BG5"/>
+    <mergeCell ref="K1:AE1"/>
+    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="R4:X4"/>
+    <mergeCell ref="K4:Q4"/>
+    <mergeCell ref="C4:E4"/>
+    <mergeCell ref="R5:X5"/>
+    <mergeCell ref="K5:Q5"/>
+    <mergeCell ref="Y4:AE4"/>
+    <mergeCell ref="Y5:AE5"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
-  <conditionalFormatting sqref="H91:H100 H84:H85 H8:H79 H81">
+  <conditionalFormatting sqref="H82:H91 H75:H76 H72 H8:H70">
     <cfRule type="dataBar" priority="9">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -12677,7 +11942,7 @@
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K8:BN100">
+  <conditionalFormatting sqref="K8:BN91">
     <cfRule type="expression" dxfId="3" priority="55">
       <formula>AND($E8&lt;=K$6,ROUNDDOWN(($F8-$E8+1)*$H8,0)+$E8-1&gt;=K$6)</formula>
     </cfRule>
@@ -12685,12 +11950,12 @@
       <formula>AND(NOT(ISBLANK($E8)),$E8&lt;=K$6,$F8&gt;=K$6)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K91:BN100 K6:BN85">
+  <conditionalFormatting sqref="K82:BN91 K6:BN76">
     <cfRule type="expression" dxfId="1" priority="15">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H86:H90">
+  <conditionalFormatting sqref="H77:H81">
     <cfRule type="dataBar" priority="4">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -12704,12 +11969,12 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K86:BN90">
+  <conditionalFormatting sqref="K77:BN81">
     <cfRule type="expression" dxfId="0" priority="5">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H83">
+  <conditionalFormatting sqref="H74">
     <cfRule type="dataBar" priority="3">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -12723,7 +11988,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H82">
+  <conditionalFormatting sqref="H73">
     <cfRule type="dataBar" priority="2">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -12737,7 +12002,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H80">
+  <conditionalFormatting sqref="H71">
     <cfRule type="dataBar" priority="1">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -12761,8 +12026,8 @@
   <pageSetup scale="63" fitToHeight="0" orientation="landscape" r:id="rId2"/>
   <headerFooter alignWithMargins="0"/>
   <ignoredErrors>
-    <ignoredError sqref="H9 A94:B94 A96:B96 B95 E26 E69 E81 E94:H96 G26:H26 G69:H69 G81:H81 H46 G97:G100 H28 H37 H70 H72 H84 H85" unlockedFormula="1"/>
-    <ignoredError sqref="A81 A69 A26" formula="1"/>
+    <ignoredError sqref="H9 A85:B85 A87:B87 B86 E26 E60 E72 E85:H87 G26:H26 G60:H60 G72:H72 H46 G88:G91 H37 H61 H63 H75 H76" unlockedFormula="1"/>
+    <ignoredError sqref="A72 A60 A26" formula="1"/>
   </ignoredErrors>
   <drawing r:id="rId3"/>
   <legacyDrawing r:id="rId4"/>
@@ -12810,7 +12075,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>H91:H100 H84:H85 H8:H79 H81</xm:sqref>
+          <xm:sqref>H82:H91 H75:H76 H72 H8:H70</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{81583CEC-7F5F-4E46-98E4-AC29FDBC59D0}">
@@ -12825,7 +12090,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>H86:H90</xm:sqref>
+          <xm:sqref>H77:H81</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{392BF783-6F84-4AE1-9909-0D933F104F59}">
@@ -12840,7 +12105,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>H83</xm:sqref>
+          <xm:sqref>H74</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{7442C97C-5EBD-4EE1-AFFB-9CBCA499BBD1}">
@@ -12855,7 +12120,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>H82</xm:sqref>
+          <xm:sqref>H73</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{BA2479A8-BE3B-41E0-8189-3FE18FB10AE6}">
@@ -12870,7 +12135,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>H80</xm:sqref>
+          <xm:sqref>H71</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>

--- a/gantt-chart_L version 2.xlsx
+++ b/gantt-chart_L version 2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\HTCS5607\HTCS5607\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A980609C-8359-45D9-8061-33D3391E1F24}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92E4A490-610F-4B30-A068-3107C4B1BEA1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3171,6 +3171,24 @@
     <xf numFmtId="0" fontId="42" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="45" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="45" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="45" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="60" fillId="0" borderId="0" xfId="34" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -3178,27 +3196,9 @@
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="52" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="52" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="52" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="14" fontId="45" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
       <protection locked="0"/>
-    </xf>
-    <xf numFmtId="166" fontId="45" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="45" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="45" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="62" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -4046,8 +4046,8 @@
   <dimension ref="A1:BN92"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="7" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H29" sqref="H29"/>
+      <pane ySplit="7" topLeftCell="A62" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="Y44" sqref="Y44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -4075,29 +4075,29 @@
       <c r="E1" s="152"/>
       <c r="F1" s="152"/>
       <c r="I1" s="121"/>
-      <c r="K1" s="177" t="s">
+      <c r="K1" s="183" t="s">
         <v>77</v>
       </c>
-      <c r="L1" s="177"/>
-      <c r="M1" s="177"/>
-      <c r="N1" s="177"/>
-      <c r="O1" s="177"/>
-      <c r="P1" s="177"/>
-      <c r="Q1" s="177"/>
-      <c r="R1" s="177"/>
-      <c r="S1" s="177"/>
-      <c r="T1" s="177"/>
-      <c r="U1" s="177"/>
-      <c r="V1" s="177"/>
-      <c r="W1" s="177"/>
-      <c r="X1" s="177"/>
-      <c r="Y1" s="177"/>
-      <c r="Z1" s="177"/>
-      <c r="AA1" s="177"/>
-      <c r="AB1" s="177"/>
-      <c r="AC1" s="177"/>
-      <c r="AD1" s="177"/>
-      <c r="AE1" s="177"/>
+      <c r="L1" s="183"/>
+      <c r="M1" s="183"/>
+      <c r="N1" s="183"/>
+      <c r="O1" s="183"/>
+      <c r="P1" s="183"/>
+      <c r="Q1" s="183"/>
+      <c r="R1" s="183"/>
+      <c r="S1" s="183"/>
+      <c r="T1" s="183"/>
+      <c r="U1" s="183"/>
+      <c r="V1" s="183"/>
+      <c r="W1" s="183"/>
+      <c r="X1" s="183"/>
+      <c r="Y1" s="183"/>
+      <c r="Z1" s="183"/>
+      <c r="AA1" s="183"/>
+      <c r="AB1" s="183"/>
+      <c r="AC1" s="183"/>
+      <c r="AD1" s="183"/>
+      <c r="AE1" s="183"/>
     </row>
     <row r="2" spans="1:66" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="51" t="s">
@@ -4142,11 +4142,11 @@
       <c r="B4" s="105" t="s">
         <v>74</v>
       </c>
-      <c r="C4" s="182">
+      <c r="C4" s="185">
         <v>44459</v>
       </c>
-      <c r="D4" s="182"/>
-      <c r="E4" s="182"/>
+      <c r="D4" s="185"/>
+      <c r="E4" s="185"/>
       <c r="F4" s="155"/>
       <c r="G4" s="105" t="s">
         <v>73</v>
@@ -4156,182 +4156,182 @@
       </c>
       <c r="I4" s="103"/>
       <c r="J4" s="49"/>
-      <c r="K4" s="179" t="str">
+      <c r="K4" s="177" t="str">
         <f>"Week "&amp;(K6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 1</v>
       </c>
-      <c r="L4" s="180"/>
-      <c r="M4" s="180"/>
-      <c r="N4" s="180"/>
-      <c r="O4" s="180"/>
-      <c r="P4" s="180"/>
-      <c r="Q4" s="181"/>
-      <c r="R4" s="179" t="str">
+      <c r="L4" s="178"/>
+      <c r="M4" s="178"/>
+      <c r="N4" s="178"/>
+      <c r="O4" s="178"/>
+      <c r="P4" s="178"/>
+      <c r="Q4" s="179"/>
+      <c r="R4" s="177" t="str">
         <f>"Week "&amp;(R6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 2</v>
       </c>
-      <c r="S4" s="180"/>
-      <c r="T4" s="180"/>
-      <c r="U4" s="180"/>
-      <c r="V4" s="180"/>
-      <c r="W4" s="180"/>
-      <c r="X4" s="181"/>
-      <c r="Y4" s="179" t="str">
+      <c r="S4" s="178"/>
+      <c r="T4" s="178"/>
+      <c r="U4" s="178"/>
+      <c r="V4" s="178"/>
+      <c r="W4" s="178"/>
+      <c r="X4" s="179"/>
+      <c r="Y4" s="177" t="str">
         <f>"Week "&amp;(Y6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 3</v>
       </c>
-      <c r="Z4" s="180"/>
-      <c r="AA4" s="180"/>
-      <c r="AB4" s="180"/>
-      <c r="AC4" s="180"/>
-      <c r="AD4" s="180"/>
-      <c r="AE4" s="181"/>
-      <c r="AF4" s="179" t="str">
+      <c r="Z4" s="178"/>
+      <c r="AA4" s="178"/>
+      <c r="AB4" s="178"/>
+      <c r="AC4" s="178"/>
+      <c r="AD4" s="178"/>
+      <c r="AE4" s="179"/>
+      <c r="AF4" s="177" t="str">
         <f>"Week "&amp;(AF6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 4</v>
       </c>
-      <c r="AG4" s="180"/>
-      <c r="AH4" s="180"/>
-      <c r="AI4" s="180"/>
-      <c r="AJ4" s="180"/>
-      <c r="AK4" s="180"/>
-      <c r="AL4" s="181"/>
-      <c r="AM4" s="179" t="str">
+      <c r="AG4" s="178"/>
+      <c r="AH4" s="178"/>
+      <c r="AI4" s="178"/>
+      <c r="AJ4" s="178"/>
+      <c r="AK4" s="178"/>
+      <c r="AL4" s="179"/>
+      <c r="AM4" s="177" t="str">
         <f>"Week "&amp;(AM6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 5</v>
       </c>
-      <c r="AN4" s="180"/>
-      <c r="AO4" s="180"/>
-      <c r="AP4" s="180"/>
-      <c r="AQ4" s="180"/>
-      <c r="AR4" s="180"/>
-      <c r="AS4" s="181"/>
-      <c r="AT4" s="179" t="str">
+      <c r="AN4" s="178"/>
+      <c r="AO4" s="178"/>
+      <c r="AP4" s="178"/>
+      <c r="AQ4" s="178"/>
+      <c r="AR4" s="178"/>
+      <c r="AS4" s="179"/>
+      <c r="AT4" s="177" t="str">
         <f>"Week "&amp;(AT6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 6</v>
       </c>
-      <c r="AU4" s="180"/>
-      <c r="AV4" s="180"/>
-      <c r="AW4" s="180"/>
-      <c r="AX4" s="180"/>
-      <c r="AY4" s="180"/>
-      <c r="AZ4" s="181"/>
-      <c r="BA4" s="179" t="str">
+      <c r="AU4" s="178"/>
+      <c r="AV4" s="178"/>
+      <c r="AW4" s="178"/>
+      <c r="AX4" s="178"/>
+      <c r="AY4" s="178"/>
+      <c r="AZ4" s="179"/>
+      <c r="BA4" s="177" t="str">
         <f>"Week "&amp;(BA6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 7</v>
       </c>
-      <c r="BB4" s="180"/>
-      <c r="BC4" s="180"/>
-      <c r="BD4" s="180"/>
-      <c r="BE4" s="180"/>
-      <c r="BF4" s="180"/>
-      <c r="BG4" s="181"/>
-      <c r="BH4" s="179" t="str">
+      <c r="BB4" s="178"/>
+      <c r="BC4" s="178"/>
+      <c r="BD4" s="178"/>
+      <c r="BE4" s="178"/>
+      <c r="BF4" s="178"/>
+      <c r="BG4" s="179"/>
+      <c r="BH4" s="177" t="str">
         <f>"Week "&amp;(BH6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 8</v>
       </c>
-      <c r="BI4" s="180"/>
-      <c r="BJ4" s="180"/>
-      <c r="BK4" s="180"/>
-      <c r="BL4" s="180"/>
-      <c r="BM4" s="180"/>
-      <c r="BN4" s="181"/>
+      <c r="BI4" s="178"/>
+      <c r="BJ4" s="178"/>
+      <c r="BK4" s="178"/>
+      <c r="BL4" s="178"/>
+      <c r="BM4" s="178"/>
+      <c r="BN4" s="179"/>
     </row>
     <row r="5" spans="1:66" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="102"/>
       <c r="B5" s="105" t="s">
         <v>75</v>
       </c>
-      <c r="C5" s="178" t="s">
+      <c r="C5" s="184" t="s">
         <v>136</v>
       </c>
-      <c r="D5" s="178"/>
-      <c r="E5" s="178"/>
+      <c r="D5" s="184"/>
+      <c r="E5" s="184"/>
       <c r="F5" s="156"/>
       <c r="G5" s="104"/>
       <c r="H5" s="104"/>
       <c r="I5" s="104"/>
       <c r="J5" s="49"/>
-      <c r="K5" s="183">
+      <c r="K5" s="180">
         <f>K6</f>
         <v>44459</v>
       </c>
-      <c r="L5" s="184"/>
-      <c r="M5" s="184"/>
-      <c r="N5" s="184"/>
-      <c r="O5" s="184"/>
-      <c r="P5" s="184"/>
-      <c r="Q5" s="185"/>
-      <c r="R5" s="183">
+      <c r="L5" s="181"/>
+      <c r="M5" s="181"/>
+      <c r="N5" s="181"/>
+      <c r="O5" s="181"/>
+      <c r="P5" s="181"/>
+      <c r="Q5" s="182"/>
+      <c r="R5" s="180">
         <f>R6</f>
         <v>44466</v>
       </c>
-      <c r="S5" s="184"/>
-      <c r="T5" s="184"/>
-      <c r="U5" s="184"/>
-      <c r="V5" s="184"/>
-      <c r="W5" s="184"/>
-      <c r="X5" s="185"/>
-      <c r="Y5" s="183">
+      <c r="S5" s="181"/>
+      <c r="T5" s="181"/>
+      <c r="U5" s="181"/>
+      <c r="V5" s="181"/>
+      <c r="W5" s="181"/>
+      <c r="X5" s="182"/>
+      <c r="Y5" s="180">
         <f>Y6</f>
         <v>44473</v>
       </c>
-      <c r="Z5" s="184"/>
-      <c r="AA5" s="184"/>
-      <c r="AB5" s="184"/>
-      <c r="AC5" s="184"/>
-      <c r="AD5" s="184"/>
-      <c r="AE5" s="185"/>
-      <c r="AF5" s="183">
+      <c r="Z5" s="181"/>
+      <c r="AA5" s="181"/>
+      <c r="AB5" s="181"/>
+      <c r="AC5" s="181"/>
+      <c r="AD5" s="181"/>
+      <c r="AE5" s="182"/>
+      <c r="AF5" s="180">
         <f>AF6</f>
         <v>44480</v>
       </c>
-      <c r="AG5" s="184"/>
-      <c r="AH5" s="184"/>
-      <c r="AI5" s="184"/>
-      <c r="AJ5" s="184"/>
-      <c r="AK5" s="184"/>
-      <c r="AL5" s="185"/>
-      <c r="AM5" s="183">
+      <c r="AG5" s="181"/>
+      <c r="AH5" s="181"/>
+      <c r="AI5" s="181"/>
+      <c r="AJ5" s="181"/>
+      <c r="AK5" s="181"/>
+      <c r="AL5" s="182"/>
+      <c r="AM5" s="180">
         <f>AM6</f>
         <v>44487</v>
       </c>
-      <c r="AN5" s="184"/>
-      <c r="AO5" s="184"/>
-      <c r="AP5" s="184"/>
-      <c r="AQ5" s="184"/>
-      <c r="AR5" s="184"/>
-      <c r="AS5" s="185"/>
-      <c r="AT5" s="183">
+      <c r="AN5" s="181"/>
+      <c r="AO5" s="181"/>
+      <c r="AP5" s="181"/>
+      <c r="AQ5" s="181"/>
+      <c r="AR5" s="181"/>
+      <c r="AS5" s="182"/>
+      <c r="AT5" s="180">
         <f>AT6</f>
         <v>44494</v>
       </c>
-      <c r="AU5" s="184"/>
-      <c r="AV5" s="184"/>
-      <c r="AW5" s="184"/>
-      <c r="AX5" s="184"/>
-      <c r="AY5" s="184"/>
-      <c r="AZ5" s="185"/>
-      <c r="BA5" s="183">
+      <c r="AU5" s="181"/>
+      <c r="AV5" s="181"/>
+      <c r="AW5" s="181"/>
+      <c r="AX5" s="181"/>
+      <c r="AY5" s="181"/>
+      <c r="AZ5" s="182"/>
+      <c r="BA5" s="180">
         <f>BA6</f>
         <v>44501</v>
       </c>
-      <c r="BB5" s="184"/>
-      <c r="BC5" s="184"/>
-      <c r="BD5" s="184"/>
-      <c r="BE5" s="184"/>
-      <c r="BF5" s="184"/>
-      <c r="BG5" s="185"/>
-      <c r="BH5" s="183">
+      <c r="BB5" s="181"/>
+      <c r="BC5" s="181"/>
+      <c r="BD5" s="181"/>
+      <c r="BE5" s="181"/>
+      <c r="BF5" s="181"/>
+      <c r="BG5" s="182"/>
+      <c r="BH5" s="180">
         <f>BH6</f>
         <v>44508</v>
       </c>
-      <c r="BI5" s="184"/>
-      <c r="BJ5" s="184"/>
-      <c r="BK5" s="184"/>
-      <c r="BL5" s="184"/>
-      <c r="BM5" s="184"/>
-      <c r="BN5" s="185"/>
+      <c r="BI5" s="181"/>
+      <c r="BJ5" s="181"/>
+      <c r="BK5" s="181"/>
+      <c r="BL5" s="181"/>
+      <c r="BM5" s="181"/>
+      <c r="BN5" s="182"/>
     </row>
     <row r="6" spans="1:66" x14ac:dyDescent="0.2">
       <c r="A6" s="48"/>
@@ -7334,7 +7334,7 @@
         <v>6</v>
       </c>
       <c r="H37" s="62">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I37" s="63">
         <f t="shared" si="4"/>
@@ -7763,7 +7763,9 @@
       <c r="G42" s="61">
         <v>1</v>
       </c>
-      <c r="H42" s="62"/>
+      <c r="H42" s="62">
+        <v>1</v>
+      </c>
       <c r="I42" s="63">
         <f t="shared" si="4"/>
         <v>1</v>
@@ -7847,7 +7849,9 @@
       <c r="G43" s="61">
         <v>1</v>
       </c>
-      <c r="H43" s="62"/>
+      <c r="H43" s="62">
+        <v>1</v>
+      </c>
       <c r="I43" s="63">
         <f t="shared" si="4"/>
         <v>1</v>
@@ -7931,7 +7935,9 @@
       <c r="G44" s="61">
         <v>1</v>
       </c>
-      <c r="H44" s="62"/>
+      <c r="H44" s="62">
+        <v>1</v>
+      </c>
       <c r="I44" s="63">
         <f t="shared" si="4"/>
         <v>1</v>
@@ -8015,7 +8021,9 @@
       <c r="G45" s="61">
         <v>1</v>
       </c>
-      <c r="H45" s="62"/>
+      <c r="H45" s="62">
+        <v>1</v>
+      </c>
       <c r="I45" s="63">
         <f t="shared" si="4"/>
         <v>1</v>
@@ -11902,6 +11910,15 @@
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertRows="0" deleteRows="0"/>
   <mergeCells count="19">
+    <mergeCell ref="K1:AE1"/>
+    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="R4:X4"/>
+    <mergeCell ref="K4:Q4"/>
+    <mergeCell ref="C4:E4"/>
+    <mergeCell ref="R5:X5"/>
+    <mergeCell ref="K5:Q5"/>
+    <mergeCell ref="Y4:AE4"/>
+    <mergeCell ref="Y5:AE5"/>
     <mergeCell ref="AF4:AL4"/>
     <mergeCell ref="AF5:AL5"/>
     <mergeCell ref="BH4:BN4"/>
@@ -11912,15 +11929,6 @@
     <mergeCell ref="AM4:AS4"/>
     <mergeCell ref="BA4:BG4"/>
     <mergeCell ref="BA5:BG5"/>
-    <mergeCell ref="K1:AE1"/>
-    <mergeCell ref="C5:E5"/>
-    <mergeCell ref="R4:X4"/>
-    <mergeCell ref="K4:Q4"/>
-    <mergeCell ref="C4:E4"/>
-    <mergeCell ref="R5:X5"/>
-    <mergeCell ref="K5:Q5"/>
-    <mergeCell ref="Y4:AE4"/>
-    <mergeCell ref="Y5:AE5"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="H82:H91 H75:H76 H72 H8:H70">
@@ -12026,7 +12034,7 @@
   <pageSetup scale="63" fitToHeight="0" orientation="landscape" r:id="rId2"/>
   <headerFooter alignWithMargins="0"/>
   <ignoredErrors>
-    <ignoredError sqref="H9 A85:B85 A87:B87 B86 E26 E60 E72 E85:H87 G26:H26 G60:H60 G72:H72 H46 G88:G91 H37 H61 H63 H75 H76" unlockedFormula="1"/>
+    <ignoredError sqref="H9 A85:B85 A87:B87 B86 E26 E60 E72 E85:H87 G26:H26 G60:H60 G72:H72 H46 G88:G91 H61 H63 H75 H76" unlockedFormula="1"/>
     <ignoredError sqref="A72 A60 A26" formula="1"/>
   </ignoredErrors>
   <drawing r:id="rId3"/>

--- a/gantt-chart_L version 2.xlsx
+++ b/gantt-chart_L version 2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\HTCS5607\HTCS5607\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92E4A490-610F-4B30-A068-3107C4B1BEA1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A8F828A-135F-4D7D-A4E6-1BE3A6F8B7D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4046,8 +4046,8 @@
   <dimension ref="A1:BN92"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="7" topLeftCell="A62" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="Y44" sqref="Y44"/>
+      <pane ySplit="7" topLeftCell="A50" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F73" sqref="F73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -8194,7 +8194,9 @@
       <c r="G47" s="61">
         <v>1</v>
       </c>
-      <c r="H47" s="62"/>
+      <c r="H47" s="62">
+        <v>0.9</v>
+      </c>
       <c r="I47" s="63">
         <f t="shared" si="4"/>
         <v>1</v>
@@ -8362,7 +8364,9 @@
       <c r="G49" s="61">
         <v>1</v>
       </c>
-      <c r="H49" s="62"/>
+      <c r="H49" s="62">
+        <v>1</v>
+      </c>
       <c r="I49" s="63">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -10362,11 +10366,11 @@
       </c>
       <c r="D73" s="116"/>
       <c r="E73" s="161">
-        <v>44506</v>
+        <v>44497</v>
       </c>
       <c r="F73" s="162">
         <f t="shared" ref="F73" si="9">IF(ISBLANK(E73)," - ",IF(G73=0,E73,E73+G73-1))</f>
-        <v>44506</v>
+        <v>44497</v>
       </c>
       <c r="G73" s="61">
         <v>1</v>
@@ -10374,7 +10378,7 @@
       <c r="H73" s="62"/>
       <c r="I73" s="63">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J73" s="93"/>
       <c r="K73" s="99"/>

--- a/gantt-chart_L version 2.xlsx
+++ b/gantt-chart_L version 2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\HTCS5607\HTCS5607\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A8F828A-135F-4D7D-A4E6-1BE3A6F8B7D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABFB95DF-3E3A-4FFF-A5F7-830B003DD665}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4046,8 +4046,8 @@
   <dimension ref="A1:BN92"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="7" topLeftCell="A50" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F73" sqref="F73"/>
+      <pane ySplit="7" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I46" sqref="I46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -6472,7 +6472,7 @@
         <v>1</v>
       </c>
       <c r="H27" s="62">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="I27" s="63">
         <f t="shared" si="4"/>
@@ -8099,17 +8099,17 @@
       </c>
       <c r="D46" s="116"/>
       <c r="E46" s="161">
-        <v>44484</v>
+        <v>44491</v>
       </c>
       <c r="F46" s="162">
         <f t="shared" si="6"/>
-        <v>44486</v>
+        <v>44493</v>
       </c>
       <c r="G46" s="61">
         <v>3</v>
       </c>
       <c r="H46" s="62">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I46" s="63">
         <f t="shared" si="4"/>
@@ -8185,17 +8185,17 @@
       </c>
       <c r="D47" s="116"/>
       <c r="E47" s="161">
-        <v>44484</v>
+        <v>44491</v>
       </c>
       <c r="F47" s="162">
-        <f t="shared" si="6"/>
-        <v>44484</v>
+        <f>IF(ISBLANK(E47)," - ",IF(G47=0,E47,E47+G47-1))</f>
+        <v>44491</v>
       </c>
       <c r="G47" s="61">
         <v>1</v>
       </c>
       <c r="H47" s="62">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="I47" s="63">
         <f t="shared" si="4"/>
@@ -8271,19 +8271,21 @@
       </c>
       <c r="D48" s="116"/>
       <c r="E48" s="161">
-        <v>44485</v>
+        <v>44491</v>
       </c>
       <c r="F48" s="162">
         <f t="shared" si="6"/>
-        <v>44485</v>
+        <v>44491</v>
       </c>
       <c r="G48" s="61">
         <v>1</v>
       </c>
-      <c r="H48" s="62"/>
+      <c r="H48" s="62">
+        <v>1</v>
+      </c>
       <c r="I48" s="63">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J48" s="93"/>
       <c r="K48" s="99"/>
@@ -8355,11 +8357,11 @@
       </c>
       <c r="D49" s="116"/>
       <c r="E49" s="161">
-        <v>44486</v>
+        <v>44491</v>
       </c>
       <c r="F49" s="162">
         <f t="shared" si="6"/>
-        <v>44486</v>
+        <v>44491</v>
       </c>
       <c r="G49" s="61">
         <v>1</v>
@@ -8369,7 +8371,7 @@
       </c>
       <c r="I49" s="63">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J49" s="93"/>
       <c r="K49" s="99"/>
@@ -8442,11 +8444,11 @@
       </c>
       <c r="D50" s="116"/>
       <c r="E50" s="161">
-        <v>44486</v>
+        <v>44491</v>
       </c>
       <c r="F50" s="162">
         <f t="shared" si="6"/>
-        <v>44489</v>
+        <v>44494</v>
       </c>
       <c r="G50" s="61">
         <v>4</v>
@@ -8456,7 +8458,7 @@
       </c>
       <c r="I50" s="63">
         <f t="shared" si="4"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J50" s="93"/>
       <c r="K50" s="99"/>
@@ -8528,19 +8530,21 @@
       </c>
       <c r="D51" s="169"/>
       <c r="E51" s="170">
-        <v>44486</v>
+        <v>44491</v>
       </c>
       <c r="F51" s="171">
-        <f t="shared" si="6"/>
-        <v>44486</v>
+        <f>IF(ISBLANK(E51)," - ",IF(G51=0,E51,E51+G51-1))</f>
+        <v>44491</v>
       </c>
       <c r="G51" s="172">
         <v>1</v>
       </c>
-      <c r="H51" s="173"/>
+      <c r="H51" s="173">
+        <v>1</v>
+      </c>
       <c r="I51" s="174">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J51" s="175"/>
       <c r="K51" s="99"/>
@@ -8612,19 +8616,21 @@
       </c>
       <c r="D52" s="169"/>
       <c r="E52" s="170">
-        <v>44486</v>
+        <v>44491</v>
       </c>
       <c r="F52" s="171">
         <f t="shared" si="6"/>
-        <v>44486</v>
+        <v>44491</v>
       </c>
       <c r="G52" s="172">
         <v>1</v>
       </c>
-      <c r="H52" s="173"/>
+      <c r="H52" s="173">
+        <v>0.5</v>
+      </c>
       <c r="I52" s="174">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J52" s="175"/>
       <c r="K52" s="99"/>
@@ -8696,11 +8702,11 @@
       </c>
       <c r="D53" s="169"/>
       <c r="E53" s="170">
-        <v>44487</v>
+        <v>44492</v>
       </c>
       <c r="F53" s="171">
         <f t="shared" si="6"/>
-        <v>44487</v>
+        <v>44492</v>
       </c>
       <c r="G53" s="172">
         <v>1</v>
@@ -8708,7 +8714,7 @@
       <c r="H53" s="173"/>
       <c r="I53" s="174">
         <f t="shared" si="4"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J53" s="175"/>
       <c r="K53" s="99"/>
@@ -8780,11 +8786,11 @@
       </c>
       <c r="D54" s="169"/>
       <c r="E54" s="170">
-        <v>44487</v>
+        <v>44492</v>
       </c>
       <c r="F54" s="171">
         <f t="shared" si="6"/>
-        <v>44487</v>
+        <v>44492</v>
       </c>
       <c r="G54" s="172">
         <v>1</v>
@@ -8792,7 +8798,7 @@
       <c r="H54" s="173"/>
       <c r="I54" s="174">
         <f t="shared" si="4"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J54" s="175"/>
       <c r="K54" s="99"/>
@@ -8864,11 +8870,11 @@
       </c>
       <c r="D55" s="169"/>
       <c r="E55" s="170">
-        <v>44488</v>
+        <v>44493</v>
       </c>
       <c r="F55" s="171">
         <f t="shared" si="6"/>
-        <v>44488</v>
+        <v>44493</v>
       </c>
       <c r="G55" s="172">
         <v>1</v>
@@ -8876,7 +8882,7 @@
       <c r="H55" s="173"/>
       <c r="I55" s="174">
         <f t="shared" si="4"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J55" s="175"/>
       <c r="K55" s="99"/>
@@ -8948,11 +8954,11 @@
       </c>
       <c r="D56" s="169"/>
       <c r="E56" s="170">
-        <v>44488</v>
+        <v>44493</v>
       </c>
       <c r="F56" s="171">
         <f t="shared" si="6"/>
-        <v>44488</v>
+        <v>44493</v>
       </c>
       <c r="G56" s="172">
         <v>1</v>
@@ -8960,7 +8966,7 @@
       <c r="H56" s="173"/>
       <c r="I56" s="174">
         <f t="shared" si="4"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J56" s="175"/>
       <c r="K56" s="99"/>
@@ -9032,11 +9038,11 @@
       </c>
       <c r="D57" s="169"/>
       <c r="E57" s="170">
-        <v>44489</v>
+        <v>44494</v>
       </c>
       <c r="F57" s="171">
         <f t="shared" si="6"/>
-        <v>44489</v>
+        <v>44494</v>
       </c>
       <c r="G57" s="172">
         <v>1</v>
@@ -9116,11 +9122,11 @@
       </c>
       <c r="D58" s="169"/>
       <c r="E58" s="170">
-        <v>44489</v>
+        <v>44494</v>
       </c>
       <c r="F58" s="171">
         <f t="shared" si="6"/>
-        <v>44489</v>
+        <v>44494</v>
       </c>
       <c r="G58" s="172">
         <v>1</v>
@@ -9200,11 +9206,11 @@
       </c>
       <c r="D59" s="169"/>
       <c r="E59" s="170">
-        <v>44490</v>
+        <v>44495</v>
       </c>
       <c r="F59" s="171">
         <f>IF(ISBLANK(E59)," - ",IF(G59=0,E59,E59+G59-1))</f>
-        <v>44491</v>
+        <v>44496</v>
       </c>
       <c r="G59" s="172">
         <v>2</v>
@@ -12038,7 +12044,7 @@
   <pageSetup scale="63" fitToHeight="0" orientation="landscape" r:id="rId2"/>
   <headerFooter alignWithMargins="0"/>
   <ignoredErrors>
-    <ignoredError sqref="H9 A85:B85 A87:B87 B86 E26 E60 E72 E85:H87 G26:H26 G60:H60 G72:H72 H46 G88:G91 H61 H63 H75 H76" unlockedFormula="1"/>
+    <ignoredError sqref="H9 A85:B85 A87:B87 B86 E26 E60 E72 E85:H87 G26:H26 G60:H60 G72:H72 G88:G91 H61 H63 H75 H76" unlockedFormula="1"/>
     <ignoredError sqref="A72 A60 A26" formula="1"/>
   </ignoredErrors>
   <drawing r:id="rId3"/>

--- a/gantt-chart_L version 2.xlsx
+++ b/gantt-chart_L version 2.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24527"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\HTCS5607\HTCS5607\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABFB95DF-3E3A-4FFF-A5F7-830B003DD665}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D763566-0871-42A4-9BF8-F3CEC69F4741}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3171,24 +3171,6 @@
     <xf numFmtId="0" fontId="42" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="52" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="52" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="52" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="45" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="45" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="45" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="60" fillId="0" borderId="0" xfId="34" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -3196,9 +3178,27 @@
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="14" fontId="45" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
       <protection locked="0"/>
+    </xf>
+    <xf numFmtId="166" fontId="45" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="45" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="45" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="62" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -4046,8 +4046,8 @@
   <dimension ref="A1:BN92"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="7" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I46" sqref="I46"/>
+      <pane ySplit="7" topLeftCell="A53" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="N69" sqref="N69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -4075,29 +4075,29 @@
       <c r="E1" s="152"/>
       <c r="F1" s="152"/>
       <c r="I1" s="121"/>
-      <c r="K1" s="183" t="s">
+      <c r="K1" s="177" t="s">
         <v>77</v>
       </c>
-      <c r="L1" s="183"/>
-      <c r="M1" s="183"/>
-      <c r="N1" s="183"/>
-      <c r="O1" s="183"/>
-      <c r="P1" s="183"/>
-      <c r="Q1" s="183"/>
-      <c r="R1" s="183"/>
-      <c r="S1" s="183"/>
-      <c r="T1" s="183"/>
-      <c r="U1" s="183"/>
-      <c r="V1" s="183"/>
-      <c r="W1" s="183"/>
-      <c r="X1" s="183"/>
-      <c r="Y1" s="183"/>
-      <c r="Z1" s="183"/>
-      <c r="AA1" s="183"/>
-      <c r="AB1" s="183"/>
-      <c r="AC1" s="183"/>
-      <c r="AD1" s="183"/>
-      <c r="AE1" s="183"/>
+      <c r="L1" s="177"/>
+      <c r="M1" s="177"/>
+      <c r="N1" s="177"/>
+      <c r="O1" s="177"/>
+      <c r="P1" s="177"/>
+      <c r="Q1" s="177"/>
+      <c r="R1" s="177"/>
+      <c r="S1" s="177"/>
+      <c r="T1" s="177"/>
+      <c r="U1" s="177"/>
+      <c r="V1" s="177"/>
+      <c r="W1" s="177"/>
+      <c r="X1" s="177"/>
+      <c r="Y1" s="177"/>
+      <c r="Z1" s="177"/>
+      <c r="AA1" s="177"/>
+      <c r="AB1" s="177"/>
+      <c r="AC1" s="177"/>
+      <c r="AD1" s="177"/>
+      <c r="AE1" s="177"/>
     </row>
     <row r="2" spans="1:66" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="51" t="s">
@@ -4142,11 +4142,11 @@
       <c r="B4" s="105" t="s">
         <v>74</v>
       </c>
-      <c r="C4" s="185">
+      <c r="C4" s="182">
         <v>44459</v>
       </c>
-      <c r="D4" s="185"/>
-      <c r="E4" s="185"/>
+      <c r="D4" s="182"/>
+      <c r="E4" s="182"/>
       <c r="F4" s="155"/>
       <c r="G4" s="105" t="s">
         <v>73</v>
@@ -4156,182 +4156,182 @@
       </c>
       <c r="I4" s="103"/>
       <c r="J4" s="49"/>
-      <c r="K4" s="177" t="str">
+      <c r="K4" s="179" t="str">
         <f>"Week "&amp;(K6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 1</v>
       </c>
-      <c r="L4" s="178"/>
-      <c r="M4" s="178"/>
-      <c r="N4" s="178"/>
-      <c r="O4" s="178"/>
-      <c r="P4" s="178"/>
-      <c r="Q4" s="179"/>
-      <c r="R4" s="177" t="str">
+      <c r="L4" s="180"/>
+      <c r="M4" s="180"/>
+      <c r="N4" s="180"/>
+      <c r="O4" s="180"/>
+      <c r="P4" s="180"/>
+      <c r="Q4" s="181"/>
+      <c r="R4" s="179" t="str">
         <f>"Week "&amp;(R6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 2</v>
       </c>
-      <c r="S4" s="178"/>
-      <c r="T4" s="178"/>
-      <c r="U4" s="178"/>
-      <c r="V4" s="178"/>
-      <c r="W4" s="178"/>
-      <c r="X4" s="179"/>
-      <c r="Y4" s="177" t="str">
+      <c r="S4" s="180"/>
+      <c r="T4" s="180"/>
+      <c r="U4" s="180"/>
+      <c r="V4" s="180"/>
+      <c r="W4" s="180"/>
+      <c r="X4" s="181"/>
+      <c r="Y4" s="179" t="str">
         <f>"Week "&amp;(Y6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 3</v>
       </c>
-      <c r="Z4" s="178"/>
-      <c r="AA4" s="178"/>
-      <c r="AB4" s="178"/>
-      <c r="AC4" s="178"/>
-      <c r="AD4" s="178"/>
-      <c r="AE4" s="179"/>
-      <c r="AF4" s="177" t="str">
+      <c r="Z4" s="180"/>
+      <c r="AA4" s="180"/>
+      <c r="AB4" s="180"/>
+      <c r="AC4" s="180"/>
+      <c r="AD4" s="180"/>
+      <c r="AE4" s="181"/>
+      <c r="AF4" s="179" t="str">
         <f>"Week "&amp;(AF6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 4</v>
       </c>
-      <c r="AG4" s="178"/>
-      <c r="AH4" s="178"/>
-      <c r="AI4" s="178"/>
-      <c r="AJ4" s="178"/>
-      <c r="AK4" s="178"/>
-      <c r="AL4" s="179"/>
-      <c r="AM4" s="177" t="str">
+      <c r="AG4" s="180"/>
+      <c r="AH4" s="180"/>
+      <c r="AI4" s="180"/>
+      <c r="AJ4" s="180"/>
+      <c r="AK4" s="180"/>
+      <c r="AL4" s="181"/>
+      <c r="AM4" s="179" t="str">
         <f>"Week "&amp;(AM6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 5</v>
       </c>
-      <c r="AN4" s="178"/>
-      <c r="AO4" s="178"/>
-      <c r="AP4" s="178"/>
-      <c r="AQ4" s="178"/>
-      <c r="AR4" s="178"/>
-      <c r="AS4" s="179"/>
-      <c r="AT4" s="177" t="str">
+      <c r="AN4" s="180"/>
+      <c r="AO4" s="180"/>
+      <c r="AP4" s="180"/>
+      <c r="AQ4" s="180"/>
+      <c r="AR4" s="180"/>
+      <c r="AS4" s="181"/>
+      <c r="AT4" s="179" t="str">
         <f>"Week "&amp;(AT6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 6</v>
       </c>
-      <c r="AU4" s="178"/>
-      <c r="AV4" s="178"/>
-      <c r="AW4" s="178"/>
-      <c r="AX4" s="178"/>
-      <c r="AY4" s="178"/>
-      <c r="AZ4" s="179"/>
-      <c r="BA4" s="177" t="str">
+      <c r="AU4" s="180"/>
+      <c r="AV4" s="180"/>
+      <c r="AW4" s="180"/>
+      <c r="AX4" s="180"/>
+      <c r="AY4" s="180"/>
+      <c r="AZ4" s="181"/>
+      <c r="BA4" s="179" t="str">
         <f>"Week "&amp;(BA6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 7</v>
       </c>
-      <c r="BB4" s="178"/>
-      <c r="BC4" s="178"/>
-      <c r="BD4" s="178"/>
-      <c r="BE4" s="178"/>
-      <c r="BF4" s="178"/>
-      <c r="BG4" s="179"/>
-      <c r="BH4" s="177" t="str">
+      <c r="BB4" s="180"/>
+      <c r="BC4" s="180"/>
+      <c r="BD4" s="180"/>
+      <c r="BE4" s="180"/>
+      <c r="BF4" s="180"/>
+      <c r="BG4" s="181"/>
+      <c r="BH4" s="179" t="str">
         <f>"Week "&amp;(BH6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 8</v>
       </c>
-      <c r="BI4" s="178"/>
-      <c r="BJ4" s="178"/>
-      <c r="BK4" s="178"/>
-      <c r="BL4" s="178"/>
-      <c r="BM4" s="178"/>
-      <c r="BN4" s="179"/>
+      <c r="BI4" s="180"/>
+      <c r="BJ4" s="180"/>
+      <c r="BK4" s="180"/>
+      <c r="BL4" s="180"/>
+      <c r="BM4" s="180"/>
+      <c r="BN4" s="181"/>
     </row>
     <row r="5" spans="1:66" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="102"/>
       <c r="B5" s="105" t="s">
         <v>75</v>
       </c>
-      <c r="C5" s="184" t="s">
+      <c r="C5" s="178" t="s">
         <v>136</v>
       </c>
-      <c r="D5" s="184"/>
-      <c r="E5" s="184"/>
+      <c r="D5" s="178"/>
+      <c r="E5" s="178"/>
       <c r="F5" s="156"/>
       <c r="G5" s="104"/>
       <c r="H5" s="104"/>
       <c r="I5" s="104"/>
       <c r="J5" s="49"/>
-      <c r="K5" s="180">
+      <c r="K5" s="183">
         <f>K6</f>
         <v>44459</v>
       </c>
-      <c r="L5" s="181"/>
-      <c r="M5" s="181"/>
-      <c r="N5" s="181"/>
-      <c r="O5" s="181"/>
-      <c r="P5" s="181"/>
-      <c r="Q5" s="182"/>
-      <c r="R5" s="180">
+      <c r="L5" s="184"/>
+      <c r="M5" s="184"/>
+      <c r="N5" s="184"/>
+      <c r="O5" s="184"/>
+      <c r="P5" s="184"/>
+      <c r="Q5" s="185"/>
+      <c r="R5" s="183">
         <f>R6</f>
         <v>44466</v>
       </c>
-      <c r="S5" s="181"/>
-      <c r="T5" s="181"/>
-      <c r="U5" s="181"/>
-      <c r="V5" s="181"/>
-      <c r="W5" s="181"/>
-      <c r="X5" s="182"/>
-      <c r="Y5" s="180">
+      <c r="S5" s="184"/>
+      <c r="T5" s="184"/>
+      <c r="U5" s="184"/>
+      <c r="V5" s="184"/>
+      <c r="W5" s="184"/>
+      <c r="X5" s="185"/>
+      <c r="Y5" s="183">
         <f>Y6</f>
         <v>44473</v>
       </c>
-      <c r="Z5" s="181"/>
-      <c r="AA5" s="181"/>
-      <c r="AB5" s="181"/>
-      <c r="AC5" s="181"/>
-      <c r="AD5" s="181"/>
-      <c r="AE5" s="182"/>
-      <c r="AF5" s="180">
+      <c r="Z5" s="184"/>
+      <c r="AA5" s="184"/>
+      <c r="AB5" s="184"/>
+      <c r="AC5" s="184"/>
+      <c r="AD5" s="184"/>
+      <c r="AE5" s="185"/>
+      <c r="AF5" s="183">
         <f>AF6</f>
         <v>44480</v>
       </c>
-      <c r="AG5" s="181"/>
-      <c r="AH5" s="181"/>
-      <c r="AI5" s="181"/>
-      <c r="AJ5" s="181"/>
-      <c r="AK5" s="181"/>
-      <c r="AL5" s="182"/>
-      <c r="AM5" s="180">
+      <c r="AG5" s="184"/>
+      <c r="AH5" s="184"/>
+      <c r="AI5" s="184"/>
+      <c r="AJ5" s="184"/>
+      <c r="AK5" s="184"/>
+      <c r="AL5" s="185"/>
+      <c r="AM5" s="183">
         <f>AM6</f>
         <v>44487</v>
       </c>
-      <c r="AN5" s="181"/>
-      <c r="AO5" s="181"/>
-      <c r="AP5" s="181"/>
-      <c r="AQ5" s="181"/>
-      <c r="AR5" s="181"/>
-      <c r="AS5" s="182"/>
-      <c r="AT5" s="180">
+      <c r="AN5" s="184"/>
+      <c r="AO5" s="184"/>
+      <c r="AP5" s="184"/>
+      <c r="AQ5" s="184"/>
+      <c r="AR5" s="184"/>
+      <c r="AS5" s="185"/>
+      <c r="AT5" s="183">
         <f>AT6</f>
         <v>44494</v>
       </c>
-      <c r="AU5" s="181"/>
-      <c r="AV5" s="181"/>
-      <c r="AW5" s="181"/>
-      <c r="AX5" s="181"/>
-      <c r="AY5" s="181"/>
-      <c r="AZ5" s="182"/>
-      <c r="BA5" s="180">
+      <c r="AU5" s="184"/>
+      <c r="AV5" s="184"/>
+      <c r="AW5" s="184"/>
+      <c r="AX5" s="184"/>
+      <c r="AY5" s="184"/>
+      <c r="AZ5" s="185"/>
+      <c r="BA5" s="183">
         <f>BA6</f>
         <v>44501</v>
       </c>
-      <c r="BB5" s="181"/>
-      <c r="BC5" s="181"/>
-      <c r="BD5" s="181"/>
-      <c r="BE5" s="181"/>
-      <c r="BF5" s="181"/>
-      <c r="BG5" s="182"/>
-      <c r="BH5" s="180">
+      <c r="BB5" s="184"/>
+      <c r="BC5" s="184"/>
+      <c r="BD5" s="184"/>
+      <c r="BE5" s="184"/>
+      <c r="BF5" s="184"/>
+      <c r="BG5" s="185"/>
+      <c r="BH5" s="183">
         <f>BH6</f>
         <v>44508</v>
       </c>
-      <c r="BI5" s="181"/>
-      <c r="BJ5" s="181"/>
-      <c r="BK5" s="181"/>
-      <c r="BL5" s="181"/>
-      <c r="BM5" s="181"/>
-      <c r="BN5" s="182"/>
+      <c r="BI5" s="184"/>
+      <c r="BJ5" s="184"/>
+      <c r="BK5" s="184"/>
+      <c r="BL5" s="184"/>
+      <c r="BM5" s="184"/>
+      <c r="BN5" s="185"/>
     </row>
     <row r="6" spans="1:66" x14ac:dyDescent="0.2">
       <c r="A6" s="48"/>
@@ -8454,7 +8454,7 @@
         <v>4</v>
       </c>
       <c r="H50" s="62">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I50" s="63">
         <f t="shared" si="4"/>
@@ -8626,7 +8626,7 @@
         <v>1</v>
       </c>
       <c r="H52" s="173">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="I52" s="174">
         <f t="shared" si="4"/>
@@ -8711,7 +8711,9 @@
       <c r="G53" s="172">
         <v>1</v>
       </c>
-      <c r="H53" s="173"/>
+      <c r="H53" s="173">
+        <v>1</v>
+      </c>
       <c r="I53" s="174">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -8795,7 +8797,9 @@
       <c r="G54" s="172">
         <v>1</v>
       </c>
-      <c r="H54" s="173"/>
+      <c r="H54" s="173">
+        <v>1</v>
+      </c>
       <c r="I54" s="174">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -8879,7 +8883,9 @@
       <c r="G55" s="172">
         <v>1</v>
       </c>
-      <c r="H55" s="173"/>
+      <c r="H55" s="173">
+        <v>1</v>
+      </c>
       <c r="I55" s="174">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -8963,7 +8969,9 @@
       <c r="G56" s="172">
         <v>1</v>
       </c>
-      <c r="H56" s="173"/>
+      <c r="H56" s="173">
+        <v>1</v>
+      </c>
       <c r="I56" s="174">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -9047,7 +9055,9 @@
       <c r="G57" s="172">
         <v>1</v>
       </c>
-      <c r="H57" s="173"/>
+      <c r="H57" s="173">
+        <v>1</v>
+      </c>
       <c r="I57" s="174">
         <f t="shared" si="4"/>
         <v>1</v>
@@ -9131,7 +9141,9 @@
       <c r="G58" s="172">
         <v>1</v>
       </c>
-      <c r="H58" s="173"/>
+      <c r="H58" s="173">
+        <v>1</v>
+      </c>
       <c r="I58" s="174">
         <f t="shared" si="4"/>
         <v>1</v>
@@ -9215,7 +9227,9 @@
       <c r="G59" s="172">
         <v>2</v>
       </c>
-      <c r="H59" s="173"/>
+      <c r="H59" s="173">
+        <v>1</v>
+      </c>
       <c r="I59" s="174">
         <f t="shared" si="4"/>
         <v>2</v>
@@ -9369,11 +9383,11 @@
       </c>
       <c r="D61" s="116"/>
       <c r="E61" s="161">
-        <v>44491</v>
+        <v>44471</v>
       </c>
       <c r="F61" s="162">
         <f>IF(ISBLANK(E61)," - ",IF(G61=0,E61,E61+G61-1))</f>
-        <v>44503</v>
+        <v>44483</v>
       </c>
       <c r="G61" s="61">
         <v>13</v>
@@ -9455,19 +9469,21 @@
       </c>
       <c r="D62" s="116"/>
       <c r="E62" s="161">
-        <v>44491</v>
+        <v>44471</v>
       </c>
       <c r="F62" s="162">
-        <f t="shared" si="6"/>
-        <v>44491</v>
+        <f>IF(ISBLANK(E62)," - ",IF(G62=0,E62,E62+G62-1))</f>
+        <v>44471</v>
       </c>
       <c r="G62" s="61">
         <v>1</v>
       </c>
-      <c r="H62" s="62"/>
+      <c r="H62" s="62">
+        <v>1</v>
+      </c>
       <c r="I62" s="63">
         <f t="shared" si="4"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J62" s="93"/>
       <c r="K62" s="99"/>
@@ -9539,17 +9555,17 @@
       </c>
       <c r="D63" s="116"/>
       <c r="E63" s="161">
-        <v>44491</v>
+        <v>44471</v>
       </c>
       <c r="F63" s="162">
         <f t="shared" ref="F63:F71" si="8">IF(ISBLANK(E63)," - ",IF(G63=0,E63,E63+G63-1))</f>
-        <v>44492</v>
+        <v>44473</v>
       </c>
       <c r="G63" s="61">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H63" s="62">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I63" s="63">
         <f t="shared" si="4"/>
@@ -9625,11 +9641,11 @@
       </c>
       <c r="D64" s="116"/>
       <c r="E64" s="161">
-        <v>44492</v>
+        <v>44474</v>
       </c>
       <c r="F64" s="162">
         <f t="shared" si="8"/>
-        <v>44493</v>
+        <v>44475</v>
       </c>
       <c r="G64" s="61">
         <v>2</v>
@@ -9637,7 +9653,7 @@
       <c r="H64" s="62"/>
       <c r="I64" s="63">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J64" s="93"/>
       <c r="K64" s="99"/>
@@ -9709,11 +9725,11 @@
       </c>
       <c r="D65" s="116"/>
       <c r="E65" s="161">
-        <v>44493</v>
+        <v>44475</v>
       </c>
       <c r="F65" s="162">
         <f t="shared" si="8"/>
-        <v>44495</v>
+        <v>44477</v>
       </c>
       <c r="G65" s="61">
         <v>3</v>
@@ -9721,7 +9737,7 @@
       <c r="H65" s="62"/>
       <c r="I65" s="63">
         <f t="shared" si="4"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J65" s="93"/>
       <c r="K65" s="99"/>
@@ -9877,19 +9893,21 @@
       </c>
       <c r="D67" s="116"/>
       <c r="E67" s="161">
-        <v>44497</v>
+        <v>44475</v>
       </c>
       <c r="F67" s="162">
         <f t="shared" si="8"/>
-        <v>44499</v>
+        <v>44477</v>
       </c>
       <c r="G67" s="61">
         <v>3</v>
       </c>
-      <c r="H67" s="62"/>
+      <c r="H67" s="62">
+        <v>1</v>
+      </c>
       <c r="I67" s="63">
         <f t="shared" si="4"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J67" s="93"/>
       <c r="K67" s="99"/>
@@ -10128,20 +10146,18 @@
         <v>136</v>
       </c>
       <c r="D70" s="116"/>
-      <c r="E70" s="161">
-        <v>44502</v>
-      </c>
-      <c r="F70" s="162">
+      <c r="E70" s="161"/>
+      <c r="F70" s="162" t="str">
         <f t="shared" si="8"/>
-        <v>44503</v>
+        <v xml:space="preserve"> - </v>
       </c>
       <c r="G70" s="61">
         <v>2</v>
       </c>
       <c r="H70" s="62"/>
-      <c r="I70" s="63">
+      <c r="I70" s="63" t="str">
         <f t="shared" si="4"/>
-        <v>2</v>
+        <v xml:space="preserve"> - </v>
       </c>
       <c r="J70" s="93"/>
       <c r="K70" s="99"/>
@@ -11920,15 +11936,6 @@
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertRows="0" deleteRows="0"/>
   <mergeCells count="19">
-    <mergeCell ref="K1:AE1"/>
-    <mergeCell ref="C5:E5"/>
-    <mergeCell ref="R4:X4"/>
-    <mergeCell ref="K4:Q4"/>
-    <mergeCell ref="C4:E4"/>
-    <mergeCell ref="R5:X5"/>
-    <mergeCell ref="K5:Q5"/>
-    <mergeCell ref="Y4:AE4"/>
-    <mergeCell ref="Y5:AE5"/>
     <mergeCell ref="AF4:AL4"/>
     <mergeCell ref="AF5:AL5"/>
     <mergeCell ref="BH4:BN4"/>
@@ -11939,6 +11946,15 @@
     <mergeCell ref="AM4:AS4"/>
     <mergeCell ref="BA4:BG4"/>
     <mergeCell ref="BA5:BG5"/>
+    <mergeCell ref="K1:AE1"/>
+    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="R4:X4"/>
+    <mergeCell ref="K4:Q4"/>
+    <mergeCell ref="C4:E4"/>
+    <mergeCell ref="R5:X5"/>
+    <mergeCell ref="K5:Q5"/>
+    <mergeCell ref="Y4:AE4"/>
+    <mergeCell ref="Y5:AE5"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="H82:H91 H75:H76 H72 H8:H70">
@@ -12044,7 +12060,7 @@
   <pageSetup scale="63" fitToHeight="0" orientation="landscape" r:id="rId2"/>
   <headerFooter alignWithMargins="0"/>
   <ignoredErrors>
-    <ignoredError sqref="H9 A85:B85 A87:B87 B86 E26 E60 E72 E85:H87 G26:H26 G60:H60 G72:H72 G88:G91 H61 H63 H75 H76" unlockedFormula="1"/>
+    <ignoredError sqref="H9 A85:B85 A87:B87 B86 E26 E60 E72 E85:H87 G26:H26 G60:H60 G72:H72 G88:G91 H61 H75 H76" unlockedFormula="1"/>
     <ignoredError sqref="A72 A60 A26" formula="1"/>
   </ignoredErrors>
   <drawing r:id="rId3"/>

--- a/gantt-chart_L version 2.xlsx
+++ b/gantt-chart_L version 2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\HTCS5607\HTCS5607\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D763566-0871-42A4-9BF8-F3CEC69F4741}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6C5A435-D0A7-4305-9DC7-DBB9968BC083}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
   </sheets>
   <definedNames>
     <definedName name="prevWBS" localSheetId="0">GanttChart!$A1048576</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">GanttChart!$A$1:$BN$85</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">GanttChart!$A$1:$BN$82</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">GanttChartPro!$A$1:$C$47</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">GanttChart!$4:$7</definedName>
     <definedName name="valuevx">42.314159</definedName>
@@ -453,7 +453,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="336" uniqueCount="225">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="331" uniqueCount="223">
   <si>
     <t>WBS</t>
   </si>
@@ -1734,21 +1734,9 @@
     <t>Deployment</t>
   </si>
   <si>
-    <t>Hardware Configuration</t>
-  </si>
-  <si>
-    <t>Network Configuration</t>
-  </si>
-  <si>
-    <t>Software Configuration</t>
-  </si>
-  <si>
     <t>User Training</t>
   </si>
   <si>
-    <t>User Acceptance Testing</t>
-  </si>
-  <si>
     <t>Technical Report Finalisation</t>
   </si>
   <si>
@@ -1786,6 +1774,12 @@
   </si>
   <si>
     <t>Coding and Testing</t>
+  </si>
+  <si>
+    <t>2.4.4</t>
+  </si>
+  <si>
+    <t>Database</t>
   </si>
 </sst>
 </file>
@@ -3171,13 +3165,6 @@
     <xf numFmtId="0" fontId="42" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="60" fillId="0" borderId="0" xfId="34" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="45" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="52" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3187,10 +3174,6 @@
     <xf numFmtId="0" fontId="52" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="45" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="166" fontId="45" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3199,6 +3182,17 @@
     </xf>
     <xf numFmtId="166" fontId="45" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="60" fillId="0" borderId="0" xfId="34" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="45" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="14" fontId="45" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="62" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -3250,7 +3244,7 @@
     <cellStyle name="Total" xfId="42" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="43" builtinId="11" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="5">
+  <dxfs count="8">
     <dxf>
       <border>
         <left style="thin">
@@ -3262,6 +3256,38 @@
         <vertical/>
         <horizontal/>
       </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <border>
@@ -4043,11 +4069,11 @@
   <sheetPr codeName="Sheet8">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:BN92"/>
+  <dimension ref="A1:CB89"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="7" topLeftCell="A53" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="N69" sqref="N69"/>
+      <pane ySplit="7" topLeftCell="A59" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="BW77" sqref="BW77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -4061,11 +4087,11 @@
     <col min="8" max="8" width="6.7109375" style="1" customWidth="1"/>
     <col min="9" max="9" width="6.42578125" style="1" customWidth="1"/>
     <col min="10" max="10" width="1.85546875" style="1" customWidth="1"/>
-    <col min="11" max="66" width="2.42578125" style="1" customWidth="1"/>
-    <col min="67" max="16384" width="9.140625" style="3"/>
+    <col min="11" max="80" width="2.42578125" style="1" customWidth="1"/>
+    <col min="81" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:66" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:80" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="114" t="s">
         <v>137</v>
       </c>
@@ -4075,31 +4101,31 @@
       <c r="E1" s="152"/>
       <c r="F1" s="152"/>
       <c r="I1" s="121"/>
-      <c r="K1" s="177" t="s">
+      <c r="K1" s="183" t="s">
         <v>77</v>
       </c>
-      <c r="L1" s="177"/>
-      <c r="M1" s="177"/>
-      <c r="N1" s="177"/>
-      <c r="O1" s="177"/>
-      <c r="P1" s="177"/>
-      <c r="Q1" s="177"/>
-      <c r="R1" s="177"/>
-      <c r="S1" s="177"/>
-      <c r="T1" s="177"/>
-      <c r="U1" s="177"/>
-      <c r="V1" s="177"/>
-      <c r="W1" s="177"/>
-      <c r="X1" s="177"/>
-      <c r="Y1" s="177"/>
-      <c r="Z1" s="177"/>
-      <c r="AA1" s="177"/>
-      <c r="AB1" s="177"/>
-      <c r="AC1" s="177"/>
-      <c r="AD1" s="177"/>
-      <c r="AE1" s="177"/>
-    </row>
-    <row r="2" spans="1:66" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L1" s="183"/>
+      <c r="M1" s="183"/>
+      <c r="N1" s="183"/>
+      <c r="O1" s="183"/>
+      <c r="P1" s="183"/>
+      <c r="Q1" s="183"/>
+      <c r="R1" s="183"/>
+      <c r="S1" s="183"/>
+      <c r="T1" s="183"/>
+      <c r="U1" s="183"/>
+      <c r="V1" s="183"/>
+      <c r="W1" s="183"/>
+      <c r="X1" s="183"/>
+      <c r="Y1" s="183"/>
+      <c r="Z1" s="183"/>
+      <c r="AA1" s="183"/>
+      <c r="AB1" s="183"/>
+      <c r="AC1" s="183"/>
+      <c r="AD1" s="183"/>
+      <c r="AE1" s="183"/>
+    </row>
+    <row r="2" spans="1:80" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="51" t="s">
         <v>138</v>
       </c>
@@ -4110,7 +4136,7 @@
       <c r="F2" s="153"/>
       <c r="H2" s="2"/>
     </row>
-    <row r="3" spans="1:66" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:80" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A3" s="51"/>
       <c r="B3" s="47"/>
       <c r="C3" s="4"/>
@@ -4137,16 +4163,16 @@
       <c r="Z3" s="29"/>
       <c r="AA3" s="29"/>
     </row>
-    <row r="4" spans="1:66" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:80" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="102"/>
       <c r="B4" s="105" t="s">
         <v>74</v>
       </c>
-      <c r="C4" s="182">
+      <c r="C4" s="185">
         <v>44459</v>
       </c>
-      <c r="D4" s="182"/>
-      <c r="E4" s="182"/>
+      <c r="D4" s="185"/>
+      <c r="E4" s="185"/>
       <c r="F4" s="155"/>
       <c r="G4" s="105" t="s">
         <v>73</v>
@@ -4156,184 +4182,224 @@
       </c>
       <c r="I4" s="103"/>
       <c r="J4" s="49"/>
-      <c r="K4" s="179" t="str">
+      <c r="K4" s="177" t="str">
         <f>"Week "&amp;(K6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 1</v>
       </c>
-      <c r="L4" s="180"/>
-      <c r="M4" s="180"/>
-      <c r="N4" s="180"/>
-      <c r="O4" s="180"/>
-      <c r="P4" s="180"/>
-      <c r="Q4" s="181"/>
-      <c r="R4" s="179" t="str">
+      <c r="L4" s="178"/>
+      <c r="M4" s="178"/>
+      <c r="N4" s="178"/>
+      <c r="O4" s="178"/>
+      <c r="P4" s="178"/>
+      <c r="Q4" s="179"/>
+      <c r="R4" s="177" t="str">
         <f>"Week "&amp;(R6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 2</v>
       </c>
-      <c r="S4" s="180"/>
-      <c r="T4" s="180"/>
-      <c r="U4" s="180"/>
-      <c r="V4" s="180"/>
-      <c r="W4" s="180"/>
-      <c r="X4" s="181"/>
-      <c r="Y4" s="179" t="str">
+      <c r="S4" s="178"/>
+      <c r="T4" s="178"/>
+      <c r="U4" s="178"/>
+      <c r="V4" s="178"/>
+      <c r="W4" s="178"/>
+      <c r="X4" s="179"/>
+      <c r="Y4" s="177" t="str">
         <f>"Week "&amp;(Y6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 3</v>
       </c>
-      <c r="Z4" s="180"/>
-      <c r="AA4" s="180"/>
-      <c r="AB4" s="180"/>
-      <c r="AC4" s="180"/>
-      <c r="AD4" s="180"/>
-      <c r="AE4" s="181"/>
-      <c r="AF4" s="179" t="str">
+      <c r="Z4" s="178"/>
+      <c r="AA4" s="178"/>
+      <c r="AB4" s="178"/>
+      <c r="AC4" s="178"/>
+      <c r="AD4" s="178"/>
+      <c r="AE4" s="179"/>
+      <c r="AF4" s="177" t="str">
         <f>"Week "&amp;(AF6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 4</v>
       </c>
-      <c r="AG4" s="180"/>
-      <c r="AH4" s="180"/>
-      <c r="AI4" s="180"/>
-      <c r="AJ4" s="180"/>
-      <c r="AK4" s="180"/>
-      <c r="AL4" s="181"/>
-      <c r="AM4" s="179" t="str">
+      <c r="AG4" s="178"/>
+      <c r="AH4" s="178"/>
+      <c r="AI4" s="178"/>
+      <c r="AJ4" s="178"/>
+      <c r="AK4" s="178"/>
+      <c r="AL4" s="179"/>
+      <c r="AM4" s="177" t="str">
         <f>"Week "&amp;(AM6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 5</v>
       </c>
-      <c r="AN4" s="180"/>
-      <c r="AO4" s="180"/>
-      <c r="AP4" s="180"/>
-      <c r="AQ4" s="180"/>
-      <c r="AR4" s="180"/>
-      <c r="AS4" s="181"/>
-      <c r="AT4" s="179" t="str">
+      <c r="AN4" s="178"/>
+      <c r="AO4" s="178"/>
+      <c r="AP4" s="178"/>
+      <c r="AQ4" s="178"/>
+      <c r="AR4" s="178"/>
+      <c r="AS4" s="179"/>
+      <c r="AT4" s="177" t="str">
         <f>"Week "&amp;(AT6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 6</v>
       </c>
-      <c r="AU4" s="180"/>
-      <c r="AV4" s="180"/>
-      <c r="AW4" s="180"/>
-      <c r="AX4" s="180"/>
-      <c r="AY4" s="180"/>
-      <c r="AZ4" s="181"/>
-      <c r="BA4" s="179" t="str">
+      <c r="AU4" s="178"/>
+      <c r="AV4" s="178"/>
+      <c r="AW4" s="178"/>
+      <c r="AX4" s="178"/>
+      <c r="AY4" s="178"/>
+      <c r="AZ4" s="179"/>
+      <c r="BA4" s="177" t="str">
         <f>"Week "&amp;(BA6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 7</v>
       </c>
-      <c r="BB4" s="180"/>
-      <c r="BC4" s="180"/>
-      <c r="BD4" s="180"/>
-      <c r="BE4" s="180"/>
-      <c r="BF4" s="180"/>
-      <c r="BG4" s="181"/>
-      <c r="BH4" s="179" t="str">
+      <c r="BB4" s="178"/>
+      <c r="BC4" s="178"/>
+      <c r="BD4" s="178"/>
+      <c r="BE4" s="178"/>
+      <c r="BF4" s="178"/>
+      <c r="BG4" s="179"/>
+      <c r="BH4" s="177" t="str">
         <f>"Week "&amp;(BH6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 8</v>
       </c>
-      <c r="BI4" s="180"/>
-      <c r="BJ4" s="180"/>
-      <c r="BK4" s="180"/>
-      <c r="BL4" s="180"/>
-      <c r="BM4" s="180"/>
-      <c r="BN4" s="181"/>
-    </row>
-    <row r="5" spans="1:66" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="BI4" s="178"/>
+      <c r="BJ4" s="178"/>
+      <c r="BK4" s="178"/>
+      <c r="BL4" s="178"/>
+      <c r="BM4" s="178"/>
+      <c r="BN4" s="179"/>
+      <c r="BO4" s="177" t="str">
+        <f>"Week "&amp;(BO6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
+        <v>Week 9</v>
+      </c>
+      <c r="BP4" s="178"/>
+      <c r="BQ4" s="178"/>
+      <c r="BR4" s="178"/>
+      <c r="BS4" s="178"/>
+      <c r="BT4" s="178"/>
+      <c r="BU4" s="179"/>
+      <c r="BV4" s="177" t="str">
+        <f>"Week "&amp;(BV6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
+        <v>Week 10</v>
+      </c>
+      <c r="BW4" s="178"/>
+      <c r="BX4" s="178"/>
+      <c r="BY4" s="178"/>
+      <c r="BZ4" s="178"/>
+      <c r="CA4" s="178"/>
+      <c r="CB4" s="179"/>
+    </row>
+    <row r="5" spans="1:80" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="102"/>
       <c r="B5" s="105" t="s">
         <v>75</v>
       </c>
-      <c r="C5" s="178" t="s">
+      <c r="C5" s="184" t="s">
         <v>136</v>
       </c>
-      <c r="D5" s="178"/>
-      <c r="E5" s="178"/>
+      <c r="D5" s="184"/>
+      <c r="E5" s="184"/>
       <c r="F5" s="156"/>
       <c r="G5" s="104"/>
       <c r="H5" s="104"/>
       <c r="I5" s="104"/>
       <c r="J5" s="49"/>
-      <c r="K5" s="183">
+      <c r="K5" s="180">
         <f>K6</f>
         <v>44459</v>
       </c>
-      <c r="L5" s="184"/>
-      <c r="M5" s="184"/>
-      <c r="N5" s="184"/>
-      <c r="O5" s="184"/>
-      <c r="P5" s="184"/>
-      <c r="Q5" s="185"/>
-      <c r="R5" s="183">
+      <c r="L5" s="181"/>
+      <c r="M5" s="181"/>
+      <c r="N5" s="181"/>
+      <c r="O5" s="181"/>
+      <c r="P5" s="181"/>
+      <c r="Q5" s="182"/>
+      <c r="R5" s="180">
         <f>R6</f>
         <v>44466</v>
       </c>
-      <c r="S5" s="184"/>
-      <c r="T5" s="184"/>
-      <c r="U5" s="184"/>
-      <c r="V5" s="184"/>
-      <c r="W5" s="184"/>
-      <c r="X5" s="185"/>
-      <c r="Y5" s="183">
+      <c r="S5" s="181"/>
+      <c r="T5" s="181"/>
+      <c r="U5" s="181"/>
+      <c r="V5" s="181"/>
+      <c r="W5" s="181"/>
+      <c r="X5" s="182"/>
+      <c r="Y5" s="180">
         <f>Y6</f>
         <v>44473</v>
       </c>
-      <c r="Z5" s="184"/>
-      <c r="AA5" s="184"/>
-      <c r="AB5" s="184"/>
-      <c r="AC5" s="184"/>
-      <c r="AD5" s="184"/>
-      <c r="AE5" s="185"/>
-      <c r="AF5" s="183">
+      <c r="Z5" s="181"/>
+      <c r="AA5" s="181"/>
+      <c r="AB5" s="181"/>
+      <c r="AC5" s="181"/>
+      <c r="AD5" s="181"/>
+      <c r="AE5" s="182"/>
+      <c r="AF5" s="180">
         <f>AF6</f>
         <v>44480</v>
       </c>
-      <c r="AG5" s="184"/>
-      <c r="AH5" s="184"/>
-      <c r="AI5" s="184"/>
-      <c r="AJ5" s="184"/>
-      <c r="AK5" s="184"/>
-      <c r="AL5" s="185"/>
-      <c r="AM5" s="183">
+      <c r="AG5" s="181"/>
+      <c r="AH5" s="181"/>
+      <c r="AI5" s="181"/>
+      <c r="AJ5" s="181"/>
+      <c r="AK5" s="181"/>
+      <c r="AL5" s="182"/>
+      <c r="AM5" s="180">
         <f>AM6</f>
         <v>44487</v>
       </c>
-      <c r="AN5" s="184"/>
-      <c r="AO5" s="184"/>
-      <c r="AP5" s="184"/>
-      <c r="AQ5" s="184"/>
-      <c r="AR5" s="184"/>
-      <c r="AS5" s="185"/>
-      <c r="AT5" s="183">
+      <c r="AN5" s="181"/>
+      <c r="AO5" s="181"/>
+      <c r="AP5" s="181"/>
+      <c r="AQ5" s="181"/>
+      <c r="AR5" s="181"/>
+      <c r="AS5" s="182"/>
+      <c r="AT5" s="180">
         <f>AT6</f>
         <v>44494</v>
       </c>
-      <c r="AU5" s="184"/>
-      <c r="AV5" s="184"/>
-      <c r="AW5" s="184"/>
-      <c r="AX5" s="184"/>
-      <c r="AY5" s="184"/>
-      <c r="AZ5" s="185"/>
-      <c r="BA5" s="183">
+      <c r="AU5" s="181"/>
+      <c r="AV5" s="181"/>
+      <c r="AW5" s="181"/>
+      <c r="AX5" s="181"/>
+      <c r="AY5" s="181"/>
+      <c r="AZ5" s="182"/>
+      <c r="BA5" s="180">
         <f>BA6</f>
         <v>44501</v>
       </c>
-      <c r="BB5" s="184"/>
-      <c r="BC5" s="184"/>
-      <c r="BD5" s="184"/>
-      <c r="BE5" s="184"/>
-      <c r="BF5" s="184"/>
-      <c r="BG5" s="185"/>
-      <c r="BH5" s="183">
+      <c r="BB5" s="181"/>
+      <c r="BC5" s="181"/>
+      <c r="BD5" s="181"/>
+      <c r="BE5" s="181"/>
+      <c r="BF5" s="181"/>
+      <c r="BG5" s="182"/>
+      <c r="BH5" s="180">
         <f>BH6</f>
         <v>44508</v>
       </c>
-      <c r="BI5" s="184"/>
-      <c r="BJ5" s="184"/>
-      <c r="BK5" s="184"/>
-      <c r="BL5" s="184"/>
-      <c r="BM5" s="184"/>
-      <c r="BN5" s="185"/>
-    </row>
-    <row r="6" spans="1:66" x14ac:dyDescent="0.2">
+      <c r="BI5" s="181"/>
+      <c r="BJ5" s="181"/>
+      <c r="BK5" s="181"/>
+      <c r="BL5" s="181"/>
+      <c r="BM5" s="181"/>
+      <c r="BN5" s="182"/>
+      <c r="BO5" s="180">
+        <f>BO6</f>
+        <v>44515</v>
+      </c>
+      <c r="BP5" s="181"/>
+      <c r="BQ5" s="181"/>
+      <c r="BR5" s="181"/>
+      <c r="BS5" s="181"/>
+      <c r="BT5" s="181"/>
+      <c r="BU5" s="182"/>
+      <c r="BV5" s="180">
+        <f>BV6</f>
+        <v>44522</v>
+      </c>
+      <c r="BW5" s="181"/>
+      <c r="BX5" s="181"/>
+      <c r="BY5" s="181"/>
+      <c r="BZ5" s="181"/>
+      <c r="CA5" s="181"/>
+      <c r="CB5" s="182"/>
+    </row>
+    <row r="6" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A6" s="48"/>
       <c r="B6" s="49"/>
       <c r="C6" s="49"/>
@@ -4541,7 +4607,7 @@
         <v>44507</v>
       </c>
       <c r="BH6" s="90">
-        <f t="shared" si="1"/>
+        <f>BG6+1</f>
         <v>44508</v>
       </c>
       <c r="BI6" s="82">
@@ -4568,8 +4634,64 @@
         <f t="shared" si="1"/>
         <v>44514</v>
       </c>
-    </row>
-    <row r="7" spans="1:66" s="113" customFormat="1" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="BO6" s="90">
+        <f>BN6+1</f>
+        <v>44515</v>
+      </c>
+      <c r="BP6" s="82">
+        <f t="shared" ref="BP6" si="2">BO6+1</f>
+        <v>44516</v>
+      </c>
+      <c r="BQ6" s="82">
+        <f t="shared" ref="BQ6" si="3">BP6+1</f>
+        <v>44517</v>
+      </c>
+      <c r="BR6" s="82">
+        <f t="shared" ref="BR6" si="4">BQ6+1</f>
+        <v>44518</v>
+      </c>
+      <c r="BS6" s="82">
+        <f t="shared" ref="BS6" si="5">BR6+1</f>
+        <v>44519</v>
+      </c>
+      <c r="BT6" s="82">
+        <f t="shared" ref="BT6" si="6">BS6+1</f>
+        <v>44520</v>
+      </c>
+      <c r="BU6" s="91">
+        <f t="shared" ref="BU6" si="7">BT6+1</f>
+        <v>44521</v>
+      </c>
+      <c r="BV6" s="90">
+        <f>BU6+1</f>
+        <v>44522</v>
+      </c>
+      <c r="BW6" s="82">
+        <f t="shared" ref="BW6" si="8">BV6+1</f>
+        <v>44523</v>
+      </c>
+      <c r="BX6" s="82">
+        <f t="shared" ref="BX6" si="9">BW6+1</f>
+        <v>44524</v>
+      </c>
+      <c r="BY6" s="82">
+        <f t="shared" ref="BY6" si="10">BX6+1</f>
+        <v>44525</v>
+      </c>
+      <c r="BZ6" s="82">
+        <f t="shared" ref="BZ6" si="11">BY6+1</f>
+        <v>44526</v>
+      </c>
+      <c r="CA6" s="82">
+        <f t="shared" ref="CA6" si="12">BZ6+1</f>
+        <v>44527</v>
+      </c>
+      <c r="CB6" s="91">
+        <f t="shared" ref="CB6" si="13">CA6+1</f>
+        <v>44528</v>
+      </c>
+    </row>
+    <row r="7" spans="1:80" s="113" customFormat="1" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="106" t="s">
         <v>0</v>
       </c>
@@ -4599,231 +4721,287 @@
       </c>
       <c r="J7" s="108"/>
       <c r="K7" s="110" t="str">
-        <f t="shared" ref="K7:AP7" si="2">CHOOSE(WEEKDAY(K6,1),"S","M","T","W","T","F","S")</f>
+        <f t="shared" ref="K7:AP7" si="14">CHOOSE(WEEKDAY(K6,1),"S","M","T","W","T","F","S")</f>
         <v>M</v>
       </c>
       <c r="L7" s="111" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="14"/>
         <v>T</v>
       </c>
       <c r="M7" s="111" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="14"/>
         <v>W</v>
       </c>
       <c r="N7" s="111" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="14"/>
         <v>T</v>
       </c>
       <c r="O7" s="111" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="14"/>
         <v>F</v>
       </c>
       <c r="P7" s="111" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="14"/>
         <v>S</v>
       </c>
       <c r="Q7" s="112" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="14"/>
         <v>S</v>
       </c>
       <c r="R7" s="110" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="14"/>
         <v>M</v>
       </c>
       <c r="S7" s="111" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="14"/>
         <v>T</v>
       </c>
       <c r="T7" s="111" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="14"/>
         <v>W</v>
       </c>
       <c r="U7" s="111" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="14"/>
         <v>T</v>
       </c>
       <c r="V7" s="111" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="14"/>
         <v>F</v>
       </c>
       <c r="W7" s="111" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="14"/>
         <v>S</v>
       </c>
       <c r="X7" s="112" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="14"/>
         <v>S</v>
       </c>
       <c r="Y7" s="110" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="14"/>
         <v>M</v>
       </c>
       <c r="Z7" s="111" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="14"/>
         <v>T</v>
       </c>
       <c r="AA7" s="111" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="14"/>
         <v>W</v>
       </c>
       <c r="AB7" s="111" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="14"/>
         <v>T</v>
       </c>
       <c r="AC7" s="111" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="14"/>
         <v>F</v>
       </c>
       <c r="AD7" s="111" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="14"/>
         <v>S</v>
       </c>
       <c r="AE7" s="112" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="14"/>
         <v>S</v>
       </c>
       <c r="AF7" s="110" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="14"/>
         <v>M</v>
       </c>
       <c r="AG7" s="111" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="14"/>
         <v>T</v>
       </c>
       <c r="AH7" s="111" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="14"/>
         <v>W</v>
       </c>
       <c r="AI7" s="111" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="14"/>
         <v>T</v>
       </c>
       <c r="AJ7" s="111" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="14"/>
         <v>F</v>
       </c>
       <c r="AK7" s="111" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="14"/>
         <v>S</v>
       </c>
       <c r="AL7" s="112" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="14"/>
         <v>S</v>
       </c>
       <c r="AM7" s="110" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="14"/>
         <v>M</v>
       </c>
       <c r="AN7" s="111" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="14"/>
         <v>T</v>
       </c>
       <c r="AO7" s="111" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="14"/>
         <v>W</v>
       </c>
       <c r="AP7" s="111" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="14"/>
         <v>T</v>
       </c>
       <c r="AQ7" s="111" t="str">
-        <f t="shared" ref="AQ7:BN7" si="3">CHOOSE(WEEKDAY(AQ6,1),"S","M","T","W","T","F","S")</f>
+        <f t="shared" ref="AQ7:BN7" si="15">CHOOSE(WEEKDAY(AQ6,1),"S","M","T","W","T","F","S")</f>
         <v>F</v>
       </c>
       <c r="AR7" s="111" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="15"/>
         <v>S</v>
       </c>
       <c r="AS7" s="112" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="15"/>
         <v>S</v>
       </c>
       <c r="AT7" s="110" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="15"/>
         <v>M</v>
       </c>
       <c r="AU7" s="111" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="15"/>
         <v>T</v>
       </c>
       <c r="AV7" s="111" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="15"/>
         <v>W</v>
       </c>
       <c r="AW7" s="111" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="15"/>
         <v>T</v>
       </c>
       <c r="AX7" s="111" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="15"/>
         <v>F</v>
       </c>
       <c r="AY7" s="111" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="15"/>
         <v>S</v>
       </c>
       <c r="AZ7" s="112" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="15"/>
         <v>S</v>
       </c>
       <c r="BA7" s="110" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="15"/>
         <v>M</v>
       </c>
       <c r="BB7" s="111" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="15"/>
         <v>T</v>
       </c>
       <c r="BC7" s="111" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="15"/>
         <v>W</v>
       </c>
       <c r="BD7" s="111" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="15"/>
         <v>T</v>
       </c>
       <c r="BE7" s="111" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="15"/>
         <v>F</v>
       </c>
       <c r="BF7" s="111" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="15"/>
         <v>S</v>
       </c>
       <c r="BG7" s="112" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="15"/>
         <v>S</v>
       </c>
       <c r="BH7" s="110" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="15"/>
         <v>M</v>
       </c>
       <c r="BI7" s="111" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="15"/>
         <v>T</v>
       </c>
       <c r="BJ7" s="111" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="15"/>
         <v>W</v>
       </c>
       <c r="BK7" s="111" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="15"/>
         <v>T</v>
       </c>
       <c r="BL7" s="111" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="15"/>
         <v>F</v>
       </c>
       <c r="BM7" s="111" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="15"/>
         <v>S</v>
       </c>
       <c r="BN7" s="112" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="15"/>
         <v>S</v>
       </c>
-    </row>
-    <row r="8" spans="1:66" s="54" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+      <c r="BO7" s="110" t="str">
+        <f t="shared" ref="BO7:BU7" si="16">CHOOSE(WEEKDAY(BO6,1),"S","M","T","W","T","F","S")</f>
+        <v>M</v>
+      </c>
+      <c r="BP7" s="111" t="str">
+        <f t="shared" si="16"/>
+        <v>T</v>
+      </c>
+      <c r="BQ7" s="111" t="str">
+        <f t="shared" si="16"/>
+        <v>W</v>
+      </c>
+      <c r="BR7" s="111" t="str">
+        <f t="shared" si="16"/>
+        <v>T</v>
+      </c>
+      <c r="BS7" s="111" t="str">
+        <f t="shared" si="16"/>
+        <v>F</v>
+      </c>
+      <c r="BT7" s="111" t="str">
+        <f t="shared" si="16"/>
+        <v>S</v>
+      </c>
+      <c r="BU7" s="112" t="str">
+        <f t="shared" si="16"/>
+        <v>S</v>
+      </c>
+      <c r="BV7" s="110" t="str">
+        <f t="shared" ref="BV7:CB7" si="17">CHOOSE(WEEKDAY(BV6,1),"S","M","T","W","T","F","S")</f>
+        <v>M</v>
+      </c>
+      <c r="BW7" s="111" t="str">
+        <f t="shared" si="17"/>
+        <v>T</v>
+      </c>
+      <c r="BX7" s="111" t="str">
+        <f t="shared" si="17"/>
+        <v>W</v>
+      </c>
+      <c r="BY7" s="111" t="str">
+        <f t="shared" si="17"/>
+        <v>T</v>
+      </c>
+      <c r="BZ7" s="111" t="str">
+        <f t="shared" si="17"/>
+        <v>F</v>
+      </c>
+      <c r="CA7" s="111" t="str">
+        <f t="shared" si="17"/>
+        <v>S</v>
+      </c>
+      <c r="CB7" s="112" t="str">
+        <f t="shared" si="17"/>
+        <v>S</v>
+      </c>
+    </row>
+    <row r="8" spans="1:80" s="54" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A8" s="83" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),TEXT(VALUE(prevWBS)+1,"#"),TEXT(VALUE(LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1))+1,"#")))</f>
         <v>1</v>
@@ -4841,7 +5019,7 @@
       <c r="G8" s="87"/>
       <c r="H8" s="88"/>
       <c r="I8" s="89" t="str">
-        <f t="shared" ref="I8:I85" si="4">IF(OR(F8=0,E8=0)," - ",NETWORKDAYS(E8,F8))</f>
+        <f t="shared" ref="I8:I82" si="18">IF(OR(F8=0,E8=0)," - ",NETWORKDAYS(E8,F8))</f>
         <v xml:space="preserve"> - </v>
       </c>
       <c r="J8" s="92"/>
@@ -4901,10 +5079,24 @@
       <c r="BL8" s="98"/>
       <c r="BM8" s="98"/>
       <c r="BN8" s="98"/>
-    </row>
-    <row r="9" spans="1:66" s="60" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+      <c r="BO8" s="98"/>
+      <c r="BP8" s="98"/>
+      <c r="BQ8" s="98"/>
+      <c r="BR8" s="98"/>
+      <c r="BS8" s="98"/>
+      <c r="BT8" s="98"/>
+      <c r="BU8" s="98"/>
+      <c r="BV8" s="98"/>
+      <c r="BW8" s="98"/>
+      <c r="BX8" s="98"/>
+      <c r="BY8" s="98"/>
+      <c r="BZ8" s="98"/>
+      <c r="CA8" s="98"/>
+      <c r="CB8" s="98"/>
+    </row>
+    <row r="9" spans="1:80" s="60" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A9" s="59" t="str">
-        <f t="shared" ref="A9:A24" si="5">IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
+        <f t="shared" ref="A9:A24" si="19">IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
         <v>1.1</v>
       </c>
       <c r="B9" s="115" t="s">
@@ -4928,7 +5120,7 @@
         <v>1</v>
       </c>
       <c r="I9" s="63">
-        <f t="shared" si="4"/>
+        <f t="shared" si="18"/>
         <v>2</v>
       </c>
       <c r="J9" s="93"/>
@@ -4988,10 +5180,24 @@
       <c r="BL9" s="99"/>
       <c r="BM9" s="99"/>
       <c r="BN9" s="99"/>
-    </row>
-    <row r="10" spans="1:66" s="60" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+      <c r="BO9" s="99"/>
+      <c r="BP9" s="99"/>
+      <c r="BQ9" s="99"/>
+      <c r="BR9" s="99"/>
+      <c r="BS9" s="99"/>
+      <c r="BT9" s="99"/>
+      <c r="BU9" s="99"/>
+      <c r="BV9" s="99"/>
+      <c r="BW9" s="99"/>
+      <c r="BX9" s="99"/>
+      <c r="BY9" s="99"/>
+      <c r="BZ9" s="99"/>
+      <c r="CA9" s="99"/>
+      <c r="CB9" s="99"/>
+    </row>
+    <row r="10" spans="1:80" s="60" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A10" s="59" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="19"/>
         <v>1.2</v>
       </c>
       <c r="B10" s="115" t="s">
@@ -5005,7 +5211,7 @@
         <v>44460</v>
       </c>
       <c r="F10" s="162">
-        <f t="shared" ref="F10:F76" si="6">IF(ISBLANK(E10)," - ",IF(G10=0,E10,E10+G10-1))</f>
+        <f t="shared" ref="F10:F73" si="20">IF(ISBLANK(E10)," - ",IF(G10=0,E10,E10+G10-1))</f>
         <v>44461</v>
       </c>
       <c r="G10" s="61">
@@ -5015,7 +5221,7 @@
         <v>1</v>
       </c>
       <c r="I10" s="63">
-        <f t="shared" si="4"/>
+        <f t="shared" si="18"/>
         <v>2</v>
       </c>
       <c r="J10" s="93"/>
@@ -5075,10 +5281,24 @@
       <c r="BL10" s="99"/>
       <c r="BM10" s="99"/>
       <c r="BN10" s="99"/>
-    </row>
-    <row r="11" spans="1:66" s="60" customFormat="1" ht="24" x14ac:dyDescent="0.2">
+      <c r="BO10" s="99"/>
+      <c r="BP10" s="99"/>
+      <c r="BQ10" s="99"/>
+      <c r="BR10" s="99"/>
+      <c r="BS10" s="99"/>
+      <c r="BT10" s="99"/>
+      <c r="BU10" s="99"/>
+      <c r="BV10" s="99"/>
+      <c r="BW10" s="99"/>
+      <c r="BX10" s="99"/>
+      <c r="BY10" s="99"/>
+      <c r="BZ10" s="99"/>
+      <c r="CA10" s="99"/>
+      <c r="CB10" s="99"/>
+    </row>
+    <row r="11" spans="1:80" s="60" customFormat="1" ht="24" x14ac:dyDescent="0.2">
       <c r="A11" s="59" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="19"/>
         <v>1.3</v>
       </c>
       <c r="B11" s="115" t="s">
@@ -5092,7 +5312,7 @@
         <v>44461</v>
       </c>
       <c r="F11" s="162">
-        <f t="shared" si="6"/>
+        <f t="shared" si="20"/>
         <v>44465</v>
       </c>
       <c r="G11" s="61">
@@ -5102,7 +5322,7 @@
         <v>1</v>
       </c>
       <c r="I11" s="63">
-        <f t="shared" si="4"/>
+        <f t="shared" si="18"/>
         <v>3</v>
       </c>
       <c r="J11" s="93"/>
@@ -5162,8 +5382,22 @@
       <c r="BL11" s="99"/>
       <c r="BM11" s="99"/>
       <c r="BN11" s="99"/>
-    </row>
-    <row r="12" spans="1:66" s="60" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+      <c r="BO11" s="99"/>
+      <c r="BP11" s="99"/>
+      <c r="BQ11" s="99"/>
+      <c r="BR11" s="99"/>
+      <c r="BS11" s="99"/>
+      <c r="BT11" s="99"/>
+      <c r="BU11" s="99"/>
+      <c r="BV11" s="99"/>
+      <c r="BW11" s="99"/>
+      <c r="BX11" s="99"/>
+      <c r="BY11" s="99"/>
+      <c r="BZ11" s="99"/>
+      <c r="CA11" s="99"/>
+      <c r="CB11" s="99"/>
+    </row>
+    <row r="12" spans="1:80" s="60" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A12" s="59" t="s">
         <v>140</v>
       </c>
@@ -5178,7 +5412,7 @@
         <v>44461</v>
       </c>
       <c r="F12" s="162">
-        <f t="shared" ref="F12:F19" si="7">IF(ISBLANK(E12)," - ",IF(G12=0,E12,E12+G12-1))</f>
+        <f t="shared" ref="F12:F19" si="21">IF(ISBLANK(E12)," - ",IF(G12=0,E12,E12+G12-1))</f>
         <v>44461</v>
       </c>
       <c r="G12" s="61">
@@ -5188,7 +5422,7 @@
         <v>1</v>
       </c>
       <c r="I12" s="63">
-        <f t="shared" si="4"/>
+        <f t="shared" si="18"/>
         <v>1</v>
       </c>
       <c r="J12" s="93"/>
@@ -5248,8 +5482,22 @@
       <c r="BL12" s="99"/>
       <c r="BM12" s="99"/>
       <c r="BN12" s="99"/>
-    </row>
-    <row r="13" spans="1:66" s="60" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+      <c r="BO12" s="99"/>
+      <c r="BP12" s="99"/>
+      <c r="BQ12" s="99"/>
+      <c r="BR12" s="99"/>
+      <c r="BS12" s="99"/>
+      <c r="BT12" s="99"/>
+      <c r="BU12" s="99"/>
+      <c r="BV12" s="99"/>
+      <c r="BW12" s="99"/>
+      <c r="BX12" s="99"/>
+      <c r="BY12" s="99"/>
+      <c r="BZ12" s="99"/>
+      <c r="CA12" s="99"/>
+      <c r="CB12" s="99"/>
+    </row>
+    <row r="13" spans="1:80" s="60" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A13" s="59" t="s">
         <v>152</v>
       </c>
@@ -5264,7 +5512,7 @@
         <v>44461</v>
       </c>
       <c r="F13" s="162">
-        <f t="shared" si="7"/>
+        <f t="shared" si="21"/>
         <v>44461</v>
       </c>
       <c r="G13" s="61">
@@ -5274,7 +5522,7 @@
         <v>1</v>
       </c>
       <c r="I13" s="63">
-        <f t="shared" si="4"/>
+        <f t="shared" si="18"/>
         <v>1</v>
       </c>
       <c r="J13" s="93"/>
@@ -5334,8 +5582,22 @@
       <c r="BL13" s="99"/>
       <c r="BM13" s="99"/>
       <c r="BN13" s="99"/>
-    </row>
-    <row r="14" spans="1:66" s="60" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+      <c r="BO13" s="99"/>
+      <c r="BP13" s="99"/>
+      <c r="BQ13" s="99"/>
+      <c r="BR13" s="99"/>
+      <c r="BS13" s="99"/>
+      <c r="BT13" s="99"/>
+      <c r="BU13" s="99"/>
+      <c r="BV13" s="99"/>
+      <c r="BW13" s="99"/>
+      <c r="BX13" s="99"/>
+      <c r="BY13" s="99"/>
+      <c r="BZ13" s="99"/>
+      <c r="CA13" s="99"/>
+      <c r="CB13" s="99"/>
+    </row>
+    <row r="14" spans="1:80" s="60" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A14" s="59" t="s">
         <v>153</v>
       </c>
@@ -5350,7 +5612,7 @@
         <v>44462</v>
       </c>
       <c r="F14" s="162">
-        <f t="shared" si="7"/>
+        <f t="shared" si="21"/>
         <v>44462</v>
       </c>
       <c r="G14" s="61">
@@ -5360,7 +5622,7 @@
         <v>1</v>
       </c>
       <c r="I14" s="63">
-        <f t="shared" si="4"/>
+        <f t="shared" si="18"/>
         <v>1</v>
       </c>
       <c r="J14" s="93"/>
@@ -5420,8 +5682,22 @@
       <c r="BL14" s="99"/>
       <c r="BM14" s="99"/>
       <c r="BN14" s="99"/>
-    </row>
-    <row r="15" spans="1:66" s="60" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+      <c r="BO14" s="99"/>
+      <c r="BP14" s="99"/>
+      <c r="BQ14" s="99"/>
+      <c r="BR14" s="99"/>
+      <c r="BS14" s="99"/>
+      <c r="BT14" s="99"/>
+      <c r="BU14" s="99"/>
+      <c r="BV14" s="99"/>
+      <c r="BW14" s="99"/>
+      <c r="BX14" s="99"/>
+      <c r="BY14" s="99"/>
+      <c r="BZ14" s="99"/>
+      <c r="CA14" s="99"/>
+      <c r="CB14" s="99"/>
+    </row>
+    <row r="15" spans="1:80" s="60" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A15" s="59" t="s">
         <v>157</v>
       </c>
@@ -5436,7 +5712,7 @@
         <v>44462</v>
       </c>
       <c r="F15" s="162">
-        <f t="shared" si="7"/>
+        <f t="shared" si="21"/>
         <v>44462</v>
       </c>
       <c r="G15" s="61">
@@ -5446,7 +5722,7 @@
         <v>1</v>
       </c>
       <c r="I15" s="63">
-        <f t="shared" si="4"/>
+        <f t="shared" si="18"/>
         <v>1</v>
       </c>
       <c r="J15" s="93"/>
@@ -5506,8 +5782,22 @@
       <c r="BL15" s="99"/>
       <c r="BM15" s="99"/>
       <c r="BN15" s="99"/>
-    </row>
-    <row r="16" spans="1:66" s="60" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+      <c r="BO15" s="99"/>
+      <c r="BP15" s="99"/>
+      <c r="BQ15" s="99"/>
+      <c r="BR15" s="99"/>
+      <c r="BS15" s="99"/>
+      <c r="BT15" s="99"/>
+      <c r="BU15" s="99"/>
+      <c r="BV15" s="99"/>
+      <c r="BW15" s="99"/>
+      <c r="BX15" s="99"/>
+      <c r="BY15" s="99"/>
+      <c r="BZ15" s="99"/>
+      <c r="CA15" s="99"/>
+      <c r="CB15" s="99"/>
+    </row>
+    <row r="16" spans="1:80" s="60" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A16" s="59" t="s">
         <v>159</v>
       </c>
@@ -5522,7 +5812,7 @@
         <v>44463</v>
       </c>
       <c r="F16" s="162">
-        <f t="shared" si="7"/>
+        <f t="shared" si="21"/>
         <v>44463</v>
       </c>
       <c r="G16" s="61">
@@ -5532,7 +5822,7 @@
         <v>1</v>
       </c>
       <c r="I16" s="63">
-        <f t="shared" si="4"/>
+        <f t="shared" si="18"/>
         <v>1</v>
       </c>
       <c r="J16" s="93"/>
@@ -5592,8 +5882,22 @@
       <c r="BL16" s="99"/>
       <c r="BM16" s="99"/>
       <c r="BN16" s="99"/>
-    </row>
-    <row r="17" spans="1:66" s="60" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+      <c r="BO16" s="99"/>
+      <c r="BP16" s="99"/>
+      <c r="BQ16" s="99"/>
+      <c r="BR16" s="99"/>
+      <c r="BS16" s="99"/>
+      <c r="BT16" s="99"/>
+      <c r="BU16" s="99"/>
+      <c r="BV16" s="99"/>
+      <c r="BW16" s="99"/>
+      <c r="BX16" s="99"/>
+      <c r="BY16" s="99"/>
+      <c r="BZ16" s="99"/>
+      <c r="CA16" s="99"/>
+      <c r="CB16" s="99"/>
+    </row>
+    <row r="17" spans="1:80" s="60" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A17" s="59" t="s">
         <v>161</v>
       </c>
@@ -5608,7 +5912,7 @@
         <v>44463</v>
       </c>
       <c r="F17" s="162">
-        <f t="shared" si="7"/>
+        <f t="shared" si="21"/>
         <v>44463</v>
       </c>
       <c r="G17" s="61">
@@ -5618,7 +5922,7 @@
         <v>1</v>
       </c>
       <c r="I17" s="63">
-        <f t="shared" si="4"/>
+        <f t="shared" si="18"/>
         <v>1</v>
       </c>
       <c r="J17" s="93"/>
@@ -5678,8 +5982,22 @@
       <c r="BL17" s="99"/>
       <c r="BM17" s="99"/>
       <c r="BN17" s="99"/>
-    </row>
-    <row r="18" spans="1:66" s="60" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+      <c r="BO17" s="99"/>
+      <c r="BP17" s="99"/>
+      <c r="BQ17" s="99"/>
+      <c r="BR17" s="99"/>
+      <c r="BS17" s="99"/>
+      <c r="BT17" s="99"/>
+      <c r="BU17" s="99"/>
+      <c r="BV17" s="99"/>
+      <c r="BW17" s="99"/>
+      <c r="BX17" s="99"/>
+      <c r="BY17" s="99"/>
+      <c r="BZ17" s="99"/>
+      <c r="CA17" s="99"/>
+      <c r="CB17" s="99"/>
+    </row>
+    <row r="18" spans="1:80" s="60" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A18" s="59" t="s">
         <v>162</v>
       </c>
@@ -5694,7 +6012,7 @@
         <v>44464</v>
       </c>
       <c r="F18" s="162">
-        <f t="shared" si="7"/>
+        <f t="shared" si="21"/>
         <v>44464</v>
       </c>
       <c r="G18" s="61">
@@ -5704,7 +6022,7 @@
         <v>1</v>
       </c>
       <c r="I18" s="63">
-        <f t="shared" si="4"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="J18" s="93"/>
@@ -5764,8 +6082,22 @@
       <c r="BL18" s="99"/>
       <c r="BM18" s="99"/>
       <c r="BN18" s="99"/>
-    </row>
-    <row r="19" spans="1:66" s="60" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+      <c r="BO18" s="99"/>
+      <c r="BP18" s="99"/>
+      <c r="BQ18" s="99"/>
+      <c r="BR18" s="99"/>
+      <c r="BS18" s="99"/>
+      <c r="BT18" s="99"/>
+      <c r="BU18" s="99"/>
+      <c r="BV18" s="99"/>
+      <c r="BW18" s="99"/>
+      <c r="BX18" s="99"/>
+      <c r="BY18" s="99"/>
+      <c r="BZ18" s="99"/>
+      <c r="CA18" s="99"/>
+      <c r="CB18" s="99"/>
+    </row>
+    <row r="19" spans="1:80" s="60" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A19" s="59" t="s">
         <v>165</v>
       </c>
@@ -5780,7 +6112,7 @@
         <v>44464</v>
       </c>
       <c r="F19" s="162">
-        <f t="shared" si="7"/>
+        <f t="shared" si="21"/>
         <v>44464</v>
       </c>
       <c r="G19" s="61">
@@ -5790,7 +6122,7 @@
         <v>1</v>
       </c>
       <c r="I19" s="63">
-        <f t="shared" si="4"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="J19" s="93"/>
@@ -5850,10 +6182,24 @@
       <c r="BL19" s="99"/>
       <c r="BM19" s="99"/>
       <c r="BN19" s="99"/>
-    </row>
-    <row r="20" spans="1:66" s="60" customFormat="1" ht="24" x14ac:dyDescent="0.2">
+      <c r="BO19" s="99"/>
+      <c r="BP19" s="99"/>
+      <c r="BQ19" s="99"/>
+      <c r="BR19" s="99"/>
+      <c r="BS19" s="99"/>
+      <c r="BT19" s="99"/>
+      <c r="BU19" s="99"/>
+      <c r="BV19" s="99"/>
+      <c r="BW19" s="99"/>
+      <c r="BX19" s="99"/>
+      <c r="BY19" s="99"/>
+      <c r="BZ19" s="99"/>
+      <c r="CA19" s="99"/>
+      <c r="CB19" s="99"/>
+    </row>
+    <row r="20" spans="1:80" s="60" customFormat="1" ht="24" x14ac:dyDescent="0.2">
       <c r="A20" s="59" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="19"/>
         <v>1.4</v>
       </c>
       <c r="B20" s="115" t="s">
@@ -5877,7 +6223,7 @@
         <v>1</v>
       </c>
       <c r="I20" s="63">
-        <f t="shared" si="4"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="J20" s="93"/>
@@ -5937,13 +6283,27 @@
       <c r="BL20" s="99"/>
       <c r="BM20" s="99"/>
       <c r="BN20" s="99"/>
-    </row>
-    <row r="21" spans="1:66" s="60" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+      <c r="BO20" s="99"/>
+      <c r="BP20" s="99"/>
+      <c r="BQ20" s="99"/>
+      <c r="BR20" s="99"/>
+      <c r="BS20" s="99"/>
+      <c r="BT20" s="99"/>
+      <c r="BU20" s="99"/>
+      <c r="BV20" s="99"/>
+      <c r="BW20" s="99"/>
+      <c r="BX20" s="99"/>
+      <c r="BY20" s="99"/>
+      <c r="BZ20" s="99"/>
+      <c r="CA20" s="99"/>
+      <c r="CB20" s="99"/>
+    </row>
+    <row r="21" spans="1:80" s="60" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A21" s="59">
         <v>1.5</v>
       </c>
       <c r="B21" s="115" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="C21" s="60" t="s">
         <v>136</v>
@@ -5963,7 +6323,7 @@
         <v>1</v>
       </c>
       <c r="I21" s="63">
-        <f t="shared" si="4"/>
+        <f t="shared" si="18"/>
         <v>1</v>
       </c>
       <c r="J21" s="93"/>
@@ -6023,10 +6383,24 @@
       <c r="BL21" s="99"/>
       <c r="BM21" s="99"/>
       <c r="BN21" s="99"/>
-    </row>
-    <row r="22" spans="1:66" s="60" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+      <c r="BO21" s="99"/>
+      <c r="BP21" s="99"/>
+      <c r="BQ21" s="99"/>
+      <c r="BR21" s="99"/>
+      <c r="BS21" s="99"/>
+      <c r="BT21" s="99"/>
+      <c r="BU21" s="99"/>
+      <c r="BV21" s="99"/>
+      <c r="BW21" s="99"/>
+      <c r="BX21" s="99"/>
+      <c r="BY21" s="99"/>
+      <c r="BZ21" s="99"/>
+      <c r="CA21" s="99"/>
+      <c r="CB21" s="99"/>
+    </row>
+    <row r="22" spans="1:80" s="60" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A22" s="59" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="19"/>
         <v>1.6</v>
       </c>
       <c r="B22" s="115" t="s">
@@ -6040,7 +6414,7 @@
         <v>44467</v>
       </c>
       <c r="F22" s="162">
-        <f t="shared" si="6"/>
+        <f t="shared" si="20"/>
         <v>44467</v>
       </c>
       <c r="G22" s="61">
@@ -6050,7 +6424,7 @@
         <v>1</v>
       </c>
       <c r="I22" s="63">
-        <f t="shared" si="4"/>
+        <f t="shared" si="18"/>
         <v>1</v>
       </c>
       <c r="J22" s="93"/>
@@ -6110,10 +6484,24 @@
       <c r="BL22" s="99"/>
       <c r="BM22" s="99"/>
       <c r="BN22" s="99"/>
-    </row>
-    <row r="23" spans="1:66" s="60" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+      <c r="BO22" s="99"/>
+      <c r="BP22" s="99"/>
+      <c r="BQ22" s="99"/>
+      <c r="BR22" s="99"/>
+      <c r="BS22" s="99"/>
+      <c r="BT22" s="99"/>
+      <c r="BU22" s="99"/>
+      <c r="BV22" s="99"/>
+      <c r="BW22" s="99"/>
+      <c r="BX22" s="99"/>
+      <c r="BY22" s="99"/>
+      <c r="BZ22" s="99"/>
+      <c r="CA22" s="99"/>
+      <c r="CB22" s="99"/>
+    </row>
+    <row r="23" spans="1:80" s="60" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A23" s="59" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="19"/>
         <v>1.7</v>
       </c>
       <c r="B23" s="115" t="s">
@@ -6137,7 +6525,7 @@
         <v>1</v>
       </c>
       <c r="I23" s="63">
-        <f t="shared" si="4"/>
+        <f t="shared" si="18"/>
         <v>2</v>
       </c>
       <c r="J23" s="93"/>
@@ -6197,10 +6585,24 @@
       <c r="BL23" s="99"/>
       <c r="BM23" s="99"/>
       <c r="BN23" s="99"/>
-    </row>
-    <row r="24" spans="1:66" s="60" customFormat="1" ht="24" x14ac:dyDescent="0.2">
+      <c r="BO23" s="99"/>
+      <c r="BP23" s="99"/>
+      <c r="BQ23" s="99"/>
+      <c r="BR23" s="99"/>
+      <c r="BS23" s="99"/>
+      <c r="BT23" s="99"/>
+      <c r="BU23" s="99"/>
+      <c r="BV23" s="99"/>
+      <c r="BW23" s="99"/>
+      <c r="BX23" s="99"/>
+      <c r="BY23" s="99"/>
+      <c r="BZ23" s="99"/>
+      <c r="CA23" s="99"/>
+      <c r="CB23" s="99"/>
+    </row>
+    <row r="24" spans="1:80" s="60" customFormat="1" ht="24" x14ac:dyDescent="0.2">
       <c r="A24" s="59" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="19"/>
         <v>1.8</v>
       </c>
       <c r="B24" s="115" t="s">
@@ -6214,7 +6616,7 @@
         <v>44468</v>
       </c>
       <c r="F24" s="162">
-        <f t="shared" si="6"/>
+        <f t="shared" si="20"/>
         <v>44469</v>
       </c>
       <c r="G24" s="61">
@@ -6224,7 +6626,7 @@
         <v>1</v>
       </c>
       <c r="I24" s="63">
-        <f t="shared" si="4"/>
+        <f t="shared" si="18"/>
         <v>2</v>
       </c>
       <c r="J24" s="93"/>
@@ -6284,10 +6686,24 @@
       <c r="BL24" s="99"/>
       <c r="BM24" s="99"/>
       <c r="BN24" s="99"/>
-    </row>
-    <row r="25" spans="1:66" s="60" customFormat="1" ht="24" x14ac:dyDescent="0.2">
+      <c r="BO24" s="99"/>
+      <c r="BP24" s="99"/>
+      <c r="BQ24" s="99"/>
+      <c r="BR24" s="99"/>
+      <c r="BS24" s="99"/>
+      <c r="BT24" s="99"/>
+      <c r="BU24" s="99"/>
+      <c r="BV24" s="99"/>
+      <c r="BW24" s="99"/>
+      <c r="BX24" s="99"/>
+      <c r="BY24" s="99"/>
+      <c r="BZ24" s="99"/>
+      <c r="CA24" s="99"/>
+      <c r="CB24" s="99"/>
+    </row>
+    <row r="25" spans="1:80" s="60" customFormat="1" ht="24" x14ac:dyDescent="0.2">
       <c r="A25" s="59" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="B25" s="117" t="s">
         <v>146</v>
@@ -6300,7 +6716,7 @@
         <v>44469</v>
       </c>
       <c r="F25" s="171">
-        <f t="shared" si="6"/>
+        <f t="shared" si="20"/>
         <v>44472</v>
       </c>
       <c r="G25" s="172">
@@ -6310,7 +6726,7 @@
         <v>1</v>
       </c>
       <c r="I25" s="174">
-        <f t="shared" si="4"/>
+        <f t="shared" si="18"/>
         <v>2</v>
       </c>
       <c r="J25" s="175"/>
@@ -6370,8 +6786,22 @@
       <c r="BL25" s="99"/>
       <c r="BM25" s="99"/>
       <c r="BN25" s="99"/>
-    </row>
-    <row r="26" spans="1:66" s="54" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+      <c r="BO25" s="99"/>
+      <c r="BP25" s="99"/>
+      <c r="BQ25" s="99"/>
+      <c r="BR25" s="99"/>
+      <c r="BS25" s="99"/>
+      <c r="BT25" s="99"/>
+      <c r="BU25" s="99"/>
+      <c r="BV25" s="99"/>
+      <c r="BW25" s="99"/>
+      <c r="BX25" s="99"/>
+      <c r="BY25" s="99"/>
+      <c r="BZ25" s="99"/>
+      <c r="CA25" s="99"/>
+      <c r="CB25" s="99"/>
+    </row>
+    <row r="26" spans="1:80" s="54" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A26" s="52" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),TEXT(VALUE(prevWBS)+1,"#"),TEXT(VALUE(LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1))+1,"#")))</f>
         <v>2</v>
@@ -6382,13 +6812,13 @@
       <c r="D26" s="55"/>
       <c r="E26" s="163"/>
       <c r="F26" s="163" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="20"/>
         <v xml:space="preserve"> - </v>
       </c>
       <c r="G26" s="56"/>
       <c r="H26" s="57"/>
       <c r="I26" s="58" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="18"/>
         <v xml:space="preserve"> - </v>
       </c>
       <c r="J26" s="94"/>
@@ -6448,8 +6878,22 @@
       <c r="BL26" s="101"/>
       <c r="BM26" s="101"/>
       <c r="BN26" s="101"/>
-    </row>
-    <row r="27" spans="1:66" s="60" customFormat="1" ht="24" x14ac:dyDescent="0.2">
+      <c r="BO26" s="101"/>
+      <c r="BP26" s="101"/>
+      <c r="BQ26" s="101"/>
+      <c r="BR26" s="101"/>
+      <c r="BS26" s="101"/>
+      <c r="BT26" s="101"/>
+      <c r="BU26" s="101"/>
+      <c r="BV26" s="101"/>
+      <c r="BW26" s="101"/>
+      <c r="BX26" s="101"/>
+      <c r="BY26" s="101"/>
+      <c r="BZ26" s="101"/>
+      <c r="CA26" s="101"/>
+      <c r="CB26" s="101"/>
+    </row>
+    <row r="27" spans="1:80" s="60" customFormat="1" ht="24" x14ac:dyDescent="0.2">
       <c r="A27" s="59" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
         <v>2.1</v>
@@ -6465,7 +6909,7 @@
         <v>44473</v>
       </c>
       <c r="F27" s="162">
-        <f t="shared" si="6"/>
+        <f t="shared" si="20"/>
         <v>44473</v>
       </c>
       <c r="G27" s="61">
@@ -6475,7 +6919,7 @@
         <v>1</v>
       </c>
       <c r="I27" s="63">
-        <f t="shared" si="4"/>
+        <f t="shared" si="18"/>
         <v>1</v>
       </c>
       <c r="J27" s="93"/>
@@ -6535,8 +6979,22 @@
       <c r="BL27" s="99"/>
       <c r="BM27" s="99"/>
       <c r="BN27" s="99"/>
-    </row>
-    <row r="28" spans="1:66" s="60" customFormat="1" ht="24" x14ac:dyDescent="0.2">
+      <c r="BO27" s="99"/>
+      <c r="BP27" s="99"/>
+      <c r="BQ27" s="99"/>
+      <c r="BR27" s="99"/>
+      <c r="BS27" s="99"/>
+      <c r="BT27" s="99"/>
+      <c r="BU27" s="99"/>
+      <c r="BV27" s="99"/>
+      <c r="BW27" s="99"/>
+      <c r="BX27" s="99"/>
+      <c r="BY27" s="99"/>
+      <c r="BZ27" s="99"/>
+      <c r="CA27" s="99"/>
+      <c r="CB27" s="99"/>
+    </row>
+    <row r="28" spans="1:80" s="60" customFormat="1" ht="24" x14ac:dyDescent="0.2">
       <c r="A28" s="59" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
         <v>2.2</v>
@@ -6562,7 +7020,7 @@
         <v>1</v>
       </c>
       <c r="I28" s="63">
-        <f t="shared" si="4"/>
+        <f t="shared" si="18"/>
         <v>4</v>
       </c>
       <c r="J28" s="93"/>
@@ -6622,8 +7080,22 @@
       <c r="BL28" s="99"/>
       <c r="BM28" s="99"/>
       <c r="BN28" s="99"/>
-    </row>
-    <row r="29" spans="1:66" s="60" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+      <c r="BO28" s="99"/>
+      <c r="BP28" s="99"/>
+      <c r="BQ28" s="99"/>
+      <c r="BR28" s="99"/>
+      <c r="BS28" s="99"/>
+      <c r="BT28" s="99"/>
+      <c r="BU28" s="99"/>
+      <c r="BV28" s="99"/>
+      <c r="BW28" s="99"/>
+      <c r="BX28" s="99"/>
+      <c r="BY28" s="99"/>
+      <c r="BZ28" s="99"/>
+      <c r="CA28" s="99"/>
+      <c r="CB28" s="99"/>
+    </row>
+    <row r="29" spans="1:80" s="60" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A29" s="59" t="s">
         <v>167</v>
       </c>
@@ -6638,7 +7110,7 @@
         <v>44474</v>
       </c>
       <c r="F29" s="162">
-        <f t="shared" si="6"/>
+        <f t="shared" si="20"/>
         <v>44474</v>
       </c>
       <c r="G29" s="61">
@@ -6648,7 +7120,7 @@
         <v>1</v>
       </c>
       <c r="I29" s="63">
-        <f t="shared" si="4"/>
+        <f t="shared" si="18"/>
         <v>1</v>
       </c>
       <c r="J29" s="93"/>
@@ -6708,8 +7180,22 @@
       <c r="BL29" s="99"/>
       <c r="BM29" s="99"/>
       <c r="BN29" s="99"/>
-    </row>
-    <row r="30" spans="1:66" s="60" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+      <c r="BO29" s="99"/>
+      <c r="BP29" s="99"/>
+      <c r="BQ29" s="99"/>
+      <c r="BR29" s="99"/>
+      <c r="BS29" s="99"/>
+      <c r="BT29" s="99"/>
+      <c r="BU29" s="99"/>
+      <c r="BV29" s="99"/>
+      <c r="BW29" s="99"/>
+      <c r="BX29" s="99"/>
+      <c r="BY29" s="99"/>
+      <c r="BZ29" s="99"/>
+      <c r="CA29" s="99"/>
+      <c r="CB29" s="99"/>
+    </row>
+    <row r="30" spans="1:80" s="60" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A30" s="59" t="s">
         <v>168</v>
       </c>
@@ -6724,7 +7210,7 @@
         <v>44474</v>
       </c>
       <c r="F30" s="162">
-        <f t="shared" si="6"/>
+        <f t="shared" si="20"/>
         <v>44474</v>
       </c>
       <c r="G30" s="61">
@@ -6734,7 +7220,7 @@
         <v>1</v>
       </c>
       <c r="I30" s="63">
-        <f t="shared" si="4"/>
+        <f t="shared" si="18"/>
         <v>1</v>
       </c>
       <c r="J30" s="93"/>
@@ -6794,8 +7280,22 @@
       <c r="BL30" s="99"/>
       <c r="BM30" s="99"/>
       <c r="BN30" s="99"/>
-    </row>
-    <row r="31" spans="1:66" s="60" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+      <c r="BO30" s="99"/>
+      <c r="BP30" s="99"/>
+      <c r="BQ30" s="99"/>
+      <c r="BR30" s="99"/>
+      <c r="BS30" s="99"/>
+      <c r="BT30" s="99"/>
+      <c r="BU30" s="99"/>
+      <c r="BV30" s="99"/>
+      <c r="BW30" s="99"/>
+      <c r="BX30" s="99"/>
+      <c r="BY30" s="99"/>
+      <c r="BZ30" s="99"/>
+      <c r="CA30" s="99"/>
+      <c r="CB30" s="99"/>
+    </row>
+    <row r="31" spans="1:80" s="60" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A31" s="59" t="s">
         <v>169</v>
       </c>
@@ -6810,7 +7310,7 @@
         <v>44475</v>
       </c>
       <c r="F31" s="162">
-        <f t="shared" si="6"/>
+        <f t="shared" si="20"/>
         <v>44475</v>
       </c>
       <c r="G31" s="61">
@@ -6820,7 +7320,7 @@
         <v>1</v>
       </c>
       <c r="I31" s="63">
-        <f t="shared" si="4"/>
+        <f t="shared" si="18"/>
         <v>1</v>
       </c>
       <c r="J31" s="93"/>
@@ -6880,8 +7380,22 @@
       <c r="BL31" s="99"/>
       <c r="BM31" s="99"/>
       <c r="BN31" s="99"/>
-    </row>
-    <row r="32" spans="1:66" s="60" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+      <c r="BO31" s="99"/>
+      <c r="BP31" s="99"/>
+      <c r="BQ31" s="99"/>
+      <c r="BR31" s="99"/>
+      <c r="BS31" s="99"/>
+      <c r="BT31" s="99"/>
+      <c r="BU31" s="99"/>
+      <c r="BV31" s="99"/>
+      <c r="BW31" s="99"/>
+      <c r="BX31" s="99"/>
+      <c r="BY31" s="99"/>
+      <c r="BZ31" s="99"/>
+      <c r="CA31" s="99"/>
+      <c r="CB31" s="99"/>
+    </row>
+    <row r="32" spans="1:80" s="60" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A32" s="59" t="s">
         <v>170</v>
       </c>
@@ -6896,7 +7410,7 @@
         <v>44475</v>
       </c>
       <c r="F32" s="162">
-        <f t="shared" si="6"/>
+        <f t="shared" si="20"/>
         <v>44475</v>
       </c>
       <c r="G32" s="61">
@@ -6906,7 +7420,7 @@
         <v>1</v>
       </c>
       <c r="I32" s="63">
-        <f t="shared" si="4"/>
+        <f t="shared" si="18"/>
         <v>1</v>
       </c>
       <c r="J32" s="93"/>
@@ -6966,8 +7480,22 @@
       <c r="BL32" s="99"/>
       <c r="BM32" s="99"/>
       <c r="BN32" s="99"/>
-    </row>
-    <row r="33" spans="1:66" s="60" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+      <c r="BO32" s="99"/>
+      <c r="BP32" s="99"/>
+      <c r="BQ32" s="99"/>
+      <c r="BR32" s="99"/>
+      <c r="BS32" s="99"/>
+      <c r="BT32" s="99"/>
+      <c r="BU32" s="99"/>
+      <c r="BV32" s="99"/>
+      <c r="BW32" s="99"/>
+      <c r="BX32" s="99"/>
+      <c r="BY32" s="99"/>
+      <c r="BZ32" s="99"/>
+      <c r="CA32" s="99"/>
+      <c r="CB32" s="99"/>
+    </row>
+    <row r="33" spans="1:80" s="60" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A33" s="59" t="s">
         <v>171</v>
       </c>
@@ -6982,7 +7510,7 @@
         <v>44476</v>
       </c>
       <c r="F33" s="162">
-        <f t="shared" si="6"/>
+        <f t="shared" si="20"/>
         <v>44476</v>
       </c>
       <c r="G33" s="61">
@@ -6992,7 +7520,7 @@
         <v>1</v>
       </c>
       <c r="I33" s="63">
-        <f t="shared" si="4"/>
+        <f t="shared" si="18"/>
         <v>1</v>
       </c>
       <c r="J33" s="93"/>
@@ -7052,8 +7580,22 @@
       <c r="BL33" s="99"/>
       <c r="BM33" s="99"/>
       <c r="BN33" s="99"/>
-    </row>
-    <row r="34" spans="1:66" s="60" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+      <c r="BO33" s="99"/>
+      <c r="BP33" s="99"/>
+      <c r="BQ33" s="99"/>
+      <c r="BR33" s="99"/>
+      <c r="BS33" s="99"/>
+      <c r="BT33" s="99"/>
+      <c r="BU33" s="99"/>
+      <c r="BV33" s="99"/>
+      <c r="BW33" s="99"/>
+      <c r="BX33" s="99"/>
+      <c r="BY33" s="99"/>
+      <c r="BZ33" s="99"/>
+      <c r="CA33" s="99"/>
+      <c r="CB33" s="99"/>
+    </row>
+    <row r="34" spans="1:80" s="60" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A34" s="59" t="s">
         <v>172</v>
       </c>
@@ -7068,7 +7610,7 @@
         <v>44476</v>
       </c>
       <c r="F34" s="162">
-        <f t="shared" si="6"/>
+        <f t="shared" si="20"/>
         <v>44476</v>
       </c>
       <c r="G34" s="61">
@@ -7078,7 +7620,7 @@
         <v>1</v>
       </c>
       <c r="I34" s="63">
-        <f t="shared" si="4"/>
+        <f t="shared" si="18"/>
         <v>1</v>
       </c>
       <c r="J34" s="93"/>
@@ -7138,8 +7680,22 @@
       <c r="BL34" s="99"/>
       <c r="BM34" s="99"/>
       <c r="BN34" s="99"/>
-    </row>
-    <row r="35" spans="1:66" s="60" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+      <c r="BO34" s="99"/>
+      <c r="BP34" s="99"/>
+      <c r="BQ34" s="99"/>
+      <c r="BR34" s="99"/>
+      <c r="BS34" s="99"/>
+      <c r="BT34" s="99"/>
+      <c r="BU34" s="99"/>
+      <c r="BV34" s="99"/>
+      <c r="BW34" s="99"/>
+      <c r="BX34" s="99"/>
+      <c r="BY34" s="99"/>
+      <c r="BZ34" s="99"/>
+      <c r="CA34" s="99"/>
+      <c r="CB34" s="99"/>
+    </row>
+    <row r="35" spans="1:80" s="60" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A35" s="59" t="s">
         <v>173</v>
       </c>
@@ -7154,7 +7710,7 @@
         <v>44477</v>
       </c>
       <c r="F35" s="162">
-        <f t="shared" si="6"/>
+        <f t="shared" si="20"/>
         <v>44477</v>
       </c>
       <c r="G35" s="61">
@@ -7164,7 +7720,7 @@
         <v>1</v>
       </c>
       <c r="I35" s="63">
-        <f t="shared" si="4"/>
+        <f t="shared" si="18"/>
         <v>1</v>
       </c>
       <c r="J35" s="93"/>
@@ -7224,8 +7780,22 @@
       <c r="BL35" s="99"/>
       <c r="BM35" s="99"/>
       <c r="BN35" s="99"/>
-    </row>
-    <row r="36" spans="1:66" s="60" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+      <c r="BO35" s="99"/>
+      <c r="BP35" s="99"/>
+      <c r="BQ35" s="99"/>
+      <c r="BR35" s="99"/>
+      <c r="BS35" s="99"/>
+      <c r="BT35" s="99"/>
+      <c r="BU35" s="99"/>
+      <c r="BV35" s="99"/>
+      <c r="BW35" s="99"/>
+      <c r="BX35" s="99"/>
+      <c r="BY35" s="99"/>
+      <c r="BZ35" s="99"/>
+      <c r="CA35" s="99"/>
+      <c r="CB35" s="99"/>
+    </row>
+    <row r="36" spans="1:80" s="60" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A36" s="59" t="s">
         <v>174</v>
       </c>
@@ -7240,7 +7810,7 @@
         <v>44477</v>
       </c>
       <c r="F36" s="162">
-        <f t="shared" si="6"/>
+        <f t="shared" si="20"/>
         <v>44477</v>
       </c>
       <c r="G36" s="61">
@@ -7250,7 +7820,7 @@
         <v>1</v>
       </c>
       <c r="I36" s="63">
-        <f t="shared" si="4"/>
+        <f t="shared" si="18"/>
         <v>1</v>
       </c>
       <c r="J36" s="93"/>
@@ -7310,8 +7880,22 @@
       <c r="BL36" s="99"/>
       <c r="BM36" s="99"/>
       <c r="BN36" s="99"/>
-    </row>
-    <row r="37" spans="1:66" s="60" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+      <c r="BO36" s="99"/>
+      <c r="BP36" s="99"/>
+      <c r="BQ36" s="99"/>
+      <c r="BR36" s="99"/>
+      <c r="BS36" s="99"/>
+      <c r="BT36" s="99"/>
+      <c r="BU36" s="99"/>
+      <c r="BV36" s="99"/>
+      <c r="BW36" s="99"/>
+      <c r="BX36" s="99"/>
+      <c r="BY36" s="99"/>
+      <c r="BZ36" s="99"/>
+      <c r="CA36" s="99"/>
+      <c r="CB36" s="99"/>
+    </row>
+    <row r="37" spans="1:80" s="60" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A37" s="59" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
         <v>2.3</v>
@@ -7337,7 +7921,7 @@
         <v>1</v>
       </c>
       <c r="I37" s="63">
-        <f t="shared" si="4"/>
+        <f t="shared" si="18"/>
         <v>4</v>
       </c>
       <c r="J37" s="93"/>
@@ -7397,8 +7981,22 @@
       <c r="BL37" s="99"/>
       <c r="BM37" s="99"/>
       <c r="BN37" s="99"/>
-    </row>
-    <row r="38" spans="1:66" s="60" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+      <c r="BO37" s="99"/>
+      <c r="BP37" s="99"/>
+      <c r="BQ37" s="99"/>
+      <c r="BR37" s="99"/>
+      <c r="BS37" s="99"/>
+      <c r="BT37" s="99"/>
+      <c r="BU37" s="99"/>
+      <c r="BV37" s="99"/>
+      <c r="BW37" s="99"/>
+      <c r="BX37" s="99"/>
+      <c r="BY37" s="99"/>
+      <c r="BZ37" s="99"/>
+      <c r="CA37" s="99"/>
+      <c r="CB37" s="99"/>
+    </row>
+    <row r="38" spans="1:80" s="60" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A38" s="59" t="s">
         <v>176</v>
       </c>
@@ -7423,7 +8021,7 @@
         <v>1</v>
       </c>
       <c r="I38" s="63">
-        <f t="shared" si="4"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="J38" s="93"/>
@@ -7483,8 +8081,22 @@
       <c r="BL38" s="99"/>
       <c r="BM38" s="99"/>
       <c r="BN38" s="99"/>
-    </row>
-    <row r="39" spans="1:66" s="60" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+      <c r="BO38" s="99"/>
+      <c r="BP38" s="99"/>
+      <c r="BQ38" s="99"/>
+      <c r="BR38" s="99"/>
+      <c r="BS38" s="99"/>
+      <c r="BT38" s="99"/>
+      <c r="BU38" s="99"/>
+      <c r="BV38" s="99"/>
+      <c r="BW38" s="99"/>
+      <c r="BX38" s="99"/>
+      <c r="BY38" s="99"/>
+      <c r="BZ38" s="99"/>
+      <c r="CA38" s="99"/>
+      <c r="CB38" s="99"/>
+    </row>
+    <row r="39" spans="1:80" s="60" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A39" s="59" t="s">
         <v>177</v>
       </c>
@@ -7509,7 +8121,7 @@
         <v>1</v>
       </c>
       <c r="I39" s="63">
-        <f t="shared" si="4"/>
+        <f t="shared" si="18"/>
         <v>1</v>
       </c>
       <c r="J39" s="93"/>
@@ -7569,8 +8181,22 @@
       <c r="BL39" s="99"/>
       <c r="BM39" s="99"/>
       <c r="BN39" s="99"/>
-    </row>
-    <row r="40" spans="1:66" s="60" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+      <c r="BO39" s="99"/>
+      <c r="BP39" s="99"/>
+      <c r="BQ39" s="99"/>
+      <c r="BR39" s="99"/>
+      <c r="BS39" s="99"/>
+      <c r="BT39" s="99"/>
+      <c r="BU39" s="99"/>
+      <c r="BV39" s="99"/>
+      <c r="BW39" s="99"/>
+      <c r="BX39" s="99"/>
+      <c r="BY39" s="99"/>
+      <c r="BZ39" s="99"/>
+      <c r="CA39" s="99"/>
+      <c r="CB39" s="99"/>
+    </row>
+    <row r="40" spans="1:80" s="60" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A40" s="59" t="s">
         <v>178</v>
       </c>
@@ -7585,7 +8211,7 @@
         <v>44481</v>
       </c>
       <c r="F40" s="162">
-        <f t="shared" si="6"/>
+        <f t="shared" si="20"/>
         <v>44481</v>
       </c>
       <c r="G40" s="61">
@@ -7595,7 +8221,7 @@
         <v>1</v>
       </c>
       <c r="I40" s="63">
-        <f t="shared" si="4"/>
+        <f t="shared" si="18"/>
         <v>1</v>
       </c>
       <c r="J40" s="93"/>
@@ -7655,8 +8281,22 @@
       <c r="BL40" s="99"/>
       <c r="BM40" s="99"/>
       <c r="BN40" s="99"/>
-    </row>
-    <row r="41" spans="1:66" s="60" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+      <c r="BO40" s="99"/>
+      <c r="BP40" s="99"/>
+      <c r="BQ40" s="99"/>
+      <c r="BR40" s="99"/>
+      <c r="BS40" s="99"/>
+      <c r="BT40" s="99"/>
+      <c r="BU40" s="99"/>
+      <c r="BV40" s="99"/>
+      <c r="BW40" s="99"/>
+      <c r="BX40" s="99"/>
+      <c r="BY40" s="99"/>
+      <c r="BZ40" s="99"/>
+      <c r="CA40" s="99"/>
+      <c r="CB40" s="99"/>
+    </row>
+    <row r="41" spans="1:80" s="60" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A41" s="59" t="s">
         <v>179</v>
       </c>
@@ -7671,7 +8311,7 @@
         <v>44481</v>
       </c>
       <c r="F41" s="162">
-        <f t="shared" si="6"/>
+        <f t="shared" si="20"/>
         <v>44481</v>
       </c>
       <c r="G41" s="61">
@@ -7681,7 +8321,7 @@
         <v>1</v>
       </c>
       <c r="I41" s="63">
-        <f t="shared" si="4"/>
+        <f t="shared" si="18"/>
         <v>1</v>
       </c>
       <c r="J41" s="93"/>
@@ -7741,8 +8381,22 @@
       <c r="BL41" s="99"/>
       <c r="BM41" s="99"/>
       <c r="BN41" s="99"/>
-    </row>
-    <row r="42" spans="1:66" s="60" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+      <c r="BO41" s="99"/>
+      <c r="BP41" s="99"/>
+      <c r="BQ41" s="99"/>
+      <c r="BR41" s="99"/>
+      <c r="BS41" s="99"/>
+      <c r="BT41" s="99"/>
+      <c r="BU41" s="99"/>
+      <c r="BV41" s="99"/>
+      <c r="BW41" s="99"/>
+      <c r="BX41" s="99"/>
+      <c r="BY41" s="99"/>
+      <c r="BZ41" s="99"/>
+      <c r="CA41" s="99"/>
+      <c r="CB41" s="99"/>
+    </row>
+    <row r="42" spans="1:80" s="60" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A42" s="59" t="s">
         <v>180</v>
       </c>
@@ -7757,7 +8411,7 @@
         <v>44482</v>
       </c>
       <c r="F42" s="162">
-        <f t="shared" si="6"/>
+        <f t="shared" si="20"/>
         <v>44482</v>
       </c>
       <c r="G42" s="61">
@@ -7767,7 +8421,7 @@
         <v>1</v>
       </c>
       <c r="I42" s="63">
-        <f t="shared" si="4"/>
+        <f t="shared" si="18"/>
         <v>1</v>
       </c>
       <c r="J42" s="93"/>
@@ -7827,8 +8481,22 @@
       <c r="BL42" s="99"/>
       <c r="BM42" s="99"/>
       <c r="BN42" s="99"/>
-    </row>
-    <row r="43" spans="1:66" s="60" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+      <c r="BO42" s="99"/>
+      <c r="BP42" s="99"/>
+      <c r="BQ42" s="99"/>
+      <c r="BR42" s="99"/>
+      <c r="BS42" s="99"/>
+      <c r="BT42" s="99"/>
+      <c r="BU42" s="99"/>
+      <c r="BV42" s="99"/>
+      <c r="BW42" s="99"/>
+      <c r="BX42" s="99"/>
+      <c r="BY42" s="99"/>
+      <c r="BZ42" s="99"/>
+      <c r="CA42" s="99"/>
+      <c r="CB42" s="99"/>
+    </row>
+    <row r="43" spans="1:80" s="60" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A43" s="59" t="s">
         <v>181</v>
       </c>
@@ -7843,7 +8511,7 @@
         <v>44482</v>
       </c>
       <c r="F43" s="162">
-        <f t="shared" si="6"/>
+        <f t="shared" si="20"/>
         <v>44482</v>
       </c>
       <c r="G43" s="61">
@@ -7853,7 +8521,7 @@
         <v>1</v>
       </c>
       <c r="I43" s="63">
-        <f t="shared" si="4"/>
+        <f t="shared" si="18"/>
         <v>1</v>
       </c>
       <c r="J43" s="93"/>
@@ -7913,8 +8581,22 @@
       <c r="BL43" s="99"/>
       <c r="BM43" s="99"/>
       <c r="BN43" s="99"/>
-    </row>
-    <row r="44" spans="1:66" s="60" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+      <c r="BO43" s="99"/>
+      <c r="BP43" s="99"/>
+      <c r="BQ43" s="99"/>
+      <c r="BR43" s="99"/>
+      <c r="BS43" s="99"/>
+      <c r="BT43" s="99"/>
+      <c r="BU43" s="99"/>
+      <c r="BV43" s="99"/>
+      <c r="BW43" s="99"/>
+      <c r="BX43" s="99"/>
+      <c r="BY43" s="99"/>
+      <c r="BZ43" s="99"/>
+      <c r="CA43" s="99"/>
+      <c r="CB43" s="99"/>
+    </row>
+    <row r="44" spans="1:80" s="60" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A44" s="59" t="s">
         <v>182</v>
       </c>
@@ -7929,7 +8611,7 @@
         <v>44483</v>
       </c>
       <c r="F44" s="162">
-        <f t="shared" si="6"/>
+        <f t="shared" si="20"/>
         <v>44483</v>
       </c>
       <c r="G44" s="61">
@@ -7939,7 +8621,7 @@
         <v>1</v>
       </c>
       <c r="I44" s="63">
-        <f t="shared" si="4"/>
+        <f t="shared" si="18"/>
         <v>1</v>
       </c>
       <c r="J44" s="93"/>
@@ -7999,8 +8681,22 @@
       <c r="BL44" s="99"/>
       <c r="BM44" s="99"/>
       <c r="BN44" s="99"/>
-    </row>
-    <row r="45" spans="1:66" s="60" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+      <c r="BO44" s="99"/>
+      <c r="BP44" s="99"/>
+      <c r="BQ44" s="99"/>
+      <c r="BR44" s="99"/>
+      <c r="BS44" s="99"/>
+      <c r="BT44" s="99"/>
+      <c r="BU44" s="99"/>
+      <c r="BV44" s="99"/>
+      <c r="BW44" s="99"/>
+      <c r="BX44" s="99"/>
+      <c r="BY44" s="99"/>
+      <c r="BZ44" s="99"/>
+      <c r="CA44" s="99"/>
+      <c r="CB44" s="99"/>
+    </row>
+    <row r="45" spans="1:80" s="60" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A45" s="59" t="s">
         <v>183</v>
       </c>
@@ -8015,7 +8711,7 @@
         <v>44483</v>
       </c>
       <c r="F45" s="162">
-        <f t="shared" si="6"/>
+        <f t="shared" si="20"/>
         <v>44483</v>
       </c>
       <c r="G45" s="61">
@@ -8025,7 +8721,7 @@
         <v>1</v>
       </c>
       <c r="I45" s="63">
-        <f t="shared" si="4"/>
+        <f t="shared" si="18"/>
         <v>1</v>
       </c>
       <c r="J45" s="93"/>
@@ -8085,8 +8781,22 @@
       <c r="BL45" s="99"/>
       <c r="BM45" s="99"/>
       <c r="BN45" s="99"/>
-    </row>
-    <row r="46" spans="1:66" s="60" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+      <c r="BO45" s="99"/>
+      <c r="BP45" s="99"/>
+      <c r="BQ45" s="99"/>
+      <c r="BR45" s="99"/>
+      <c r="BS45" s="99"/>
+      <c r="BT45" s="99"/>
+      <c r="BU45" s="99"/>
+      <c r="BV45" s="99"/>
+      <c r="BW45" s="99"/>
+      <c r="BX45" s="99"/>
+      <c r="BY45" s="99"/>
+      <c r="BZ45" s="99"/>
+      <c r="CA45" s="99"/>
+      <c r="CB45" s="99"/>
+    </row>
+    <row r="46" spans="1:80" s="60" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A46" s="59" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
         <v>2.4</v>
@@ -8102,7 +8812,7 @@
         <v>44491</v>
       </c>
       <c r="F46" s="162">
-        <f t="shared" si="6"/>
+        <f t="shared" si="20"/>
         <v>44493</v>
       </c>
       <c r="G46" s="61">
@@ -8112,7 +8822,7 @@
         <v>1</v>
       </c>
       <c r="I46" s="63">
-        <f t="shared" si="4"/>
+        <f t="shared" si="18"/>
         <v>1</v>
       </c>
       <c r="J46" s="93"/>
@@ -8172,13 +8882,27 @@
       <c r="BL46" s="99"/>
       <c r="BM46" s="99"/>
       <c r="BN46" s="99"/>
-    </row>
-    <row r="47" spans="1:66" s="60" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+      <c r="BO46" s="99"/>
+      <c r="BP46" s="99"/>
+      <c r="BQ46" s="99"/>
+      <c r="BR46" s="99"/>
+      <c r="BS46" s="99"/>
+      <c r="BT46" s="99"/>
+      <c r="BU46" s="99"/>
+      <c r="BV46" s="99"/>
+      <c r="BW46" s="99"/>
+      <c r="BX46" s="99"/>
+      <c r="BY46" s="99"/>
+      <c r="BZ46" s="99"/>
+      <c r="CA46" s="99"/>
+      <c r="CB46" s="99"/>
+    </row>
+    <row r="47" spans="1:80" s="60" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A47" s="59" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="B47" s="117" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="C47" s="60" t="s">
         <v>136</v>
@@ -8198,7 +8922,7 @@
         <v>1</v>
       </c>
       <c r="I47" s="63">
-        <f t="shared" si="4"/>
+        <f t="shared" si="18"/>
         <v>1</v>
       </c>
       <c r="J47" s="93"/>
@@ -8258,13 +8982,27 @@
       <c r="BL47" s="99"/>
       <c r="BM47" s="99"/>
       <c r="BN47" s="99"/>
-    </row>
-    <row r="48" spans="1:66" s="60" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+      <c r="BO47" s="99"/>
+      <c r="BP47" s="99"/>
+      <c r="BQ47" s="99"/>
+      <c r="BR47" s="99"/>
+      <c r="BS47" s="99"/>
+      <c r="BT47" s="99"/>
+      <c r="BU47" s="99"/>
+      <c r="BV47" s="99"/>
+      <c r="BW47" s="99"/>
+      <c r="BX47" s="99"/>
+      <c r="BY47" s="99"/>
+      <c r="BZ47" s="99"/>
+      <c r="CA47" s="99"/>
+      <c r="CB47" s="99"/>
+    </row>
+    <row r="48" spans="1:80" s="60" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A48" s="59" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="B48" s="117" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="C48" s="60" t="s">
         <v>136</v>
@@ -8274,7 +9012,7 @@
         <v>44491</v>
       </c>
       <c r="F48" s="162">
-        <f t="shared" si="6"/>
+        <f t="shared" si="20"/>
         <v>44491</v>
       </c>
       <c r="G48" s="61">
@@ -8284,7 +9022,7 @@
         <v>1</v>
       </c>
       <c r="I48" s="63">
-        <f t="shared" si="4"/>
+        <f t="shared" si="18"/>
         <v>1</v>
       </c>
       <c r="J48" s="93"/>
@@ -8344,13 +9082,27 @@
       <c r="BL48" s="99"/>
       <c r="BM48" s="99"/>
       <c r="BN48" s="99"/>
-    </row>
-    <row r="49" spans="1:66" s="60" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+      <c r="BO48" s="99"/>
+      <c r="BP48" s="99"/>
+      <c r="BQ48" s="99"/>
+      <c r="BR48" s="99"/>
+      <c r="BS48" s="99"/>
+      <c r="BT48" s="99"/>
+      <c r="BU48" s="99"/>
+      <c r="BV48" s="99"/>
+      <c r="BW48" s="99"/>
+      <c r="BX48" s="99"/>
+      <c r="BY48" s="99"/>
+      <c r="BZ48" s="99"/>
+      <c r="CA48" s="99"/>
+      <c r="CB48" s="99"/>
+    </row>
+    <row r="49" spans="1:80" s="60" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A49" s="59" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="B49" s="117" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="C49" s="60" t="s">
         <v>136</v>
@@ -8360,7 +9112,7 @@
         <v>44491</v>
       </c>
       <c r="F49" s="162">
-        <f t="shared" si="6"/>
+        <f t="shared" si="20"/>
         <v>44491</v>
       </c>
       <c r="G49" s="61">
@@ -8370,7 +9122,7 @@
         <v>1</v>
       </c>
       <c r="I49" s="63">
-        <f t="shared" si="4"/>
+        <f t="shared" si="18"/>
         <v>1</v>
       </c>
       <c r="J49" s="93"/>
@@ -8430,35 +9182,48 @@
       <c r="BL49" s="99"/>
       <c r="BM49" s="99"/>
       <c r="BN49" s="99"/>
-    </row>
-    <row r="50" spans="1:66" s="60" customFormat="1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A50" s="59" t="str">
-        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
-        <v>2.5</v>
-      </c>
-      <c r="B50" s="115" t="s">
-        <v>186</v>
+      <c r="BO49" s="99"/>
+      <c r="BP49" s="99"/>
+      <c r="BQ49" s="99"/>
+      <c r="BR49" s="99"/>
+      <c r="BS49" s="99"/>
+      <c r="BT49" s="99"/>
+      <c r="BU49" s="99"/>
+      <c r="BV49" s="99"/>
+      <c r="BW49" s="99"/>
+      <c r="BX49" s="99"/>
+      <c r="BY49" s="99"/>
+      <c r="BZ49" s="99"/>
+      <c r="CA49" s="99"/>
+      <c r="CB49" s="99"/>
+    </row>
+    <row r="50" spans="1:80" s="60" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A50" s="59" t="s">
+        <v>221</v>
+      </c>
+      <c r="B50" s="117" t="s">
+        <v>222</v>
       </c>
       <c r="C50" s="60" t="s">
         <v>136</v>
       </c>
       <c r="D50" s="116"/>
       <c r="E50" s="161">
-        <v>44491</v>
+        <v>44492</v>
       </c>
       <c r="F50" s="162">
-        <f t="shared" si="6"/>
-        <v>44494</v>
+        <f t="shared" si="20"/>
+        <v>44493</v>
       </c>
       <c r="G50" s="61">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H50" s="62">
         <v>1</v>
       </c>
       <c r="I50" s="63">
-        <f t="shared" si="4"/>
-        <v>2</v>
+        <f t="shared" si="18"/>
+        <v>0</v>
       </c>
       <c r="J50" s="93"/>
       <c r="K50" s="99"/>
@@ -8517,36 +9282,51 @@
       <c r="BL50" s="99"/>
       <c r="BM50" s="99"/>
       <c r="BN50" s="99"/>
-    </row>
-    <row r="51" spans="1:66" s="60" customFormat="1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A51" s="59" t="s">
-        <v>187</v>
-      </c>
-      <c r="B51" s="117" t="s">
-        <v>155</v>
+      <c r="BO50" s="99"/>
+      <c r="BP50" s="99"/>
+      <c r="BQ50" s="99"/>
+      <c r="BR50" s="99"/>
+      <c r="BS50" s="99"/>
+      <c r="BT50" s="99"/>
+      <c r="BU50" s="99"/>
+      <c r="BV50" s="99"/>
+      <c r="BW50" s="99"/>
+      <c r="BX50" s="99"/>
+      <c r="BY50" s="99"/>
+      <c r="BZ50" s="99"/>
+      <c r="CA50" s="99"/>
+      <c r="CB50" s="99"/>
+    </row>
+    <row r="51" spans="1:80" s="60" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A51" s="59" t="str">
+        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
+        <v>2.5</v>
+      </c>
+      <c r="B51" s="115" t="s">
+        <v>186</v>
       </c>
       <c r="C51" s="60" t="s">
         <v>136</v>
       </c>
-      <c r="D51" s="169"/>
-      <c r="E51" s="170">
+      <c r="D51" s="116"/>
+      <c r="E51" s="161">
         <v>44491</v>
       </c>
-      <c r="F51" s="171">
-        <f>IF(ISBLANK(E51)," - ",IF(G51=0,E51,E51+G51-1))</f>
-        <v>44491</v>
-      </c>
-      <c r="G51" s="172">
-        <v>1</v>
-      </c>
-      <c r="H51" s="173">
-        <v>1</v>
-      </c>
-      <c r="I51" s="174">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="J51" s="175"/>
+      <c r="F51" s="162">
+        <f t="shared" si="20"/>
+        <v>44494</v>
+      </c>
+      <c r="G51" s="61">
+        <v>4</v>
+      </c>
+      <c r="H51" s="62">
+        <v>1</v>
+      </c>
+      <c r="I51" s="63">
+        <f t="shared" si="18"/>
+        <v>2</v>
+      </c>
+      <c r="J51" s="93"/>
       <c r="K51" s="99"/>
       <c r="L51" s="99"/>
       <c r="M51" s="99"/>
@@ -8603,13 +9383,27 @@
       <c r="BL51" s="99"/>
       <c r="BM51" s="99"/>
       <c r="BN51" s="99"/>
-    </row>
-    <row r="52" spans="1:66" s="60" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+      <c r="BO51" s="99"/>
+      <c r="BP51" s="99"/>
+      <c r="BQ51" s="99"/>
+      <c r="BR51" s="99"/>
+      <c r="BS51" s="99"/>
+      <c r="BT51" s="99"/>
+      <c r="BU51" s="99"/>
+      <c r="BV51" s="99"/>
+      <c r="BW51" s="99"/>
+      <c r="BX51" s="99"/>
+      <c r="BY51" s="99"/>
+      <c r="BZ51" s="99"/>
+      <c r="CA51" s="99"/>
+      <c r="CB51" s="99"/>
+    </row>
+    <row r="52" spans="1:80" s="60" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A52" s="59" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B52" s="117" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C52" s="60" t="s">
         <v>136</v>
@@ -8619,7 +9413,7 @@
         <v>44491</v>
       </c>
       <c r="F52" s="171">
-        <f t="shared" si="6"/>
+        <f>IF(ISBLANK(E52)," - ",IF(G52=0,E52,E52+G52-1))</f>
         <v>44491</v>
       </c>
       <c r="G52" s="172">
@@ -8629,7 +9423,7 @@
         <v>1</v>
       </c>
       <c r="I52" s="174">
-        <f t="shared" si="4"/>
+        <f t="shared" si="18"/>
         <v>1</v>
       </c>
       <c r="J52" s="175"/>
@@ -8689,24 +9483,38 @@
       <c r="BL52" s="99"/>
       <c r="BM52" s="99"/>
       <c r="BN52" s="99"/>
-    </row>
-    <row r="53" spans="1:66" s="60" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+      <c r="BO52" s="99"/>
+      <c r="BP52" s="99"/>
+      <c r="BQ52" s="99"/>
+      <c r="BR52" s="99"/>
+      <c r="BS52" s="99"/>
+      <c r="BT52" s="99"/>
+      <c r="BU52" s="99"/>
+      <c r="BV52" s="99"/>
+      <c r="BW52" s="99"/>
+      <c r="BX52" s="99"/>
+      <c r="BY52" s="99"/>
+      <c r="BZ52" s="99"/>
+      <c r="CA52" s="99"/>
+      <c r="CB52" s="99"/>
+    </row>
+    <row r="53" spans="1:80" s="60" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A53" s="59" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B53" s="117" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C53" s="60" t="s">
         <v>136</v>
       </c>
       <c r="D53" s="169"/>
       <c r="E53" s="170">
-        <v>44492</v>
+        <v>44491</v>
       </c>
       <c r="F53" s="171">
-        <f t="shared" si="6"/>
-        <v>44492</v>
+        <f t="shared" si="20"/>
+        <v>44491</v>
       </c>
       <c r="G53" s="172">
         <v>1</v>
@@ -8715,8 +9523,8 @@
         <v>1</v>
       </c>
       <c r="I53" s="174">
-        <f t="shared" si="4"/>
-        <v>0</v>
+        <f t="shared" si="18"/>
+        <v>1</v>
       </c>
       <c r="J53" s="175"/>
       <c r="K53" s="99"/>
@@ -8775,13 +9583,27 @@
       <c r="BL53" s="99"/>
       <c r="BM53" s="99"/>
       <c r="BN53" s="99"/>
-    </row>
-    <row r="54" spans="1:66" s="60" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+      <c r="BO53" s="99"/>
+      <c r="BP53" s="99"/>
+      <c r="BQ53" s="99"/>
+      <c r="BR53" s="99"/>
+      <c r="BS53" s="99"/>
+      <c r="BT53" s="99"/>
+      <c r="BU53" s="99"/>
+      <c r="BV53" s="99"/>
+      <c r="BW53" s="99"/>
+      <c r="BX53" s="99"/>
+      <c r="BY53" s="99"/>
+      <c r="BZ53" s="99"/>
+      <c r="CA53" s="99"/>
+      <c r="CB53" s="99"/>
+    </row>
+    <row r="54" spans="1:80" s="60" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A54" s="59" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="B54" s="117" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C54" s="60" t="s">
         <v>136</v>
@@ -8791,7 +9613,7 @@
         <v>44492</v>
       </c>
       <c r="F54" s="171">
-        <f t="shared" si="6"/>
+        <f t="shared" si="20"/>
         <v>44492</v>
       </c>
       <c r="G54" s="172">
@@ -8801,7 +9623,7 @@
         <v>1</v>
       </c>
       <c r="I54" s="174">
-        <f t="shared" si="4"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="J54" s="175"/>
@@ -8861,24 +9683,38 @@
       <c r="BL54" s="99"/>
       <c r="BM54" s="99"/>
       <c r="BN54" s="99"/>
-    </row>
-    <row r="55" spans="1:66" s="60" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+      <c r="BO54" s="99"/>
+      <c r="BP54" s="99"/>
+      <c r="BQ54" s="99"/>
+      <c r="BR54" s="99"/>
+      <c r="BS54" s="99"/>
+      <c r="BT54" s="99"/>
+      <c r="BU54" s="99"/>
+      <c r="BV54" s="99"/>
+      <c r="BW54" s="99"/>
+      <c r="BX54" s="99"/>
+      <c r="BY54" s="99"/>
+      <c r="BZ54" s="99"/>
+      <c r="CA54" s="99"/>
+      <c r="CB54" s="99"/>
+    </row>
+    <row r="55" spans="1:80" s="60" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A55" s="59" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="B55" s="117" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C55" s="60" t="s">
         <v>136</v>
       </c>
       <c r="D55" s="169"/>
       <c r="E55" s="170">
-        <v>44493</v>
+        <v>44492</v>
       </c>
       <c r="F55" s="171">
-        <f t="shared" si="6"/>
-        <v>44493</v>
+        <f t="shared" si="20"/>
+        <v>44492</v>
       </c>
       <c r="G55" s="172">
         <v>1</v>
@@ -8887,7 +9723,7 @@
         <v>1</v>
       </c>
       <c r="I55" s="174">
-        <f t="shared" si="4"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="J55" s="175"/>
@@ -8947,13 +9783,27 @@
       <c r="BL55" s="99"/>
       <c r="BM55" s="99"/>
       <c r="BN55" s="99"/>
-    </row>
-    <row r="56" spans="1:66" s="60" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+      <c r="BO55" s="99"/>
+      <c r="BP55" s="99"/>
+      <c r="BQ55" s="99"/>
+      <c r="BR55" s="99"/>
+      <c r="BS55" s="99"/>
+      <c r="BT55" s="99"/>
+      <c r="BU55" s="99"/>
+      <c r="BV55" s="99"/>
+      <c r="BW55" s="99"/>
+      <c r="BX55" s="99"/>
+      <c r="BY55" s="99"/>
+      <c r="BZ55" s="99"/>
+      <c r="CA55" s="99"/>
+      <c r="CB55" s="99"/>
+    </row>
+    <row r="56" spans="1:80" s="60" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A56" s="59" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B56" s="117" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="C56" s="60" t="s">
         <v>136</v>
@@ -8963,7 +9813,7 @@
         <v>44493</v>
       </c>
       <c r="F56" s="171">
-        <f t="shared" si="6"/>
+        <f t="shared" si="20"/>
         <v>44493</v>
       </c>
       <c r="G56" s="172">
@@ -8973,7 +9823,7 @@
         <v>1</v>
       </c>
       <c r="I56" s="174">
-        <f t="shared" si="4"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="J56" s="175"/>
@@ -9033,24 +9883,38 @@
       <c r="BL56" s="99"/>
       <c r="BM56" s="99"/>
       <c r="BN56" s="99"/>
-    </row>
-    <row r="57" spans="1:66" s="60" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+      <c r="BO56" s="99"/>
+      <c r="BP56" s="99"/>
+      <c r="BQ56" s="99"/>
+      <c r="BR56" s="99"/>
+      <c r="BS56" s="99"/>
+      <c r="BT56" s="99"/>
+      <c r="BU56" s="99"/>
+      <c r="BV56" s="99"/>
+      <c r="BW56" s="99"/>
+      <c r="BX56" s="99"/>
+      <c r="BY56" s="99"/>
+      <c r="BZ56" s="99"/>
+      <c r="CA56" s="99"/>
+      <c r="CB56" s="99"/>
+    </row>
+    <row r="57" spans="1:80" s="60" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A57" s="59" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B57" s="117" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C57" s="60" t="s">
         <v>136</v>
       </c>
       <c r="D57" s="169"/>
       <c r="E57" s="170">
-        <v>44494</v>
+        <v>44493</v>
       </c>
       <c r="F57" s="171">
-        <f t="shared" si="6"/>
-        <v>44494</v>
+        <f t="shared" si="20"/>
+        <v>44493</v>
       </c>
       <c r="G57" s="172">
         <v>1</v>
@@ -9059,8 +9923,8 @@
         <v>1</v>
       </c>
       <c r="I57" s="174">
-        <f t="shared" si="4"/>
-        <v>1</v>
+        <f t="shared" si="18"/>
+        <v>0</v>
       </c>
       <c r="J57" s="175"/>
       <c r="K57" s="99"/>
@@ -9119,13 +9983,27 @@
       <c r="BL57" s="99"/>
       <c r="BM57" s="99"/>
       <c r="BN57" s="99"/>
-    </row>
-    <row r="58" spans="1:66" s="60" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+      <c r="BO57" s="99"/>
+      <c r="BP57" s="99"/>
+      <c r="BQ57" s="99"/>
+      <c r="BR57" s="99"/>
+      <c r="BS57" s="99"/>
+      <c r="BT57" s="99"/>
+      <c r="BU57" s="99"/>
+      <c r="BV57" s="99"/>
+      <c r="BW57" s="99"/>
+      <c r="BX57" s="99"/>
+      <c r="BY57" s="99"/>
+      <c r="BZ57" s="99"/>
+      <c r="CA57" s="99"/>
+      <c r="CB57" s="99"/>
+    </row>
+    <row r="58" spans="1:80" s="60" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A58" s="59" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B58" s="117" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C58" s="60" t="s">
         <v>136</v>
@@ -9135,7 +10013,7 @@
         <v>44494</v>
       </c>
       <c r="F58" s="171">
-        <f t="shared" si="6"/>
+        <f t="shared" si="20"/>
         <v>44494</v>
       </c>
       <c r="G58" s="172">
@@ -9145,7 +10023,7 @@
         <v>1</v>
       </c>
       <c r="I58" s="174">
-        <f t="shared" si="4"/>
+        <f t="shared" si="18"/>
         <v>1</v>
       </c>
       <c r="J58" s="175"/>
@@ -9205,34 +10083,48 @@
       <c r="BL58" s="99"/>
       <c r="BM58" s="99"/>
       <c r="BN58" s="99"/>
-    </row>
-    <row r="59" spans="1:66" s="60" customFormat="1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A59" s="59">
-        <v>2.7</v>
-      </c>
-      <c r="B59" s="176" t="s">
-        <v>194</v>
+      <c r="BO58" s="99"/>
+      <c r="BP58" s="99"/>
+      <c r="BQ58" s="99"/>
+      <c r="BR58" s="99"/>
+      <c r="BS58" s="99"/>
+      <c r="BT58" s="99"/>
+      <c r="BU58" s="99"/>
+      <c r="BV58" s="99"/>
+      <c r="BW58" s="99"/>
+      <c r="BX58" s="99"/>
+      <c r="BY58" s="99"/>
+      <c r="BZ58" s="99"/>
+      <c r="CA58" s="99"/>
+      <c r="CB58" s="99"/>
+    </row>
+    <row r="59" spans="1:80" s="60" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A59" s="59" t="s">
+        <v>193</v>
+      </c>
+      <c r="B59" s="117" t="s">
+        <v>166</v>
       </c>
       <c r="C59" s="60" t="s">
         <v>136</v>
       </c>
       <c r="D59" s="169"/>
       <c r="E59" s="170">
-        <v>44495</v>
+        <v>44494</v>
       </c>
       <c r="F59" s="171">
-        <f>IF(ISBLANK(E59)," - ",IF(G59=0,E59,E59+G59-1))</f>
-        <v>44496</v>
+        <f t="shared" si="20"/>
+        <v>44494</v>
       </c>
       <c r="G59" s="172">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H59" s="173">
         <v>1</v>
       </c>
       <c r="I59" s="174">
-        <f t="shared" si="4"/>
-        <v>2</v>
+        <f t="shared" si="18"/>
+        <v>1</v>
       </c>
       <c r="J59" s="175"/>
       <c r="K59" s="99"/>
@@ -9291,199 +10183,241 @@
       <c r="BL59" s="99"/>
       <c r="BM59" s="99"/>
       <c r="BN59" s="99"/>
-    </row>
-    <row r="60" spans="1:66" s="54" customFormat="1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A60" s="52" t="str">
+      <c r="BO59" s="99"/>
+      <c r="BP59" s="99"/>
+      <c r="BQ59" s="99"/>
+      <c r="BR59" s="99"/>
+      <c r="BS59" s="99"/>
+      <c r="BT59" s="99"/>
+      <c r="BU59" s="99"/>
+      <c r="BV59" s="99"/>
+      <c r="BW59" s="99"/>
+      <c r="BX59" s="99"/>
+      <c r="BY59" s="99"/>
+      <c r="BZ59" s="99"/>
+      <c r="CA59" s="99"/>
+      <c r="CB59" s="99"/>
+    </row>
+    <row r="60" spans="1:80" s="60" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A60" s="59">
+        <v>2.7</v>
+      </c>
+      <c r="B60" s="176" t="s">
+        <v>194</v>
+      </c>
+      <c r="C60" s="60" t="s">
+        <v>136</v>
+      </c>
+      <c r="D60" s="169"/>
+      <c r="E60" s="170">
+        <v>44495</v>
+      </c>
+      <c r="F60" s="171">
+        <f>IF(ISBLANK(E60)," - ",IF(G60=0,E60,E60+G60-1))</f>
+        <v>44496</v>
+      </c>
+      <c r="G60" s="172">
+        <v>2</v>
+      </c>
+      <c r="H60" s="173">
+        <v>1</v>
+      </c>
+      <c r="I60" s="174">
+        <f t="shared" si="18"/>
+        <v>2</v>
+      </c>
+      <c r="J60" s="175"/>
+      <c r="K60" s="99"/>
+      <c r="L60" s="99"/>
+      <c r="M60" s="99"/>
+      <c r="N60" s="99"/>
+      <c r="O60" s="99"/>
+      <c r="P60" s="99"/>
+      <c r="Q60" s="99"/>
+      <c r="R60" s="99"/>
+      <c r="S60" s="99"/>
+      <c r="T60" s="99"/>
+      <c r="U60" s="99"/>
+      <c r="V60" s="99"/>
+      <c r="W60" s="99"/>
+      <c r="X60" s="99"/>
+      <c r="Y60" s="99"/>
+      <c r="Z60" s="99"/>
+      <c r="AA60" s="99"/>
+      <c r="AB60" s="99"/>
+      <c r="AC60" s="99"/>
+      <c r="AD60" s="99"/>
+      <c r="AE60" s="99"/>
+      <c r="AF60" s="99"/>
+      <c r="AG60" s="99"/>
+      <c r="AH60" s="99"/>
+      <c r="AI60" s="99"/>
+      <c r="AJ60" s="99"/>
+      <c r="AK60" s="99"/>
+      <c r="AL60" s="99"/>
+      <c r="AM60" s="99"/>
+      <c r="AN60" s="99"/>
+      <c r="AO60" s="99"/>
+      <c r="AP60" s="99"/>
+      <c r="AQ60" s="99"/>
+      <c r="AR60" s="99"/>
+      <c r="AS60" s="99"/>
+      <c r="AT60" s="99"/>
+      <c r="AU60" s="99"/>
+      <c r="AV60" s="99"/>
+      <c r="AW60" s="99"/>
+      <c r="AX60" s="99"/>
+      <c r="AY60" s="99"/>
+      <c r="AZ60" s="99"/>
+      <c r="BA60" s="99"/>
+      <c r="BB60" s="99"/>
+      <c r="BC60" s="99"/>
+      <c r="BD60" s="99"/>
+      <c r="BE60" s="99"/>
+      <c r="BF60" s="99"/>
+      <c r="BG60" s="99"/>
+      <c r="BH60" s="99"/>
+      <c r="BI60" s="99"/>
+      <c r="BJ60" s="99"/>
+      <c r="BK60" s="99"/>
+      <c r="BL60" s="99"/>
+      <c r="BM60" s="99"/>
+      <c r="BN60" s="99"/>
+      <c r="BO60" s="99"/>
+      <c r="BP60" s="99"/>
+      <c r="BQ60" s="99"/>
+      <c r="BR60" s="99"/>
+      <c r="BS60" s="99"/>
+      <c r="BT60" s="99"/>
+      <c r="BU60" s="99"/>
+      <c r="BV60" s="99"/>
+      <c r="BW60" s="99"/>
+      <c r="BX60" s="99"/>
+      <c r="BY60" s="99"/>
+      <c r="BZ60" s="99"/>
+      <c r="CA60" s="99"/>
+      <c r="CB60" s="99"/>
+    </row>
+    <row r="61" spans="1:80" s="54" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A61" s="52" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),TEXT(VALUE(prevWBS)+1,"#"),TEXT(VALUE(LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1))+1,"#")))</f>
         <v>3</v>
       </c>
-      <c r="B60" s="53" t="s">
+      <c r="B61" s="53" t="s">
         <v>195</v>
       </c>
-      <c r="D60" s="55"/>
-      <c r="E60" s="163"/>
-      <c r="F60" s="163" t="str">
-        <f t="shared" si="6"/>
+      <c r="D61" s="55"/>
+      <c r="E61" s="163"/>
+      <c r="F61" s="163" t="str">
+        <f t="shared" si="20"/>
         <v xml:space="preserve"> - </v>
       </c>
-      <c r="G60" s="56"/>
-      <c r="H60" s="57"/>
-      <c r="I60" s="58" t="str">
-        <f t="shared" si="4"/>
+      <c r="G61" s="56"/>
+      <c r="H61" s="57"/>
+      <c r="I61" s="58" t="str">
+        <f t="shared" si="18"/>
         <v xml:space="preserve"> - </v>
       </c>
-      <c r="J60" s="94"/>
-      <c r="K60" s="101"/>
-      <c r="L60" s="101"/>
-      <c r="M60" s="101"/>
-      <c r="N60" s="101"/>
-      <c r="O60" s="101"/>
-      <c r="P60" s="101"/>
-      <c r="Q60" s="101"/>
-      <c r="R60" s="101"/>
-      <c r="S60" s="101"/>
-      <c r="T60" s="101"/>
-      <c r="U60" s="101"/>
-      <c r="V60" s="101"/>
-      <c r="W60" s="101"/>
-      <c r="X60" s="101"/>
-      <c r="Y60" s="101"/>
-      <c r="Z60" s="101"/>
-      <c r="AA60" s="101"/>
-      <c r="AB60" s="101"/>
-      <c r="AC60" s="101"/>
-      <c r="AD60" s="101"/>
-      <c r="AE60" s="101"/>
-      <c r="AF60" s="101"/>
-      <c r="AG60" s="101"/>
-      <c r="AH60" s="101"/>
-      <c r="AI60" s="101"/>
-      <c r="AJ60" s="101"/>
-      <c r="AK60" s="101"/>
-      <c r="AL60" s="101"/>
-      <c r="AM60" s="101"/>
-      <c r="AN60" s="101"/>
-      <c r="AO60" s="101"/>
-      <c r="AP60" s="101"/>
-      <c r="AQ60" s="101"/>
-      <c r="AR60" s="101"/>
-      <c r="AS60" s="101"/>
-      <c r="AT60" s="101"/>
-      <c r="AU60" s="101"/>
-      <c r="AV60" s="101"/>
-      <c r="AW60" s="101"/>
-      <c r="AX60" s="101"/>
-      <c r="AY60" s="101"/>
-      <c r="AZ60" s="101"/>
-      <c r="BA60" s="101"/>
-      <c r="BB60" s="101"/>
-      <c r="BC60" s="101"/>
-      <c r="BD60" s="101"/>
-      <c r="BE60" s="101"/>
-      <c r="BF60" s="101"/>
-      <c r="BG60" s="101"/>
-      <c r="BH60" s="101"/>
-      <c r="BI60" s="101"/>
-      <c r="BJ60" s="101"/>
-      <c r="BK60" s="101"/>
-      <c r="BL60" s="101"/>
-      <c r="BM60" s="101"/>
-      <c r="BN60" s="101"/>
-    </row>
-    <row r="61" spans="1:66" s="60" customFormat="1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A61" s="59" t="str">
+      <c r="J61" s="94"/>
+      <c r="K61" s="101"/>
+      <c r="L61" s="101"/>
+      <c r="M61" s="101"/>
+      <c r="N61" s="101"/>
+      <c r="O61" s="101"/>
+      <c r="P61" s="101"/>
+      <c r="Q61" s="101"/>
+      <c r="R61" s="101"/>
+      <c r="S61" s="101"/>
+      <c r="T61" s="101"/>
+      <c r="U61" s="101"/>
+      <c r="V61" s="101"/>
+      <c r="W61" s="101"/>
+      <c r="X61" s="101"/>
+      <c r="Y61" s="101"/>
+      <c r="Z61" s="101"/>
+      <c r="AA61" s="101"/>
+      <c r="AB61" s="101"/>
+      <c r="AC61" s="101"/>
+      <c r="AD61" s="101"/>
+      <c r="AE61" s="101"/>
+      <c r="AF61" s="101"/>
+      <c r="AG61" s="101"/>
+      <c r="AH61" s="101"/>
+      <c r="AI61" s="101"/>
+      <c r="AJ61" s="101"/>
+      <c r="AK61" s="101"/>
+      <c r="AL61" s="101"/>
+      <c r="AM61" s="101"/>
+      <c r="AN61" s="101"/>
+      <c r="AO61" s="101"/>
+      <c r="AP61" s="101"/>
+      <c r="AQ61" s="101"/>
+      <c r="AR61" s="101"/>
+      <c r="AS61" s="101"/>
+      <c r="AT61" s="101"/>
+      <c r="AU61" s="101"/>
+      <c r="AV61" s="101"/>
+      <c r="AW61" s="101"/>
+      <c r="AX61" s="101"/>
+      <c r="AY61" s="101"/>
+      <c r="AZ61" s="101"/>
+      <c r="BA61" s="101"/>
+      <c r="BB61" s="101"/>
+      <c r="BC61" s="101"/>
+      <c r="BD61" s="101"/>
+      <c r="BE61" s="101"/>
+      <c r="BF61" s="101"/>
+      <c r="BG61" s="101"/>
+      <c r="BH61" s="101"/>
+      <c r="BI61" s="101"/>
+      <c r="BJ61" s="101"/>
+      <c r="BK61" s="101"/>
+      <c r="BL61" s="101"/>
+      <c r="BM61" s="101"/>
+      <c r="BN61" s="101"/>
+      <c r="BO61" s="101"/>
+      <c r="BP61" s="101"/>
+      <c r="BQ61" s="101"/>
+      <c r="BR61" s="101"/>
+      <c r="BS61" s="101"/>
+      <c r="BT61" s="101"/>
+      <c r="BU61" s="101"/>
+      <c r="BV61" s="101"/>
+      <c r="BW61" s="101"/>
+      <c r="BX61" s="101"/>
+      <c r="BY61" s="101"/>
+      <c r="BZ61" s="101"/>
+      <c r="CA61" s="101"/>
+      <c r="CB61" s="101"/>
+    </row>
+    <row r="62" spans="1:80" s="60" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A62" s="59" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
         <v>3.1</v>
       </c>
-      <c r="B61" s="115" t="s">
-        <v>224</v>
-      </c>
-      <c r="C61" s="60" t="s">
-        <v>136</v>
-      </c>
-      <c r="D61" s="116"/>
-      <c r="E61" s="161">
-        <v>44471</v>
-      </c>
-      <c r="F61" s="162">
-        <f>IF(ISBLANK(E61)," - ",IF(G61=0,E61,E61+G61-1))</f>
-        <v>44483</v>
-      </c>
-      <c r="G61" s="61">
-        <v>13</v>
-      </c>
-      <c r="H61" s="62">
-        <v>0</v>
-      </c>
-      <c r="I61" s="63">
-        <f t="shared" si="4"/>
-        <v>9</v>
-      </c>
-      <c r="J61" s="93"/>
-      <c r="K61" s="99"/>
-      <c r="L61" s="99"/>
-      <c r="M61" s="99"/>
-      <c r="N61" s="99"/>
-      <c r="O61" s="99"/>
-      <c r="P61" s="99"/>
-      <c r="Q61" s="99"/>
-      <c r="R61" s="99"/>
-      <c r="S61" s="99"/>
-      <c r="T61" s="99"/>
-      <c r="U61" s="99"/>
-      <c r="V61" s="99"/>
-      <c r="W61" s="99"/>
-      <c r="X61" s="99"/>
-      <c r="Y61" s="99"/>
-      <c r="Z61" s="99"/>
-      <c r="AA61" s="99"/>
-      <c r="AB61" s="99"/>
-      <c r="AC61" s="99"/>
-      <c r="AD61" s="99"/>
-      <c r="AE61" s="99"/>
-      <c r="AF61" s="99"/>
-      <c r="AG61" s="99"/>
-      <c r="AH61" s="99"/>
-      <c r="AI61" s="99"/>
-      <c r="AJ61" s="99"/>
-      <c r="AK61" s="99"/>
-      <c r="AL61" s="99"/>
-      <c r="AM61" s="99"/>
-      <c r="AN61" s="99"/>
-      <c r="AO61" s="99"/>
-      <c r="AP61" s="99"/>
-      <c r="AQ61" s="99"/>
-      <c r="AR61" s="99"/>
-      <c r="AS61" s="99"/>
-      <c r="AT61" s="99"/>
-      <c r="AU61" s="99"/>
-      <c r="AV61" s="99"/>
-      <c r="AW61" s="99"/>
-      <c r="AX61" s="99"/>
-      <c r="AY61" s="99"/>
-      <c r="AZ61" s="99"/>
-      <c r="BA61" s="99"/>
-      <c r="BB61" s="99"/>
-      <c r="BC61" s="99"/>
-      <c r="BD61" s="99"/>
-      <c r="BE61" s="99"/>
-      <c r="BF61" s="99"/>
-      <c r="BG61" s="99"/>
-      <c r="BH61" s="99"/>
-      <c r="BI61" s="99"/>
-      <c r="BJ61" s="99"/>
-      <c r="BK61" s="99"/>
-      <c r="BL61" s="99"/>
-      <c r="BM61" s="99"/>
-      <c r="BN61" s="99"/>
-    </row>
-    <row r="62" spans="1:66" s="60" customFormat="1" ht="24" x14ac:dyDescent="0.2">
-      <c r="A62" s="59" t="s">
-        <v>196</v>
-      </c>
-      <c r="B62" s="117" t="s">
-        <v>197</v>
+      <c r="B62" s="115" t="s">
+        <v>220</v>
       </c>
       <c r="C62" s="60" t="s">
         <v>136</v>
       </c>
       <c r="D62" s="116"/>
       <c r="E62" s="161">
-        <v>44471</v>
+        <v>44502</v>
       </c>
       <c r="F62" s="162">
         <f>IF(ISBLANK(E62)," - ",IF(G62=0,E62,E62+G62-1))</f>
-        <v>44471</v>
+        <v>44515</v>
       </c>
       <c r="G62" s="61">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="H62" s="62">
         <v>1</v>
       </c>
       <c r="I62" s="63">
-        <f t="shared" si="4"/>
-        <v>0</v>
+        <f t="shared" si="18"/>
+        <v>10</v>
       </c>
       <c r="J62" s="93"/>
       <c r="K62" s="99"/>
@@ -9542,33 +10476,47 @@
       <c r="BL62" s="99"/>
       <c r="BM62" s="99"/>
       <c r="BN62" s="99"/>
-    </row>
-    <row r="63" spans="1:66" s="60" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+      <c r="BO62" s="99"/>
+      <c r="BP62" s="99"/>
+      <c r="BQ62" s="99"/>
+      <c r="BR62" s="99"/>
+      <c r="BS62" s="99"/>
+      <c r="BT62" s="99"/>
+      <c r="BU62" s="99"/>
+      <c r="BV62" s="99"/>
+      <c r="BW62" s="99"/>
+      <c r="BX62" s="99"/>
+      <c r="BY62" s="99"/>
+      <c r="BZ62" s="99"/>
+      <c r="CA62" s="99"/>
+      <c r="CB62" s="99"/>
+    </row>
+    <row r="63" spans="1:80" s="60" customFormat="1" ht="24" x14ac:dyDescent="0.2">
       <c r="A63" s="59" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="B63" s="117" t="s">
-        <v>158</v>
+        <v>197</v>
       </c>
       <c r="C63" s="60" t="s">
         <v>136</v>
       </c>
       <c r="D63" s="116"/>
       <c r="E63" s="161">
-        <v>44471</v>
+        <v>44502</v>
       </c>
       <c r="F63" s="162">
-        <f t="shared" ref="F63:F71" si="8">IF(ISBLANK(E63)," - ",IF(G63=0,E63,E63+G63-1))</f>
-        <v>44473</v>
+        <f>IF(ISBLANK(E63)," - ",IF(G63=0,E63,E63+G63-1))</f>
+        <v>44502</v>
       </c>
       <c r="G63" s="61">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H63" s="62">
         <v>1</v>
       </c>
       <c r="I63" s="63">
-        <f t="shared" si="4"/>
+        <f t="shared" si="18"/>
         <v>1</v>
       </c>
       <c r="J63" s="93"/>
@@ -9628,32 +10576,48 @@
       <c r="BL63" s="99"/>
       <c r="BM63" s="99"/>
       <c r="BN63" s="99"/>
-    </row>
-    <row r="64" spans="1:66" s="60" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+      <c r="BO63" s="99"/>
+      <c r="BP63" s="99"/>
+      <c r="BQ63" s="99"/>
+      <c r="BR63" s="99"/>
+      <c r="BS63" s="99"/>
+      <c r="BT63" s="99"/>
+      <c r="BU63" s="99"/>
+      <c r="BV63" s="99"/>
+      <c r="BW63" s="99"/>
+      <c r="BX63" s="99"/>
+      <c r="BY63" s="99"/>
+      <c r="BZ63" s="99"/>
+      <c r="CA63" s="99"/>
+      <c r="CB63" s="99"/>
+    </row>
+    <row r="64" spans="1:80" s="60" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A64" s="59" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B64" s="117" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C64" s="60" t="s">
         <v>136</v>
       </c>
       <c r="D64" s="116"/>
       <c r="E64" s="161">
-        <v>44474</v>
+        <v>44502</v>
       </c>
       <c r="F64" s="162">
-        <f t="shared" si="8"/>
-        <v>44475</v>
+        <f t="shared" ref="F64:F72" si="22">IF(ISBLANK(E64)," - ",IF(G64=0,E64,E64+G64-1))</f>
+        <v>44504</v>
       </c>
       <c r="G64" s="61">
-        <v>2</v>
-      </c>
-      <c r="H64" s="62"/>
+        <v>3</v>
+      </c>
+      <c r="H64" s="62">
+        <v>1</v>
+      </c>
       <c r="I64" s="63">
-        <f t="shared" si="4"/>
-        <v>2</v>
+        <f t="shared" si="18"/>
+        <v>3</v>
       </c>
       <c r="J64" s="93"/>
       <c r="K64" s="99"/>
@@ -9712,32 +10676,48 @@
       <c r="BL64" s="99"/>
       <c r="BM64" s="99"/>
       <c r="BN64" s="99"/>
-    </row>
-    <row r="65" spans="1:66" s="60" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+      <c r="BO64" s="99"/>
+      <c r="BP64" s="99"/>
+      <c r="BQ64" s="99"/>
+      <c r="BR64" s="99"/>
+      <c r="BS64" s="99"/>
+      <c r="BT64" s="99"/>
+      <c r="BU64" s="99"/>
+      <c r="BV64" s="99"/>
+      <c r="BW64" s="99"/>
+      <c r="BX64" s="99"/>
+      <c r="BY64" s="99"/>
+      <c r="BZ64" s="99"/>
+      <c r="CA64" s="99"/>
+      <c r="CB64" s="99"/>
+    </row>
+    <row r="65" spans="1:80" s="60" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A65" s="59" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B65" s="117" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="C65" s="60" t="s">
         <v>136</v>
       </c>
       <c r="D65" s="116"/>
       <c r="E65" s="161">
-        <v>44475</v>
+        <v>44505</v>
       </c>
       <c r="F65" s="162">
-        <f t="shared" si="8"/>
-        <v>44477</v>
+        <f t="shared" si="22"/>
+        <v>44506</v>
       </c>
       <c r="G65" s="61">
-        <v>3</v>
-      </c>
-      <c r="H65" s="62"/>
+        <v>2</v>
+      </c>
+      <c r="H65" s="62">
+        <v>1</v>
+      </c>
       <c r="I65" s="63">
-        <f t="shared" si="4"/>
-        <v>3</v>
+        <f t="shared" si="18"/>
+        <v>1</v>
       </c>
       <c r="J65" s="93"/>
       <c r="K65" s="99"/>
@@ -9796,32 +10776,48 @@
       <c r="BL65" s="99"/>
       <c r="BM65" s="99"/>
       <c r="BN65" s="99"/>
-    </row>
-    <row r="66" spans="1:66" s="60" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+      <c r="BO65" s="99"/>
+      <c r="BP65" s="99"/>
+      <c r="BQ65" s="99"/>
+      <c r="BR65" s="99"/>
+      <c r="BS65" s="99"/>
+      <c r="BT65" s="99"/>
+      <c r="BU65" s="99"/>
+      <c r="BV65" s="99"/>
+      <c r="BW65" s="99"/>
+      <c r="BX65" s="99"/>
+      <c r="BY65" s="99"/>
+      <c r="BZ65" s="99"/>
+      <c r="CA65" s="99"/>
+      <c r="CB65" s="99"/>
+    </row>
+    <row r="66" spans="1:80" s="60" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A66" s="59" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B66" s="117" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C66" s="60" t="s">
         <v>136</v>
       </c>
       <c r="D66" s="116"/>
       <c r="E66" s="161">
-        <v>44495</v>
+        <v>44506</v>
       </c>
       <c r="F66" s="162">
-        <f t="shared" si="8"/>
-        <v>44497</v>
+        <f t="shared" si="22"/>
+        <v>44508</v>
       </c>
       <c r="G66" s="61">
         <v>3</v>
       </c>
-      <c r="H66" s="62"/>
+      <c r="H66" s="62">
+        <v>1</v>
+      </c>
       <c r="I66" s="63">
-        <f t="shared" si="4"/>
-        <v>3</v>
+        <f t="shared" si="18"/>
+        <v>1</v>
       </c>
       <c r="J66" s="93"/>
       <c r="K66" s="99"/>
@@ -9880,34 +10876,48 @@
       <c r="BL66" s="99"/>
       <c r="BM66" s="99"/>
       <c r="BN66" s="99"/>
-    </row>
-    <row r="67" spans="1:66" s="60" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+      <c r="BO66" s="99"/>
+      <c r="BP66" s="99"/>
+      <c r="BQ66" s="99"/>
+      <c r="BR66" s="99"/>
+      <c r="BS66" s="99"/>
+      <c r="BT66" s="99"/>
+      <c r="BU66" s="99"/>
+      <c r="BV66" s="99"/>
+      <c r="BW66" s="99"/>
+      <c r="BX66" s="99"/>
+      <c r="BY66" s="99"/>
+      <c r="BZ66" s="99"/>
+      <c r="CA66" s="99"/>
+      <c r="CB66" s="99"/>
+    </row>
+    <row r="67" spans="1:80" s="60" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A67" s="59" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B67" s="117" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C67" s="60" t="s">
         <v>136</v>
       </c>
       <c r="D67" s="116"/>
       <c r="E67" s="161">
-        <v>44475</v>
+        <v>44507</v>
       </c>
       <c r="F67" s="162">
-        <f t="shared" si="8"/>
-        <v>44477</v>
+        <f t="shared" si="22"/>
+        <v>44508</v>
       </c>
       <c r="G67" s="61">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H67" s="62">
         <v>1</v>
       </c>
       <c r="I67" s="63">
-        <f t="shared" si="4"/>
-        <v>3</v>
+        <f t="shared" si="18"/>
+        <v>1</v>
       </c>
       <c r="J67" s="93"/>
       <c r="K67" s="99"/>
@@ -9966,32 +10976,48 @@
       <c r="BL67" s="99"/>
       <c r="BM67" s="99"/>
       <c r="BN67" s="99"/>
-    </row>
-    <row r="68" spans="1:66" s="60" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+      <c r="BO67" s="99"/>
+      <c r="BP67" s="99"/>
+      <c r="BQ67" s="99"/>
+      <c r="BR67" s="99"/>
+      <c r="BS67" s="99"/>
+      <c r="BT67" s="99"/>
+      <c r="BU67" s="99"/>
+      <c r="BV67" s="99"/>
+      <c r="BW67" s="99"/>
+      <c r="BX67" s="99"/>
+      <c r="BY67" s="99"/>
+      <c r="BZ67" s="99"/>
+      <c r="CA67" s="99"/>
+      <c r="CB67" s="99"/>
+    </row>
+    <row r="68" spans="1:80" s="60" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A68" s="59" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B68" s="117" t="s">
-        <v>155</v>
+        <v>166</v>
       </c>
       <c r="C68" s="60" t="s">
         <v>136</v>
       </c>
       <c r="D68" s="116"/>
       <c r="E68" s="161">
-        <v>44499</v>
+        <v>44508</v>
       </c>
       <c r="F68" s="162">
-        <f t="shared" si="8"/>
-        <v>44500</v>
+        <f t="shared" si="22"/>
+        <v>44509</v>
       </c>
       <c r="G68" s="61">
         <v>2</v>
       </c>
-      <c r="H68" s="62"/>
+      <c r="H68" s="62">
+        <v>1</v>
+      </c>
       <c r="I68" s="63">
-        <f t="shared" si="4"/>
-        <v>0</v>
+        <f t="shared" si="18"/>
+        <v>2</v>
       </c>
       <c r="J68" s="93"/>
       <c r="K68" s="99"/>
@@ -10050,31 +11076,47 @@
       <c r="BL68" s="99"/>
       <c r="BM68" s="99"/>
       <c r="BN68" s="99"/>
-    </row>
-    <row r="69" spans="1:66" s="60" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+      <c r="BO68" s="99"/>
+      <c r="BP68" s="99"/>
+      <c r="BQ68" s="99"/>
+      <c r="BR68" s="99"/>
+      <c r="BS68" s="99"/>
+      <c r="BT68" s="99"/>
+      <c r="BU68" s="99"/>
+      <c r="BV68" s="99"/>
+      <c r="BW68" s="99"/>
+      <c r="BX68" s="99"/>
+      <c r="BY68" s="99"/>
+      <c r="BZ68" s="99"/>
+      <c r="CA68" s="99"/>
+      <c r="CB68" s="99"/>
+    </row>
+    <row r="69" spans="1:80" s="60" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A69" s="59" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B69" s="117" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C69" s="60" t="s">
         <v>136</v>
       </c>
       <c r="D69" s="116"/>
       <c r="E69" s="161">
-        <v>44501</v>
+        <v>44509</v>
       </c>
       <c r="F69" s="162">
-        <f t="shared" si="8"/>
-        <v>44502</v>
+        <f>IF(ISBLANK(E69)," - ",IF(G69=0,E69,E69+G69-1))</f>
+        <v>44510</v>
       </c>
       <c r="G69" s="61">
         <v>2</v>
       </c>
-      <c r="H69" s="62"/>
+      <c r="H69" s="62">
+        <v>1</v>
+      </c>
       <c r="I69" s="63">
-        <f t="shared" si="4"/>
+        <f t="shared" si="18"/>
         <v>2</v>
       </c>
       <c r="J69" s="93"/>
@@ -10134,30 +11176,48 @@
       <c r="BL69" s="99"/>
       <c r="BM69" s="99"/>
       <c r="BN69" s="99"/>
-    </row>
-    <row r="70" spans="1:66" s="60" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+      <c r="BO69" s="99"/>
+      <c r="BP69" s="99"/>
+      <c r="BQ69" s="99"/>
+      <c r="BR69" s="99"/>
+      <c r="BS69" s="99"/>
+      <c r="BT69" s="99"/>
+      <c r="BU69" s="99"/>
+      <c r="BV69" s="99"/>
+      <c r="BW69" s="99"/>
+      <c r="BX69" s="99"/>
+      <c r="BY69" s="99"/>
+      <c r="BZ69" s="99"/>
+      <c r="CA69" s="99"/>
+      <c r="CB69" s="99"/>
+    </row>
+    <row r="70" spans="1:80" s="60" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A70" s="59" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B70" s="117" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C70" s="60" t="s">
         <v>136</v>
       </c>
       <c r="D70" s="116"/>
-      <c r="E70" s="161"/>
-      <c r="F70" s="162" t="str">
-        <f t="shared" si="8"/>
-        <v xml:space="preserve"> - </v>
+      <c r="E70" s="161">
+        <v>44511</v>
+      </c>
+      <c r="F70" s="162">
+        <f t="shared" si="22"/>
+        <v>44512</v>
       </c>
       <c r="G70" s="61">
         <v>2</v>
       </c>
-      <c r="H70" s="62"/>
-      <c r="I70" s="63" t="str">
-        <f t="shared" si="4"/>
-        <v xml:space="preserve"> - </v>
+      <c r="H70" s="62">
+        <v>1</v>
+      </c>
+      <c r="I70" s="63">
+        <f t="shared" si="18"/>
+        <v>2</v>
       </c>
       <c r="J70" s="93"/>
       <c r="K70" s="99"/>
@@ -10216,31 +11276,50 @@
       <c r="BL70" s="99"/>
       <c r="BM70" s="99"/>
       <c r="BN70" s="99"/>
-    </row>
-    <row r="71" spans="1:66" s="60" customFormat="1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A71" s="59">
-        <v>3.2</v>
-      </c>
-      <c r="B71" s="176" t="s">
-        <v>222</v>
+      <c r="BO70" s="99"/>
+      <c r="BP70" s="99"/>
+      <c r="BQ70" s="99"/>
+      <c r="BR70" s="99"/>
+      <c r="BS70" s="99"/>
+      <c r="BT70" s="99"/>
+      <c r="BU70" s="99"/>
+      <c r="BV70" s="99"/>
+      <c r="BW70" s="99"/>
+      <c r="BX70" s="99"/>
+      <c r="BY70" s="99"/>
+      <c r="BZ70" s="99"/>
+      <c r="CA70" s="99"/>
+      <c r="CB70" s="99"/>
+    </row>
+    <row r="71" spans="1:80" s="60" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A71" s="59" t="s">
+        <v>205</v>
+      </c>
+      <c r="B71" s="117" t="s">
+        <v>156</v>
       </c>
       <c r="C71" s="60" t="s">
         <v>136</v>
       </c>
       <c r="D71" s="116"/>
       <c r="E71" s="161">
-        <v>44504</v>
+        <v>44513</v>
       </c>
       <c r="F71" s="162">
-        <f t="shared" si="8"/>
-        <v>44505</v>
+        <f t="shared" si="22"/>
+        <v>44514</v>
       </c>
       <c r="G71" s="61">
         <v>2</v>
       </c>
-      <c r="H71" s="62"/>
-      <c r="I71" s="174"/>
-      <c r="J71" s="175"/>
+      <c r="H71" s="62">
+        <v>1</v>
+      </c>
+      <c r="I71" s="63">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="J71" s="93"/>
       <c r="K71" s="99"/>
       <c r="L71" s="99"/>
       <c r="M71" s="99"/>
@@ -10297,195 +11376,238 @@
       <c r="BL71" s="99"/>
       <c r="BM71" s="99"/>
       <c r="BN71" s="99"/>
-    </row>
-    <row r="72" spans="1:66" s="54" customFormat="1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A72" s="52" t="str">
+      <c r="BO71" s="99"/>
+      <c r="BP71" s="99"/>
+      <c r="BQ71" s="99"/>
+      <c r="BR71" s="99"/>
+      <c r="BS71" s="99"/>
+      <c r="BT71" s="99"/>
+      <c r="BU71" s="99"/>
+      <c r="BV71" s="99"/>
+      <c r="BW71" s="99"/>
+      <c r="BX71" s="99"/>
+      <c r="BY71" s="99"/>
+      <c r="BZ71" s="99"/>
+      <c r="CA71" s="99"/>
+      <c r="CB71" s="99"/>
+    </row>
+    <row r="72" spans="1:80" s="60" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A72" s="59">
+        <v>3.2</v>
+      </c>
+      <c r="B72" s="176" t="s">
+        <v>218</v>
+      </c>
+      <c r="C72" s="60" t="s">
+        <v>136</v>
+      </c>
+      <c r="D72" s="116"/>
+      <c r="E72" s="161">
+        <v>44515</v>
+      </c>
+      <c r="F72" s="162">
+        <f t="shared" si="22"/>
+        <v>44515</v>
+      </c>
+      <c r="G72" s="61">
+        <v>1</v>
+      </c>
+      <c r="H72" s="62">
+        <v>1</v>
+      </c>
+      <c r="I72" s="174"/>
+      <c r="J72" s="175"/>
+      <c r="K72" s="99"/>
+      <c r="L72" s="99"/>
+      <c r="M72" s="99"/>
+      <c r="N72" s="99"/>
+      <c r="O72" s="99"/>
+      <c r="P72" s="99"/>
+      <c r="Q72" s="99"/>
+      <c r="R72" s="99"/>
+      <c r="S72" s="99"/>
+      <c r="T72" s="99"/>
+      <c r="U72" s="99"/>
+      <c r="V72" s="99"/>
+      <c r="W72" s="99"/>
+      <c r="X72" s="99"/>
+      <c r="Y72" s="99"/>
+      <c r="Z72" s="99"/>
+      <c r="AA72" s="99"/>
+      <c r="AB72" s="99"/>
+      <c r="AC72" s="99"/>
+      <c r="AD72" s="99"/>
+      <c r="AE72" s="99"/>
+      <c r="AF72" s="99"/>
+      <c r="AG72" s="99"/>
+      <c r="AH72" s="99"/>
+      <c r="AI72" s="99"/>
+      <c r="AJ72" s="99"/>
+      <c r="AK72" s="99"/>
+      <c r="AL72" s="99"/>
+      <c r="AM72" s="99"/>
+      <c r="AN72" s="99"/>
+      <c r="AO72" s="99"/>
+      <c r="AP72" s="99"/>
+      <c r="AQ72" s="99"/>
+      <c r="AR72" s="99"/>
+      <c r="AS72" s="99"/>
+      <c r="AT72" s="99"/>
+      <c r="AU72" s="99"/>
+      <c r="AV72" s="99"/>
+      <c r="AW72" s="99"/>
+      <c r="AX72" s="99"/>
+      <c r="AY72" s="99"/>
+      <c r="AZ72" s="99"/>
+      <c r="BA72" s="99"/>
+      <c r="BB72" s="99"/>
+      <c r="BC72" s="99"/>
+      <c r="BD72" s="99"/>
+      <c r="BE72" s="99"/>
+      <c r="BF72" s="99"/>
+      <c r="BG72" s="99"/>
+      <c r="BH72" s="99"/>
+      <c r="BI72" s="99"/>
+      <c r="BJ72" s="99"/>
+      <c r="BK72" s="99"/>
+      <c r="BL72" s="99"/>
+      <c r="BM72" s="99"/>
+      <c r="BN72" s="99"/>
+      <c r="BO72" s="99"/>
+      <c r="BP72" s="99"/>
+      <c r="BQ72" s="99"/>
+      <c r="BR72" s="99"/>
+      <c r="BS72" s="99"/>
+      <c r="BT72" s="99"/>
+      <c r="BU72" s="99"/>
+      <c r="BV72" s="99"/>
+      <c r="BW72" s="99"/>
+      <c r="BX72" s="99"/>
+      <c r="BY72" s="99"/>
+      <c r="BZ72" s="99"/>
+      <c r="CA72" s="99"/>
+      <c r="CB72" s="99"/>
+    </row>
+    <row r="73" spans="1:80" s="54" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A73" s="52" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),TEXT(VALUE(prevWBS)+1,"#"),TEXT(VALUE(LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1))+1,"#")))</f>
         <v>4</v>
       </c>
-      <c r="B72" s="53" t="s">
+      <c r="B73" s="53" t="s">
         <v>206</v>
       </c>
-      <c r="D72" s="55"/>
-      <c r="E72" s="163"/>
-      <c r="F72" s="163" t="str">
-        <f t="shared" si="6"/>
+      <c r="D73" s="55"/>
+      <c r="E73" s="163"/>
+      <c r="F73" s="163" t="str">
+        <f t="shared" si="20"/>
         <v xml:space="preserve"> - </v>
       </c>
-      <c r="G72" s="56"/>
-      <c r="H72" s="57"/>
-      <c r="I72" s="58" t="str">
-        <f t="shared" si="4"/>
+      <c r="G73" s="56"/>
+      <c r="H73" s="57"/>
+      <c r="I73" s="58" t="str">
+        <f t="shared" si="18"/>
         <v xml:space="preserve"> - </v>
       </c>
-      <c r="J72" s="94"/>
-      <c r="K72" s="101"/>
-      <c r="L72" s="101"/>
-      <c r="M72" s="101"/>
-      <c r="N72" s="101"/>
-      <c r="O72" s="101"/>
-      <c r="P72" s="101"/>
-      <c r="Q72" s="101"/>
-      <c r="R72" s="101"/>
-      <c r="S72" s="101"/>
-      <c r="T72" s="101"/>
-      <c r="U72" s="101"/>
-      <c r="V72" s="101"/>
-      <c r="W72" s="101"/>
-      <c r="X72" s="101"/>
-      <c r="Y72" s="101"/>
-      <c r="Z72" s="101"/>
-      <c r="AA72" s="101"/>
-      <c r="AB72" s="101"/>
-      <c r="AC72" s="101"/>
-      <c r="AD72" s="101"/>
-      <c r="AE72" s="101"/>
-      <c r="AF72" s="101"/>
-      <c r="AG72" s="101"/>
-      <c r="AH72" s="101"/>
-      <c r="AI72" s="101"/>
-      <c r="AJ72" s="101"/>
-      <c r="AK72" s="101"/>
-      <c r="AL72" s="101"/>
-      <c r="AM72" s="101"/>
-      <c r="AN72" s="101"/>
-      <c r="AO72" s="101"/>
-      <c r="AP72" s="101"/>
-      <c r="AQ72" s="101"/>
-      <c r="AR72" s="101"/>
-      <c r="AS72" s="101"/>
-      <c r="AT72" s="101"/>
-      <c r="AU72" s="101"/>
-      <c r="AV72" s="101"/>
-      <c r="AW72" s="101"/>
-      <c r="AX72" s="101"/>
-      <c r="AY72" s="101"/>
-      <c r="AZ72" s="101"/>
-      <c r="BA72" s="101"/>
-      <c r="BB72" s="101"/>
-      <c r="BC72" s="101"/>
-      <c r="BD72" s="101"/>
-      <c r="BE72" s="101"/>
-      <c r="BF72" s="101"/>
-      <c r="BG72" s="101"/>
-      <c r="BH72" s="101"/>
-      <c r="BI72" s="101"/>
-      <c r="BJ72" s="101"/>
-      <c r="BK72" s="101"/>
-      <c r="BL72" s="101"/>
-      <c r="BM72" s="101"/>
-      <c r="BN72" s="101"/>
-    </row>
-    <row r="73" spans="1:66" s="60" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A73" s="59">
+      <c r="J73" s="94"/>
+      <c r="K73" s="101"/>
+      <c r="L73" s="101"/>
+      <c r="M73" s="101"/>
+      <c r="N73" s="101"/>
+      <c r="O73" s="101"/>
+      <c r="P73" s="101"/>
+      <c r="Q73" s="101"/>
+      <c r="R73" s="101"/>
+      <c r="S73" s="101"/>
+      <c r="T73" s="101"/>
+      <c r="U73" s="101"/>
+      <c r="V73" s="101"/>
+      <c r="W73" s="101"/>
+      <c r="X73" s="101"/>
+      <c r="Y73" s="101"/>
+      <c r="Z73" s="101"/>
+      <c r="AA73" s="101"/>
+      <c r="AB73" s="101"/>
+      <c r="AC73" s="101"/>
+      <c r="AD73" s="101"/>
+      <c r="AE73" s="101"/>
+      <c r="AF73" s="101"/>
+      <c r="AG73" s="101"/>
+      <c r="AH73" s="101"/>
+      <c r="AI73" s="101"/>
+      <c r="AJ73" s="101"/>
+      <c r="AK73" s="101"/>
+      <c r="AL73" s="101"/>
+      <c r="AM73" s="101"/>
+      <c r="AN73" s="101"/>
+      <c r="AO73" s="101"/>
+      <c r="AP73" s="101"/>
+      <c r="AQ73" s="101"/>
+      <c r="AR73" s="101"/>
+      <c r="AS73" s="101"/>
+      <c r="AT73" s="101"/>
+      <c r="AU73" s="101"/>
+      <c r="AV73" s="101"/>
+      <c r="AW73" s="101"/>
+      <c r="AX73" s="101"/>
+      <c r="AY73" s="101"/>
+      <c r="AZ73" s="101"/>
+      <c r="BA73" s="101"/>
+      <c r="BB73" s="101"/>
+      <c r="BC73" s="101"/>
+      <c r="BD73" s="101"/>
+      <c r="BE73" s="101"/>
+      <c r="BF73" s="101"/>
+      <c r="BG73" s="101"/>
+      <c r="BH73" s="101"/>
+      <c r="BI73" s="101"/>
+      <c r="BJ73" s="101"/>
+      <c r="BK73" s="101"/>
+      <c r="BL73" s="101"/>
+      <c r="BM73" s="101"/>
+      <c r="BN73" s="101"/>
+      <c r="BO73" s="101"/>
+      <c r="BP73" s="101"/>
+      <c r="BQ73" s="101"/>
+      <c r="BR73" s="101"/>
+      <c r="BS73" s="101"/>
+      <c r="BT73" s="101"/>
+      <c r="BU73" s="101"/>
+      <c r="BV73" s="101"/>
+      <c r="BW73" s="101"/>
+      <c r="BX73" s="101"/>
+      <c r="BY73" s="101"/>
+      <c r="BZ73" s="101"/>
+      <c r="CA73" s="101"/>
+      <c r="CB73" s="101"/>
+    </row>
+    <row r="74" spans="1:80" s="60" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A74" s="59">
         <v>4.0999999999999996</v>
       </c>
-      <c r="B73" s="176" t="s">
+      <c r="B74" s="176" t="s">
         <v>184</v>
-      </c>
-      <c r="C73" s="60" t="s">
-        <v>136</v>
-      </c>
-      <c r="D73" s="116"/>
-      <c r="E73" s="161">
-        <v>44497</v>
-      </c>
-      <c r="F73" s="162">
-        <f t="shared" ref="F73" si="9">IF(ISBLANK(E73)," - ",IF(G73=0,E73,E73+G73-1))</f>
-        <v>44497</v>
-      </c>
-      <c r="G73" s="61">
-        <v>1</v>
-      </c>
-      <c r="H73" s="62"/>
-      <c r="I73" s="63">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="J73" s="93"/>
-      <c r="K73" s="99"/>
-      <c r="L73" s="99"/>
-      <c r="M73" s="99"/>
-      <c r="N73" s="99"/>
-      <c r="O73" s="99"/>
-      <c r="P73" s="99"/>
-      <c r="Q73" s="99"/>
-      <c r="R73" s="99"/>
-      <c r="S73" s="99"/>
-      <c r="T73" s="99"/>
-      <c r="U73" s="99"/>
-      <c r="V73" s="99"/>
-      <c r="W73" s="99"/>
-      <c r="X73" s="99"/>
-      <c r="Y73" s="99"/>
-      <c r="Z73" s="99"/>
-      <c r="AA73" s="99"/>
-      <c r="AB73" s="99"/>
-      <c r="AC73" s="99"/>
-      <c r="AD73" s="99"/>
-      <c r="AE73" s="99"/>
-      <c r="AF73" s="99"/>
-      <c r="AG73" s="99"/>
-      <c r="AH73" s="99"/>
-      <c r="AI73" s="99"/>
-      <c r="AJ73" s="99"/>
-      <c r="AK73" s="99"/>
-      <c r="AL73" s="99"/>
-      <c r="AM73" s="99"/>
-      <c r="AN73" s="99"/>
-      <c r="AO73" s="99"/>
-      <c r="AP73" s="99"/>
-      <c r="AQ73" s="99"/>
-      <c r="AR73" s="99"/>
-      <c r="AS73" s="99"/>
-      <c r="AT73" s="99"/>
-      <c r="AU73" s="99"/>
-      <c r="AV73" s="99"/>
-      <c r="AW73" s="99"/>
-      <c r="AX73" s="99"/>
-      <c r="AY73" s="99"/>
-      <c r="AZ73" s="99"/>
-      <c r="BA73" s="99"/>
-      <c r="BB73" s="99"/>
-      <c r="BC73" s="99"/>
-      <c r="BD73" s="99"/>
-      <c r="BE73" s="99"/>
-      <c r="BF73" s="99"/>
-      <c r="BG73" s="99"/>
-      <c r="BH73" s="99"/>
-      <c r="BI73" s="99"/>
-      <c r="BJ73" s="99"/>
-      <c r="BK73" s="99"/>
-      <c r="BL73" s="99"/>
-      <c r="BM73" s="99"/>
-      <c r="BN73" s="99"/>
-    </row>
-    <row r="74" spans="1:66" s="60" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A74" s="59" t="str">
-        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
-        <v>4.2</v>
-      </c>
-      <c r="B74" s="115" t="s">
-        <v>207</v>
       </c>
       <c r="C74" s="60" t="s">
         <v>136</v>
       </c>
       <c r="D74" s="116"/>
       <c r="E74" s="161">
-        <v>44507</v>
+        <v>44497</v>
       </c>
       <c r="F74" s="162">
-        <f t="shared" ref="F74" si="10">IF(ISBLANK(E74)," - ",IF(G74=0,E74,E74+G74-1))</f>
-        <v>44509</v>
+        <f t="shared" ref="F74" si="23">IF(ISBLANK(E74)," - ",IF(G74=0,E74,E74+G74-1))</f>
+        <v>44497</v>
       </c>
       <c r="G74" s="61">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H74" s="62">
-        <v>0</v>
-      </c>
-      <c r="I74" s="63"/>
+        <v>1</v>
+      </c>
+      <c r="I74" s="63">
+        <f t="shared" si="18"/>
+        <v>1</v>
+      </c>
       <c r="J74" s="93"/>
       <c r="K74" s="99"/>
       <c r="L74" s="99"/>
@@ -10543,122 +11665,140 @@
       <c r="BL74" s="99"/>
       <c r="BM74" s="99"/>
       <c r="BN74" s="99"/>
-    </row>
-    <row r="75" spans="1:66" s="60" customFormat="1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A75" s="59" t="str">
-        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
-        <v>4.3</v>
-      </c>
-      <c r="B75" s="115" t="s">
-        <v>208</v>
-      </c>
-      <c r="C75" s="60" t="s">
-        <v>136</v>
-      </c>
-      <c r="D75" s="116"/>
-      <c r="E75" s="161">
-        <v>44510</v>
-      </c>
-      <c r="F75" s="162">
-        <f t="shared" si="6"/>
-        <v>44512</v>
-      </c>
-      <c r="G75" s="61">
-        <v>3</v>
-      </c>
-      <c r="H75" s="62">
-        <v>0</v>
-      </c>
-      <c r="I75" s="63">
-        <f t="shared" si="4"/>
-        <v>3</v>
-      </c>
-      <c r="J75" s="93"/>
-      <c r="K75" s="99"/>
-      <c r="L75" s="99"/>
-      <c r="M75" s="99"/>
-      <c r="N75" s="99"/>
-      <c r="O75" s="99"/>
-      <c r="P75" s="99"/>
-      <c r="Q75" s="99"/>
-      <c r="R75" s="99"/>
-      <c r="S75" s="99"/>
-      <c r="T75" s="99"/>
-      <c r="U75" s="99"/>
-      <c r="V75" s="99"/>
-      <c r="W75" s="99"/>
-      <c r="X75" s="99"/>
-      <c r="Y75" s="99"/>
-      <c r="Z75" s="99"/>
-      <c r="AA75" s="99"/>
-      <c r="AB75" s="99"/>
-      <c r="AC75" s="99"/>
-      <c r="AD75" s="99"/>
-      <c r="AE75" s="99"/>
-      <c r="AF75" s="99"/>
-      <c r="AG75" s="99"/>
-      <c r="AH75" s="99"/>
-      <c r="AI75" s="99"/>
-      <c r="AJ75" s="99"/>
-      <c r="AK75" s="99"/>
-      <c r="AL75" s="99"/>
-      <c r="AM75" s="99"/>
-      <c r="AN75" s="99"/>
-      <c r="AO75" s="99"/>
-      <c r="AP75" s="99"/>
-      <c r="AQ75" s="99"/>
-      <c r="AR75" s="99"/>
-      <c r="AS75" s="99"/>
-      <c r="AT75" s="99"/>
-      <c r="AU75" s="99"/>
-      <c r="AV75" s="99"/>
-      <c r="AW75" s="99"/>
-      <c r="AX75" s="99"/>
-      <c r="AY75" s="99"/>
-      <c r="AZ75" s="99"/>
-      <c r="BA75" s="99"/>
-      <c r="BB75" s="99"/>
-      <c r="BC75" s="99"/>
-      <c r="BD75" s="99"/>
-      <c r="BE75" s="99"/>
-      <c r="BF75" s="99"/>
-      <c r="BG75" s="99"/>
-      <c r="BH75" s="99"/>
-      <c r="BI75" s="99"/>
-      <c r="BJ75" s="99"/>
-      <c r="BK75" s="99"/>
-      <c r="BL75" s="99"/>
-      <c r="BM75" s="99"/>
-      <c r="BN75" s="99"/>
-    </row>
-    <row r="76" spans="1:66" s="60" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+      <c r="BO74" s="99"/>
+      <c r="BP74" s="99"/>
+      <c r="BQ74" s="99"/>
+      <c r="BR74" s="99"/>
+      <c r="BS74" s="99"/>
+      <c r="BT74" s="99"/>
+      <c r="BU74" s="99"/>
+      <c r="BV74" s="99"/>
+      <c r="BW74" s="99"/>
+      <c r="BX74" s="99"/>
+      <c r="BY74" s="99"/>
+      <c r="BZ74" s="99"/>
+      <c r="CA74" s="99"/>
+      <c r="CB74" s="99"/>
+    </row>
+    <row r="75" spans="1:80" s="54" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A75" s="52">
+        <v>5</v>
+      </c>
+      <c r="B75" s="53" t="s">
+        <v>219</v>
+      </c>
+      <c r="D75" s="55"/>
+      <c r="E75" s="163"/>
+      <c r="F75" s="163" t="str">
+        <f t="shared" ref="F75:F78" si="24">IF(ISBLANK(E75)," - ",IF(G75=0,E75,E75+G75-1))</f>
+        <v xml:space="preserve"> - </v>
+      </c>
+      <c r="G75" s="56"/>
+      <c r="H75" s="57"/>
+      <c r="I75" s="58" t="str">
+        <f t="shared" ref="I75:I76" si="25">IF(OR(F75=0,E75=0)," - ",NETWORKDAYS(E75,F75))</f>
+        <v xml:space="preserve"> - </v>
+      </c>
+      <c r="J75" s="94"/>
+      <c r="K75" s="101"/>
+      <c r="L75" s="101"/>
+      <c r="M75" s="101"/>
+      <c r="N75" s="101"/>
+      <c r="O75" s="101"/>
+      <c r="P75" s="101"/>
+      <c r="Q75" s="101"/>
+      <c r="R75" s="101"/>
+      <c r="S75" s="101"/>
+      <c r="T75" s="101"/>
+      <c r="U75" s="101"/>
+      <c r="V75" s="101"/>
+      <c r="W75" s="101"/>
+      <c r="X75" s="101"/>
+      <c r="Y75" s="101"/>
+      <c r="Z75" s="101"/>
+      <c r="AA75" s="101"/>
+      <c r="AB75" s="101"/>
+      <c r="AC75" s="101"/>
+      <c r="AD75" s="101"/>
+      <c r="AE75" s="101"/>
+      <c r="AF75" s="101"/>
+      <c r="AG75" s="101"/>
+      <c r="AH75" s="101"/>
+      <c r="AI75" s="101"/>
+      <c r="AJ75" s="101"/>
+      <c r="AK75" s="101"/>
+      <c r="AL75" s="101"/>
+      <c r="AM75" s="101"/>
+      <c r="AN75" s="101"/>
+      <c r="AO75" s="101"/>
+      <c r="AP75" s="101"/>
+      <c r="AQ75" s="101"/>
+      <c r="AR75" s="101"/>
+      <c r="AS75" s="101"/>
+      <c r="AT75" s="101"/>
+      <c r="AU75" s="101"/>
+      <c r="AV75" s="101"/>
+      <c r="AW75" s="101"/>
+      <c r="AX75" s="101"/>
+      <c r="AY75" s="101"/>
+      <c r="AZ75" s="101"/>
+      <c r="BA75" s="101"/>
+      <c r="BB75" s="101"/>
+      <c r="BC75" s="101"/>
+      <c r="BD75" s="101"/>
+      <c r="BE75" s="101"/>
+      <c r="BF75" s="101"/>
+      <c r="BG75" s="101"/>
+      <c r="BH75" s="101"/>
+      <c r="BI75" s="101"/>
+      <c r="BJ75" s="101"/>
+      <c r="BK75" s="101"/>
+      <c r="BL75" s="101"/>
+      <c r="BM75" s="101"/>
+      <c r="BN75" s="101"/>
+      <c r="BO75" s="101"/>
+      <c r="BP75" s="101"/>
+      <c r="BQ75" s="101"/>
+      <c r="BR75" s="101"/>
+      <c r="BS75" s="101"/>
+      <c r="BT75" s="101"/>
+      <c r="BU75" s="101"/>
+      <c r="BV75" s="101"/>
+      <c r="BW75" s="101"/>
+      <c r="BX75" s="101"/>
+      <c r="BY75" s="101"/>
+      <c r="BZ75" s="101"/>
+      <c r="CA75" s="101"/>
+      <c r="CB75" s="101"/>
+    </row>
+    <row r="76" spans="1:80" s="60" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A76" s="59" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
-        <v>4.4</v>
+        <v>5.1</v>
       </c>
       <c r="B76" s="115" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="C76" s="60" t="s">
         <v>136</v>
       </c>
       <c r="D76" s="116"/>
       <c r="E76" s="161">
-        <v>44513</v>
+        <v>44520</v>
       </c>
       <c r="F76" s="162">
-        <f t="shared" si="6"/>
-        <v>44515</v>
+        <f t="shared" si="24"/>
+        <v>44521</v>
       </c>
       <c r="G76" s="61">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H76" s="62">
         <v>0</v>
       </c>
       <c r="I76" s="63">
-        <f t="shared" si="4"/>
-        <v>1</v>
+        <f t="shared" si="25"/>
+        <v>0</v>
       </c>
       <c r="J76" s="93"/>
       <c r="K76" s="99"/>
@@ -10717,114 +11857,140 @@
       <c r="BL76" s="99"/>
       <c r="BM76" s="99"/>
       <c r="BN76" s="99"/>
-    </row>
-    <row r="77" spans="1:66" s="54" customFormat="1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A77" s="52">
-        <v>5</v>
-      </c>
-      <c r="B77" s="53" t="s">
-        <v>223</v>
-      </c>
-      <c r="D77" s="55"/>
-      <c r="E77" s="163"/>
-      <c r="F77" s="163" t="str">
-        <f t="shared" ref="F77:F81" si="11">IF(ISBLANK(E77)," - ",IF(G77=0,E77,E77+G77-1))</f>
-        <v xml:space="preserve"> - </v>
-      </c>
-      <c r="G77" s="56"/>
-      <c r="H77" s="57"/>
-      <c r="I77" s="58" t="str">
-        <f t="shared" ref="I77:I79" si="12">IF(OR(F77=0,E77=0)," - ",NETWORKDAYS(E77,F77))</f>
-        <v xml:space="preserve"> - </v>
-      </c>
-      <c r="J77" s="94"/>
-      <c r="K77" s="101"/>
-      <c r="L77" s="101"/>
-      <c r="M77" s="101"/>
-      <c r="N77" s="101"/>
-      <c r="O77" s="101"/>
-      <c r="P77" s="101"/>
-      <c r="Q77" s="101"/>
-      <c r="R77" s="101"/>
-      <c r="S77" s="101"/>
-      <c r="T77" s="101"/>
-      <c r="U77" s="101"/>
-      <c r="V77" s="101"/>
-      <c r="W77" s="101"/>
-      <c r="X77" s="101"/>
-      <c r="Y77" s="101"/>
-      <c r="Z77" s="101"/>
-      <c r="AA77" s="101"/>
-      <c r="AB77" s="101"/>
-      <c r="AC77" s="101"/>
-      <c r="AD77" s="101"/>
-      <c r="AE77" s="101"/>
-      <c r="AF77" s="101"/>
-      <c r="AG77" s="101"/>
-      <c r="AH77" s="101"/>
-      <c r="AI77" s="101"/>
-      <c r="AJ77" s="101"/>
-      <c r="AK77" s="101"/>
-      <c r="AL77" s="101"/>
-      <c r="AM77" s="101"/>
-      <c r="AN77" s="101"/>
-      <c r="AO77" s="101"/>
-      <c r="AP77" s="101"/>
-      <c r="AQ77" s="101"/>
-      <c r="AR77" s="101"/>
-      <c r="AS77" s="101"/>
-      <c r="AT77" s="101"/>
-      <c r="AU77" s="101"/>
-      <c r="AV77" s="101"/>
-      <c r="AW77" s="101"/>
-      <c r="AX77" s="101"/>
-      <c r="AY77" s="101"/>
-      <c r="AZ77" s="101"/>
-      <c r="BA77" s="101"/>
-      <c r="BB77" s="101"/>
-      <c r="BC77" s="101"/>
-      <c r="BD77" s="101"/>
-      <c r="BE77" s="101"/>
-      <c r="BF77" s="101"/>
-      <c r="BG77" s="101"/>
-      <c r="BH77" s="101"/>
-      <c r="BI77" s="101"/>
-      <c r="BJ77" s="101"/>
-      <c r="BK77" s="101"/>
-      <c r="BL77" s="101"/>
-      <c r="BM77" s="101"/>
-      <c r="BN77" s="101"/>
-    </row>
-    <row r="78" spans="1:66" s="60" customFormat="1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A78" s="59" t="str">
-        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
-        <v>5.1</v>
+      <c r="BO76" s="99"/>
+      <c r="BP76" s="99"/>
+      <c r="BQ76" s="99"/>
+      <c r="BR76" s="99"/>
+      <c r="BS76" s="99"/>
+      <c r="BT76" s="99"/>
+      <c r="BU76" s="99"/>
+      <c r="BV76" s="99"/>
+      <c r="BW76" s="99"/>
+      <c r="BX76" s="99"/>
+      <c r="BY76" s="99"/>
+      <c r="BZ76" s="99"/>
+      <c r="CA76" s="99"/>
+      <c r="CB76" s="99"/>
+    </row>
+    <row r="77" spans="1:80" s="69" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A77" s="59">
+        <v>5.3</v>
+      </c>
+      <c r="B77" s="115" t="s">
+        <v>209</v>
+      </c>
+      <c r="C77" s="60" t="s">
+        <v>136</v>
+      </c>
+      <c r="D77" s="169"/>
+      <c r="E77" s="170">
+        <v>44522</v>
+      </c>
+      <c r="F77" s="162">
+        <f t="shared" si="24"/>
+        <v>44523</v>
+      </c>
+      <c r="G77" s="172">
+        <v>2</v>
+      </c>
+      <c r="H77" s="173"/>
+      <c r="I77" s="174"/>
+      <c r="J77" s="175"/>
+      <c r="K77" s="99"/>
+      <c r="L77" s="99"/>
+      <c r="M77" s="99"/>
+      <c r="N77" s="99"/>
+      <c r="O77" s="99"/>
+      <c r="P77" s="99"/>
+      <c r="Q77" s="99"/>
+      <c r="R77" s="99"/>
+      <c r="S77" s="99"/>
+      <c r="T77" s="99"/>
+      <c r="U77" s="99"/>
+      <c r="V77" s="99"/>
+      <c r="W77" s="99"/>
+      <c r="X77" s="99"/>
+      <c r="Y77" s="99"/>
+      <c r="Z77" s="99"/>
+      <c r="AA77" s="99"/>
+      <c r="AB77" s="99"/>
+      <c r="AC77" s="99"/>
+      <c r="AD77" s="99"/>
+      <c r="AE77" s="99"/>
+      <c r="AF77" s="99"/>
+      <c r="AG77" s="99"/>
+      <c r="AH77" s="99"/>
+      <c r="AI77" s="99"/>
+      <c r="AJ77" s="99"/>
+      <c r="AK77" s="99"/>
+      <c r="AL77" s="99"/>
+      <c r="AM77" s="99"/>
+      <c r="AN77" s="99"/>
+      <c r="AO77" s="99"/>
+      <c r="AP77" s="99"/>
+      <c r="AQ77" s="99"/>
+      <c r="AR77" s="99"/>
+      <c r="AS77" s="99"/>
+      <c r="AT77" s="99"/>
+      <c r="AU77" s="99"/>
+      <c r="AV77" s="99"/>
+      <c r="AW77" s="99"/>
+      <c r="AX77" s="99"/>
+      <c r="AY77" s="99"/>
+      <c r="AZ77" s="99"/>
+      <c r="BA77" s="99"/>
+      <c r="BB77" s="99"/>
+      <c r="BC77" s="99"/>
+      <c r="BD77" s="99"/>
+      <c r="BE77" s="99"/>
+      <c r="BF77" s="99"/>
+      <c r="BG77" s="99"/>
+      <c r="BH77" s="99"/>
+      <c r="BI77" s="99"/>
+      <c r="BJ77" s="99"/>
+      <c r="BK77" s="99"/>
+      <c r="BL77" s="99"/>
+      <c r="BM77" s="99"/>
+      <c r="BN77" s="99"/>
+      <c r="BO77" s="99"/>
+      <c r="BP77" s="99"/>
+      <c r="BQ77" s="99"/>
+      <c r="BR77" s="99"/>
+      <c r="BS77" s="99"/>
+      <c r="BT77" s="99"/>
+      <c r="BU77" s="99"/>
+      <c r="BV77" s="99"/>
+      <c r="BW77" s="99"/>
+      <c r="BX77" s="99"/>
+      <c r="BY77" s="99"/>
+      <c r="BZ77" s="99"/>
+      <c r="CA77" s="99"/>
+      <c r="CB77" s="99"/>
+    </row>
+    <row r="78" spans="1:80" s="69" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A78" s="59">
+        <v>5.4</v>
       </c>
       <c r="B78" s="115" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="C78" s="60" t="s">
         <v>136</v>
       </c>
-      <c r="D78" s="116"/>
-      <c r="E78" s="161">
-        <v>44515</v>
+      <c r="D78" s="169"/>
+      <c r="E78" s="170">
+        <v>44522</v>
       </c>
       <c r="F78" s="162">
-        <f t="shared" si="11"/>
-        <v>44516</v>
-      </c>
-      <c r="G78" s="61">
+        <f t="shared" si="24"/>
+        <v>44523</v>
+      </c>
+      <c r="G78" s="172">
         <v>2</v>
       </c>
-      <c r="H78" s="62">
-        <v>0</v>
-      </c>
-      <c r="I78" s="63">
-        <f t="shared" si="12"/>
-        <v>2</v>
-      </c>
-      <c r="J78" s="93"/>
+      <c r="H78" s="173"/>
+      <c r="I78" s="174"/>
+      <c r="J78" s="175"/>
       <c r="K78" s="99"/>
       <c r="L78" s="99"/>
       <c r="M78" s="99"/>
@@ -10881,37 +12047,32 @@
       <c r="BL78" s="99"/>
       <c r="BM78" s="99"/>
       <c r="BN78" s="99"/>
-    </row>
-    <row r="79" spans="1:66" s="60" customFormat="1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A79" s="59" t="str">
-        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
-        <v>5.2</v>
-      </c>
-      <c r="B79" s="115" t="s">
-        <v>211</v>
-      </c>
-      <c r="C79" s="60" t="s">
-        <v>136</v>
-      </c>
-      <c r="D79" s="116"/>
-      <c r="E79" s="161">
-        <v>44517</v>
-      </c>
-      <c r="F79" s="162">
-        <f t="shared" si="11"/>
-        <v>44518</v>
-      </c>
-      <c r="G79" s="61">
-        <v>2</v>
-      </c>
-      <c r="H79" s="62">
-        <v>0</v>
-      </c>
-      <c r="I79" s="63">
-        <f t="shared" si="12"/>
-        <v>2</v>
-      </c>
-      <c r="J79" s="93"/>
+      <c r="BO78" s="99"/>
+      <c r="BP78" s="99"/>
+      <c r="BQ78" s="99"/>
+      <c r="BR78" s="99"/>
+      <c r="BS78" s="99"/>
+      <c r="BT78" s="99"/>
+      <c r="BU78" s="99"/>
+      <c r="BV78" s="99"/>
+      <c r="BW78" s="99"/>
+      <c r="BX78" s="99"/>
+      <c r="BY78" s="99"/>
+      <c r="BZ78" s="99"/>
+      <c r="CA78" s="99"/>
+      <c r="CB78" s="99"/>
+    </row>
+    <row r="79" spans="1:80" s="69" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A79" s="59"/>
+      <c r="B79" s="64"/>
+      <c r="C79" s="64"/>
+      <c r="D79" s="65"/>
+      <c r="E79" s="164"/>
+      <c r="F79" s="164"/>
+      <c r="G79" s="66"/>
+      <c r="H79" s="67"/>
+      <c r="I79" s="68"/>
+      <c r="J79" s="95"/>
       <c r="K79" s="99"/>
       <c r="L79" s="99"/>
       <c r="M79" s="99"/>
@@ -10968,31 +12129,32 @@
       <c r="BL79" s="99"/>
       <c r="BM79" s="99"/>
       <c r="BN79" s="99"/>
-    </row>
-    <row r="80" spans="1:66" s="69" customFormat="1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A80" s="59">
-        <v>5.3</v>
-      </c>
-      <c r="B80" s="115" t="s">
-        <v>213</v>
-      </c>
-      <c r="C80" s="60" t="s">
-        <v>136</v>
-      </c>
-      <c r="D80" s="169"/>
-      <c r="E80" s="170">
-        <v>44519</v>
-      </c>
-      <c r="F80" s="162">
-        <f t="shared" si="11"/>
-        <v>44519</v>
-      </c>
-      <c r="G80" s="172">
-        <v>1</v>
-      </c>
-      <c r="H80" s="173"/>
-      <c r="I80" s="174"/>
-      <c r="J80" s="175"/>
+      <c r="BO79" s="99"/>
+      <c r="BP79" s="99"/>
+      <c r="BQ79" s="99"/>
+      <c r="BR79" s="99"/>
+      <c r="BS79" s="99"/>
+      <c r="BT79" s="99"/>
+      <c r="BU79" s="99"/>
+      <c r="BV79" s="99"/>
+      <c r="BW79" s="99"/>
+      <c r="BX79" s="99"/>
+      <c r="BY79" s="99"/>
+      <c r="BZ79" s="99"/>
+      <c r="CA79" s="99"/>
+      <c r="CB79" s="99"/>
+    </row>
+    <row r="80" spans="1:80" s="69" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A80" s="59"/>
+      <c r="B80" s="64"/>
+      <c r="C80" s="64"/>
+      <c r="D80" s="65"/>
+      <c r="E80" s="164"/>
+      <c r="F80" s="164"/>
+      <c r="G80" s="66"/>
+      <c r="H80" s="67"/>
+      <c r="I80" s="68"/>
+      <c r="J80" s="95"/>
       <c r="K80" s="99"/>
       <c r="L80" s="99"/>
       <c r="M80" s="99"/>
@@ -11049,31 +12211,32 @@
       <c r="BL80" s="99"/>
       <c r="BM80" s="99"/>
       <c r="BN80" s="99"/>
-    </row>
-    <row r="81" spans="1:66" s="69" customFormat="1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A81" s="59">
-        <v>5.4</v>
-      </c>
-      <c r="B81" s="115" t="s">
-        <v>212</v>
-      </c>
-      <c r="C81" s="60" t="s">
-        <v>136</v>
-      </c>
-      <c r="D81" s="169"/>
-      <c r="E81" s="170">
-        <v>44520</v>
-      </c>
-      <c r="F81" s="162">
-        <f t="shared" si="11"/>
-        <v>44520</v>
-      </c>
-      <c r="G81" s="172">
-        <v>1</v>
-      </c>
-      <c r="H81" s="173"/>
-      <c r="I81" s="174"/>
-      <c r="J81" s="175"/>
+      <c r="BO80" s="99"/>
+      <c r="BP80" s="99"/>
+      <c r="BQ80" s="99"/>
+      <c r="BR80" s="99"/>
+      <c r="BS80" s="99"/>
+      <c r="BT80" s="99"/>
+      <c r="BU80" s="99"/>
+      <c r="BV80" s="99"/>
+      <c r="BW80" s="99"/>
+      <c r="BX80" s="99"/>
+      <c r="BY80" s="99"/>
+      <c r="BZ80" s="99"/>
+      <c r="CA80" s="99"/>
+      <c r="CB80" s="99"/>
+    </row>
+    <row r="81" spans="1:80" s="69" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A81" s="59"/>
+      <c r="B81" s="64"/>
+      <c r="C81" s="64"/>
+      <c r="D81" s="65"/>
+      <c r="E81" s="164"/>
+      <c r="F81" s="164"/>
+      <c r="G81" s="66"/>
+      <c r="H81" s="67"/>
+      <c r="I81" s="68"/>
+      <c r="J81" s="95"/>
       <c r="K81" s="99"/>
       <c r="L81" s="99"/>
       <c r="M81" s="99"/>
@@ -11130,8 +12293,22 @@
       <c r="BL81" s="99"/>
       <c r="BM81" s="99"/>
       <c r="BN81" s="99"/>
-    </row>
-    <row r="82" spans="1:66" s="69" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+      <c r="BO81" s="99"/>
+      <c r="BP81" s="99"/>
+      <c r="BQ81" s="99"/>
+      <c r="BR81" s="99"/>
+      <c r="BS81" s="99"/>
+      <c r="BT81" s="99"/>
+      <c r="BU81" s="99"/>
+      <c r="BV81" s="99"/>
+      <c r="BW81" s="99"/>
+      <c r="BX81" s="99"/>
+      <c r="BY81" s="99"/>
+      <c r="BZ81" s="99"/>
+      <c r="CA81" s="99"/>
+      <c r="CB81" s="99"/>
+    </row>
+    <row r="82" spans="1:80" s="69" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A82" s="59"/>
       <c r="B82" s="64"/>
       <c r="C82" s="64"/>
@@ -11140,7 +12317,10 @@
       <c r="F82" s="164"/>
       <c r="G82" s="66"/>
       <c r="H82" s="67"/>
-      <c r="I82" s="68"/>
+      <c r="I82" s="68" t="str">
+        <f t="shared" si="18"/>
+        <v xml:space="preserve"> - </v>
+      </c>
       <c r="J82" s="95"/>
       <c r="K82" s="99"/>
       <c r="L82" s="99"/>
@@ -11198,18 +12378,34 @@
       <c r="BL82" s="99"/>
       <c r="BM82" s="99"/>
       <c r="BN82" s="99"/>
-    </row>
-    <row r="83" spans="1:66" s="69" customFormat="1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A83" s="59"/>
-      <c r="B83" s="64"/>
-      <c r="C83" s="64"/>
-      <c r="D83" s="65"/>
-      <c r="E83" s="164"/>
-      <c r="F83" s="164"/>
-      <c r="G83" s="66"/>
-      <c r="H83" s="67"/>
-      <c r="I83" s="68"/>
-      <c r="J83" s="95"/>
+      <c r="BO82" s="99"/>
+      <c r="BP82" s="99"/>
+      <c r="BQ82" s="99"/>
+      <c r="BR82" s="99"/>
+      <c r="BS82" s="99"/>
+      <c r="BT82" s="99"/>
+      <c r="BU82" s="99"/>
+      <c r="BV82" s="99"/>
+      <c r="BW82" s="99"/>
+      <c r="BX82" s="99"/>
+      <c r="BY82" s="99"/>
+      <c r="BZ82" s="99"/>
+      <c r="CA82" s="99"/>
+      <c r="CB82" s="99"/>
+    </row>
+    <row r="83" spans="1:80" s="74" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A83" s="70" t="s">
+        <v>1</v>
+      </c>
+      <c r="B83" s="71"/>
+      <c r="C83" s="72"/>
+      <c r="D83" s="72"/>
+      <c r="E83" s="165"/>
+      <c r="F83" s="165"/>
+      <c r="G83" s="73"/>
+      <c r="H83" s="73"/>
+      <c r="I83" s="73"/>
+      <c r="J83" s="96"/>
       <c r="K83" s="99"/>
       <c r="L83" s="99"/>
       <c r="M83" s="99"/>
@@ -11266,18 +12462,34 @@
       <c r="BL83" s="99"/>
       <c r="BM83" s="99"/>
       <c r="BN83" s="99"/>
-    </row>
-    <row r="84" spans="1:66" s="69" customFormat="1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A84" s="59"/>
-      <c r="B84" s="64"/>
-      <c r="C84" s="64"/>
-      <c r="D84" s="65"/>
-      <c r="E84" s="164"/>
-      <c r="F84" s="164"/>
-      <c r="G84" s="66"/>
-      <c r="H84" s="67"/>
-      <c r="I84" s="68"/>
-      <c r="J84" s="95"/>
+      <c r="BO83" s="99"/>
+      <c r="BP83" s="99"/>
+      <c r="BQ83" s="99"/>
+      <c r="BR83" s="99"/>
+      <c r="BS83" s="99"/>
+      <c r="BT83" s="99"/>
+      <c r="BU83" s="99"/>
+      <c r="BV83" s="99"/>
+      <c r="BW83" s="99"/>
+      <c r="BX83" s="99"/>
+      <c r="BY83" s="99"/>
+      <c r="BZ83" s="99"/>
+      <c r="CA83" s="99"/>
+      <c r="CB83" s="99"/>
+    </row>
+    <row r="84" spans="1:80" s="69" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A84" s="75" t="s">
+        <v>37</v>
+      </c>
+      <c r="B84" s="76"/>
+      <c r="C84" s="76"/>
+      <c r="D84" s="76"/>
+      <c r="E84" s="166"/>
+      <c r="F84" s="166"/>
+      <c r="G84" s="76"/>
+      <c r="H84" s="76"/>
+      <c r="I84" s="76"/>
+      <c r="J84" s="96"/>
       <c r="K84" s="99"/>
       <c r="L84" s="99"/>
       <c r="M84" s="99"/>
@@ -11334,21 +12546,43 @@
       <c r="BL84" s="99"/>
       <c r="BM84" s="99"/>
       <c r="BN84" s="99"/>
-    </row>
-    <row r="85" spans="1:66" s="69" customFormat="1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A85" s="59"/>
-      <c r="B85" s="64"/>
-      <c r="C85" s="64"/>
-      <c r="D85" s="65"/>
-      <c r="E85" s="164"/>
-      <c r="F85" s="164"/>
-      <c r="G85" s="66"/>
-      <c r="H85" s="67"/>
-      <c r="I85" s="68" t="str">
-        <f t="shared" si="4"/>
+      <c r="BO84" s="99"/>
+      <c r="BP84" s="99"/>
+      <c r="BQ84" s="99"/>
+      <c r="BR84" s="99"/>
+      <c r="BS84" s="99"/>
+      <c r="BT84" s="99"/>
+      <c r="BU84" s="99"/>
+      <c r="BV84" s="99"/>
+      <c r="BW84" s="99"/>
+      <c r="BX84" s="99"/>
+      <c r="BY84" s="99"/>
+      <c r="BZ84" s="99"/>
+      <c r="CA84" s="99"/>
+      <c r="CB84" s="99"/>
+    </row>
+    <row r="85" spans="1:80" s="69" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A85" s="119" t="str">
+        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),TEXT(VALUE(prevWBS)+1,"#"),TEXT(VALUE(LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1))+1,"#")))</f>
+        <v>1</v>
+      </c>
+      <c r="B85" s="120" t="s">
+        <v>76</v>
+      </c>
+      <c r="C85" s="77"/>
+      <c r="D85" s="78"/>
+      <c r="E85" s="161"/>
+      <c r="F85" s="162" t="str">
+        <f t="shared" ref="F85:F88" si="26">IF(ISBLANK(E85)," - ",IF(G85=0,E85,E85+G85-1))</f>
         <v xml:space="preserve"> - </v>
       </c>
-      <c r="J85" s="95"/>
+      <c r="G85" s="61"/>
+      <c r="H85" s="62"/>
+      <c r="I85" s="79" t="str">
+        <f>IF(OR(F85=0,E85=0)," - ",NETWORKDAYS(E85,F85))</f>
+        <v xml:space="preserve"> - </v>
+      </c>
+      <c r="J85" s="97"/>
       <c r="K85" s="99"/>
       <c r="L85" s="99"/>
       <c r="M85" s="99"/>
@@ -11405,20 +12639,43 @@
       <c r="BL85" s="99"/>
       <c r="BM85" s="99"/>
       <c r="BN85" s="99"/>
-    </row>
-    <row r="86" spans="1:66" s="74" customFormat="1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A86" s="70" t="s">
-        <v>1</v>
-      </c>
-      <c r="B86" s="71"/>
-      <c r="C86" s="72"/>
-      <c r="D86" s="72"/>
-      <c r="E86" s="165"/>
-      <c r="F86" s="165"/>
-      <c r="G86" s="73"/>
-      <c r="H86" s="73"/>
-      <c r="I86" s="73"/>
-      <c r="J86" s="96"/>
+      <c r="BO85" s="99"/>
+      <c r="BP85" s="99"/>
+      <c r="BQ85" s="99"/>
+      <c r="BR85" s="99"/>
+      <c r="BS85" s="99"/>
+      <c r="BT85" s="99"/>
+      <c r="BU85" s="99"/>
+      <c r="BV85" s="99"/>
+      <c r="BW85" s="99"/>
+      <c r="BX85" s="99"/>
+      <c r="BY85" s="99"/>
+      <c r="BZ85" s="99"/>
+      <c r="CA85" s="99"/>
+      <c r="CB85" s="99"/>
+    </row>
+    <row r="86" spans="1:80" s="69" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A86" s="59" t="str">
+        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
+        <v>1.1</v>
+      </c>
+      <c r="B86" s="80" t="s">
+        <v>62</v>
+      </c>
+      <c r="C86" s="80"/>
+      <c r="D86" s="78"/>
+      <c r="E86" s="161"/>
+      <c r="F86" s="162" t="str">
+        <f t="shared" si="26"/>
+        <v xml:space="preserve"> - </v>
+      </c>
+      <c r="G86" s="61"/>
+      <c r="H86" s="62"/>
+      <c r="I86" s="79" t="str">
+        <f t="shared" ref="I86:I88" si="27">IF(OR(F86=0,E86=0)," - ",NETWORKDAYS(E86,F86))</f>
+        <v xml:space="preserve"> - </v>
+      </c>
+      <c r="J86" s="97"/>
       <c r="K86" s="99"/>
       <c r="L86" s="99"/>
       <c r="M86" s="99"/>
@@ -11475,20 +12732,43 @@
       <c r="BL86" s="99"/>
       <c r="BM86" s="99"/>
       <c r="BN86" s="99"/>
-    </row>
-    <row r="87" spans="1:66" s="69" customFormat="1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A87" s="75" t="s">
-        <v>37</v>
-      </c>
-      <c r="B87" s="76"/>
-      <c r="C87" s="76"/>
-      <c r="D87" s="76"/>
-      <c r="E87" s="166"/>
-      <c r="F87" s="166"/>
-      <c r="G87" s="76"/>
-      <c r="H87" s="76"/>
-      <c r="I87" s="76"/>
-      <c r="J87" s="96"/>
+      <c r="BO86" s="99"/>
+      <c r="BP86" s="99"/>
+      <c r="BQ86" s="99"/>
+      <c r="BR86" s="99"/>
+      <c r="BS86" s="99"/>
+      <c r="BT86" s="99"/>
+      <c r="BU86" s="99"/>
+      <c r="BV86" s="99"/>
+      <c r="BW86" s="99"/>
+      <c r="BX86" s="99"/>
+      <c r="BY86" s="99"/>
+      <c r="BZ86" s="99"/>
+      <c r="CA86" s="99"/>
+      <c r="CB86" s="99"/>
+    </row>
+    <row r="87" spans="1:80" s="69" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A87" s="59" t="str">
+        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",2))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",3))-FIND("`",SUBSTITUTE(prevWBS,".","`",2))-1)))+1)))</f>
+        <v>1.1.1</v>
+      </c>
+      <c r="B87" s="81" t="s">
+        <v>63</v>
+      </c>
+      <c r="C87" s="80"/>
+      <c r="D87" s="78"/>
+      <c r="E87" s="161"/>
+      <c r="F87" s="162" t="str">
+        <f t="shared" si="26"/>
+        <v xml:space="preserve"> - </v>
+      </c>
+      <c r="G87" s="61"/>
+      <c r="H87" s="62"/>
+      <c r="I87" s="79" t="str">
+        <f t="shared" si="27"/>
+        <v xml:space="preserve"> - </v>
+      </c>
+      <c r="J87" s="97"/>
       <c r="K87" s="99"/>
       <c r="L87" s="99"/>
       <c r="M87" s="99"/>
@@ -11545,26 +12825,40 @@
       <c r="BL87" s="99"/>
       <c r="BM87" s="99"/>
       <c r="BN87" s="99"/>
-    </row>
-    <row r="88" spans="1:66" s="69" customFormat="1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A88" s="119" t="str">
-        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),TEXT(VALUE(prevWBS)+1,"#"),TEXT(VALUE(LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1))+1,"#")))</f>
-        <v>1</v>
-      </c>
-      <c r="B88" s="120" t="s">
-        <v>76</v>
-      </c>
-      <c r="C88" s="77"/>
+      <c r="BO87" s="99"/>
+      <c r="BP87" s="99"/>
+      <c r="BQ87" s="99"/>
+      <c r="BR87" s="99"/>
+      <c r="BS87" s="99"/>
+      <c r="BT87" s="99"/>
+      <c r="BU87" s="99"/>
+      <c r="BV87" s="99"/>
+      <c r="BW87" s="99"/>
+      <c r="BX87" s="99"/>
+      <c r="BY87" s="99"/>
+      <c r="BZ87" s="99"/>
+      <c r="CA87" s="99"/>
+      <c r="CB87" s="99"/>
+    </row>
+    <row r="88" spans="1:80" s="69" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A88" s="59" t="str">
+        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",3)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",4))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",3))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",3))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",4))-FIND("`",SUBSTITUTE(prevWBS,".","`",3))-1)))+1)))</f>
+        <v>1.1.1.1</v>
+      </c>
+      <c r="B88" s="81" t="s">
+        <v>64</v>
+      </c>
+      <c r="C88" s="80"/>
       <c r="D88" s="78"/>
       <c r="E88" s="161"/>
       <c r="F88" s="162" t="str">
-        <f t="shared" ref="F88:F91" si="13">IF(ISBLANK(E88)," - ",IF(G88=0,E88,E88+G88-1))</f>
+        <f t="shared" si="26"/>
         <v xml:space="preserve"> - </v>
       </c>
       <c r="G88" s="61"/>
       <c r="H88" s="62"/>
       <c r="I88" s="79" t="str">
-        <f>IF(OR(F88=0,E88=0)," - ",NETWORKDAYS(E88,F88))</f>
+        <f t="shared" si="27"/>
         <v xml:space="preserve"> - </v>
       </c>
       <c r="J88" s="97"/>
@@ -11624,318 +12918,122 @@
       <c r="BL88" s="99"/>
       <c r="BM88" s="99"/>
       <c r="BN88" s="99"/>
-    </row>
-    <row r="89" spans="1:66" s="69" customFormat="1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A89" s="59" t="str">
-        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
-        <v>1.1</v>
-      </c>
-      <c r="B89" s="80" t="s">
-        <v>62</v>
-      </c>
-      <c r="C89" s="80"/>
-      <c r="D89" s="78"/>
-      <c r="E89" s="161"/>
-      <c r="F89" s="162" t="str">
-        <f t="shared" si="13"/>
-        <v xml:space="preserve"> - </v>
-      </c>
-      <c r="G89" s="61"/>
-      <c r="H89" s="62"/>
-      <c r="I89" s="79" t="str">
-        <f t="shared" ref="I89:I91" si="14">IF(OR(F89=0,E89=0)," - ",NETWORKDAYS(E89,F89))</f>
-        <v xml:space="preserve"> - </v>
-      </c>
-      <c r="J89" s="97"/>
-      <c r="K89" s="99"/>
-      <c r="L89" s="99"/>
-      <c r="M89" s="99"/>
-      <c r="N89" s="99"/>
-      <c r="O89" s="99"/>
-      <c r="P89" s="99"/>
-      <c r="Q89" s="99"/>
-      <c r="R89" s="99"/>
-      <c r="S89" s="99"/>
-      <c r="T89" s="99"/>
-      <c r="U89" s="99"/>
-      <c r="V89" s="99"/>
-      <c r="W89" s="99"/>
-      <c r="X89" s="99"/>
-      <c r="Y89" s="99"/>
-      <c r="Z89" s="99"/>
-      <c r="AA89" s="99"/>
-      <c r="AB89" s="99"/>
-      <c r="AC89" s="99"/>
-      <c r="AD89" s="99"/>
-      <c r="AE89" s="99"/>
-      <c r="AF89" s="99"/>
-      <c r="AG89" s="99"/>
-      <c r="AH89" s="99"/>
-      <c r="AI89" s="99"/>
-      <c r="AJ89" s="99"/>
-      <c r="AK89" s="99"/>
-      <c r="AL89" s="99"/>
-      <c r="AM89" s="99"/>
-      <c r="AN89" s="99"/>
-      <c r="AO89" s="99"/>
-      <c r="AP89" s="99"/>
-      <c r="AQ89" s="99"/>
-      <c r="AR89" s="99"/>
-      <c r="AS89" s="99"/>
-      <c r="AT89" s="99"/>
-      <c r="AU89" s="99"/>
-      <c r="AV89" s="99"/>
-      <c r="AW89" s="99"/>
-      <c r="AX89" s="99"/>
-      <c r="AY89" s="99"/>
-      <c r="AZ89" s="99"/>
-      <c r="BA89" s="99"/>
-      <c r="BB89" s="99"/>
-      <c r="BC89" s="99"/>
-      <c r="BD89" s="99"/>
-      <c r="BE89" s="99"/>
-      <c r="BF89" s="99"/>
-      <c r="BG89" s="99"/>
-      <c r="BH89" s="99"/>
-      <c r="BI89" s="99"/>
-      <c r="BJ89" s="99"/>
-      <c r="BK89" s="99"/>
-      <c r="BL89" s="99"/>
-      <c r="BM89" s="99"/>
-      <c r="BN89" s="99"/>
-    </row>
-    <row r="90" spans="1:66" s="69" customFormat="1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A90" s="59" t="str">
-        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",2))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",3))-FIND("`",SUBSTITUTE(prevWBS,".","`",2))-1)))+1)))</f>
-        <v>1.1.1</v>
-      </c>
-      <c r="B90" s="81" t="s">
-        <v>63</v>
-      </c>
-      <c r="C90" s="80"/>
-      <c r="D90" s="78"/>
-      <c r="E90" s="161"/>
-      <c r="F90" s="162" t="str">
-        <f t="shared" si="13"/>
-        <v xml:space="preserve"> - </v>
-      </c>
-      <c r="G90" s="61"/>
-      <c r="H90" s="62"/>
-      <c r="I90" s="79" t="str">
-        <f t="shared" si="14"/>
-        <v xml:space="preserve"> - </v>
-      </c>
-      <c r="J90" s="97"/>
-      <c r="K90" s="99"/>
-      <c r="L90" s="99"/>
-      <c r="M90" s="99"/>
-      <c r="N90" s="99"/>
-      <c r="O90" s="99"/>
-      <c r="P90" s="99"/>
-      <c r="Q90" s="99"/>
-      <c r="R90" s="99"/>
-      <c r="S90" s="99"/>
-      <c r="T90" s="99"/>
-      <c r="U90" s="99"/>
-      <c r="V90" s="99"/>
-      <c r="W90" s="99"/>
-      <c r="X90" s="99"/>
-      <c r="Y90" s="99"/>
-      <c r="Z90" s="99"/>
-      <c r="AA90" s="99"/>
-      <c r="AB90" s="99"/>
-      <c r="AC90" s="99"/>
-      <c r="AD90" s="99"/>
-      <c r="AE90" s="99"/>
-      <c r="AF90" s="99"/>
-      <c r="AG90" s="99"/>
-      <c r="AH90" s="99"/>
-      <c r="AI90" s="99"/>
-      <c r="AJ90" s="99"/>
-      <c r="AK90" s="99"/>
-      <c r="AL90" s="99"/>
-      <c r="AM90" s="99"/>
-      <c r="AN90" s="99"/>
-      <c r="AO90" s="99"/>
-      <c r="AP90" s="99"/>
-      <c r="AQ90" s="99"/>
-      <c r="AR90" s="99"/>
-      <c r="AS90" s="99"/>
-      <c r="AT90" s="99"/>
-      <c r="AU90" s="99"/>
-      <c r="AV90" s="99"/>
-      <c r="AW90" s="99"/>
-      <c r="AX90" s="99"/>
-      <c r="AY90" s="99"/>
-      <c r="AZ90" s="99"/>
-      <c r="BA90" s="99"/>
-      <c r="BB90" s="99"/>
-      <c r="BC90" s="99"/>
-      <c r="BD90" s="99"/>
-      <c r="BE90" s="99"/>
-      <c r="BF90" s="99"/>
-      <c r="BG90" s="99"/>
-      <c r="BH90" s="99"/>
-      <c r="BI90" s="99"/>
-      <c r="BJ90" s="99"/>
-      <c r="BK90" s="99"/>
-      <c r="BL90" s="99"/>
-      <c r="BM90" s="99"/>
-      <c r="BN90" s="99"/>
-    </row>
-    <row r="91" spans="1:66" s="69" customFormat="1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A91" s="59" t="str">
-        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",3)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",4))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",3))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",3))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",4))-FIND("`",SUBSTITUTE(prevWBS,".","`",3))-1)))+1)))</f>
-        <v>1.1.1.1</v>
-      </c>
-      <c r="B91" s="81" t="s">
-        <v>64</v>
-      </c>
-      <c r="C91" s="80"/>
-      <c r="D91" s="78"/>
-      <c r="E91" s="161"/>
-      <c r="F91" s="162" t="str">
-        <f t="shared" si="13"/>
-        <v xml:space="preserve"> - </v>
-      </c>
-      <c r="G91" s="61"/>
-      <c r="H91" s="62"/>
-      <c r="I91" s="79" t="str">
-        <f t="shared" si="14"/>
-        <v xml:space="preserve"> - </v>
-      </c>
-      <c r="J91" s="97"/>
-      <c r="K91" s="99"/>
-      <c r="L91" s="99"/>
-      <c r="M91" s="99"/>
-      <c r="N91" s="99"/>
-      <c r="O91" s="99"/>
-      <c r="P91" s="99"/>
-      <c r="Q91" s="99"/>
-      <c r="R91" s="99"/>
-      <c r="S91" s="99"/>
-      <c r="T91" s="99"/>
-      <c r="U91" s="99"/>
-      <c r="V91" s="99"/>
-      <c r="W91" s="99"/>
-      <c r="X91" s="99"/>
-      <c r="Y91" s="99"/>
-      <c r="Z91" s="99"/>
-      <c r="AA91" s="99"/>
-      <c r="AB91" s="99"/>
-      <c r="AC91" s="99"/>
-      <c r="AD91" s="99"/>
-      <c r="AE91" s="99"/>
-      <c r="AF91" s="99"/>
-      <c r="AG91" s="99"/>
-      <c r="AH91" s="99"/>
-      <c r="AI91" s="99"/>
-      <c r="AJ91" s="99"/>
-      <c r="AK91" s="99"/>
-      <c r="AL91" s="99"/>
-      <c r="AM91" s="99"/>
-      <c r="AN91" s="99"/>
-      <c r="AO91" s="99"/>
-      <c r="AP91" s="99"/>
-      <c r="AQ91" s="99"/>
-      <c r="AR91" s="99"/>
-      <c r="AS91" s="99"/>
-      <c r="AT91" s="99"/>
-      <c r="AU91" s="99"/>
-      <c r="AV91" s="99"/>
-      <c r="AW91" s="99"/>
-      <c r="AX91" s="99"/>
-      <c r="AY91" s="99"/>
-      <c r="AZ91" s="99"/>
-      <c r="BA91" s="99"/>
-      <c r="BB91" s="99"/>
-      <c r="BC91" s="99"/>
-      <c r="BD91" s="99"/>
-      <c r="BE91" s="99"/>
-      <c r="BF91" s="99"/>
-      <c r="BG91" s="99"/>
-      <c r="BH91" s="99"/>
-      <c r="BI91" s="99"/>
-      <c r="BJ91" s="99"/>
-      <c r="BK91" s="99"/>
-      <c r="BL91" s="99"/>
-      <c r="BM91" s="99"/>
-      <c r="BN91" s="99"/>
-    </row>
-    <row r="92" spans="1:66" s="32" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A92" s="151" t="str">
+      <c r="BO88" s="99"/>
+      <c r="BP88" s="99"/>
+      <c r="BQ88" s="99"/>
+      <c r="BR88" s="99"/>
+      <c r="BS88" s="99"/>
+      <c r="BT88" s="99"/>
+      <c r="BU88" s="99"/>
+      <c r="BV88" s="99"/>
+      <c r="BW88" s="99"/>
+      <c r="BX88" s="99"/>
+      <c r="BY88" s="99"/>
+      <c r="BZ88" s="99"/>
+      <c r="CA88" s="99"/>
+      <c r="CB88" s="99"/>
+    </row>
+    <row r="89" spans="1:80" s="32" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A89" s="151" t="str">
         <f>HYPERLINK("https://vertex42.link/HowToCreateAGanttChart","► Watch How to Create a Gantt Chart in Excel")</f>
         <v>► Watch How to Create a Gantt Chart in Excel</v>
       </c>
-      <c r="B92" s="30"/>
-      <c r="C92" s="30"/>
-      <c r="D92" s="31"/>
-      <c r="E92" s="167"/>
-      <c r="F92" s="167"/>
-      <c r="G92" s="30"/>
-      <c r="H92" s="30"/>
-      <c r="I92" s="30"/>
-      <c r="J92" s="30"/>
-      <c r="K92" s="30"/>
-      <c r="L92" s="30"/>
-      <c r="M92" s="30"/>
-      <c r="N92" s="30"/>
-      <c r="O92" s="30"/>
-      <c r="P92" s="30"/>
-      <c r="Q92" s="30"/>
-      <c r="R92" s="30"/>
-      <c r="S92" s="30"/>
-      <c r="T92" s="30"/>
-      <c r="U92" s="30"/>
-      <c r="V92" s="30"/>
-      <c r="W92" s="30"/>
-      <c r="X92" s="30"/>
-      <c r="Y92" s="30"/>
-      <c r="Z92" s="30"/>
-      <c r="AA92" s="30"/>
-      <c r="AB92" s="30"/>
-      <c r="AC92" s="30"/>
-      <c r="AD92" s="30"/>
-      <c r="AE92" s="30"/>
-      <c r="AF92" s="30"/>
-      <c r="AG92" s="30"/>
-      <c r="AH92" s="30"/>
-      <c r="AI92" s="30"/>
-      <c r="AJ92" s="30"/>
-      <c r="AK92" s="30"/>
-      <c r="AL92" s="30"/>
-      <c r="AM92" s="30"/>
-      <c r="AN92" s="30"/>
-      <c r="AO92" s="30"/>
-      <c r="AP92" s="30"/>
-      <c r="AQ92" s="30"/>
-      <c r="AR92" s="30"/>
-      <c r="AS92" s="30"/>
-      <c r="AT92" s="30"/>
-      <c r="AU92" s="30"/>
-      <c r="AV92" s="30"/>
-      <c r="AW92" s="30"/>
-      <c r="AX92" s="30"/>
-      <c r="AY92" s="30"/>
-      <c r="AZ92" s="30"/>
-      <c r="BA92" s="30"/>
-      <c r="BB92" s="30"/>
-      <c r="BC92" s="30"/>
-      <c r="BD92" s="30"/>
-      <c r="BE92" s="30"/>
-      <c r="BF92" s="30"/>
-      <c r="BG92" s="30"/>
-      <c r="BH92" s="30"/>
-      <c r="BI92" s="30"/>
-      <c r="BJ92" s="30"/>
-      <c r="BK92" s="30"/>
-      <c r="BL92" s="30"/>
-      <c r="BM92" s="30"/>
-      <c r="BN92" s="30"/>
+      <c r="B89" s="30"/>
+      <c r="C89" s="30"/>
+      <c r="D89" s="31"/>
+      <c r="E89" s="167"/>
+      <c r="F89" s="167"/>
+      <c r="G89" s="30"/>
+      <c r="H89" s="30"/>
+      <c r="I89" s="30"/>
+      <c r="J89" s="30"/>
+      <c r="K89" s="30"/>
+      <c r="L89" s="30"/>
+      <c r="M89" s="30"/>
+      <c r="N89" s="30"/>
+      <c r="O89" s="30"/>
+      <c r="P89" s="30"/>
+      <c r="Q89" s="30"/>
+      <c r="R89" s="30"/>
+      <c r="S89" s="30"/>
+      <c r="T89" s="30"/>
+      <c r="U89" s="30"/>
+      <c r="V89" s="30"/>
+      <c r="W89" s="30"/>
+      <c r="X89" s="30"/>
+      <c r="Y89" s="30"/>
+      <c r="Z89" s="30"/>
+      <c r="AA89" s="30"/>
+      <c r="AB89" s="30"/>
+      <c r="AC89" s="30"/>
+      <c r="AD89" s="30"/>
+      <c r="AE89" s="30"/>
+      <c r="AF89" s="30"/>
+      <c r="AG89" s="30"/>
+      <c r="AH89" s="30"/>
+      <c r="AI89" s="30"/>
+      <c r="AJ89" s="30"/>
+      <c r="AK89" s="30"/>
+      <c r="AL89" s="30"/>
+      <c r="AM89" s="30"/>
+      <c r="AN89" s="30"/>
+      <c r="AO89" s="30"/>
+      <c r="AP89" s="30"/>
+      <c r="AQ89" s="30"/>
+      <c r="AR89" s="30"/>
+      <c r="AS89" s="30"/>
+      <c r="AT89" s="30"/>
+      <c r="AU89" s="30"/>
+      <c r="AV89" s="30"/>
+      <c r="AW89" s="30"/>
+      <c r="AX89" s="30"/>
+      <c r="AY89" s="30"/>
+      <c r="AZ89" s="30"/>
+      <c r="BA89" s="30"/>
+      <c r="BB89" s="30"/>
+      <c r="BC89" s="30"/>
+      <c r="BD89" s="30"/>
+      <c r="BE89" s="30"/>
+      <c r="BF89" s="30"/>
+      <c r="BG89" s="30"/>
+      <c r="BH89" s="30"/>
+      <c r="BI89" s="30"/>
+      <c r="BJ89" s="30"/>
+      <c r="BK89" s="30"/>
+      <c r="BL89" s="30"/>
+      <c r="BM89" s="30"/>
+      <c r="BN89" s="30"/>
+      <c r="BO89" s="30"/>
+      <c r="BP89" s="30"/>
+      <c r="BQ89" s="30"/>
+      <c r="BR89" s="30"/>
+      <c r="BS89" s="30"/>
+      <c r="BT89" s="30"/>
+      <c r="BU89" s="30"/>
+      <c r="BV89" s="30"/>
+      <c r="BW89" s="30"/>
+      <c r="BX89" s="30"/>
+      <c r="BY89" s="30"/>
+      <c r="BZ89" s="30"/>
+      <c r="CA89" s="30"/>
+      <c r="CB89" s="30"/>
     </row>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertRows="0" deleteRows="0"/>
-  <mergeCells count="19">
+  <mergeCells count="23">
+    <mergeCell ref="BO4:BU4"/>
+    <mergeCell ref="BV4:CB4"/>
+    <mergeCell ref="BO5:BU5"/>
+    <mergeCell ref="BV5:CB5"/>
+    <mergeCell ref="K1:AE1"/>
+    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="R4:X4"/>
+    <mergeCell ref="K4:Q4"/>
+    <mergeCell ref="C4:E4"/>
+    <mergeCell ref="R5:X5"/>
+    <mergeCell ref="K5:Q5"/>
+    <mergeCell ref="Y4:AE4"/>
+    <mergeCell ref="Y5:AE5"/>
     <mergeCell ref="AF4:AL4"/>
     <mergeCell ref="AF5:AL5"/>
     <mergeCell ref="BH4:BN4"/>
@@ -11946,19 +13044,10 @@
     <mergeCell ref="AM4:AS4"/>
     <mergeCell ref="BA4:BG4"/>
     <mergeCell ref="BA5:BG5"/>
-    <mergeCell ref="K1:AE1"/>
-    <mergeCell ref="C5:E5"/>
-    <mergeCell ref="R4:X4"/>
-    <mergeCell ref="K4:Q4"/>
-    <mergeCell ref="C4:E4"/>
-    <mergeCell ref="R5:X5"/>
-    <mergeCell ref="K5:Q5"/>
-    <mergeCell ref="Y4:AE4"/>
-    <mergeCell ref="Y5:AE5"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
-  <conditionalFormatting sqref="H82:H91 H75:H76 H72 H8:H70">
-    <cfRule type="dataBar" priority="9">
+  <conditionalFormatting sqref="H8:H71 H73 H75:H88">
+    <cfRule type="dataBar" priority="19">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -11972,58 +13061,25 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K6:BN7">
-    <cfRule type="expression" dxfId="4" priority="52">
+    <cfRule type="expression" dxfId="7" priority="62">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K8:BN91">
-    <cfRule type="expression" dxfId="3" priority="55">
+  <conditionalFormatting sqref="K8:CB88">
+    <cfRule type="expression" dxfId="6" priority="65">
       <formula>AND($E8&lt;=K$6,ROUNDDOWN(($F8-$E8+1)*$H8,0)+$E8-1&gt;=K$6)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="2" priority="56">
+    <cfRule type="expression" dxfId="5" priority="66">
       <formula>AND(NOT(ISBLANK($E8)),$E8&lt;=K$6,$F8&gt;=K$6)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K82:BN91 K6:BN76">
-    <cfRule type="expression" dxfId="1" priority="15">
-      <formula>K$6=TODAY()</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H77:H81">
-    <cfRule type="dataBar" priority="4">
-      <dataBar>
-        <cfvo type="num" val="0"/>
-        <cfvo type="num" val="1"/>
-        <color theme="0" tint="-0.34998626667073579"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{81583CEC-7F5F-4E46-98E4-AC29FDBC59D0}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K77:BN81">
-    <cfRule type="expression" dxfId="0" priority="5">
+  <conditionalFormatting sqref="K79:BN88 K6:BN74 K75:CB78">
+    <cfRule type="expression" dxfId="4" priority="25">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H74">
-    <cfRule type="dataBar" priority="3">
-      <dataBar>
-        <cfvo type="num" val="0"/>
-        <cfvo type="num" val="1"/>
-        <color theme="0" tint="-0.34998626667073579"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{392BF783-6F84-4AE1-9909-0D933F104F59}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H73">
-    <cfRule type="dataBar" priority="2">
+    <cfRule type="dataBar" priority="12">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -12036,8 +13092,8 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H71">
-    <cfRule type="dataBar" priority="1">
+  <conditionalFormatting sqref="H72">
+    <cfRule type="dataBar" priority="11">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -12050,6 +13106,26 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="BO6:BU7">
+    <cfRule type="expression" dxfId="3" priority="8">
+      <formula>BO$6=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="BO79:BU88 BO6:BU74">
+    <cfRule type="expression" dxfId="2" priority="7">
+      <formula>BO$6=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="BV6:CB7">
+    <cfRule type="expression" dxfId="1" priority="3">
+      <formula>BV$6=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="BV79:CB88 BV6:CB74">
+    <cfRule type="expression" dxfId="0" priority="2">
+      <formula>BV$6=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
   <dataValidations count="1">
     <dataValidation allowBlank="1" showInputMessage="1" promptTitle="Display Week" prompt="Enter the week number to display first in the Gantt Chart. The weeks are numbered starting from the week containing the Project Start Date." sqref="H4" xr:uid="{00000000-0002-0000-0000-000000000000}"/>
   </dataValidations>
@@ -12060,8 +13136,8 @@
   <pageSetup scale="63" fitToHeight="0" orientation="landscape" r:id="rId2"/>
   <headerFooter alignWithMargins="0"/>
   <ignoredErrors>
-    <ignoredError sqref="H9 A85:B85 A87:B87 B86 E26 E60 E72 E85:H87 G26:H26 G60:H60 G72:H72 G88:G91 H61 H75 H76" unlockedFormula="1"/>
-    <ignoredError sqref="A72 A60 A26" formula="1"/>
+    <ignoredError sqref="H9 A82:B82 A84:B84 B83 E26 E61 E73 E82:H84 G26:H26 G61:H61 G73:H73 G85:G88" unlockedFormula="1"/>
+    <ignoredError sqref="A73 A61 A26" formula="1"/>
   </ignoredErrors>
   <drawing r:id="rId3"/>
   <legacyDrawing r:id="rId4"/>
@@ -12109,25 +13185,10 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>H82:H91 H75:H76 H72 H8:H70</xm:sqref>
+          <xm:sqref>H8:H71 H73 H75:H88</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{81583CEC-7F5F-4E46-98E4-AC29FDBC59D0}">
-            <x14:dataBar minLength="0" maxLength="100" gradient="0">
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>H77:H81</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{392BF783-6F84-4AE1-9909-0D933F104F59}">
+          <x14:cfRule type="dataBar" id="{7442C97C-5EBD-4EE1-AFFB-9CBCA499BBD1}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -12142,21 +13203,6 @@
           <xm:sqref>H74</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{7442C97C-5EBD-4EE1-AFFB-9CBCA499BBD1}">
-            <x14:dataBar minLength="0" maxLength="100" gradient="0">
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>H73</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{BA2479A8-BE3B-41E0-8189-3FE18FB10AE6}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="num">
@@ -12169,7 +13215,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>H71</xm:sqref>
+          <xm:sqref>H72</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>

--- a/gantt-chart_L version 2.xlsx
+++ b/gantt-chart_L version 2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\HTCS5607\HTCS5607\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6C5A435-D0A7-4305-9DC7-DBB9968BC083}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1929753-7FA3-4494-BA95-0AFEDA6194E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4072,8 +4072,8 @@
   <dimension ref="A1:CB89"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="7" topLeftCell="A59" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="BW77" sqref="BW77"/>
+      <pane ySplit="7" topLeftCell="A60" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" sqref="A1:CB78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -11415,7 +11415,10 @@
       <c r="H72" s="62">
         <v>1</v>
       </c>
-      <c r="I72" s="174"/>
+      <c r="I72" s="63">
+        <f t="shared" si="18"/>
+        <v>1</v>
+      </c>
       <c r="J72" s="175"/>
       <c r="K72" s="99"/>
       <c r="L72" s="99"/>
@@ -11696,7 +11699,7 @@
       <c r="G75" s="56"/>
       <c r="H75" s="57"/>
       <c r="I75" s="58" t="str">
-        <f t="shared" ref="I75:I76" si="25">IF(OR(F75=0,E75=0)," - ",NETWORKDAYS(E75,F75))</f>
+        <f t="shared" ref="I75:I78" si="25">IF(OR(F75=0,E75=0)," - ",NETWORKDAYS(E75,F75))</f>
         <v xml:space="preserve"> - </v>
       </c>
       <c r="J75" s="94"/>
@@ -11794,7 +11797,7 @@
         <v>2</v>
       </c>
       <c r="H76" s="62">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I76" s="63">
         <f t="shared" si="25"/>
@@ -11893,8 +11896,13 @@
       <c r="G77" s="172">
         <v>2</v>
       </c>
-      <c r="H77" s="173"/>
-      <c r="I77" s="174"/>
+      <c r="H77" s="173">
+        <v>1</v>
+      </c>
+      <c r="I77" s="63">
+        <f t="shared" si="25"/>
+        <v>2</v>
+      </c>
       <c r="J77" s="175"/>
       <c r="K77" s="99"/>
       <c r="L77" s="99"/>
@@ -11988,8 +11996,13 @@
       <c r="G78" s="172">
         <v>2</v>
       </c>
-      <c r="H78" s="173"/>
-      <c r="I78" s="174"/>
+      <c r="H78" s="173">
+        <v>1</v>
+      </c>
+      <c r="I78" s="63">
+        <f t="shared" si="25"/>
+        <v>2</v>
+      </c>
       <c r="J78" s="175"/>
       <c r="K78" s="99"/>
       <c r="L78" s="99"/>
@@ -13021,17 +13034,18 @@
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertRows="0" deleteRows="0"/>
   <mergeCells count="23">
-    <mergeCell ref="BO4:BU4"/>
-    <mergeCell ref="BV4:CB4"/>
-    <mergeCell ref="BO5:BU5"/>
-    <mergeCell ref="BV5:CB5"/>
-    <mergeCell ref="K1:AE1"/>
+    <mergeCell ref="BA5:BG5"/>
     <mergeCell ref="C5:E5"/>
     <mergeCell ref="R4:X4"/>
     <mergeCell ref="K4:Q4"/>
     <mergeCell ref="C4:E4"/>
     <mergeCell ref="R5:X5"/>
     <mergeCell ref="K5:Q5"/>
+    <mergeCell ref="BO4:BU4"/>
+    <mergeCell ref="BV4:CB4"/>
+    <mergeCell ref="BO5:BU5"/>
+    <mergeCell ref="BV5:CB5"/>
+    <mergeCell ref="K1:AE1"/>
     <mergeCell ref="Y4:AE4"/>
     <mergeCell ref="Y5:AE5"/>
     <mergeCell ref="AF4:AL4"/>
@@ -13043,7 +13057,6 @@
     <mergeCell ref="AT5:AZ5"/>
     <mergeCell ref="AM4:AS4"/>
     <mergeCell ref="BA4:BG4"/>
-    <mergeCell ref="BA5:BG5"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="H8:H71 H73 H75:H88">
